--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5850</v>
+        <v>5090</v>
       </c>
       <c r="B2" s="2">
-        <v>45687</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5810</v>
+        <v>5060</v>
       </c>
       <c r="B3" s="2">
-        <v>45687.01041666666</v>
+        <v>45733.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5780</v>
+        <v>5030</v>
       </c>
       <c r="B4" s="2">
-        <v>45687.02083333334</v>
+        <v>45733.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5760</v>
+        <v>5010</v>
       </c>
       <c r="B5" s="2">
-        <v>45687.03125</v>
+        <v>45733.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5740</v>
+        <v>5000</v>
       </c>
       <c r="B6" s="2">
-        <v>45687.04166666666</v>
+        <v>45733.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5720</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="2">
-        <v>45687.05208333334</v>
+        <v>45733.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5710</v>
+        <v>5000</v>
       </c>
       <c r="B8" s="2">
-        <v>45687.0625</v>
+        <v>45733.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="B9" s="2">
-        <v>45687.07291666666</v>
+        <v>45733.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5690</v>
+        <v>5000</v>
       </c>
       <c r="B10" s="2">
-        <v>45687.08333333334</v>
+        <v>45733.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5680</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="2">
-        <v>45687.09375</v>
+        <v>45733.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5680</v>
+        <v>5000</v>
       </c>
       <c r="B12" s="2">
-        <v>45687.10416666666</v>
+        <v>45733.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5690</v>
+        <v>5010</v>
       </c>
       <c r="B13" s="2">
-        <v>45687.11458333334</v>
+        <v>45733.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5700</v>
+        <v>5040</v>
       </c>
       <c r="B14" s="2">
-        <v>45687.125</v>
+        <v>45733.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5720</v>
+        <v>5070</v>
       </c>
       <c r="B15" s="2">
-        <v>45687.13541666666</v>
+        <v>45733.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5740</v>
+        <v>5120</v>
       </c>
       <c r="B16" s="2">
-        <v>45687.14583333334</v>
+        <v>45733.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5770</v>
+        <v>5180</v>
       </c>
       <c r="B17" s="2">
-        <v>45687.15625</v>
+        <v>45733.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5830</v>
+        <v>5240</v>
       </c>
       <c r="B18" s="2">
-        <v>45687.16666666666</v>
+        <v>45733.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5910</v>
+        <v>5350</v>
       </c>
       <c r="B19" s="2">
-        <v>45687.17708333334</v>
+        <v>45733.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6020</v>
+        <v>5480</v>
       </c>
       <c r="B20" s="2">
-        <v>45687.1875</v>
+        <v>45733.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6160</v>
+        <v>5650</v>
       </c>
       <c r="B21" s="2">
-        <v>45687.19791666666</v>
+        <v>45733.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6330</v>
+        <v>5850</v>
       </c>
       <c r="B22" s="2">
-        <v>45687.20833333334</v>
+        <v>45733.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6490</v>
+        <v>6030</v>
       </c>
       <c r="B23" s="2">
-        <v>45687.21875</v>
+        <v>45733.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6660</v>
+        <v>6230</v>
       </c>
       <c r="B24" s="2">
-        <v>45687.22916666666</v>
+        <v>45733.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6850</v>
+        <v>6410</v>
       </c>
       <c r="B25" s="2">
-        <v>45687.23958333334</v>
+        <v>45733.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7060</v>
+        <v>6610</v>
       </c>
       <c r="B26" s="2">
-        <v>45687.25</v>
+        <v>45733.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7280</v>
+        <v>6780</v>
       </c>
       <c r="B27" s="2">
-        <v>45687.26041666666</v>
+        <v>45733.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7440</v>
+        <v>6930</v>
       </c>
       <c r="B28" s="2">
-        <v>45687.27083333334</v>
+        <v>45733.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7550</v>
+        <v>7070</v>
       </c>
       <c r="B29" s="2">
-        <v>45687.28125</v>
+        <v>45733.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7620</v>
+        <v>7210</v>
       </c>
       <c r="B30" s="2">
-        <v>45687.29166666666</v>
+        <v>45733.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7650</v>
+        <v>7300</v>
       </c>
       <c r="B31" s="2">
-        <v>45687.30208333334</v>
+        <v>45733.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7670</v>
+        <v>7370</v>
       </c>
       <c r="B32" s="2">
-        <v>45687.3125</v>
+        <v>45733.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7660</v>
+        <v>7400</v>
       </c>
       <c r="B33" s="2">
-        <v>45687.32291666666</v>
+        <v>45733.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7630</v>
+        <v>7440</v>
       </c>
       <c r="B34" s="2">
-        <v>45687.33333333334</v>
+        <v>45733.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7590</v>
+        <v>7440</v>
       </c>
       <c r="B35" s="2">
-        <v>45687.34375</v>
+        <v>45733.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7530</v>
+        <v>7430</v>
       </c>
       <c r="B36" s="2">
-        <v>45687.35416666666</v>
+        <v>45733.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7450</v>
+        <v>7400</v>
       </c>
       <c r="B37" s="2">
-        <v>45687.36458333334</v>
+        <v>45733.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7360</v>
+        <v>7350</v>
       </c>
       <c r="B38" s="2">
-        <v>45687.375</v>
+        <v>45733.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7270</v>
+        <v>7310</v>
       </c>
       <c r="B39" s="2">
-        <v>45687.38541666666</v>
+        <v>45733.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7170</v>
+        <v>7260</v>
       </c>
       <c r="B40" s="2">
-        <v>45687.39583333334</v>
+        <v>45733.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7080</v>
+        <v>7200</v>
       </c>
       <c r="B41" s="2">
-        <v>45687.40625</v>
+        <v>45733.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6970</v>
+        <v>7150</v>
       </c>
       <c r="B42" s="2">
-        <v>45687.41666666666</v>
+        <v>45733.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6890</v>
+        <v>7130</v>
       </c>
       <c r="B43" s="2">
-        <v>45687.42708333334</v>
+        <v>45733.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6820</v>
+        <v>7110</v>
       </c>
       <c r="B44" s="2">
-        <v>45687.4375</v>
+        <v>45733.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6740</v>
+        <v>7080</v>
       </c>
       <c r="B45" s="2">
-        <v>45687.44791666666</v>
+        <v>45733.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6670</v>
+        <v>7050</v>
       </c>
       <c r="B46" s="2">
-        <v>45687.45833333334</v>
+        <v>45733.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6630</v>
+        <v>7030</v>
       </c>
       <c r="B47" s="2">
-        <v>45687.46875</v>
+        <v>45733.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6610</v>
+        <v>7020</v>
       </c>
       <c r="B48" s="2">
-        <v>45687.47916666666</v>
+        <v>45733.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="B49" s="2">
-        <v>45687.48958333334</v>
+        <v>45733.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6600</v>
+        <v>7020</v>
       </c>
       <c r="B50" s="2">
-        <v>45687.5</v>
+        <v>45733.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6600</v>
+        <v>7020</v>
       </c>
       <c r="B51" s="2">
-        <v>45687.51041666666</v>
+        <v>45733.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6600</v>
+        <v>7020</v>
       </c>
       <c r="B52" s="2">
-        <v>45687.52083333334</v>
+        <v>45733.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6610</v>
+        <v>7020</v>
       </c>
       <c r="B53" s="2">
-        <v>45687.53125</v>
+        <v>45733.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6620</v>
+        <v>7020</v>
       </c>
       <c r="B54" s="2">
-        <v>45687.54166666666</v>
+        <v>45733.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6640</v>
+        <v>7020</v>
       </c>
       <c r="B55" s="2">
-        <v>45687.55208333334</v>
+        <v>45733.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6660</v>
+        <v>7020</v>
       </c>
       <c r="B56" s="2">
-        <v>45687.5625</v>
+        <v>45733.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6680</v>
+        <v>7020</v>
       </c>
       <c r="B57" s="2">
-        <v>45687.57291666666</v>
+        <v>45733.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6720</v>
+        <v>7030</v>
       </c>
       <c r="B58" s="2">
-        <v>45687.58333333334</v>
+        <v>45733.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6770</v>
+        <v>7030</v>
       </c>
       <c r="B59" s="2">
-        <v>45687.59375</v>
+        <v>45733.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6820</v>
+        <v>7030</v>
       </c>
       <c r="B60" s="2">
-        <v>45687.60416666666</v>
+        <v>45733.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6900</v>
+        <v>7030</v>
       </c>
       <c r="B61" s="2">
-        <v>45687.61458333334</v>
+        <v>45733.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6990</v>
+        <v>7050</v>
       </c>
       <c r="B62" s="2">
-        <v>45687.625</v>
+        <v>45733.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>7090</v>
+        <v>7070</v>
       </c>
       <c r="B63" s="2">
-        <v>45687.63541666666</v>
+        <v>45733.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7210</v>
+        <v>7110</v>
       </c>
       <c r="B64" s="2">
-        <v>45687.64583333334</v>
+        <v>45733.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7330</v>
+        <v>7170</v>
       </c>
       <c r="B65" s="2">
-        <v>45687.65625</v>
+        <v>45733.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7450</v>
+        <v>7220</v>
       </c>
       <c r="B66" s="2">
-        <v>45687.66666666666</v>
+        <v>45733.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7560</v>
+        <v>7290</v>
       </c>
       <c r="B67" s="2">
-        <v>45687.67708333334</v>
+        <v>45733.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7650</v>
+        <v>7360</v>
       </c>
       <c r="B68" s="2">
-        <v>45687.6875</v>
+        <v>45733.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7740</v>
+        <v>7430</v>
       </c>
       <c r="B69" s="2">
-        <v>45687.69791666666</v>
+        <v>45733.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7820</v>
+        <v>7520</v>
       </c>
       <c r="B70" s="2">
-        <v>45687.70833333334</v>
+        <v>45733.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7870</v>
+        <v>7620</v>
       </c>
       <c r="B71" s="2">
-        <v>45687.71875</v>
+        <v>45733.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7890</v>
+        <v>7700</v>
       </c>
       <c r="B72" s="2">
-        <v>45687.72916666666</v>
+        <v>45733.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="B73" s="2">
-        <v>45687.73958333334</v>
+        <v>45733.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7890</v>
+        <v>7930</v>
       </c>
       <c r="B74" s="2">
-        <v>45687.75</v>
+        <v>45733.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7860</v>
+        <v>8010</v>
       </c>
       <c r="B75" s="2">
-        <v>45687.76041666666</v>
+        <v>45733.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7820</v>
+        <v>8060</v>
       </c>
       <c r="B76" s="2">
-        <v>45687.77083333334</v>
+        <v>45733.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7770</v>
+        <v>8050</v>
       </c>
       <c r="B77" s="2">
-        <v>45687.78125</v>
+        <v>45733.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7730</v>
+        <v>8010</v>
       </c>
       <c r="B78" s="2">
-        <v>45687.79166666666</v>
+        <v>45733.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7680</v>
+        <v>7950</v>
       </c>
       <c r="B79" s="2">
-        <v>45687.80208333334</v>
+        <v>45733.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7620</v>
+        <v>7870</v>
       </c>
       <c r="B80" s="2">
-        <v>45687.8125</v>
+        <v>45733.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7550</v>
+        <v>7790</v>
       </c>
       <c r="B81" s="2">
-        <v>45687.82291666666</v>
+        <v>45733.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7460</v>
+        <v>7670</v>
       </c>
       <c r="B82" s="2">
-        <v>45687.83333333334</v>
+        <v>45733.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7350</v>
+        <v>7530</v>
       </c>
       <c r="B83" s="2">
-        <v>45687.84375</v>
+        <v>45733.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7240</v>
+        <v>7420</v>
       </c>
       <c r="B84" s="2">
-        <v>45687.85416666666</v>
+        <v>45733.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7110</v>
+        <v>7290</v>
       </c>
       <c r="B85" s="2">
-        <v>45687.86458333334</v>
+        <v>45733.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6940</v>
+        <v>7100</v>
       </c>
       <c r="B86" s="2">
-        <v>45687.875</v>
+        <v>45733.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6800</v>
+        <v>6960</v>
       </c>
       <c r="B87" s="2">
-        <v>45687.88541666666</v>
+        <v>45733.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6640</v>
+        <v>6810</v>
       </c>
       <c r="B88" s="2">
-        <v>45687.89583333334</v>
+        <v>45733.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6510</v>
+        <v>6660</v>
       </c>
       <c r="B89" s="2">
-        <v>45687.90625</v>
+        <v>45733.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6380</v>
+        <v>6510</v>
       </c>
       <c r="B90" s="2">
-        <v>45687.91666666666</v>
+        <v>45733.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6270</v>
+        <v>6370</v>
       </c>
       <c r="B91" s="2">
-        <v>45687.92708333334</v>
+        <v>45733.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6170</v>
+        <v>6260</v>
       </c>
       <c r="B92" s="2">
-        <v>45687.9375</v>
+        <v>45733.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6060</v>
+        <v>6150</v>
       </c>
       <c r="B93" s="2">
-        <v>45687.94791666666</v>
+        <v>45733.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="B94" s="2">
-        <v>45687.95833333334</v>
+        <v>45733.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5960</v>
+        <v>6040</v>
       </c>
       <c r="B95" s="2">
-        <v>45687.96875</v>
+        <v>45733.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5900</v>
+        <v>5990</v>
       </c>
       <c r="B96" s="2">
-        <v>45687.97916666666</v>
+        <v>45733.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5850</v>
+        <v>5930</v>
       </c>
       <c r="B97" s="2">
-        <v>45687.98958333334</v>
+        <v>45733.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,274 +397,274 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5090</v>
+        <v>5660</v>
       </c>
       <c r="B2" s="2">
-        <v>45733</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5060</v>
+        <v>5620</v>
       </c>
       <c r="B3" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5030</v>
+        <v>5580</v>
       </c>
       <c r="B4" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5010</v>
+        <v>5540</v>
       </c>
       <c r="B5" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5000</v>
+        <v>5520</v>
       </c>
       <c r="B6" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5000</v>
+        <v>5510</v>
       </c>
       <c r="B7" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="B8" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5000</v>
+        <v>5490</v>
       </c>
       <c r="B9" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="B10" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5000</v>
+        <v>5510</v>
       </c>
       <c r="B11" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5000</v>
+        <v>5520</v>
       </c>
       <c r="B12" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5010</v>
+        <v>5540</v>
       </c>
       <c r="B13" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5040</v>
+        <v>5560</v>
       </c>
       <c r="B14" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5070</v>
+        <v>5590</v>
       </c>
       <c r="B15" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5120</v>
+        <v>5620</v>
       </c>
       <c r="B16" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5180</v>
+        <v>5660</v>
       </c>
       <c r="B17" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5240</v>
+        <v>5720</v>
       </c>
       <c r="B18" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5350</v>
+        <v>5790</v>
       </c>
       <c r="B19" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5480</v>
+        <v>5880</v>
       </c>
       <c r="B20" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5650</v>
+        <v>6000</v>
       </c>
       <c r="B21" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5850</v>
+        <v>6140</v>
       </c>
       <c r="B22" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6030</v>
+        <v>6290</v>
       </c>
       <c r="B23" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6230</v>
+        <v>6460</v>
       </c>
       <c r="B24" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6410</v>
+        <v>6640</v>
       </c>
       <c r="B25" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6610</v>
+        <v>6820</v>
       </c>
       <c r="B26" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6780</v>
+        <v>7000</v>
       </c>
       <c r="B27" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6930</v>
+        <v>7160</v>
       </c>
       <c r="B28" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7070</v>
+        <v>7300</v>
       </c>
       <c r="B29" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7210</v>
+        <v>7410</v>
       </c>
       <c r="B30" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7300</v>
+        <v>7490</v>
       </c>
       <c r="B31" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7370</v>
+        <v>7540</v>
       </c>
       <c r="B32" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7400</v>
+        <v>7560</v>
       </c>
       <c r="B33" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7440</v>
+        <v>7540</v>
       </c>
       <c r="B34" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7440</v>
+        <v>7500</v>
       </c>
       <c r="B35" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -672,255 +672,255 @@
         <v>7430</v>
       </c>
       <c r="B36" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7400</v>
+        <v>7340</v>
       </c>
       <c r="B37" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7350</v>
+        <v>7240</v>
       </c>
       <c r="B38" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7310</v>
+        <v>7130</v>
       </c>
       <c r="B39" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7260</v>
+        <v>7020</v>
       </c>
       <c r="B40" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7200</v>
+        <v>6920</v>
       </c>
       <c r="B41" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7150</v>
+        <v>6820</v>
       </c>
       <c r="B42" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7130</v>
+        <v>6730</v>
       </c>
       <c r="B43" s="2">
-        <v>45733.42708333334</v>
+        <v>45734.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7110</v>
+        <v>6640</v>
       </c>
       <c r="B44" s="2">
-        <v>45733.4375</v>
+        <v>45734.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7080</v>
+        <v>6570</v>
       </c>
       <c r="B45" s="2">
-        <v>45733.44791666666</v>
+        <v>45734.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7050</v>
+        <v>6500</v>
       </c>
       <c r="B46" s="2">
-        <v>45733.45833333334</v>
+        <v>45734.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>7030</v>
+        <v>6440</v>
       </c>
       <c r="B47" s="2">
-        <v>45733.46875</v>
+        <v>45734.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>7020</v>
+        <v>6390</v>
       </c>
       <c r="B48" s="2">
-        <v>45733.47916666666</v>
+        <v>45734.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7000</v>
+        <v>6360</v>
       </c>
       <c r="B49" s="2">
-        <v>45733.48958333334</v>
+        <v>45734.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>7020</v>
+        <v>6330</v>
       </c>
       <c r="B50" s="2">
-        <v>45733.5</v>
+        <v>45734.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7020</v>
+        <v>6310</v>
       </c>
       <c r="B51" s="2">
-        <v>45733.51041666666</v>
+        <v>45734.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>7020</v>
+        <v>6300</v>
       </c>
       <c r="B52" s="2">
-        <v>45733.52083333334</v>
+        <v>45734.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7020</v>
+        <v>6310</v>
       </c>
       <c r="B53" s="2">
-        <v>45733.53125</v>
+        <v>45734.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7020</v>
+        <v>6320</v>
       </c>
       <c r="B54" s="2">
-        <v>45733.54166666666</v>
+        <v>45734.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7020</v>
+        <v>6340</v>
       </c>
       <c r="B55" s="2">
-        <v>45733.55208333334</v>
+        <v>45734.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7020</v>
+        <v>6370</v>
       </c>
       <c r="B56" s="2">
-        <v>45733.5625</v>
+        <v>45734.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7020</v>
+        <v>6410</v>
       </c>
       <c r="B57" s="2">
-        <v>45733.57291666666</v>
+        <v>45734.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7030</v>
+        <v>6450</v>
       </c>
       <c r="B58" s="2">
-        <v>45733.58333333334</v>
+        <v>45734.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7030</v>
+        <v>6500</v>
       </c>
       <c r="B59" s="2">
-        <v>45733.59375</v>
+        <v>45734.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>7030</v>
+        <v>6560</v>
       </c>
       <c r="B60" s="2">
-        <v>45733.60416666666</v>
+        <v>45734.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>7030</v>
+        <v>6630</v>
       </c>
       <c r="B61" s="2">
-        <v>45733.61458333334</v>
+        <v>45734.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>7050</v>
+        <v>6710</v>
       </c>
       <c r="B62" s="2">
-        <v>45733.625</v>
+        <v>45734.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>7070</v>
+        <v>6810</v>
       </c>
       <c r="B63" s="2">
-        <v>45733.63541666666</v>
+        <v>45734.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7110</v>
+        <v>6910</v>
       </c>
       <c r="B64" s="2">
-        <v>45733.64583333334</v>
+        <v>45734.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7170</v>
+        <v>7020</v>
       </c>
       <c r="B65" s="2">
-        <v>45733.65625</v>
+        <v>45734.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7220</v>
+        <v>7140</v>
       </c>
       <c r="B66" s="2">
-        <v>45733.66666666666</v>
+        <v>45734.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7290</v>
+        <v>7250</v>
       </c>
       <c r="B67" s="2">
-        <v>45733.67708333334</v>
+        <v>45734.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -928,111 +928,111 @@
         <v>7360</v>
       </c>
       <c r="B68" s="2">
-        <v>45733.6875</v>
+        <v>45734.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7430</v>
+        <v>7470</v>
       </c>
       <c r="B69" s="2">
-        <v>45733.69791666666</v>
+        <v>45734.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7520</v>
+        <v>7570</v>
       </c>
       <c r="B70" s="2">
-        <v>45733.70833333334</v>
+        <v>45734.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7620</v>
+        <v>7680</v>
       </c>
       <c r="B71" s="2">
-        <v>45733.71875</v>
+        <v>45734.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7700</v>
+        <v>7780</v>
       </c>
       <c r="B72" s="2">
-        <v>45733.72916666666</v>
+        <v>45734.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7800</v>
+        <v>7880</v>
       </c>
       <c r="B73" s="2">
-        <v>45733.73958333334</v>
+        <v>45734.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7930</v>
+        <v>7970</v>
       </c>
       <c r="B74" s="2">
-        <v>45733.75</v>
+        <v>45734.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>8010</v>
+        <v>8040</v>
       </c>
       <c r="B75" s="2">
-        <v>45733.76041666666</v>
+        <v>45734.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>8060</v>
+        <v>8070</v>
       </c>
       <c r="B76" s="2">
-        <v>45733.77083333334</v>
+        <v>45734.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>8050</v>
+        <v>8060</v>
       </c>
       <c r="B77" s="2">
-        <v>45733.78125</v>
+        <v>45734.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>8010</v>
+        <v>8030</v>
       </c>
       <c r="B78" s="2">
-        <v>45733.79166666666</v>
+        <v>45734.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7950</v>
+        <v>7980</v>
       </c>
       <c r="B79" s="2">
-        <v>45733.80208333334</v>
+        <v>45734.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7870</v>
+        <v>7910</v>
       </c>
       <c r="B80" s="2">
-        <v>45733.8125</v>
+        <v>45734.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7790</v>
+        <v>7800</v>
       </c>
       <c r="B81" s="2">
-        <v>45733.82291666666</v>
+        <v>45734.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1040,15 +1040,15 @@
         <v>7670</v>
       </c>
       <c r="B82" s="2">
-        <v>45733.83333333334</v>
+        <v>45734.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7530</v>
+        <v>7550</v>
       </c>
       <c r="B83" s="2">
-        <v>45733.84375</v>
+        <v>45734.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1056,111 +1056,111 @@
         <v>7420</v>
       </c>
       <c r="B84" s="2">
-        <v>45733.85416666666</v>
+        <v>45734.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7290</v>
+        <v>7300</v>
       </c>
       <c r="B85" s="2">
-        <v>45733.86458333334</v>
+        <v>45734.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7100</v>
+        <v>7170</v>
       </c>
       <c r="B86" s="2">
-        <v>45733.875</v>
+        <v>45734.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6960</v>
+        <v>7030</v>
       </c>
       <c r="B87" s="2">
-        <v>45733.88541666666</v>
+        <v>45734.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6810</v>
+        <v>6900</v>
       </c>
       <c r="B88" s="2">
-        <v>45733.89583333334</v>
+        <v>45734.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6660</v>
+        <v>6750</v>
       </c>
       <c r="B89" s="2">
-        <v>45733.90625</v>
+        <v>45734.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6510</v>
+        <v>6620</v>
       </c>
       <c r="B90" s="2">
-        <v>45733.91666666666</v>
+        <v>45734.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6370</v>
+        <v>6480</v>
       </c>
       <c r="B91" s="2">
-        <v>45733.92708333334</v>
+        <v>45734.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6260</v>
+        <v>6340</v>
       </c>
       <c r="B92" s="2">
-        <v>45733.9375</v>
+        <v>45734.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6150</v>
+        <v>6220</v>
       </c>
       <c r="B93" s="2">
-        <v>45733.94791666666</v>
+        <v>45734.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6100</v>
+        <v>6020</v>
       </c>
       <c r="B94" s="2">
-        <v>45733.95833333334</v>
+        <v>45734.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>6040</v>
+        <v>5950</v>
       </c>
       <c r="B95" s="2">
-        <v>45733.96875</v>
+        <v>45734.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5990</v>
+        <v>5920</v>
       </c>
       <c r="B96" s="2">
-        <v>45733.97916666666</v>
+        <v>45734.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5930</v>
+        <v>5860</v>
       </c>
       <c r="B97" s="2">
-        <v>45733.98958333334</v>
+        <v>45734.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,634 +397,634 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5660</v>
+        <v>5980</v>
       </c>
       <c r="B2" s="2">
-        <v>45734</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5620</v>
+        <v>5950</v>
       </c>
       <c r="B3" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5580</v>
+        <v>5930</v>
       </c>
       <c r="B4" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5540</v>
+        <v>5900</v>
       </c>
       <c r="B5" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5520</v>
+        <v>5880</v>
       </c>
       <c r="B6" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5510</v>
+        <v>5850</v>
       </c>
       <c r="B7" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5500</v>
+        <v>5840</v>
       </c>
       <c r="B8" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5490</v>
+        <v>5830</v>
       </c>
       <c r="B9" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5500</v>
+        <v>5820</v>
       </c>
       <c r="B10" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5510</v>
+        <v>5830</v>
       </c>
       <c r="B11" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5520</v>
+        <v>5830</v>
       </c>
       <c r="B12" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5540</v>
+        <v>5850</v>
       </c>
       <c r="B13" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5560</v>
+        <v>5890</v>
       </c>
       <c r="B14" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5590</v>
+        <v>5910</v>
       </c>
       <c r="B15" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5620</v>
+        <v>5940</v>
       </c>
       <c r="B16" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5660</v>
+        <v>5980</v>
       </c>
       <c r="B17" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5720</v>
+        <v>6030</v>
       </c>
       <c r="B18" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5790</v>
+        <v>6100</v>
       </c>
       <c r="B19" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5880</v>
+        <v>6190</v>
       </c>
       <c r="B20" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6000</v>
+        <v>6290</v>
       </c>
       <c r="B21" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6140</v>
+        <v>6380</v>
       </c>
       <c r="B22" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6290</v>
+        <v>6510</v>
       </c>
       <c r="B23" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6460</v>
+        <v>6640</v>
       </c>
       <c r="B24" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6640</v>
+        <v>6770</v>
       </c>
       <c r="B25" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6820</v>
+        <v>6980</v>
       </c>
       <c r="B26" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7000</v>
+        <v>7080</v>
       </c>
       <c r="B27" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7160</v>
+        <v>7150</v>
       </c>
       <c r="B28" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7300</v>
+        <v>7180</v>
       </c>
       <c r="B29" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7410</v>
+        <v>7150</v>
       </c>
       <c r="B30" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7490</v>
+        <v>7110</v>
       </c>
       <c r="B31" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7540</v>
+        <v>7060</v>
       </c>
       <c r="B32" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7560</v>
+        <v>6990</v>
       </c>
       <c r="B33" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7540</v>
+        <v>6890</v>
       </c>
       <c r="B34" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7500</v>
+        <v>6790</v>
       </c>
       <c r="B35" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7430</v>
+        <v>6670</v>
       </c>
       <c r="B36" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7340</v>
+        <v>6530</v>
       </c>
       <c r="B37" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7240</v>
+        <v>6390</v>
       </c>
       <c r="B38" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7130</v>
+        <v>6260</v>
       </c>
       <c r="B39" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7020</v>
+        <v>6140</v>
       </c>
       <c r="B40" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6920</v>
+        <v>6020</v>
       </c>
       <c r="B41" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6820</v>
+        <v>5890</v>
       </c>
       <c r="B42" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6730</v>
+        <v>5790</v>
       </c>
       <c r="B43" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6640</v>
+        <v>5700</v>
       </c>
       <c r="B44" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6570</v>
+        <v>5630</v>
       </c>
       <c r="B45" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6500</v>
+        <v>5550</v>
       </c>
       <c r="B46" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6440</v>
+        <v>5500</v>
       </c>
       <c r="B47" s="2">
-        <v>45734.46875</v>
+        <v>45736.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6390</v>
+        <v>5460</v>
       </c>
       <c r="B48" s="2">
-        <v>45734.47916666666</v>
+        <v>45736.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6360</v>
+        <v>5440</v>
       </c>
       <c r="B49" s="2">
-        <v>45734.48958333334</v>
+        <v>45736.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6330</v>
+        <v>5440</v>
       </c>
       <c r="B50" s="2">
-        <v>45734.5</v>
+        <v>45736.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6310</v>
+        <v>5440</v>
       </c>
       <c r="B51" s="2">
-        <v>45734.51041666666</v>
+        <v>45736.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6300</v>
+        <v>5440</v>
       </c>
       <c r="B52" s="2">
-        <v>45734.52083333334</v>
+        <v>45736.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6310</v>
+        <v>5460</v>
       </c>
       <c r="B53" s="2">
-        <v>45734.53125</v>
+        <v>45736.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6320</v>
+        <v>5470</v>
       </c>
       <c r="B54" s="2">
-        <v>45734.54166666666</v>
+        <v>45736.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6340</v>
+        <v>5490</v>
       </c>
       <c r="B55" s="2">
-        <v>45734.55208333334</v>
+        <v>45736.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6370</v>
+        <v>5510</v>
       </c>
       <c r="B56" s="2">
-        <v>45734.5625</v>
+        <v>45736.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6410</v>
+        <v>5540</v>
       </c>
       <c r="B57" s="2">
-        <v>45734.57291666666</v>
+        <v>45736.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6450</v>
+        <v>5600</v>
       </c>
       <c r="B58" s="2">
-        <v>45734.58333333334</v>
+        <v>45736.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6500</v>
+        <v>5650</v>
       </c>
       <c r="B59" s="2">
-        <v>45734.59375</v>
+        <v>45736.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6560</v>
+        <v>5710</v>
       </c>
       <c r="B60" s="2">
-        <v>45734.60416666666</v>
+        <v>45736.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6630</v>
+        <v>5780</v>
       </c>
       <c r="B61" s="2">
-        <v>45734.61458333334</v>
+        <v>45736.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6710</v>
+        <v>5880</v>
       </c>
       <c r="B62" s="2">
-        <v>45734.625</v>
+        <v>45736.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6810</v>
+        <v>6000</v>
       </c>
       <c r="B63" s="2">
-        <v>45734.63541666666</v>
+        <v>45736.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6910</v>
+        <v>6140</v>
       </c>
       <c r="B64" s="2">
-        <v>45734.64583333334</v>
+        <v>45736.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7020</v>
+        <v>6300</v>
       </c>
       <c r="B65" s="2">
-        <v>45734.65625</v>
+        <v>45736.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7140</v>
+        <v>6460</v>
       </c>
       <c r="B66" s="2">
-        <v>45734.66666666666</v>
+        <v>45736.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7250</v>
+        <v>6640</v>
       </c>
       <c r="B67" s="2">
-        <v>45734.67708333334</v>
+        <v>45736.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7360</v>
+        <v>6820</v>
       </c>
       <c r="B68" s="2">
-        <v>45734.6875</v>
+        <v>45736.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7470</v>
+        <v>7000</v>
       </c>
       <c r="B69" s="2">
-        <v>45734.69791666666</v>
+        <v>45736.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7570</v>
+        <v>7240</v>
       </c>
       <c r="B70" s="2">
-        <v>45734.70833333334</v>
+        <v>45736.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7680</v>
+        <v>7420</v>
       </c>
       <c r="B71" s="2">
-        <v>45734.71875</v>
+        <v>45736.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7780</v>
+        <v>7590</v>
       </c>
       <c r="B72" s="2">
-        <v>45734.72916666666</v>
+        <v>45736.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7880</v>
+        <v>7750</v>
       </c>
       <c r="B73" s="2">
-        <v>45734.73958333334</v>
+        <v>45736.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7970</v>
+        <v>7900</v>
       </c>
       <c r="B74" s="2">
-        <v>45734.75</v>
+        <v>45736.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>8040</v>
+        <v>8000</v>
       </c>
       <c r="B75" s="2">
-        <v>45734.76041666666</v>
+        <v>45736.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>8070</v>
+        <v>8050</v>
       </c>
       <c r="B76" s="2">
-        <v>45734.77083333334</v>
+        <v>45736.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>8060</v>
+        <v>8040</v>
       </c>
       <c r="B77" s="2">
-        <v>45734.78125</v>
+        <v>45736.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>8030</v>
+        <v>7990</v>
       </c>
       <c r="B78" s="2">
-        <v>45734.79166666666</v>
+        <v>45736.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7980</v>
+        <v>7940</v>
       </c>
       <c r="B79" s="2">
-        <v>45734.80208333334</v>
+        <v>45736.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7910</v>
+        <v>7870</v>
       </c>
       <c r="B80" s="2">
-        <v>45734.8125</v>
+        <v>45736.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1032,135 +1032,135 @@
         <v>7800</v>
       </c>
       <c r="B81" s="2">
-        <v>45734.82291666666</v>
+        <v>45736.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7670</v>
+        <v>7680</v>
       </c>
       <c r="B82" s="2">
-        <v>45734.83333333334</v>
+        <v>45736.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7550</v>
+        <v>7560</v>
       </c>
       <c r="B83" s="2">
-        <v>45734.84375</v>
+        <v>45736.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7420</v>
+        <v>7450</v>
       </c>
       <c r="B84" s="2">
-        <v>45734.85416666666</v>
+        <v>45736.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7300</v>
+        <v>7310</v>
       </c>
       <c r="B85" s="2">
-        <v>45734.86458333334</v>
+        <v>45736.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7170</v>
+        <v>7120</v>
       </c>
       <c r="B86" s="2">
-        <v>45734.875</v>
+        <v>45736.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>7030</v>
+        <v>6970</v>
       </c>
       <c r="B87" s="2">
-        <v>45734.88541666666</v>
+        <v>45736.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="B88" s="2">
-        <v>45734.89583333334</v>
+        <v>45736.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6750</v>
+        <v>6650</v>
       </c>
       <c r="B89" s="2">
-        <v>45734.90625</v>
+        <v>45736.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6620</v>
+        <v>6530</v>
       </c>
       <c r="B90" s="2">
-        <v>45734.91666666666</v>
+        <v>45736.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6480</v>
+        <v>6400</v>
       </c>
       <c r="B91" s="2">
-        <v>45734.92708333334</v>
+        <v>45736.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6340</v>
+        <v>6280</v>
       </c>
       <c r="B92" s="2">
-        <v>45734.9375</v>
+        <v>45736.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6220</v>
+        <v>6170</v>
       </c>
       <c r="B93" s="2">
-        <v>45734.94791666666</v>
+        <v>45736.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6020</v>
+        <v>6130</v>
       </c>
       <c r="B94" s="2">
-        <v>45734.95833333334</v>
+        <v>45736.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5950</v>
+        <v>6080</v>
       </c>
       <c r="B95" s="2">
-        <v>45734.96875</v>
+        <v>45736.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5920</v>
+        <v>6020</v>
       </c>
       <c r="B96" s="2">
-        <v>45734.97916666666</v>
+        <v>45736.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5860</v>
+        <v>5960</v>
       </c>
       <c r="B97" s="2">
-        <v>45734.98958333334</v>
+        <v>45736.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5980</v>
+        <v>5210</v>
       </c>
       <c r="B2" s="2">
-        <v>45736</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5950</v>
+        <v>5170</v>
       </c>
       <c r="B3" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5930</v>
+        <v>5130</v>
       </c>
       <c r="B4" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5900</v>
+        <v>5090</v>
       </c>
       <c r="B5" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5880</v>
+        <v>5050</v>
       </c>
       <c r="B6" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5850</v>
+        <v>5030</v>
       </c>
       <c r="B7" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5840</v>
+        <v>5010</v>
       </c>
       <c r="B8" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5830</v>
+        <v>5000</v>
       </c>
       <c r="B9" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5820</v>
+        <v>5000</v>
       </c>
       <c r="B10" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5830</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5830</v>
+        <v>5000</v>
       </c>
       <c r="B12" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5850</v>
+        <v>5010</v>
       </c>
       <c r="B13" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5890</v>
+        <v>5030</v>
       </c>
       <c r="B14" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5910</v>
+        <v>5050</v>
       </c>
       <c r="B15" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5940</v>
+        <v>5080</v>
       </c>
       <c r="B16" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5980</v>
+        <v>5140</v>
       </c>
       <c r="B17" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6030</v>
+        <v>5200</v>
       </c>
       <c r="B18" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6100</v>
+        <v>5290</v>
       </c>
       <c r="B19" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6190</v>
+        <v>5400</v>
       </c>
       <c r="B20" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6290</v>
+        <v>5530</v>
       </c>
       <c r="B21" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6380</v>
+        <v>5730</v>
       </c>
       <c r="B22" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6510</v>
+        <v>5910</v>
       </c>
       <c r="B23" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6640</v>
+        <v>6090</v>
       </c>
       <c r="B24" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6770</v>
+        <v>6270</v>
       </c>
       <c r="B25" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6980</v>
+        <v>6470</v>
       </c>
       <c r="B26" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7080</v>
+        <v>6640</v>
       </c>
       <c r="B27" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7150</v>
+        <v>6790</v>
       </c>
       <c r="B28" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7180</v>
+        <v>6920</v>
       </c>
       <c r="B29" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7150</v>
+        <v>7040</v>
       </c>
       <c r="B30" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7110</v>
+        <v>7090</v>
       </c>
       <c r="B31" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7060</v>
+        <v>7110</v>
       </c>
       <c r="B32" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6990</v>
+        <v>7110</v>
       </c>
       <c r="B33" s="2">
-        <v>45736.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6890</v>
+        <v>7090</v>
       </c>
       <c r="B34" s="2">
-        <v>45736.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6790</v>
+        <v>7040</v>
       </c>
       <c r="B35" s="2">
-        <v>45736.34375</v>
+        <v>45740.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6670</v>
+        <v>6980</v>
       </c>
       <c r="B36" s="2">
-        <v>45736.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6530</v>
+        <v>6900</v>
       </c>
       <c r="B37" s="2">
-        <v>45736.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6390</v>
+        <v>6820</v>
       </c>
       <c r="B38" s="2">
-        <v>45736.375</v>
+        <v>45740.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6260</v>
+        <v>6740</v>
       </c>
       <c r="B39" s="2">
-        <v>45736.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6140</v>
+        <v>6660</v>
       </c>
       <c r="B40" s="2">
-        <v>45736.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6020</v>
+        <v>6590</v>
       </c>
       <c r="B41" s="2">
-        <v>45736.40625</v>
+        <v>45740.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5890</v>
+        <v>6520</v>
       </c>
       <c r="B42" s="2">
-        <v>45736.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5790</v>
+        <v>6470</v>
       </c>
       <c r="B43" s="2">
-        <v>45736.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5700</v>
+        <v>6420</v>
       </c>
       <c r="B44" s="2">
-        <v>45736.4375</v>
+        <v>45740.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5630</v>
+        <v>6370</v>
       </c>
       <c r="B45" s="2">
-        <v>45736.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5550</v>
+        <v>6320</v>
       </c>
       <c r="B46" s="2">
-        <v>45736.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="B47" s="2">
-        <v>45736.46875</v>
+        <v>45740.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5460</v>
+        <v>6290</v>
       </c>
       <c r="B48" s="2">
-        <v>45736.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5440</v>
+        <v>6280</v>
       </c>
       <c r="B49" s="2">
-        <v>45736.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5440</v>
+        <v>6280</v>
       </c>
       <c r="B50" s="2">
-        <v>45736.5</v>
+        <v>45740.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5440</v>
+        <v>6280</v>
       </c>
       <c r="B51" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5440</v>
+        <v>6280</v>
       </c>
       <c r="B52" s="2">
-        <v>45736.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5460</v>
+        <v>6280</v>
       </c>
       <c r="B53" s="2">
-        <v>45736.53125</v>
+        <v>45740.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5470</v>
+        <v>6290</v>
       </c>
       <c r="B54" s="2">
-        <v>45736.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5490</v>
+        <v>6300</v>
       </c>
       <c r="B55" s="2">
-        <v>45736.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5510</v>
+        <v>6310</v>
       </c>
       <c r="B56" s="2">
-        <v>45736.5625</v>
+        <v>45740.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5540</v>
+        <v>6330</v>
       </c>
       <c r="B57" s="2">
-        <v>45736.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5600</v>
+        <v>6390</v>
       </c>
       <c r="B58" s="2">
-        <v>45736.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5650</v>
+        <v>6450</v>
       </c>
       <c r="B59" s="2">
-        <v>45736.59375</v>
+        <v>45740.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5710</v>
+        <v>6500</v>
       </c>
       <c r="B60" s="2">
-        <v>45736.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5780</v>
+        <v>6560</v>
       </c>
       <c r="B61" s="2">
-        <v>45736.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5880</v>
+        <v>6620</v>
       </c>
       <c r="B62" s="2">
-        <v>45736.625</v>
+        <v>45740.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="B63" s="2">
-        <v>45736.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6140</v>
+        <v>6780</v>
       </c>
       <c r="B64" s="2">
-        <v>45736.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6300</v>
+        <v>6860</v>
       </c>
       <c r="B65" s="2">
-        <v>45736.65625</v>
+        <v>45740.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6460</v>
+        <v>6960</v>
       </c>
       <c r="B66" s="2">
-        <v>45736.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6640</v>
+        <v>7050</v>
       </c>
       <c r="B67" s="2">
-        <v>45736.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6820</v>
+        <v>7150</v>
       </c>
       <c r="B68" s="2">
-        <v>45736.6875</v>
+        <v>45740.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="B69" s="2">
-        <v>45736.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7240</v>
+        <v>7380</v>
       </c>
       <c r="B70" s="2">
-        <v>45736.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7420</v>
+        <v>7470</v>
       </c>
       <c r="B71" s="2">
-        <v>45736.71875</v>
+        <v>45740.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7590</v>
+        <v>7570</v>
       </c>
       <c r="B72" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7750</v>
+        <v>7660</v>
       </c>
       <c r="B73" s="2">
-        <v>45736.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7900</v>
+        <v>7750</v>
       </c>
       <c r="B74" s="2">
-        <v>45736.75</v>
+        <v>45740.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>8000</v>
+        <v>7810</v>
       </c>
       <c r="B75" s="2">
-        <v>45736.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>8050</v>
+        <v>7820</v>
       </c>
       <c r="B76" s="2">
-        <v>45736.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>8040</v>
+        <v>7810</v>
       </c>
       <c r="B77" s="2">
-        <v>45736.78125</v>
+        <v>45740.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7990</v>
+        <v>7770</v>
       </c>
       <c r="B78" s="2">
-        <v>45736.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7940</v>
+        <v>7700</v>
       </c>
       <c r="B79" s="2">
-        <v>45736.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7870</v>
+        <v>7640</v>
       </c>
       <c r="B80" s="2">
-        <v>45736.8125</v>
+        <v>45740.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7800</v>
+        <v>7570</v>
       </c>
       <c r="B81" s="2">
-        <v>45736.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7680</v>
+        <v>7470</v>
       </c>
       <c r="B82" s="2">
-        <v>45736.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7560</v>
+        <v>7380</v>
       </c>
       <c r="B83" s="2">
-        <v>45736.84375</v>
+        <v>45740.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7450</v>
+        <v>7280</v>
       </c>
       <c r="B84" s="2">
-        <v>45736.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7310</v>
+        <v>7150</v>
       </c>
       <c r="B85" s="2">
-        <v>45736.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7120</v>
+        <v>6970</v>
       </c>
       <c r="B86" s="2">
-        <v>45736.875</v>
+        <v>45740.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6970</v>
+        <v>6820</v>
       </c>
       <c r="B87" s="2">
-        <v>45736.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6800</v>
+        <v>6660</v>
       </c>
       <c r="B88" s="2">
-        <v>45736.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6650</v>
+        <v>6530</v>
       </c>
       <c r="B89" s="2">
-        <v>45736.90625</v>
+        <v>45740.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6530</v>
+        <v>6410</v>
       </c>
       <c r="B90" s="2">
-        <v>45736.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6400</v>
+        <v>6280</v>
       </c>
       <c r="B91" s="2">
-        <v>45736.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6280</v>
+        <v>6170</v>
       </c>
       <c r="B92" s="2">
-        <v>45736.9375</v>
+        <v>45740.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6170</v>
+        <v>6040</v>
       </c>
       <c r="B93" s="2">
-        <v>45736.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6130</v>
+        <v>5950</v>
       </c>
       <c r="B94" s="2">
-        <v>45736.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>6080</v>
+        <v>5900</v>
       </c>
       <c r="B95" s="2">
-        <v>45736.96875</v>
+        <v>45740.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>6020</v>
+        <v>5860</v>
       </c>
       <c r="B96" s="2">
-        <v>45736.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5960</v>
+        <v>5810</v>
       </c>
       <c r="B97" s="2">
-        <v>45736.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,194 +397,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5210</v>
+        <v>5620</v>
       </c>
       <c r="B2" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5170</v>
+        <v>5570</v>
       </c>
       <c r="B3" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5130</v>
+        <v>5530</v>
       </c>
       <c r="B4" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5090</v>
+        <v>5490</v>
       </c>
       <c r="B5" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5050</v>
+        <v>5460</v>
       </c>
       <c r="B6" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5030</v>
+        <v>5440</v>
       </c>
       <c r="B7" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5010</v>
+        <v>5420</v>
       </c>
       <c r="B8" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="B9" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="B10" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="B11" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5000</v>
+        <v>5410</v>
       </c>
       <c r="B12" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5010</v>
+        <v>5420</v>
       </c>
       <c r="B13" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5030</v>
+        <v>5440</v>
       </c>
       <c r="B14" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5050</v>
+        <v>5470</v>
       </c>
       <c r="B15" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5080</v>
+        <v>5500</v>
       </c>
       <c r="B16" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5140</v>
+        <v>5540</v>
       </c>
       <c r="B17" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5200</v>
+        <v>5590</v>
       </c>
       <c r="B18" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5290</v>
+        <v>5650</v>
       </c>
       <c r="B19" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5400</v>
+        <v>5730</v>
       </c>
       <c r="B20" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5530</v>
+        <v>5820</v>
       </c>
       <c r="B21" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5730</v>
+        <v>5930</v>
       </c>
       <c r="B22" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5910</v>
+        <v>6050</v>
       </c>
       <c r="B23" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6090</v>
+        <v>6190</v>
       </c>
       <c r="B24" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6270</v>
+        <v>6330</v>
       </c>
       <c r="B25" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,575 +592,575 @@
         <v>6470</v>
       </c>
       <c r="B26" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6640</v>
+        <v>6600</v>
       </c>
       <c r="B27" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6790</v>
+        <v>6710</v>
       </c>
       <c r="B28" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6920</v>
+        <v>6800</v>
       </c>
       <c r="B29" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7040</v>
+        <v>6850</v>
       </c>
       <c r="B30" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7090</v>
+        <v>6870</v>
       </c>
       <c r="B31" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7110</v>
+        <v>6860</v>
       </c>
       <c r="B32" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7110</v>
+        <v>6810</v>
       </c>
       <c r="B33" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7090</v>
+        <v>6730</v>
       </c>
       <c r="B34" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7040</v>
+        <v>6620</v>
       </c>
       <c r="B35" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6980</v>
+        <v>6510</v>
       </c>
       <c r="B36" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6900</v>
+        <v>6390</v>
       </c>
       <c r="B37" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6820</v>
+        <v>6270</v>
       </c>
       <c r="B38" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6740</v>
+        <v>6160</v>
       </c>
       <c r="B39" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6660</v>
+        <v>6060</v>
       </c>
       <c r="B40" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6590</v>
+        <v>5970</v>
       </c>
       <c r="B41" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6520</v>
+        <v>5900</v>
       </c>
       <c r="B42" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6470</v>
+        <v>5840</v>
       </c>
       <c r="B43" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6420</v>
+        <v>5790</v>
       </c>
       <c r="B44" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6370</v>
+        <v>5750</v>
       </c>
       <c r="B45" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6320</v>
+        <v>5710</v>
       </c>
       <c r="B46" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6300</v>
+        <v>5670</v>
       </c>
       <c r="B47" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6290</v>
+        <v>5640</v>
       </c>
       <c r="B48" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6280</v>
+        <v>5620</v>
       </c>
       <c r="B49" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6280</v>
+        <v>5600</v>
       </c>
       <c r="B50" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6280</v>
+        <v>5600</v>
       </c>
       <c r="B51" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6280</v>
+        <v>5600</v>
       </c>
       <c r="B52" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6280</v>
+        <v>5620</v>
       </c>
       <c r="B53" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6290</v>
+        <v>5640</v>
       </c>
       <c r="B54" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6300</v>
+        <v>5670</v>
       </c>
       <c r="B55" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6310</v>
+        <v>5710</v>
       </c>
       <c r="B56" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6330</v>
+        <v>5750</v>
       </c>
       <c r="B57" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6390</v>
+        <v>5800</v>
       </c>
       <c r="B58" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6450</v>
+        <v>5850</v>
       </c>
       <c r="B59" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="B60" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6560</v>
+        <v>5970</v>
       </c>
       <c r="B61" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6620</v>
+        <v>6060</v>
       </c>
       <c r="B62" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6700</v>
+        <v>6150</v>
       </c>
       <c r="B63" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6780</v>
+        <v>6250</v>
       </c>
       <c r="B64" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6860</v>
+        <v>6350</v>
       </c>
       <c r="B65" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6960</v>
+        <v>6470</v>
       </c>
       <c r="B66" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7050</v>
+        <v>6570</v>
       </c>
       <c r="B67" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7150</v>
+        <v>6680</v>
       </c>
       <c r="B68" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7250</v>
+        <v>6810</v>
       </c>
       <c r="B69" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7380</v>
+        <v>6910</v>
       </c>
       <c r="B70" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7470</v>
+        <v>7030</v>
       </c>
       <c r="B71" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7570</v>
+        <v>7150</v>
       </c>
       <c r="B72" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7660</v>
+        <v>7280</v>
       </c>
       <c r="B73" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7750</v>
+        <v>7410</v>
       </c>
       <c r="B74" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7810</v>
+        <v>7510</v>
       </c>
       <c r="B75" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7820</v>
+        <v>7570</v>
       </c>
       <c r="B76" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7810</v>
+        <v>7580</v>
       </c>
       <c r="B77" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7770</v>
+        <v>7570</v>
       </c>
       <c r="B78" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7700</v>
+        <v>7540</v>
       </c>
       <c r="B79" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7640</v>
+        <v>7500</v>
       </c>
       <c r="B80" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7570</v>
+        <v>7430</v>
       </c>
       <c r="B81" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7470</v>
+        <v>7320</v>
       </c>
       <c r="B82" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7380</v>
+        <v>7200</v>
       </c>
       <c r="B83" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7280</v>
+        <v>7080</v>
       </c>
       <c r="B84" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7150</v>
+        <v>6950</v>
       </c>
       <c r="B85" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6970</v>
+        <v>6810</v>
       </c>
       <c r="B86" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6820</v>
+        <v>6660</v>
       </c>
       <c r="B87" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6660</v>
+        <v>6530</v>
       </c>
       <c r="B88" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6530</v>
+        <v>6380</v>
       </c>
       <c r="B89" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6410</v>
+        <v>6260</v>
       </c>
       <c r="B90" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6280</v>
+        <v>6150</v>
       </c>
       <c r="B91" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6170</v>
+        <v>6020</v>
       </c>
       <c r="B92" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6040</v>
+        <v>5900</v>
       </c>
       <c r="B93" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5950</v>
+        <v>5750</v>
       </c>
       <c r="B94" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5900</v>
+        <v>5680</v>
       </c>
       <c r="B95" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5860</v>
+        <v>5640</v>
       </c>
       <c r="B96" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5810</v>
+        <v>5600</v>
       </c>
       <c r="B97" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,106 +397,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5620</v>
+        <v>5630</v>
       </c>
       <c r="B2" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5570</v>
+        <v>5590</v>
       </c>
       <c r="B3" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5530</v>
+        <v>5550</v>
       </c>
       <c r="B4" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5490</v>
+        <v>5510</v>
       </c>
       <c r="B5" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5460</v>
+        <v>5490</v>
       </c>
       <c r="B6" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5440</v>
+        <v>5460</v>
       </c>
       <c r="B7" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="B8" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5410</v>
+        <v>5430</v>
       </c>
       <c r="B9" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5400</v>
+        <v>5430</v>
       </c>
       <c r="B10" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5400</v>
+        <v>5440</v>
       </c>
       <c r="B11" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5410</v>
+        <v>5440</v>
       </c>
       <c r="B12" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="B13" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5440</v>
+        <v>5460</v>
       </c>
       <c r="B14" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -504,663 +504,663 @@
         <v>5470</v>
       </c>
       <c r="B15" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="B16" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5540</v>
+        <v>5520</v>
       </c>
       <c r="B17" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5590</v>
+        <v>5560</v>
       </c>
       <c r="B18" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5650</v>
+        <v>5620</v>
       </c>
       <c r="B19" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5730</v>
+        <v>5700</v>
       </c>
       <c r="B20" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5820</v>
+        <v>5800</v>
       </c>
       <c r="B21" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5930</v>
+        <v>5920</v>
       </c>
       <c r="B22" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6050</v>
+        <v>6060</v>
       </c>
       <c r="B23" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6190</v>
+        <v>6210</v>
       </c>
       <c r="B24" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6330</v>
+        <v>6370</v>
       </c>
       <c r="B25" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6470</v>
+        <v>6540</v>
       </c>
       <c r="B26" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="B27" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6710</v>
+        <v>6840</v>
       </c>
       <c r="B28" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6800</v>
+        <v>6970</v>
       </c>
       <c r="B29" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6850</v>
+        <v>7080</v>
       </c>
       <c r="B30" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6870</v>
+        <v>7170</v>
       </c>
       <c r="B31" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6860</v>
+        <v>7220</v>
       </c>
       <c r="B32" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6810</v>
+        <v>7250</v>
       </c>
       <c r="B33" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6730</v>
+        <v>7260</v>
       </c>
       <c r="B34" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6620</v>
+        <v>7250</v>
       </c>
       <c r="B35" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6510</v>
+        <v>7220</v>
       </c>
       <c r="B36" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6390</v>
+        <v>7170</v>
       </c>
       <c r="B37" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6270</v>
+        <v>7130</v>
       </c>
       <c r="B38" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6160</v>
+        <v>7080</v>
       </c>
       <c r="B39" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6060</v>
+        <v>7030</v>
       </c>
       <c r="B40" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5970</v>
+        <v>6980</v>
       </c>
       <c r="B41" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5900</v>
+        <v>6940</v>
       </c>
       <c r="B42" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5840</v>
+        <v>6910</v>
       </c>
       <c r="B43" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5790</v>
+        <v>6880</v>
       </c>
       <c r="B44" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5750</v>
+        <v>6860</v>
       </c>
       <c r="B45" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5710</v>
+        <v>6840</v>
       </c>
       <c r="B46" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5670</v>
+        <v>6820</v>
       </c>
       <c r="B47" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5640</v>
+        <v>6810</v>
       </c>
       <c r="B48" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5620</v>
+        <v>6800</v>
       </c>
       <c r="B49" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5600</v>
+        <v>6790</v>
       </c>
       <c r="B50" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5600</v>
+        <v>6790</v>
       </c>
       <c r="B51" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="B52" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5620</v>
+        <v>6810</v>
       </c>
       <c r="B53" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5640</v>
+        <v>6820</v>
       </c>
       <c r="B54" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5670</v>
+        <v>6840</v>
       </c>
       <c r="B55" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5710</v>
+        <v>6850</v>
       </c>
       <c r="B56" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5750</v>
+        <v>6860</v>
       </c>
       <c r="B57" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5800</v>
+        <v>6880</v>
       </c>
       <c r="B58" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5850</v>
+        <v>6890</v>
       </c>
       <c r="B59" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5900</v>
+        <v>6920</v>
       </c>
       <c r="B60" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5970</v>
+        <v>6940</v>
       </c>
       <c r="B61" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6060</v>
+        <v>6980</v>
       </c>
       <c r="B62" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6150</v>
+        <v>7020</v>
       </c>
       <c r="B63" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6250</v>
+        <v>7070</v>
       </c>
       <c r="B64" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6350</v>
+        <v>7120</v>
       </c>
       <c r="B65" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6470</v>
+        <v>7170</v>
       </c>
       <c r="B66" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6570</v>
+        <v>7230</v>
       </c>
       <c r="B67" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6680</v>
+        <v>7270</v>
       </c>
       <c r="B68" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6810</v>
+        <v>7320</v>
       </c>
       <c r="B69" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6910</v>
+        <v>7380</v>
       </c>
       <c r="B70" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7030</v>
+        <v>7430</v>
       </c>
       <c r="B71" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7150</v>
+        <v>7500</v>
       </c>
       <c r="B72" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7280</v>
+        <v>7580</v>
       </c>
       <c r="B73" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7410</v>
+        <v>7660</v>
       </c>
       <c r="B74" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7510</v>
+        <v>7730</v>
       </c>
       <c r="B75" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7570</v>
+        <v>7770</v>
       </c>
       <c r="B76" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7580</v>
+        <v>7780</v>
       </c>
       <c r="B77" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7570</v>
+        <v>7760</v>
       </c>
       <c r="B78" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7540</v>
+        <v>7720</v>
       </c>
       <c r="B79" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7500</v>
+        <v>7640</v>
       </c>
       <c r="B80" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7430</v>
+        <v>7550</v>
       </c>
       <c r="B81" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7320</v>
+        <v>7440</v>
       </c>
       <c r="B82" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7200</v>
+        <v>7330</v>
       </c>
       <c r="B83" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7080</v>
+        <v>7190</v>
       </c>
       <c r="B84" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6950</v>
+        <v>7060</v>
       </c>
       <c r="B85" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6810</v>
+        <v>6910</v>
       </c>
       <c r="B86" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6660</v>
+        <v>6760</v>
       </c>
       <c r="B87" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6530</v>
+        <v>6620</v>
       </c>
       <c r="B88" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6380</v>
+        <v>6460</v>
       </c>
       <c r="B89" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6260</v>
+        <v>6310</v>
       </c>
       <c r="B90" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6150</v>
+        <v>6170</v>
       </c>
       <c r="B91" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6020</v>
+        <v>6030</v>
       </c>
       <c r="B92" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5900</v>
+        <v>5920</v>
       </c>
       <c r="B93" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5750</v>
+        <v>5830</v>
       </c>
       <c r="B94" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5680</v>
+        <v>5770</v>
       </c>
       <c r="B95" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5640</v>
+        <v>5720</v>
       </c>
       <c r="B96" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5600</v>
+        <v>5660</v>
       </c>
       <c r="B97" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5630</v>
+        <v>5270</v>
       </c>
       <c r="B2" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5590</v>
+        <v>5220</v>
       </c>
       <c r="B3" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5550</v>
+        <v>5180</v>
       </c>
       <c r="B4" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5510</v>
+        <v>5140</v>
       </c>
       <c r="B5" s="2">
-        <v>45744.03125</v>
+        <v>45747.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5490</v>
+        <v>5100</v>
       </c>
       <c r="B6" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5460</v>
+        <v>5080</v>
       </c>
       <c r="B7" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5440</v>
+        <v>5070</v>
       </c>
       <c r="B8" s="2">
-        <v>45744.0625</v>
+        <v>45747.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5430</v>
+        <v>5060</v>
       </c>
       <c r="B9" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5430</v>
+        <v>5050</v>
       </c>
       <c r="B10" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5440</v>
+        <v>5050</v>
       </c>
       <c r="B11" s="2">
-        <v>45744.09375</v>
+        <v>45747.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5440</v>
+        <v>5050</v>
       </c>
       <c r="B12" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5450</v>
+        <v>5060</v>
       </c>
       <c r="B13" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5460</v>
+        <v>5080</v>
       </c>
       <c r="B14" s="2">
-        <v>45744.125</v>
+        <v>45747.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5470</v>
+        <v>5110</v>
       </c>
       <c r="B15" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5490</v>
+        <v>5130</v>
       </c>
       <c r="B16" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5520</v>
+        <v>5160</v>
       </c>
       <c r="B17" s="2">
-        <v>45744.15625</v>
+        <v>45747.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5560</v>
+        <v>5220</v>
       </c>
       <c r="B18" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5620</v>
+        <v>5280</v>
       </c>
       <c r="B19" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5700</v>
+        <v>5360</v>
       </c>
       <c r="B20" s="2">
-        <v>45744.1875</v>
+        <v>45747.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5800</v>
+        <v>5470</v>
       </c>
       <c r="B21" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5920</v>
+        <v>5620</v>
       </c>
       <c r="B22" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6060</v>
+        <v>5760</v>
       </c>
       <c r="B23" s="2">
-        <v>45744.21875</v>
+        <v>45747.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6210</v>
+        <v>5920</v>
       </c>
       <c r="B24" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6370</v>
+        <v>6100</v>
       </c>
       <c r="B25" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6540</v>
+        <v>6340</v>
       </c>
       <c r="B26" s="2">
-        <v>45744.25</v>
+        <v>45747.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6700</v>
+        <v>6540</v>
       </c>
       <c r="B27" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6840</v>
+        <v>6720</v>
       </c>
       <c r="B28" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6970</v>
+        <v>6880</v>
       </c>
       <c r="B29" s="2">
-        <v>45744.28125</v>
+        <v>45747.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7080</v>
+        <v>7040</v>
       </c>
       <c r="B30" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7170</v>
+        <v>7180</v>
       </c>
       <c r="B31" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7220</v>
+        <v>7260</v>
       </c>
       <c r="B32" s="2">
-        <v>45744.3125</v>
+        <v>45747.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7250</v>
+        <v>7320</v>
       </c>
       <c r="B33" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7260</v>
+        <v>7350</v>
       </c>
       <c r="B34" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7250</v>
+        <v>7360</v>
       </c>
       <c r="B35" s="2">
-        <v>45744.34375</v>
+        <v>45747.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7220</v>
+        <v>7350</v>
       </c>
       <c r="B36" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7170</v>
+        <v>7340</v>
       </c>
       <c r="B37" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7130</v>
+        <v>7300</v>
       </c>
       <c r="B38" s="2">
-        <v>45744.375</v>
+        <v>45747.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7080</v>
+        <v>7260</v>
       </c>
       <c r="B39" s="2">
-        <v>45744.38541666666</v>
+        <v>45747.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7030</v>
+        <v>7230</v>
       </c>
       <c r="B40" s="2">
-        <v>45744.39583333334</v>
+        <v>45747.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6980</v>
+        <v>7170</v>
       </c>
       <c r="B41" s="2">
-        <v>45744.40625</v>
+        <v>45747.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6940</v>
+        <v>7100</v>
       </c>
       <c r="B42" s="2">
-        <v>45744.41666666666</v>
+        <v>45747.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6910</v>
+        <v>7050</v>
       </c>
       <c r="B43" s="2">
-        <v>45744.42708333334</v>
+        <v>45747.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6880</v>
+        <v>6990</v>
       </c>
       <c r="B44" s="2">
-        <v>45744.4375</v>
+        <v>45747.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6860</v>
+        <v>6930</v>
       </c>
       <c r="B45" s="2">
-        <v>45744.44791666666</v>
+        <v>45747.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="B46" s="2">
-        <v>45744.45833333334</v>
+        <v>45747.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6820</v>
+        <v>6790</v>
       </c>
       <c r="B47" s="2">
-        <v>45744.46875</v>
+        <v>45747.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6810</v>
+        <v>6710</v>
       </c>
       <c r="B48" s="2">
-        <v>45744.47916666666</v>
+        <v>45747.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6800</v>
+        <v>6640</v>
       </c>
       <c r="B49" s="2">
-        <v>45744.48958333334</v>
+        <v>45747.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6790</v>
+        <v>6580</v>
       </c>
       <c r="B50" s="2">
-        <v>45744.5</v>
+        <v>45747.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6790</v>
+        <v>6550</v>
       </c>
       <c r="B51" s="2">
-        <v>45744.51041666666</v>
+        <v>45747.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6800</v>
+        <v>6510</v>
       </c>
       <c r="B52" s="2">
-        <v>45744.52083333334</v>
+        <v>45747.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6810</v>
+        <v>6500</v>
       </c>
       <c r="B53" s="2">
-        <v>45744.53125</v>
+        <v>45747.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6820</v>
+        <v>6490</v>
       </c>
       <c r="B54" s="2">
-        <v>45744.54166666666</v>
+        <v>45747.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6840</v>
+        <v>6480</v>
       </c>
       <c r="B55" s="2">
-        <v>45744.55208333334</v>
+        <v>45747.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6850</v>
+        <v>6480</v>
       </c>
       <c r="B56" s="2">
-        <v>45744.5625</v>
+        <v>45747.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6860</v>
+        <v>6490</v>
       </c>
       <c r="B57" s="2">
-        <v>45744.57291666666</v>
+        <v>45747.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6880</v>
+        <v>6510</v>
       </c>
       <c r="B58" s="2">
-        <v>45744.58333333334</v>
+        <v>45747.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6890</v>
+        <v>6520</v>
       </c>
       <c r="B59" s="2">
-        <v>45744.59375</v>
+        <v>45747.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6920</v>
+        <v>6540</v>
       </c>
       <c r="B60" s="2">
-        <v>45744.60416666666</v>
+        <v>45747.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6940</v>
+        <v>6560</v>
       </c>
       <c r="B61" s="2">
-        <v>45744.61458333334</v>
+        <v>45747.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6980</v>
+        <v>6580</v>
       </c>
       <c r="B62" s="2">
-        <v>45744.625</v>
+        <v>45747.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>7020</v>
+        <v>6610</v>
       </c>
       <c r="B63" s="2">
-        <v>45744.63541666666</v>
+        <v>45747.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7070</v>
+        <v>6660</v>
       </c>
       <c r="B64" s="2">
-        <v>45744.64583333334</v>
+        <v>45747.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7120</v>
+        <v>6710</v>
       </c>
       <c r="B65" s="2">
-        <v>45744.65625</v>
+        <v>45747.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7170</v>
+        <v>6770</v>
       </c>
       <c r="B66" s="2">
-        <v>45744.66666666666</v>
+        <v>45747.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7230</v>
+        <v>6830</v>
       </c>
       <c r="B67" s="2">
-        <v>45744.67708333334</v>
+        <v>45747.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7270</v>
+        <v>6900</v>
       </c>
       <c r="B68" s="2">
-        <v>45744.6875</v>
+        <v>45747.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7320</v>
+        <v>6960</v>
       </c>
       <c r="B69" s="2">
-        <v>45744.69791666666</v>
+        <v>45747.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7380</v>
+        <v>7030</v>
       </c>
       <c r="B70" s="2">
-        <v>45744.70833333334</v>
+        <v>45747.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7430</v>
+        <v>7090</v>
       </c>
       <c r="B71" s="2">
-        <v>45744.71875</v>
+        <v>45747.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7500</v>
+        <v>7160</v>
       </c>
       <c r="B72" s="2">
-        <v>45744.72916666666</v>
+        <v>45747.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7580</v>
+        <v>7240</v>
       </c>
       <c r="B73" s="2">
-        <v>45744.73958333334</v>
+        <v>45747.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7660</v>
+        <v>7310</v>
       </c>
       <c r="B74" s="2">
-        <v>45744.75</v>
+        <v>45747.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7730</v>
+        <v>7380</v>
       </c>
       <c r="B75" s="2">
-        <v>45744.76041666666</v>
+        <v>45747.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7770</v>
+        <v>7460</v>
       </c>
       <c r="B76" s="2">
-        <v>45744.77083333334</v>
+        <v>45747.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7780</v>
+        <v>7540</v>
       </c>
       <c r="B77" s="2">
-        <v>45744.78125</v>
+        <v>45747.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7760</v>
+        <v>7640</v>
       </c>
       <c r="B78" s="2">
-        <v>45744.79166666666</v>
+        <v>45747.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7720</v>
+        <v>7700</v>
       </c>
       <c r="B79" s="2">
-        <v>45744.80208333334</v>
+        <v>45747.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7640</v>
+        <v>7710</v>
       </c>
       <c r="B80" s="2">
-        <v>45744.8125</v>
+        <v>45747.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7550</v>
+        <v>7710</v>
       </c>
       <c r="B81" s="2">
-        <v>45744.82291666666</v>
+        <v>45747.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7440</v>
+        <v>7660</v>
       </c>
       <c r="B82" s="2">
-        <v>45744.83333333334</v>
+        <v>45747.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7330</v>
+        <v>7570</v>
       </c>
       <c r="B83" s="2">
-        <v>45744.84375</v>
+        <v>45747.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7190</v>
+        <v>7450</v>
       </c>
       <c r="B84" s="2">
-        <v>45744.85416666666</v>
+        <v>45747.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7060</v>
+        <v>7300</v>
       </c>
       <c r="B85" s="2">
-        <v>45744.86458333334</v>
+        <v>45747.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6910</v>
+        <v>7140</v>
       </c>
       <c r="B86" s="2">
-        <v>45744.875</v>
+        <v>45747.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6760</v>
+        <v>7000</v>
       </c>
       <c r="B87" s="2">
-        <v>45744.88541666666</v>
+        <v>45747.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6620</v>
+        <v>6830</v>
       </c>
       <c r="B88" s="2">
-        <v>45744.89583333334</v>
+        <v>45747.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6460</v>
+        <v>6660</v>
       </c>
       <c r="B89" s="2">
-        <v>45744.90625</v>
+        <v>45747.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6310</v>
+        <v>6500</v>
       </c>
       <c r="B90" s="2">
-        <v>45744.91666666666</v>
+        <v>45747.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6170</v>
+        <v>6360</v>
       </c>
       <c r="B91" s="2">
-        <v>45744.92708333334</v>
+        <v>45747.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6030</v>
+        <v>6240</v>
       </c>
       <c r="B92" s="2">
-        <v>45744.9375</v>
+        <v>45747.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5920</v>
+        <v>6120</v>
       </c>
       <c r="B93" s="2">
-        <v>45744.94791666666</v>
+        <v>45747.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5830</v>
+        <v>5900</v>
       </c>
       <c r="B94" s="2">
-        <v>45744.95833333334</v>
+        <v>45747.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5770</v>
+        <v>5850</v>
       </c>
       <c r="B95" s="2">
-        <v>45744.96875</v>
+        <v>45747.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5720</v>
+        <v>5800</v>
       </c>
       <c r="B96" s="2">
-        <v>45744.97916666666</v>
+        <v>45747.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5660</v>
+        <v>5740</v>
       </c>
       <c r="B97" s="2">
-        <v>45744.98958333334</v>
+        <v>45747.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,234 +397,234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5270</v>
+        <v>5660</v>
       </c>
       <c r="B2" s="2">
-        <v>45747</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5220</v>
+        <v>5610</v>
       </c>
       <c r="B3" s="2">
-        <v>45747.01041666666</v>
+        <v>45751.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5180</v>
+        <v>5580</v>
       </c>
       <c r="B4" s="2">
-        <v>45747.02083333334</v>
+        <v>45751.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5140</v>
+        <v>5550</v>
       </c>
       <c r="B5" s="2">
-        <v>45747.03125</v>
+        <v>45751.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5100</v>
+        <v>5520</v>
       </c>
       <c r="B6" s="2">
-        <v>45747.04166666666</v>
+        <v>45751.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5080</v>
+        <v>5500</v>
       </c>
       <c r="B7" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5070</v>
+        <v>5490</v>
       </c>
       <c r="B8" s="2">
-        <v>45747.0625</v>
+        <v>45751.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5060</v>
+        <v>5470</v>
       </c>
       <c r="B9" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5050</v>
+        <v>5450</v>
       </c>
       <c r="B10" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5050</v>
+        <v>5430</v>
       </c>
       <c r="B11" s="2">
-        <v>45747.09375</v>
+        <v>45751.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5050</v>
+        <v>5430</v>
       </c>
       <c r="B12" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5060</v>
+        <v>5440</v>
       </c>
       <c r="B13" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5080</v>
+        <v>5450</v>
       </c>
       <c r="B14" s="2">
-        <v>45747.125</v>
+        <v>45751.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5110</v>
+        <v>5460</v>
       </c>
       <c r="B15" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5130</v>
+        <v>5470</v>
       </c>
       <c r="B16" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5160</v>
+        <v>5500</v>
       </c>
       <c r="B17" s="2">
-        <v>45747.15625</v>
+        <v>45751.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5220</v>
+        <v>5560</v>
       </c>
       <c r="B18" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5280</v>
+        <v>5630</v>
       </c>
       <c r="B19" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5360</v>
+        <v>5720</v>
       </c>
       <c r="B20" s="2">
-        <v>45747.1875</v>
+        <v>45751.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5470</v>
+        <v>5820</v>
       </c>
       <c r="B21" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5620</v>
+        <v>5940</v>
       </c>
       <c r="B22" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5760</v>
+        <v>6060</v>
       </c>
       <c r="B23" s="2">
-        <v>45747.21875</v>
+        <v>45751.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5920</v>
+        <v>6190</v>
       </c>
       <c r="B24" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6100</v>
+        <v>6360</v>
       </c>
       <c r="B25" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6340</v>
+        <v>6540</v>
       </c>
       <c r="B26" s="2">
-        <v>45747.25</v>
+        <v>45751.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6540</v>
+        <v>6730</v>
       </c>
       <c r="B27" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6720</v>
+        <v>6890</v>
       </c>
       <c r="B28" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6880</v>
+        <v>7020</v>
       </c>
       <c r="B29" s="2">
-        <v>45747.28125</v>
+        <v>45751.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7040</v>
+        <v>7130</v>
       </c>
       <c r="B30" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -632,535 +632,535 @@
         <v>7180</v>
       </c>
       <c r="B31" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7260</v>
+        <v>7190</v>
       </c>
       <c r="B32" s="2">
-        <v>45747.3125</v>
+        <v>45751.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7320</v>
+        <v>7200</v>
       </c>
       <c r="B33" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7350</v>
+        <v>7180</v>
       </c>
       <c r="B34" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7360</v>
+        <v>7150</v>
       </c>
       <c r="B35" s="2">
-        <v>45747.34375</v>
+        <v>45751.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7350</v>
+        <v>7090</v>
       </c>
       <c r="B36" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7340</v>
+        <v>7000</v>
       </c>
       <c r="B37" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="B38" s="2">
-        <v>45747.375</v>
+        <v>45751.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7260</v>
+        <v>6800</v>
       </c>
       <c r="B39" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7230</v>
+        <v>6700</v>
       </c>
       <c r="B40" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7170</v>
+        <v>6600</v>
       </c>
       <c r="B41" s="2">
-        <v>45747.40625</v>
+        <v>45751.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7100</v>
+        <v>6480</v>
       </c>
       <c r="B42" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7050</v>
+        <v>6390</v>
       </c>
       <c r="B43" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6990</v>
+        <v>6310</v>
       </c>
       <c r="B44" s="2">
-        <v>45747.4375</v>
+        <v>45751.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6930</v>
+        <v>6240</v>
       </c>
       <c r="B45" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6860</v>
+        <v>6170</v>
       </c>
       <c r="B46" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6790</v>
+        <v>6120</v>
       </c>
       <c r="B47" s="2">
-        <v>45747.46875</v>
+        <v>45751.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6710</v>
+        <v>6080</v>
       </c>
       <c r="B48" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6640</v>
+        <v>6050</v>
       </c>
       <c r="B49" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6580</v>
+        <v>6030</v>
       </c>
       <c r="B50" s="2">
-        <v>45747.5</v>
+        <v>45751.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6550</v>
+        <v>6030</v>
       </c>
       <c r="B51" s="2">
-        <v>45747.51041666666</v>
+        <v>45751.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6510</v>
+        <v>6020</v>
       </c>
       <c r="B52" s="2">
-        <v>45747.52083333334</v>
+        <v>45751.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6500</v>
+        <v>6020</v>
       </c>
       <c r="B53" s="2">
-        <v>45747.53125</v>
+        <v>45751.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6490</v>
+        <v>6020</v>
       </c>
       <c r="B54" s="2">
-        <v>45747.54166666666</v>
+        <v>45751.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6480</v>
+        <v>6020</v>
       </c>
       <c r="B55" s="2">
-        <v>45747.55208333334</v>
+        <v>45751.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6480</v>
+        <v>6030</v>
       </c>
       <c r="B56" s="2">
-        <v>45747.5625</v>
+        <v>45751.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6490</v>
+        <v>6030</v>
       </c>
       <c r="B57" s="2">
-        <v>45747.57291666666</v>
+        <v>45751.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6510</v>
+        <v>6040</v>
       </c>
       <c r="B58" s="2">
-        <v>45747.58333333334</v>
+        <v>45751.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6520</v>
+        <v>6050</v>
       </c>
       <c r="B59" s="2">
-        <v>45747.59375</v>
+        <v>45751.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6540</v>
+        <v>6060</v>
       </c>
       <c r="B60" s="2">
-        <v>45747.60416666666</v>
+        <v>45751.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6560</v>
+        <v>6070</v>
       </c>
       <c r="B61" s="2">
-        <v>45747.61458333334</v>
+        <v>45751.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6580</v>
+        <v>6110</v>
       </c>
       <c r="B62" s="2">
-        <v>45747.625</v>
+        <v>45751.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6610</v>
+        <v>6150</v>
       </c>
       <c r="B63" s="2">
-        <v>45747.63541666666</v>
+        <v>45751.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6660</v>
+        <v>6210</v>
       </c>
       <c r="B64" s="2">
-        <v>45747.64583333334</v>
+        <v>45751.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6710</v>
+        <v>6270</v>
       </c>
       <c r="B65" s="2">
-        <v>45747.65625</v>
+        <v>45751.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6770</v>
+        <v>6350</v>
       </c>
       <c r="B66" s="2">
-        <v>45747.66666666666</v>
+        <v>45751.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6830</v>
+        <v>6420</v>
       </c>
       <c r="B67" s="2">
-        <v>45747.67708333334</v>
+        <v>45751.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6900</v>
+        <v>6490</v>
       </c>
       <c r="B68" s="2">
-        <v>45747.6875</v>
+        <v>45751.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6960</v>
+        <v>6570</v>
       </c>
       <c r="B69" s="2">
-        <v>45747.69791666666</v>
+        <v>45751.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7030</v>
+        <v>6650</v>
       </c>
       <c r="B70" s="2">
-        <v>45747.70833333334</v>
+        <v>45751.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7090</v>
+        <v>6730</v>
       </c>
       <c r="B71" s="2">
-        <v>45747.71875</v>
+        <v>45751.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7160</v>
+        <v>6820</v>
       </c>
       <c r="B72" s="2">
-        <v>45747.72916666666</v>
+        <v>45751.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7240</v>
+        <v>6930</v>
       </c>
       <c r="B73" s="2">
-        <v>45747.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7310</v>
+        <v>7040</v>
       </c>
       <c r="B74" s="2">
-        <v>45747.75</v>
+        <v>45751.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7380</v>
+        <v>7160</v>
       </c>
       <c r="B75" s="2">
-        <v>45747.76041666666</v>
+        <v>45751.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7460</v>
+        <v>7280</v>
       </c>
       <c r="B76" s="2">
-        <v>45747.77083333334</v>
+        <v>45751.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7540</v>
+        <v>7400</v>
       </c>
       <c r="B77" s="2">
-        <v>45747.78125</v>
+        <v>45751.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7640</v>
+        <v>7540</v>
       </c>
       <c r="B78" s="2">
-        <v>45747.79166666666</v>
+        <v>45751.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7700</v>
+        <v>7610</v>
       </c>
       <c r="B79" s="2">
-        <v>45747.80208333334</v>
+        <v>45751.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7710</v>
+        <v>7620</v>
       </c>
       <c r="B80" s="2">
-        <v>45747.8125</v>
+        <v>45751.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7710</v>
+        <v>7620</v>
       </c>
       <c r="B81" s="2">
-        <v>45747.82291666666</v>
+        <v>45751.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7660</v>
+        <v>7570</v>
       </c>
       <c r="B82" s="2">
-        <v>45747.83333333334</v>
+        <v>45751.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7570</v>
+        <v>7480</v>
       </c>
       <c r="B83" s="2">
-        <v>45747.84375</v>
+        <v>45751.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7450</v>
+        <v>7380</v>
       </c>
       <c r="B84" s="2">
-        <v>45747.85416666666</v>
+        <v>45751.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7300</v>
+        <v>7250</v>
       </c>
       <c r="B85" s="2">
-        <v>45747.86458333334</v>
+        <v>45751.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7140</v>
+        <v>7050</v>
       </c>
       <c r="B86" s="2">
-        <v>45747.875</v>
+        <v>45751.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="B87" s="2">
-        <v>45747.88541666666</v>
+        <v>45751.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6830</v>
+        <v>6720</v>
       </c>
       <c r="B88" s="2">
-        <v>45747.89583333334</v>
+        <v>45751.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6660</v>
+        <v>6550</v>
       </c>
       <c r="B89" s="2">
-        <v>45747.90625</v>
+        <v>45751.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="B90" s="2">
-        <v>45747.91666666666</v>
+        <v>45751.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6360</v>
+        <v>6260</v>
       </c>
       <c r="B91" s="2">
-        <v>45747.92708333334</v>
+        <v>45751.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6240</v>
+        <v>6140</v>
       </c>
       <c r="B92" s="2">
-        <v>45747.9375</v>
+        <v>45751.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6120</v>
+        <v>6020</v>
       </c>
       <c r="B93" s="2">
-        <v>45747.94791666666</v>
+        <v>45751.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5900</v>
+        <v>5930</v>
       </c>
       <c r="B94" s="2">
-        <v>45747.95833333334</v>
+        <v>45751.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5850</v>
+        <v>5860</v>
       </c>
       <c r="B95" s="2">
-        <v>45747.96875</v>
+        <v>45751.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5800</v>
+        <v>5810</v>
       </c>
       <c r="B96" s="2">
-        <v>45747.97916666666</v>
+        <v>45751.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5740</v>
+        <v>5750</v>
       </c>
       <c r="B97" s="2">
-        <v>45747.98958333334</v>
+        <v>45751.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5660</v>
+        <v>6070</v>
       </c>
       <c r="B2" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5610</v>
+        <v>6020</v>
       </c>
       <c r="B3" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5580</v>
+        <v>5970</v>
       </c>
       <c r="B4" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5550</v>
+        <v>5940</v>
       </c>
       <c r="B5" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5520</v>
+        <v>5910</v>
       </c>
       <c r="B6" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5500</v>
+        <v>5880</v>
       </c>
       <c r="B7" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5490</v>
+        <v>5860</v>
       </c>
       <c r="B8" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5470</v>
+        <v>5850</v>
       </c>
       <c r="B9" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5450</v>
+        <v>5850</v>
       </c>
       <c r="B10" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5430</v>
+        <v>5860</v>
       </c>
       <c r="B11" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5430</v>
+        <v>5870</v>
       </c>
       <c r="B12" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5440</v>
+        <v>5880</v>
       </c>
       <c r="B13" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5450</v>
+        <v>5890</v>
       </c>
       <c r="B14" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5460</v>
+        <v>5910</v>
       </c>
       <c r="B15" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5470</v>
+        <v>5930</v>
       </c>
       <c r="B16" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5500</v>
+        <v>5960</v>
       </c>
       <c r="B17" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5560</v>
+        <v>6010</v>
       </c>
       <c r="B18" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5630</v>
+        <v>6070</v>
       </c>
       <c r="B19" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5720</v>
+        <v>6160</v>
       </c>
       <c r="B20" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5820</v>
+        <v>6270</v>
       </c>
       <c r="B21" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5940</v>
+        <v>6400</v>
       </c>
       <c r="B22" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6060</v>
+        <v>6540</v>
       </c>
       <c r="B23" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6190</v>
+        <v>6690</v>
       </c>
       <c r="B24" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6360</v>
+        <v>6850</v>
       </c>
       <c r="B25" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6540</v>
+        <v>7000</v>
       </c>
       <c r="B26" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6730</v>
+        <v>7150</v>
       </c>
       <c r="B27" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6890</v>
+        <v>7270</v>
       </c>
       <c r="B28" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7020</v>
+        <v>7370</v>
       </c>
       <c r="B29" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7130</v>
+        <v>7440</v>
       </c>
       <c r="B30" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7180</v>
+        <v>7480</v>
       </c>
       <c r="B31" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7190</v>
+        <v>7500</v>
       </c>
       <c r="B32" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7200</v>
+        <v>7480</v>
       </c>
       <c r="B33" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7180</v>
+        <v>7440</v>
       </c>
       <c r="B34" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7150</v>
+        <v>7380</v>
       </c>
       <c r="B35" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7090</v>
+        <v>7310</v>
       </c>
       <c r="B36" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7000</v>
+        <v>7220</v>
       </c>
       <c r="B37" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6900</v>
+        <v>7140</v>
       </c>
       <c r="B38" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6800</v>
+        <v>7060</v>
       </c>
       <c r="B39" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6700</v>
+        <v>6980</v>
       </c>
       <c r="B40" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6600</v>
+        <v>6910</v>
       </c>
       <c r="B41" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6480</v>
+        <v>6850</v>
       </c>
       <c r="B42" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6390</v>
+        <v>6790</v>
       </c>
       <c r="B43" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6310</v>
+        <v>6740</v>
       </c>
       <c r="B44" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6240</v>
+        <v>6690</v>
       </c>
       <c r="B45" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6170</v>
+        <v>6640</v>
       </c>
       <c r="B46" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6120</v>
+        <v>6590</v>
       </c>
       <c r="B47" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6080</v>
+        <v>6550</v>
       </c>
       <c r="B48" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6050</v>
+        <v>6520</v>
       </c>
       <c r="B49" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6030</v>
+        <v>6490</v>
       </c>
       <c r="B50" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6030</v>
+        <v>6470</v>
       </c>
       <c r="B51" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6020</v>
+        <v>6460</v>
       </c>
       <c r="B52" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6020</v>
+        <v>6450</v>
       </c>
       <c r="B53" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6020</v>
+        <v>6460</v>
       </c>
       <c r="B54" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6020</v>
+        <v>6460</v>
       </c>
       <c r="B55" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6030</v>
+        <v>6470</v>
       </c>
       <c r="B56" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6030</v>
+        <v>6470</v>
       </c>
       <c r="B57" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6040</v>
+        <v>6460</v>
       </c>
       <c r="B58" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6050</v>
+        <v>6460</v>
       </c>
       <c r="B59" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6060</v>
+        <v>6450</v>
       </c>
       <c r="B60" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6070</v>
+        <v>6450</v>
       </c>
       <c r="B61" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6110</v>
+        <v>6450</v>
       </c>
       <c r="B62" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6150</v>
+        <v>6480</v>
       </c>
       <c r="B63" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6210</v>
+        <v>6510</v>
       </c>
       <c r="B64" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6270</v>
+        <v>6570</v>
       </c>
       <c r="B65" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6350</v>
+        <v>6630</v>
       </c>
       <c r="B66" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6420</v>
+        <v>6700</v>
       </c>
       <c r="B67" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6490</v>
+        <v>6770</v>
       </c>
       <c r="B68" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6570</v>
+        <v>6840</v>
       </c>
       <c r="B69" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6650</v>
+        <v>6920</v>
       </c>
       <c r="B70" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6730</v>
+        <v>7000</v>
       </c>
       <c r="B71" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6820</v>
+        <v>7100</v>
       </c>
       <c r="B72" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6930</v>
+        <v>7200</v>
       </c>
       <c r="B73" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7040</v>
+        <v>7330</v>
       </c>
       <c r="B74" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7160</v>
+        <v>7450</v>
       </c>
       <c r="B75" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7280</v>
+        <v>7570</v>
       </c>
       <c r="B76" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7400</v>
+        <v>7680</v>
       </c>
       <c r="B77" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7540</v>
+        <v>7760</v>
       </c>
       <c r="B78" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7610</v>
+        <v>7830</v>
       </c>
       <c r="B79" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7620</v>
+        <v>7860</v>
       </c>
       <c r="B80" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7620</v>
+        <v>7880</v>
       </c>
       <c r="B81" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7570</v>
+        <v>7840</v>
       </c>
       <c r="B82" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7480</v>
+        <v>7780</v>
       </c>
       <c r="B83" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7380</v>
+        <v>7660</v>
       </c>
       <c r="B84" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7250</v>
+        <v>7540</v>
       </c>
       <c r="B85" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7050</v>
+        <v>7380</v>
       </c>
       <c r="B86" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6900</v>
+        <v>7220</v>
       </c>
       <c r="B87" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6720</v>
+        <v>7050</v>
       </c>
       <c r="B88" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6550</v>
+        <v>6880</v>
       </c>
       <c r="B89" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6400</v>
+        <v>6720</v>
       </c>
       <c r="B90" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6260</v>
+        <v>6570</v>
       </c>
       <c r="B91" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6140</v>
+        <v>6420</v>
       </c>
       <c r="B92" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6020</v>
+        <v>6280</v>
       </c>
       <c r="B93" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5930</v>
+        <v>6150</v>
       </c>
       <c r="B94" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5860</v>
+        <v>6090</v>
       </c>
       <c r="B95" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5810</v>
+        <v>6040</v>
       </c>
       <c r="B96" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5750</v>
+        <v>5980</v>
       </c>
       <c r="B97" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6070</v>
+        <v>5430</v>
       </c>
       <c r="B2" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6020</v>
+        <v>5380</v>
       </c>
       <c r="B3" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5970</v>
+        <v>5330</v>
       </c>
       <c r="B4" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5940</v>
+        <v>5270</v>
       </c>
       <c r="B5" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5910</v>
+        <v>5230</v>
       </c>
       <c r="B6" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5880</v>
+        <v>5210</v>
       </c>
       <c r="B7" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5860</v>
+        <v>5190</v>
       </c>
       <c r="B8" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5850</v>
+        <v>5170</v>
       </c>
       <c r="B9" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5850</v>
+        <v>5150</v>
       </c>
       <c r="B10" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5860</v>
+        <v>5150</v>
       </c>
       <c r="B11" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5870</v>
+        <v>5150</v>
       </c>
       <c r="B12" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5880</v>
+        <v>5150</v>
       </c>
       <c r="B13" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5890</v>
+        <v>5170</v>
       </c>
       <c r="B14" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5910</v>
+        <v>5170</v>
       </c>
       <c r="B15" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5930</v>
+        <v>5190</v>
       </c>
       <c r="B16" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5960</v>
+        <v>5210</v>
       </c>
       <c r="B17" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6010</v>
+        <v>5250</v>
       </c>
       <c r="B18" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6070</v>
+        <v>5300</v>
       </c>
       <c r="B19" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6160</v>
+        <v>5350</v>
       </c>
       <c r="B20" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6270</v>
+        <v>5420</v>
       </c>
       <c r="B21" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="B22" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6540</v>
+        <v>5610</v>
       </c>
       <c r="B23" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6690</v>
+        <v>5730</v>
       </c>
       <c r="B24" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6850</v>
+        <v>5850</v>
       </c>
       <c r="B25" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7000</v>
+        <v>6050</v>
       </c>
       <c r="B26" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7150</v>
+        <v>6150</v>
       </c>
       <c r="B27" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7270</v>
+        <v>6230</v>
       </c>
       <c r="B28" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7370</v>
+        <v>6280</v>
       </c>
       <c r="B29" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7440</v>
+        <v>6290</v>
       </c>
       <c r="B30" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7480</v>
+        <v>6270</v>
       </c>
       <c r="B31" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7500</v>
+        <v>6220</v>
       </c>
       <c r="B32" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7480</v>
+        <v>6140</v>
       </c>
       <c r="B33" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7440</v>
+        <v>5970</v>
       </c>
       <c r="B34" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7380</v>
+        <v>5830</v>
       </c>
       <c r="B35" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7310</v>
+        <v>5690</v>
       </c>
       <c r="B36" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7220</v>
+        <v>5540</v>
       </c>
       <c r="B37" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7140</v>
+        <v>5420</v>
       </c>
       <c r="B38" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7060</v>
+        <v>5280</v>
       </c>
       <c r="B39" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6980</v>
+        <v>5160</v>
       </c>
       <c r="B40" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6910</v>
+        <v>5050</v>
       </c>
       <c r="B41" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6850</v>
+        <v>4910</v>
       </c>
       <c r="B42" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6790</v>
+        <v>4830</v>
       </c>
       <c r="B43" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6740</v>
+        <v>4760</v>
       </c>
       <c r="B44" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6690</v>
+        <v>4710</v>
       </c>
       <c r="B45" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6640</v>
+        <v>4670</v>
       </c>
       <c r="B46" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6590</v>
+        <v>4650</v>
       </c>
       <c r="B47" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6550</v>
+        <v>4620</v>
       </c>
       <c r="B48" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6520</v>
+        <v>4600</v>
       </c>
       <c r="B49" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6490</v>
+        <v>4570</v>
       </c>
       <c r="B50" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6470</v>
+        <v>4550</v>
       </c>
       <c r="B51" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6460</v>
+        <v>4550</v>
       </c>
       <c r="B52" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6450</v>
+        <v>4550</v>
       </c>
       <c r="B53" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6460</v>
+        <v>4550</v>
       </c>
       <c r="B54" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6460</v>
+        <v>4570</v>
       </c>
       <c r="B55" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6470</v>
+        <v>4600</v>
       </c>
       <c r="B56" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6470</v>
+        <v>4620</v>
       </c>
       <c r="B57" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6460</v>
+        <v>4630</v>
       </c>
       <c r="B58" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6460</v>
+        <v>4670</v>
       </c>
       <c r="B59" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6450</v>
+        <v>4730</v>
       </c>
       <c r="B60" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6450</v>
+        <v>4780</v>
       </c>
       <c r="B61" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6450</v>
+        <v>4890</v>
       </c>
       <c r="B62" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6480</v>
+        <v>4990</v>
       </c>
       <c r="B63" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6510</v>
+        <v>5100</v>
       </c>
       <c r="B64" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6570</v>
+        <v>5220</v>
       </c>
       <c r="B65" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6630</v>
+        <v>5320</v>
       </c>
       <c r="B66" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6700</v>
+        <v>5450</v>
       </c>
       <c r="B67" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6770</v>
+        <v>5560</v>
       </c>
       <c r="B68" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6840</v>
+        <v>5670</v>
       </c>
       <c r="B69" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6920</v>
+        <v>5820</v>
       </c>
       <c r="B70" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7000</v>
+        <v>5930</v>
       </c>
       <c r="B71" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7100</v>
+        <v>6050</v>
       </c>
       <c r="B72" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7200</v>
+        <v>6190</v>
       </c>
       <c r="B73" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7330</v>
+        <v>6290</v>
       </c>
       <c r="B74" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7450</v>
+        <v>6440</v>
       </c>
       <c r="B75" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7570</v>
+        <v>6580</v>
       </c>
       <c r="B76" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7680</v>
+        <v>6690</v>
       </c>
       <c r="B77" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7760</v>
+        <v>6830</v>
       </c>
       <c r="B78" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7830</v>
+        <v>6950</v>
       </c>
       <c r="B79" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7860</v>
+        <v>7060</v>
       </c>
       <c r="B80" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7880</v>
+        <v>7160</v>
       </c>
       <c r="B81" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7840</v>
+        <v>7250</v>
       </c>
       <c r="B82" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7780</v>
+        <v>7240</v>
       </c>
       <c r="B83" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7660</v>
+        <v>7210</v>
       </c>
       <c r="B84" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7540</v>
+        <v>7100</v>
       </c>
       <c r="B85" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7380</v>
+        <v>6880</v>
       </c>
       <c r="B86" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>7220</v>
+        <v>6730</v>
       </c>
       <c r="B87" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>7050</v>
+        <v>6590</v>
       </c>
       <c r="B88" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6880</v>
+        <v>6430</v>
       </c>
       <c r="B89" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6720</v>
+        <v>6200</v>
       </c>
       <c r="B90" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6570</v>
+        <v>6020</v>
       </c>
       <c r="B91" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6420</v>
+        <v>5930</v>
       </c>
       <c r="B92" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6280</v>
+        <v>5820</v>
       </c>
       <c r="B93" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6150</v>
+        <v>5530</v>
       </c>
       <c r="B94" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>6090</v>
+        <v>5500</v>
       </c>
       <c r="B95" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>6040</v>
+        <v>5430</v>
       </c>
       <c r="B96" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5980</v>
+        <v>5350</v>
       </c>
       <c r="B97" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,634 +397,634 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5430</v>
+        <v>5310</v>
       </c>
       <c r="B2" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5380</v>
+        <v>5260</v>
       </c>
       <c r="B3" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5330</v>
+        <v>5230</v>
       </c>
       <c r="B4" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5270</v>
+        <v>5200</v>
       </c>
       <c r="B5" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5230</v>
+        <v>5180</v>
       </c>
       <c r="B6" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5210</v>
+        <v>5160</v>
       </c>
       <c r="B7" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5190</v>
+        <v>5140</v>
       </c>
       <c r="B8" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5170</v>
+        <v>5120</v>
       </c>
       <c r="B9" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5150</v>
+        <v>5110</v>
       </c>
       <c r="B10" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5150</v>
+        <v>5100</v>
       </c>
       <c r="B11" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5150</v>
+        <v>5100</v>
       </c>
       <c r="B12" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5150</v>
+        <v>5120</v>
       </c>
       <c r="B13" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5170</v>
+        <v>5130</v>
       </c>
       <c r="B14" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5170</v>
+        <v>5140</v>
       </c>
       <c r="B15" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5190</v>
+        <v>5160</v>
       </c>
       <c r="B16" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5210</v>
+        <v>5170</v>
       </c>
       <c r="B17" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5250</v>
+        <v>5190</v>
       </c>
       <c r="B18" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5300</v>
+        <v>5220</v>
       </c>
       <c r="B19" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="B20" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5420</v>
+        <v>5330</v>
       </c>
       <c r="B21" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5500</v>
+        <v>5380</v>
       </c>
       <c r="B22" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5610</v>
+        <v>5480</v>
       </c>
       <c r="B23" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5730</v>
+        <v>5590</v>
       </c>
       <c r="B24" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5850</v>
+        <v>5720</v>
       </c>
       <c r="B25" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6050</v>
+        <v>5900</v>
       </c>
       <c r="B26" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6150</v>
+        <v>6030</v>
       </c>
       <c r="B27" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6230</v>
+        <v>6120</v>
       </c>
       <c r="B28" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6280</v>
+        <v>6140</v>
       </c>
       <c r="B29" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6290</v>
+        <v>6140</v>
       </c>
       <c r="B30" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6270</v>
+        <v>6140</v>
       </c>
       <c r="B31" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6220</v>
+        <v>6140</v>
       </c>
       <c r="B32" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6140</v>
+        <v>6100</v>
       </c>
       <c r="B33" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5970</v>
+        <v>6030</v>
       </c>
       <c r="B34" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5830</v>
+        <v>5950</v>
       </c>
       <c r="B35" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5690</v>
+        <v>5860</v>
       </c>
       <c r="B36" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5540</v>
+        <v>5770</v>
       </c>
       <c r="B37" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5420</v>
+        <v>5690</v>
       </c>
       <c r="B38" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5280</v>
+        <v>5610</v>
       </c>
       <c r="B39" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5160</v>
+        <v>5550</v>
       </c>
       <c r="B40" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5050</v>
+        <v>5470</v>
       </c>
       <c r="B41" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>4910</v>
+        <v>5390</v>
       </c>
       <c r="B42" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4830</v>
+        <v>5340</v>
       </c>
       <c r="B43" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4760</v>
+        <v>5290</v>
       </c>
       <c r="B44" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4710</v>
+        <v>5260</v>
       </c>
       <c r="B45" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4670</v>
+        <v>5220</v>
       </c>
       <c r="B46" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4650</v>
+        <v>5190</v>
       </c>
       <c r="B47" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4620</v>
+        <v>5170</v>
       </c>
       <c r="B48" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4600</v>
+        <v>5160</v>
       </c>
       <c r="B49" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4570</v>
+        <v>5190</v>
       </c>
       <c r="B50" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4550</v>
+        <v>5200</v>
       </c>
       <c r="B51" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4550</v>
+        <v>5200</v>
       </c>
       <c r="B52" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4550</v>
+        <v>5200</v>
       </c>
       <c r="B53" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4550</v>
+        <v>5200</v>
       </c>
       <c r="B54" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4570</v>
+        <v>5200</v>
       </c>
       <c r="B55" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="B56" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4620</v>
+        <v>5230</v>
       </c>
       <c r="B57" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4630</v>
+        <v>5260</v>
       </c>
       <c r="B58" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>4670</v>
+        <v>5280</v>
       </c>
       <c r="B59" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>4730</v>
+        <v>5310</v>
       </c>
       <c r="B60" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>4780</v>
+        <v>5350</v>
       </c>
       <c r="B61" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>4890</v>
+        <v>5400</v>
       </c>
       <c r="B62" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>4990</v>
+        <v>5480</v>
       </c>
       <c r="B63" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5100</v>
+        <v>5550</v>
       </c>
       <c r="B64" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5220</v>
+        <v>5630</v>
       </c>
       <c r="B65" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5320</v>
+        <v>5720</v>
       </c>
       <c r="B66" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5450</v>
+        <v>5810</v>
       </c>
       <c r="B67" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5560</v>
+        <v>5890</v>
       </c>
       <c r="B68" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5670</v>
+        <v>5970</v>
       </c>
       <c r="B69" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>5820</v>
+        <v>6090</v>
       </c>
       <c r="B70" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>5930</v>
+        <v>6170</v>
       </c>
       <c r="B71" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6050</v>
+        <v>6260</v>
       </c>
       <c r="B72" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6190</v>
+        <v>6360</v>
       </c>
       <c r="B73" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6290</v>
+        <v>6440</v>
       </c>
       <c r="B74" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6440</v>
+        <v>6550</v>
       </c>
       <c r="B75" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6580</v>
+        <v>6660</v>
       </c>
       <c r="B76" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6690</v>
+        <v>6760</v>
       </c>
       <c r="B77" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6830</v>
+        <v>6900</v>
       </c>
       <c r="B78" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6950</v>
+        <v>7010</v>
       </c>
       <c r="B79" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7060</v>
+        <v>7090</v>
       </c>
       <c r="B80" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1032,103 +1032,103 @@
         <v>7160</v>
       </c>
       <c r="B81" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7250</v>
+        <v>7180</v>
       </c>
       <c r="B82" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7240</v>
+        <v>7120</v>
       </c>
       <c r="B83" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7210</v>
+        <v>7060</v>
       </c>
       <c r="B84" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7100</v>
+        <v>6950</v>
       </c>
       <c r="B85" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6880</v>
+        <v>6770</v>
       </c>
       <c r="B86" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6730</v>
+        <v>6590</v>
       </c>
       <c r="B87" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6590</v>
+        <v>6420</v>
       </c>
       <c r="B88" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6430</v>
+        <v>6240</v>
       </c>
       <c r="B89" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6200</v>
+        <v>6090</v>
       </c>
       <c r="B90" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6020</v>
+        <v>5910</v>
       </c>
       <c r="B91" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5930</v>
+        <v>5810</v>
       </c>
       <c r="B92" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5820</v>
+        <v>5700</v>
       </c>
       <c r="B93" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1136,15 +1136,15 @@
         <v>5530</v>
       </c>
       <c r="B94" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="B95" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>5430</v>
       </c>
       <c r="B96" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>5350</v>
       </c>
       <c r="B97" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,194 +397,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5310</v>
+        <v>5390</v>
       </c>
       <c r="B2" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="B3" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5230</v>
+        <v>5300</v>
       </c>
       <c r="B4" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5200</v>
+        <v>5260</v>
       </c>
       <c r="B5" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5180</v>
+        <v>5230</v>
       </c>
       <c r="B6" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5160</v>
+        <v>5210</v>
       </c>
       <c r="B7" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5140</v>
+        <v>5190</v>
       </c>
       <c r="B8" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5120</v>
+        <v>5170</v>
       </c>
       <c r="B9" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5110</v>
+        <v>5150</v>
       </c>
       <c r="B10" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="B11" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="B12" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5120</v>
+        <v>5160</v>
       </c>
       <c r="B13" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5130</v>
+        <v>5190</v>
       </c>
       <c r="B14" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5140</v>
+        <v>5200</v>
       </c>
       <c r="B15" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5160</v>
+        <v>5200</v>
       </c>
       <c r="B16" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5170</v>
+        <v>5210</v>
       </c>
       <c r="B17" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5190</v>
+        <v>5250</v>
       </c>
       <c r="B18" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5220</v>
+        <v>5290</v>
       </c>
       <c r="B19" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="B20" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5330</v>
+        <v>5400</v>
       </c>
       <c r="B21" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5380</v>
+        <v>5470</v>
       </c>
       <c r="B22" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5480</v>
+        <v>5560</v>
       </c>
       <c r="B23" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5590</v>
+        <v>5650</v>
       </c>
       <c r="B24" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5720</v>
+        <v>5750</v>
       </c>
       <c r="B25" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,575 +592,575 @@
         <v>5900</v>
       </c>
       <c r="B26" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6030</v>
+        <v>6000</v>
       </c>
       <c r="B27" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6120</v>
+        <v>6050</v>
       </c>
       <c r="B28" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6140</v>
+        <v>6060</v>
       </c>
       <c r="B29" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6140</v>
+        <v>6040</v>
       </c>
       <c r="B30" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6140</v>
+        <v>6010</v>
       </c>
       <c r="B31" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6140</v>
+        <v>5960</v>
       </c>
       <c r="B32" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6100</v>
+        <v>5860</v>
       </c>
       <c r="B33" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6030</v>
+        <v>5720</v>
       </c>
       <c r="B34" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5950</v>
+        <v>5610</v>
       </c>
       <c r="B35" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5860</v>
+        <v>5490</v>
       </c>
       <c r="B36" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5770</v>
+        <v>5380</v>
       </c>
       <c r="B37" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5690</v>
+        <v>5310</v>
       </c>
       <c r="B38" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5610</v>
+        <v>5220</v>
       </c>
       <c r="B39" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5550</v>
+        <v>5160</v>
       </c>
       <c r="B40" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5470</v>
+        <v>5100</v>
       </c>
       <c r="B41" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5390</v>
+        <v>5030</v>
       </c>
       <c r="B42" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5340</v>
+        <v>4990</v>
       </c>
       <c r="B43" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5290</v>
+        <v>4960</v>
       </c>
       <c r="B44" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5260</v>
+        <v>4940</v>
       </c>
       <c r="B45" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5220</v>
+        <v>4910</v>
       </c>
       <c r="B46" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5190</v>
+        <v>4890</v>
       </c>
       <c r="B47" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5170</v>
+        <v>4870</v>
       </c>
       <c r="B48" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5160</v>
+        <v>4860</v>
       </c>
       <c r="B49" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5190</v>
+        <v>4870</v>
       </c>
       <c r="B50" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5200</v>
+        <v>4880</v>
       </c>
       <c r="B51" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5200</v>
+        <v>4880</v>
       </c>
       <c r="B52" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5200</v>
+        <v>4880</v>
       </c>
       <c r="B53" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5200</v>
+        <v>4890</v>
       </c>
       <c r="B54" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="B55" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5200</v>
+        <v>4910</v>
       </c>
       <c r="B56" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5230</v>
+        <v>4910</v>
       </c>
       <c r="B57" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5260</v>
+        <v>4930</v>
       </c>
       <c r="B58" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5280</v>
+        <v>4940</v>
       </c>
       <c r="B59" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5310</v>
+        <v>4960</v>
       </c>
       <c r="B60" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5350</v>
+        <v>4980</v>
       </c>
       <c r="B61" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5400</v>
+        <v>5040</v>
       </c>
       <c r="B62" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5480</v>
+        <v>5120</v>
       </c>
       <c r="B63" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5550</v>
+        <v>5180</v>
       </c>
       <c r="B64" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5630</v>
+        <v>5250</v>
       </c>
       <c r="B65" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5720</v>
+        <v>5320</v>
       </c>
       <c r="B66" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5810</v>
+        <v>5410</v>
       </c>
       <c r="B67" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5890</v>
+        <v>5500</v>
       </c>
       <c r="B68" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5970</v>
+        <v>5600</v>
       </c>
       <c r="B69" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6090</v>
+        <v>5740</v>
       </c>
       <c r="B70" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6170</v>
+        <v>5860</v>
       </c>
       <c r="B71" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6260</v>
+        <v>5990</v>
       </c>
       <c r="B72" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6360</v>
+        <v>6130</v>
       </c>
       <c r="B73" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6440</v>
+        <v>6260</v>
       </c>
       <c r="B74" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6550</v>
+        <v>6400</v>
       </c>
       <c r="B75" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6660</v>
+        <v>6520</v>
       </c>
       <c r="B76" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6760</v>
+        <v>6650</v>
       </c>
       <c r="B77" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6900</v>
+        <v>6740</v>
       </c>
       <c r="B78" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7010</v>
+        <v>6830</v>
       </c>
       <c r="B79" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7090</v>
+        <v>6920</v>
       </c>
       <c r="B80" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7160</v>
+        <v>7040</v>
       </c>
       <c r="B81" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7180</v>
+        <v>7120</v>
       </c>
       <c r="B82" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7120</v>
+        <v>7140</v>
       </c>
       <c r="B83" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7060</v>
+        <v>7120</v>
       </c>
       <c r="B84" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6950</v>
+        <v>7000</v>
       </c>
       <c r="B85" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6770</v>
+        <v>6790</v>
       </c>
       <c r="B86" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6590</v>
+        <v>6630</v>
       </c>
       <c r="B87" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="B88" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6240</v>
+        <v>6300</v>
       </c>
       <c r="B89" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6090</v>
+        <v>6100</v>
       </c>
       <c r="B90" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5910</v>
+        <v>5940</v>
       </c>
       <c r="B91" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5810</v>
+        <v>5830</v>
       </c>
       <c r="B92" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5700</v>
+        <v>5720</v>
       </c>
       <c r="B93" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5530</v>
+        <v>5640</v>
       </c>
       <c r="B94" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5490</v>
+        <v>5600</v>
       </c>
       <c r="B95" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5430</v>
+        <v>5540</v>
       </c>
       <c r="B96" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5350</v>
+        <v>5460</v>
       </c>
       <c r="B97" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,234 +397,234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5390</v>
+        <v>5330</v>
       </c>
       <c r="B2" s="2">
-        <v>45797</v>
+        <v>45799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5340</v>
+        <v>5280</v>
       </c>
       <c r="B3" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5300</v>
+        <v>5220</v>
       </c>
       <c r="B4" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5260</v>
+        <v>5170</v>
       </c>
       <c r="B5" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5230</v>
+        <v>5130</v>
       </c>
       <c r="B6" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5210</v>
+        <v>5090</v>
       </c>
       <c r="B7" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5190</v>
+        <v>5060</v>
       </c>
       <c r="B8" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5170</v>
+        <v>5050</v>
       </c>
       <c r="B9" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="B10" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="B11" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="B12" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5160</v>
+        <v>5050</v>
       </c>
       <c r="B13" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5190</v>
+        <v>5050</v>
       </c>
       <c r="B14" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5200</v>
+        <v>5050</v>
       </c>
       <c r="B15" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5200</v>
+        <v>5060</v>
       </c>
       <c r="B16" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5210</v>
+        <v>5070</v>
       </c>
       <c r="B17" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5250</v>
+        <v>5100</v>
       </c>
       <c r="B18" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5290</v>
+        <v>5140</v>
       </c>
       <c r="B19" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5340</v>
+        <v>5190</v>
       </c>
       <c r="B20" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5400</v>
+        <v>5260</v>
       </c>
       <c r="B21" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5470</v>
+        <v>5350</v>
       </c>
       <c r="B22" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5560</v>
+        <v>5440</v>
       </c>
       <c r="B23" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5650</v>
+        <v>5540</v>
       </c>
       <c r="B24" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5750</v>
+        <v>5640</v>
       </c>
       <c r="B25" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5900</v>
+        <v>5730</v>
       </c>
       <c r="B26" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6000</v>
+        <v>5820</v>
       </c>
       <c r="B27" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6050</v>
+        <v>5900</v>
       </c>
       <c r="B28" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6060</v>
+        <v>5950</v>
       </c>
       <c r="B29" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6040</v>
+        <v>5990</v>
       </c>
       <c r="B30" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -632,455 +632,455 @@
         <v>6010</v>
       </c>
       <c r="B31" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5960</v>
+        <v>6010</v>
       </c>
       <c r="B32" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5860</v>
+        <v>5980</v>
       </c>
       <c r="B33" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5720</v>
+        <v>5940</v>
       </c>
       <c r="B34" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5610</v>
+        <v>5880</v>
       </c>
       <c r="B35" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5490</v>
+        <v>5820</v>
       </c>
       <c r="B36" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5380</v>
+        <v>5750</v>
       </c>
       <c r="B37" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5310</v>
+        <v>5680</v>
       </c>
       <c r="B38" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5220</v>
+        <v>5610</v>
       </c>
       <c r="B39" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5160</v>
+        <v>5550</v>
       </c>
       <c r="B40" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="B41" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5030</v>
+        <v>5460</v>
       </c>
       <c r="B42" s="2">
-        <v>45797.41666666666</v>
+        <v>45799.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4990</v>
+        <v>5420</v>
       </c>
       <c r="B43" s="2">
-        <v>45797.42708333334</v>
+        <v>45799.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4960</v>
+        <v>5390</v>
       </c>
       <c r="B44" s="2">
-        <v>45797.4375</v>
+        <v>45799.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4940</v>
+        <v>5370</v>
       </c>
       <c r="B45" s="2">
-        <v>45797.44791666666</v>
+        <v>45799.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4910</v>
+        <v>5340</v>
       </c>
       <c r="B46" s="2">
-        <v>45797.45833333334</v>
+        <v>45799.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4890</v>
+        <v>5310</v>
       </c>
       <c r="B47" s="2">
-        <v>45797.46875</v>
+        <v>45799.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4870</v>
+        <v>5290</v>
       </c>
       <c r="B48" s="2">
-        <v>45797.47916666666</v>
+        <v>45799.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4860</v>
+        <v>5270</v>
       </c>
       <c r="B49" s="2">
-        <v>45797.48958333334</v>
+        <v>45799.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4870</v>
+        <v>5250</v>
       </c>
       <c r="B50" s="2">
-        <v>45797.5</v>
+        <v>45799.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4880</v>
+        <v>5240</v>
       </c>
       <c r="B51" s="2">
-        <v>45797.51041666666</v>
+        <v>45799.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4880</v>
+        <v>5240</v>
       </c>
       <c r="B52" s="2">
-        <v>45797.52083333334</v>
+        <v>45799.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4880</v>
+        <v>5250</v>
       </c>
       <c r="B53" s="2">
-        <v>45797.53125</v>
+        <v>45799.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4890</v>
+        <v>5270</v>
       </c>
       <c r="B54" s="2">
-        <v>45797.54166666666</v>
+        <v>45799.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="B55" s="2">
-        <v>45797.55208333334</v>
+        <v>45799.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4910</v>
+        <v>5320</v>
       </c>
       <c r="B56" s="2">
-        <v>45797.5625</v>
+        <v>45799.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4910</v>
+        <v>5350</v>
       </c>
       <c r="B57" s="2">
-        <v>45797.57291666666</v>
+        <v>45799.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4930</v>
+        <v>5380</v>
       </c>
       <c r="B58" s="2">
-        <v>45797.58333333334</v>
+        <v>45799.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>4940</v>
+        <v>5410</v>
       </c>
       <c r="B59" s="2">
-        <v>45797.59375</v>
+        <v>45799.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>4960</v>
+        <v>5440</v>
       </c>
       <c r="B60" s="2">
-        <v>45797.60416666666</v>
+        <v>45799.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>4980</v>
+        <v>5470</v>
       </c>
       <c r="B61" s="2">
-        <v>45797.61458333334</v>
+        <v>45799.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5040</v>
+        <v>5510</v>
       </c>
       <c r="B62" s="2">
-        <v>45797.625</v>
+        <v>45799.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5120</v>
+        <v>5560</v>
       </c>
       <c r="B63" s="2">
-        <v>45797.63541666666</v>
+        <v>45799.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5180</v>
+        <v>5620</v>
       </c>
       <c r="B64" s="2">
-        <v>45797.64583333334</v>
+        <v>45799.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5250</v>
+        <v>5680</v>
       </c>
       <c r="B65" s="2">
-        <v>45797.65625</v>
+        <v>45799.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5320</v>
+        <v>5750</v>
       </c>
       <c r="B66" s="2">
-        <v>45797.66666666666</v>
+        <v>45799.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5410</v>
+        <v>5830</v>
       </c>
       <c r="B67" s="2">
-        <v>45797.67708333334</v>
+        <v>45799.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="B68" s="2">
-        <v>45797.6875</v>
+        <v>45799.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5600</v>
+        <v>5970</v>
       </c>
       <c r="B69" s="2">
-        <v>45797.69791666666</v>
+        <v>45799.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>5740</v>
+        <v>6040</v>
       </c>
       <c r="B70" s="2">
-        <v>45797.70833333334</v>
+        <v>45799.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>5860</v>
+        <v>6120</v>
       </c>
       <c r="B71" s="2">
-        <v>45797.71875</v>
+        <v>45799.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>5990</v>
+        <v>6200</v>
       </c>
       <c r="B72" s="2">
-        <v>45797.72916666666</v>
+        <v>45799.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6130</v>
+        <v>6300</v>
       </c>
       <c r="B73" s="2">
-        <v>45797.73958333334</v>
+        <v>45799.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6260</v>
+        <v>6400</v>
       </c>
       <c r="B74" s="2">
-        <v>45797.75</v>
+        <v>45799.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="B75" s="2">
-        <v>45797.76041666666</v>
+        <v>45799.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6520</v>
+        <v>6600</v>
       </c>
       <c r="B76" s="2">
-        <v>45797.77083333334</v>
+        <v>45799.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6650</v>
+        <v>6700</v>
       </c>
       <c r="B77" s="2">
-        <v>45797.78125</v>
+        <v>45799.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6740</v>
+        <v>6790</v>
       </c>
       <c r="B78" s="2">
-        <v>45797.79166666666</v>
+        <v>45799.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6830</v>
+        <v>6880</v>
       </c>
       <c r="B79" s="2">
-        <v>45797.80208333334</v>
+        <v>45799.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6920</v>
+        <v>6960</v>
       </c>
       <c r="B80" s="2">
-        <v>45797.8125</v>
+        <v>45799.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7040</v>
+        <v>7020</v>
       </c>
       <c r="B81" s="2">
-        <v>45797.82291666666</v>
+        <v>45799.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7120</v>
+        <v>7060</v>
       </c>
       <c r="B82" s="2">
-        <v>45797.83333333334</v>
+        <v>45799.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7140</v>
+        <v>7070</v>
       </c>
       <c r="B83" s="2">
-        <v>45797.84375</v>
+        <v>45799.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7120</v>
+        <v>7030</v>
       </c>
       <c r="B84" s="2">
-        <v>45797.85416666666</v>
+        <v>45799.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7000</v>
+        <v>6920</v>
       </c>
       <c r="B85" s="2">
-        <v>45797.86458333334</v>
+        <v>45799.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6790</v>
+        <v>6800</v>
       </c>
       <c r="B86" s="2">
-        <v>45797.875</v>
+        <v>45799.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6630</v>
+        <v>6650</v>
       </c>
       <c r="B87" s="2">
-        <v>45797.88541666666</v>
+        <v>45799.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1088,39 +1088,39 @@
         <v>6480</v>
       </c>
       <c r="B88" s="2">
-        <v>45797.89583333334</v>
+        <v>45799.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6300</v>
+        <v>6330</v>
       </c>
       <c r="B89" s="2">
-        <v>45797.90625</v>
+        <v>45799.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="B90" s="2">
-        <v>45797.91666666666</v>
+        <v>45799.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5940</v>
+        <v>6000</v>
       </c>
       <c r="B91" s="2">
-        <v>45797.92708333334</v>
+        <v>45799.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5830</v>
+        <v>5860</v>
       </c>
       <c r="B92" s="2">
-        <v>45797.9375</v>
+        <v>45799.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1128,39 +1128,39 @@
         <v>5720</v>
       </c>
       <c r="B93" s="2">
-        <v>45797.94791666666</v>
+        <v>45799.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5640</v>
+        <v>5460</v>
       </c>
       <c r="B94" s="2">
-        <v>45797.95833333334</v>
+        <v>45799.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="B95" s="2">
-        <v>45797.96875</v>
+        <v>45799.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5540</v>
+        <v>5350</v>
       </c>
       <c r="B96" s="2">
-        <v>45797.97916666666</v>
+        <v>45799.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5460</v>
+        <v>5300</v>
       </c>
       <c r="B97" s="2">
-        <v>45797.98958333334</v>
+        <v>45799.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,330 +397,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5330</v>
+        <v>5280</v>
       </c>
       <c r="B2" s="2">
-        <v>45799</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5280</v>
+        <v>5200</v>
       </c>
       <c r="B3" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5220</v>
+        <v>5150</v>
       </c>
       <c r="B4" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5170</v>
+        <v>5110</v>
       </c>
       <c r="B5" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5130</v>
+        <v>5090</v>
       </c>
       <c r="B6" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5090</v>
+        <v>5080</v>
       </c>
       <c r="B7" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5060</v>
+        <v>5070</v>
       </c>
       <c r="B8" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5050</v>
+        <v>5060</v>
       </c>
       <c r="B9" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5050</v>
+        <v>5060</v>
       </c>
       <c r="B10" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5050</v>
+        <v>5060</v>
       </c>
       <c r="B11" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5050</v>
+        <v>5060</v>
       </c>
       <c r="B12" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5050</v>
+        <v>5080</v>
       </c>
       <c r="B13" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="B14" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5050</v>
+        <v>5110</v>
       </c>
       <c r="B15" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5060</v>
+        <v>5120</v>
       </c>
       <c r="B16" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5070</v>
+        <v>5140</v>
       </c>
       <c r="B17" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5100</v>
+        <v>5180</v>
       </c>
       <c r="B18" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5140</v>
+        <v>5230</v>
       </c>
       <c r="B19" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5190</v>
+        <v>5280</v>
       </c>
       <c r="B20" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="B21" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5350</v>
+        <v>5410</v>
       </c>
       <c r="B22" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5440</v>
+        <v>5490</v>
       </c>
       <c r="B23" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5540</v>
+        <v>5580</v>
       </c>
       <c r="B24" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5640</v>
+        <v>5690</v>
       </c>
       <c r="B25" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5730</v>
+        <v>5820</v>
       </c>
       <c r="B26" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5820</v>
+        <v>5950</v>
       </c>
       <c r="B27" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5900</v>
+        <v>6020</v>
       </c>
       <c r="B28" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5950</v>
+        <v>6070</v>
       </c>
       <c r="B29" s="2">
-        <v>45799.28125</v>
+        <v>45807.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5990</v>
+        <v>6090</v>
       </c>
       <c r="B30" s="2">
-        <v>45799.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6010</v>
+        <v>6100</v>
       </c>
       <c r="B31" s="2">
-        <v>45799.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6010</v>
+        <v>6100</v>
       </c>
       <c r="B32" s="2">
-        <v>45799.3125</v>
+        <v>45807.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5980</v>
+        <v>6090</v>
       </c>
       <c r="B33" s="2">
-        <v>45799.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5940</v>
+        <v>6050</v>
       </c>
       <c r="B34" s="2">
-        <v>45799.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5880</v>
+        <v>6000</v>
       </c>
       <c r="B35" s="2">
-        <v>45799.34375</v>
+        <v>45807.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5820</v>
+        <v>5930</v>
       </c>
       <c r="B36" s="2">
-        <v>45799.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5750</v>
+        <v>5860</v>
       </c>
       <c r="B37" s="2">
-        <v>45799.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5680</v>
+        <v>5780</v>
       </c>
       <c r="B38" s="2">
-        <v>45799.375</v>
+        <v>45807.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5610</v>
+        <v>5700</v>
       </c>
       <c r="B39" s="2">
-        <v>45799.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5550</v>
+        <v>5650</v>
       </c>
       <c r="B40" s="2">
-        <v>45799.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5500</v>
+        <v>5570</v>
       </c>
       <c r="B41" s="2">
-        <v>45799.40625</v>
+        <v>45807.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5460</v>
+        <v>5490</v>
       </c>
       <c r="B42" s="2">
-        <v>45799.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -728,439 +728,439 @@
         <v>5420</v>
       </c>
       <c r="B43" s="2">
-        <v>45799.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="B44" s="2">
-        <v>45799.4375</v>
+        <v>45807.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5370</v>
+        <v>5330</v>
       </c>
       <c r="B45" s="2">
-        <v>45799.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5340</v>
+        <v>5280</v>
       </c>
       <c r="B46" s="2">
-        <v>45799.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5310</v>
+        <v>5250</v>
       </c>
       <c r="B47" s="2">
-        <v>45799.46875</v>
+        <v>45807.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5290</v>
+        <v>5230</v>
       </c>
       <c r="B48" s="2">
-        <v>45799.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5270</v>
+        <v>5220</v>
       </c>
       <c r="B49" s="2">
-        <v>45799.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5250</v>
+        <v>5200</v>
       </c>
       <c r="B50" s="2">
-        <v>45799.5</v>
+        <v>45807.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5240</v>
+        <v>5190</v>
       </c>
       <c r="B51" s="2">
-        <v>45799.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5240</v>
+        <v>5190</v>
       </c>
       <c r="B52" s="2">
-        <v>45799.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5250</v>
+        <v>5190</v>
       </c>
       <c r="B53" s="2">
-        <v>45799.53125</v>
+        <v>45807.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5270</v>
+        <v>5190</v>
       </c>
       <c r="B54" s="2">
-        <v>45799.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="B55" s="2">
-        <v>45799.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5320</v>
+        <v>5210</v>
       </c>
       <c r="B56" s="2">
-        <v>45799.5625</v>
+        <v>45807.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5350</v>
+        <v>5220</v>
       </c>
       <c r="B57" s="2">
-        <v>45799.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5380</v>
+        <v>5250</v>
       </c>
       <c r="B58" s="2">
-        <v>45799.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5410</v>
+        <v>5300</v>
       </c>
       <c r="B59" s="2">
-        <v>45799.59375</v>
+        <v>45807.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5440</v>
+        <v>5350</v>
       </c>
       <c r="B60" s="2">
-        <v>45799.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5470</v>
+        <v>5400</v>
       </c>
       <c r="B61" s="2">
-        <v>45799.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5510</v>
+        <v>5460</v>
       </c>
       <c r="B62" s="2">
-        <v>45799.625</v>
+        <v>45807.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5560</v>
+        <v>5520</v>
       </c>
       <c r="B63" s="2">
-        <v>45799.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5620</v>
+        <v>5580</v>
       </c>
       <c r="B64" s="2">
-        <v>45799.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5680</v>
+        <v>5650</v>
       </c>
       <c r="B65" s="2">
-        <v>45799.65625</v>
+        <v>45807.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5750</v>
+        <v>5720</v>
       </c>
       <c r="B66" s="2">
-        <v>45799.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5830</v>
+        <v>5770</v>
       </c>
       <c r="B67" s="2">
-        <v>45799.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5900</v>
+        <v>5830</v>
       </c>
       <c r="B68" s="2">
-        <v>45799.6875</v>
+        <v>45807.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5970</v>
+        <v>5910</v>
       </c>
       <c r="B69" s="2">
-        <v>45799.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6040</v>
+        <v>6010</v>
       </c>
       <c r="B70" s="2">
-        <v>45799.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6120</v>
+        <v>6110</v>
       </c>
       <c r="B71" s="2">
-        <v>45799.71875</v>
+        <v>45807.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6200</v>
+        <v>6190</v>
       </c>
       <c r="B72" s="2">
-        <v>45799.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6300</v>
+        <v>6270</v>
       </c>
       <c r="B73" s="2">
-        <v>45799.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6400</v>
+        <v>6370</v>
       </c>
       <c r="B74" s="2">
-        <v>45799.75</v>
+        <v>45807.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6500</v>
+        <v>6470</v>
       </c>
       <c r="B75" s="2">
-        <v>45799.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6600</v>
+        <v>6550</v>
       </c>
       <c r="B76" s="2">
-        <v>45799.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6700</v>
+        <v>6630</v>
       </c>
       <c r="B77" s="2">
-        <v>45799.78125</v>
+        <v>45807.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6790</v>
+        <v>6710</v>
       </c>
       <c r="B78" s="2">
-        <v>45799.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6880</v>
+        <v>6780</v>
       </c>
       <c r="B79" s="2">
-        <v>45799.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6960</v>
+        <v>6840</v>
       </c>
       <c r="B80" s="2">
-        <v>45799.8125</v>
+        <v>45807.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7020</v>
+        <v>6890</v>
       </c>
       <c r="B81" s="2">
-        <v>45799.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7060</v>
+        <v>6900</v>
       </c>
       <c r="B82" s="2">
-        <v>45799.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7070</v>
+        <v>6880</v>
       </c>
       <c r="B83" s="2">
-        <v>45799.84375</v>
+        <v>45807.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7030</v>
+        <v>6860</v>
       </c>
       <c r="B84" s="2">
-        <v>45799.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6920</v>
+        <v>6790</v>
       </c>
       <c r="B85" s="2">
-        <v>45799.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6800</v>
+        <v>6640</v>
       </c>
       <c r="B86" s="2">
-        <v>45799.875</v>
+        <v>45807.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6650</v>
+        <v>6480</v>
       </c>
       <c r="B87" s="2">
-        <v>45799.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6480</v>
+        <v>6330</v>
       </c>
       <c r="B88" s="2">
-        <v>45799.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6330</v>
+        <v>6180</v>
       </c>
       <c r="B89" s="2">
-        <v>45799.90625</v>
+        <v>45807.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6150</v>
+        <v>6040</v>
       </c>
       <c r="B90" s="2">
-        <v>45799.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6000</v>
+        <v>5920</v>
       </c>
       <c r="B91" s="2">
-        <v>45799.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5860</v>
+        <v>5810</v>
       </c>
       <c r="B92" s="2">
-        <v>45799.9375</v>
+        <v>45807.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5720</v>
+        <v>5700</v>
       </c>
       <c r="B93" s="2">
-        <v>45799.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5460</v>
+        <v>5510</v>
       </c>
       <c r="B94" s="2">
-        <v>45799.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5400</v>
+        <v>5470</v>
       </c>
       <c r="B95" s="2">
-        <v>45799.96875</v>
+        <v>45807.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5350</v>
+        <v>5410</v>
       </c>
       <c r="B96" s="2">
-        <v>45799.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5300</v>
+        <v>5320</v>
       </c>
       <c r="B97" s="2">
-        <v>45799.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5280</v>
+        <v>4620</v>
       </c>
       <c r="B2" s="2">
-        <v>45807</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5200</v>
+        <v>4580</v>
       </c>
       <c r="B3" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5150</v>
+        <v>4540</v>
       </c>
       <c r="B4" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5110</v>
+        <v>4500</v>
       </c>
       <c r="B5" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5090</v>
+        <v>4470</v>
       </c>
       <c r="B6" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5080</v>
+        <v>4440</v>
       </c>
       <c r="B7" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5070</v>
+        <v>4430</v>
       </c>
       <c r="B8" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5060</v>
+        <v>4430</v>
       </c>
       <c r="B9" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5060</v>
+        <v>4430</v>
       </c>
       <c r="B10" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5060</v>
+        <v>4440</v>
       </c>
       <c r="B11" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5060</v>
+        <v>4450</v>
       </c>
       <c r="B12" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5080</v>
+        <v>4460</v>
       </c>
       <c r="B13" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5100</v>
+        <v>4470</v>
       </c>
       <c r="B14" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5110</v>
+        <v>4490</v>
       </c>
       <c r="B15" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5120</v>
+        <v>4510</v>
       </c>
       <c r="B16" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5140</v>
+        <v>4530</v>
       </c>
       <c r="B17" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5180</v>
+        <v>4570</v>
       </c>
       <c r="B18" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5230</v>
+        <v>4630</v>
       </c>
       <c r="B19" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5280</v>
+        <v>4700</v>
       </c>
       <c r="B20" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5340</v>
+        <v>4800</v>
       </c>
       <c r="B21" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5410</v>
+        <v>4910</v>
       </c>
       <c r="B22" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5490</v>
+        <v>5030</v>
       </c>
       <c r="B23" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5580</v>
+        <v>5160</v>
       </c>
       <c r="B24" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5690</v>
+        <v>5290</v>
       </c>
       <c r="B25" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5820</v>
+        <v>5400</v>
       </c>
       <c r="B26" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5950</v>
+        <v>5500</v>
       </c>
       <c r="B27" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6020</v>
+        <v>5580</v>
       </c>
       <c r="B28" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6070</v>
+        <v>5620</v>
       </c>
       <c r="B29" s="2">
-        <v>45807.28125</v>
+        <v>45810.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6090</v>
+        <v>5640</v>
       </c>
       <c r="B30" s="2">
-        <v>45807.29166666666</v>
+        <v>45810.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6100</v>
+        <v>5630</v>
       </c>
       <c r="B31" s="2">
-        <v>45807.30208333334</v>
+        <v>45810.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6100</v>
+        <v>5590</v>
       </c>
       <c r="B32" s="2">
-        <v>45807.3125</v>
+        <v>45810.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6090</v>
+        <v>5530</v>
       </c>
       <c r="B33" s="2">
-        <v>45807.32291666666</v>
+        <v>45810.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6050</v>
+        <v>5460</v>
       </c>
       <c r="B34" s="2">
-        <v>45807.33333333334</v>
+        <v>45810.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6000</v>
+        <v>5380</v>
       </c>
       <c r="B35" s="2">
-        <v>45807.34375</v>
+        <v>45810.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5930</v>
+        <v>5300</v>
       </c>
       <c r="B36" s="2">
-        <v>45807.35416666666</v>
+        <v>45810.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5860</v>
+        <v>5240</v>
       </c>
       <c r="B37" s="2">
-        <v>45807.36458333334</v>
+        <v>45810.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5780</v>
+        <v>5170</v>
       </c>
       <c r="B38" s="2">
-        <v>45807.375</v>
+        <v>45810.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5700</v>
+        <v>5110</v>
       </c>
       <c r="B39" s="2">
-        <v>45807.38541666666</v>
+        <v>45810.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5650</v>
+        <v>5060</v>
       </c>
       <c r="B40" s="2">
-        <v>45807.39583333334</v>
+        <v>45810.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5570</v>
+        <v>5030</v>
       </c>
       <c r="B41" s="2">
-        <v>45807.40625</v>
+        <v>45810.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5490</v>
+        <v>5000</v>
       </c>
       <c r="B42" s="2">
-        <v>45807.41666666666</v>
+        <v>45810.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5420</v>
+        <v>4980</v>
       </c>
       <c r="B43" s="2">
-        <v>45807.42708333334</v>
+        <v>45810.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5380</v>
+        <v>4960</v>
       </c>
       <c r="B44" s="2">
-        <v>45807.4375</v>
+        <v>45810.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5330</v>
+        <v>4950</v>
       </c>
       <c r="B45" s="2">
-        <v>45807.44791666666</v>
+        <v>45810.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5280</v>
+        <v>4950</v>
       </c>
       <c r="B46" s="2">
-        <v>45807.45833333334</v>
+        <v>45810.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5250</v>
+        <v>4950</v>
       </c>
       <c r="B47" s="2">
-        <v>45807.46875</v>
+        <v>45810.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5230</v>
+        <v>4960</v>
       </c>
       <c r="B48" s="2">
-        <v>45807.47916666666</v>
+        <v>45810.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5220</v>
+        <v>4980</v>
       </c>
       <c r="B49" s="2">
-        <v>45807.48958333334</v>
+        <v>45810.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="B50" s="2">
-        <v>45807.5</v>
+        <v>45810.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5190</v>
+        <v>5030</v>
       </c>
       <c r="B51" s="2">
-        <v>45807.51041666666</v>
+        <v>45810.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5190</v>
+        <v>5070</v>
       </c>
       <c r="B52" s="2">
-        <v>45807.52083333334</v>
+        <v>45810.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5190</v>
+        <v>5100</v>
       </c>
       <c r="B53" s="2">
-        <v>45807.53125</v>
+        <v>45810.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5190</v>
+        <v>5140</v>
       </c>
       <c r="B54" s="2">
-        <v>45807.54166666666</v>
+        <v>45810.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5200</v>
+        <v>5160</v>
       </c>
       <c r="B55" s="2">
-        <v>45807.55208333334</v>
+        <v>45810.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5210</v>
+        <v>5190</v>
       </c>
       <c r="B56" s="2">
-        <v>45807.5625</v>
+        <v>45810.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="B57" s="2">
-        <v>45807.57291666666</v>
+        <v>45810.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="B58" s="2">
-        <v>45807.58333333334</v>
+        <v>45810.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="B59" s="2">
-        <v>45807.59375</v>
+        <v>45810.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5350</v>
+        <v>5270</v>
       </c>
       <c r="B60" s="2">
-        <v>45807.60416666666</v>
+        <v>45810.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="B61" s="2">
-        <v>45807.61458333334</v>
+        <v>45810.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5460</v>
+        <v>5340</v>
       </c>
       <c r="B62" s="2">
-        <v>45807.625</v>
+        <v>45810.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5520</v>
+        <v>5390</v>
       </c>
       <c r="B63" s="2">
-        <v>45807.63541666666</v>
+        <v>45810.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5580</v>
+        <v>5460</v>
       </c>
       <c r="B64" s="2">
-        <v>45807.64583333334</v>
+        <v>45810.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5650</v>
+        <v>5520</v>
       </c>
       <c r="B65" s="2">
-        <v>45807.65625</v>
+        <v>45810.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5720</v>
+        <v>5590</v>
       </c>
       <c r="B66" s="2">
-        <v>45807.66666666666</v>
+        <v>45810.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5770</v>
+        <v>5650</v>
       </c>
       <c r="B67" s="2">
-        <v>45807.67708333334</v>
+        <v>45810.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5830</v>
+        <v>5720</v>
       </c>
       <c r="B68" s="2">
-        <v>45807.6875</v>
+        <v>45810.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5910</v>
+        <v>5790</v>
       </c>
       <c r="B69" s="2">
-        <v>45807.69791666666</v>
+        <v>45810.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6010</v>
+        <v>5850</v>
       </c>
       <c r="B70" s="2">
-        <v>45807.70833333334</v>
+        <v>45810.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6110</v>
+        <v>5920</v>
       </c>
       <c r="B71" s="2">
-        <v>45807.71875</v>
+        <v>45810.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6190</v>
+        <v>6010</v>
       </c>
       <c r="B72" s="2">
-        <v>45807.72916666666</v>
+        <v>45810.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6270</v>
+        <v>6110</v>
       </c>
       <c r="B73" s="2">
-        <v>45807.73958333334</v>
+        <v>45810.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6370</v>
+        <v>6200</v>
       </c>
       <c r="B74" s="2">
-        <v>45807.75</v>
+        <v>45810.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6470</v>
+        <v>6300</v>
       </c>
       <c r="B75" s="2">
-        <v>45807.76041666666</v>
+        <v>45810.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6550</v>
+        <v>6400</v>
       </c>
       <c r="B76" s="2">
-        <v>45807.77083333334</v>
+        <v>45810.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6630</v>
+        <v>6480</v>
       </c>
       <c r="B77" s="2">
-        <v>45807.78125</v>
+        <v>45810.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6710</v>
+        <v>6580</v>
       </c>
       <c r="B78" s="2">
-        <v>45807.79166666666</v>
+        <v>45810.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6780</v>
+        <v>6690</v>
       </c>
       <c r="B79" s="2">
-        <v>45807.80208333334</v>
+        <v>45810.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6840</v>
+        <v>6760</v>
       </c>
       <c r="B80" s="2">
-        <v>45807.8125</v>
+        <v>45810.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6890</v>
+        <v>6840</v>
       </c>
       <c r="B81" s="2">
-        <v>45807.82291666666</v>
+        <v>45810.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6900</v>
+        <v>6860</v>
       </c>
       <c r="B82" s="2">
-        <v>45807.83333333334</v>
+        <v>45810.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6880</v>
+        <v>6840</v>
       </c>
       <c r="B83" s="2">
-        <v>45807.84375</v>
+        <v>45810.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6860</v>
+        <v>6780</v>
       </c>
       <c r="B84" s="2">
-        <v>45807.85416666666</v>
+        <v>45810.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6790</v>
+        <v>6700</v>
       </c>
       <c r="B85" s="2">
-        <v>45807.86458333334</v>
+        <v>45810.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6640</v>
+        <v>6590</v>
       </c>
       <c r="B86" s="2">
-        <v>45807.875</v>
+        <v>45810.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6480</v>
+        <v>6460</v>
       </c>
       <c r="B87" s="2">
-        <v>45807.88541666666</v>
+        <v>45810.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6330</v>
+        <v>6300</v>
       </c>
       <c r="B88" s="2">
-        <v>45807.89583333334</v>
+        <v>45810.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6180</v>
+        <v>6140</v>
       </c>
       <c r="B89" s="2">
-        <v>45807.90625</v>
+        <v>45810.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6040</v>
+        <v>5970</v>
       </c>
       <c r="B90" s="2">
-        <v>45807.91666666666</v>
+        <v>45810.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5920</v>
+        <v>5820</v>
       </c>
       <c r="B91" s="2">
-        <v>45807.92708333334</v>
+        <v>45810.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5810</v>
+        <v>5660</v>
       </c>
       <c r="B92" s="2">
-        <v>45807.9375</v>
+        <v>45810.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5700</v>
+        <v>5520</v>
       </c>
       <c r="B93" s="2">
-        <v>45807.94791666666</v>
+        <v>45810.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5510</v>
+        <v>5350</v>
       </c>
       <c r="B94" s="2">
-        <v>45807.95833333334</v>
+        <v>45810.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5470</v>
+        <v>5300</v>
       </c>
       <c r="B95" s="2">
-        <v>45807.96875</v>
+        <v>45810.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5410</v>
+        <v>5250</v>
       </c>
       <c r="B96" s="2">
-        <v>45807.97916666666</v>
+        <v>45810.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5320</v>
+        <v>5230</v>
       </c>
       <c r="B97" s="2">
-        <v>45807.98958333334</v>
+        <v>45810.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4620</v>
+        <v>5470</v>
       </c>
       <c r="B2" s="2">
-        <v>45810</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4580</v>
+        <v>5420</v>
       </c>
       <c r="B3" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>4540</v>
+        <v>5370</v>
       </c>
       <c r="B4" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4500</v>
+        <v>5320</v>
       </c>
       <c r="B5" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4470</v>
+        <v>5280</v>
       </c>
       <c r="B6" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4440</v>
+        <v>5240</v>
       </c>
       <c r="B7" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4430</v>
+        <v>5210</v>
       </c>
       <c r="B8" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4430</v>
+        <v>5180</v>
       </c>
       <c r="B9" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4430</v>
+        <v>5160</v>
       </c>
       <c r="B10" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4440</v>
+        <v>5150</v>
       </c>
       <c r="B11" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4450</v>
+        <v>5140</v>
       </c>
       <c r="B12" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4460</v>
+        <v>5130</v>
       </c>
       <c r="B13" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4470</v>
+        <v>5120</v>
       </c>
       <c r="B14" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4490</v>
+        <v>5120</v>
       </c>
       <c r="B15" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4510</v>
+        <v>5120</v>
       </c>
       <c r="B16" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4530</v>
+        <v>5120</v>
       </c>
       <c r="B17" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4570</v>
+        <v>5140</v>
       </c>
       <c r="B18" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>4630</v>
+        <v>5170</v>
       </c>
       <c r="B19" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>4700</v>
+        <v>5210</v>
       </c>
       <c r="B20" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4800</v>
+        <v>5260</v>
       </c>
       <c r="B21" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>4910</v>
+        <v>5330</v>
       </c>
       <c r="B22" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5030</v>
+        <v>5400</v>
       </c>
       <c r="B23" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5160</v>
+        <v>5490</v>
       </c>
       <c r="B24" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5290</v>
+        <v>5600</v>
       </c>
       <c r="B25" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5400</v>
+        <v>5730</v>
       </c>
       <c r="B26" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5500</v>
+        <v>5830</v>
       </c>
       <c r="B27" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5580</v>
+        <v>5870</v>
       </c>
       <c r="B28" s="2">
-        <v>45810.27083333334</v>
+        <v>45821.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5620</v>
+        <v>5880</v>
       </c>
       <c r="B29" s="2">
-        <v>45810.28125</v>
+        <v>45821.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5640</v>
+        <v>5880</v>
       </c>
       <c r="B30" s="2">
-        <v>45810.29166666666</v>
+        <v>45821.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5630</v>
+        <v>5870</v>
       </c>
       <c r="B31" s="2">
-        <v>45810.30208333334</v>
+        <v>45821.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5590</v>
+        <v>5840</v>
       </c>
       <c r="B32" s="2">
-        <v>45810.3125</v>
+        <v>45821.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5530</v>
+        <v>5800</v>
       </c>
       <c r="B33" s="2">
-        <v>45810.32291666666</v>
+        <v>45821.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5460</v>
+        <v>5720</v>
       </c>
       <c r="B34" s="2">
-        <v>45810.33333333334</v>
+        <v>45821.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5380</v>
+        <v>5630</v>
       </c>
       <c r="B35" s="2">
-        <v>45810.34375</v>
+        <v>45821.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5300</v>
+        <v>5560</v>
       </c>
       <c r="B36" s="2">
-        <v>45810.35416666666</v>
+        <v>45821.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5240</v>
+        <v>5480</v>
       </c>
       <c r="B37" s="2">
-        <v>45810.36458333334</v>
+        <v>45821.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5170</v>
+        <v>5410</v>
       </c>
       <c r="B38" s="2">
-        <v>45810.375</v>
+        <v>45821.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5110</v>
+        <v>5320</v>
       </c>
       <c r="B39" s="2">
-        <v>45810.38541666666</v>
+        <v>45821.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5060</v>
+        <v>5260</v>
       </c>
       <c r="B40" s="2">
-        <v>45810.39583333334</v>
+        <v>45821.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5030</v>
+        <v>5190</v>
       </c>
       <c r="B41" s="2">
-        <v>45810.40625</v>
+        <v>45821.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="B42" s="2">
-        <v>45810.41666666666</v>
+        <v>45821.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4980</v>
+        <v>5030</v>
       </c>
       <c r="B43" s="2">
-        <v>45810.42708333334</v>
+        <v>45821.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4960</v>
+        <v>4970</v>
       </c>
       <c r="B44" s="2">
-        <v>45810.4375</v>
+        <v>45821.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4950</v>
+        <v>4920</v>
       </c>
       <c r="B45" s="2">
-        <v>45810.44791666666</v>
+        <v>45821.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4950</v>
+        <v>4880</v>
       </c>
       <c r="B46" s="2">
-        <v>45810.45833333334</v>
+        <v>45821.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="B47" s="2">
-        <v>45810.46875</v>
+        <v>45821.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4960</v>
+        <v>4830</v>
       </c>
       <c r="B48" s="2">
-        <v>45810.47916666666</v>
+        <v>45821.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4980</v>
+        <v>4830</v>
       </c>
       <c r="B49" s="2">
-        <v>45810.48958333334</v>
+        <v>45821.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5000</v>
+        <v>4830</v>
       </c>
       <c r="B50" s="2">
-        <v>45810.5</v>
+        <v>45821.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5030</v>
+        <v>4830</v>
       </c>
       <c r="B51" s="2">
-        <v>45810.51041666666</v>
+        <v>45821.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5070</v>
+        <v>4840</v>
       </c>
       <c r="B52" s="2">
-        <v>45810.52083333334</v>
+        <v>45821.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5100</v>
+        <v>4850</v>
       </c>
       <c r="B53" s="2">
-        <v>45810.53125</v>
+        <v>45821.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5140</v>
+        <v>4860</v>
       </c>
       <c r="B54" s="2">
-        <v>45810.54166666666</v>
+        <v>45821.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5160</v>
+        <v>4870</v>
       </c>
       <c r="B55" s="2">
-        <v>45810.55208333334</v>
+        <v>45821.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5190</v>
+        <v>4880</v>
       </c>
       <c r="B56" s="2">
-        <v>45810.5625</v>
+        <v>45821.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5210</v>
+        <v>4890</v>
       </c>
       <c r="B57" s="2">
-        <v>45810.57291666666</v>
+        <v>45821.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5230</v>
+        <v>4910</v>
       </c>
       <c r="B58" s="2">
-        <v>45810.58333333334</v>
+        <v>45821.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5250</v>
+        <v>4930</v>
       </c>
       <c r="B59" s="2">
-        <v>45810.59375</v>
+        <v>45821.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5270</v>
+        <v>4960</v>
       </c>
       <c r="B60" s="2">
-        <v>45810.60416666666</v>
+        <v>45821.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5300</v>
+        <v>5020</v>
       </c>
       <c r="B61" s="2">
-        <v>45810.61458333334</v>
+        <v>45821.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5340</v>
+        <v>5100</v>
       </c>
       <c r="B62" s="2">
-        <v>45810.625</v>
+        <v>45821.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5390</v>
+        <v>5200</v>
       </c>
       <c r="B63" s="2">
-        <v>45810.63541666666</v>
+        <v>45821.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5460</v>
+        <v>5300</v>
       </c>
       <c r="B64" s="2">
-        <v>45810.64583333334</v>
+        <v>45821.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5520</v>
+        <v>5400</v>
       </c>
       <c r="B65" s="2">
-        <v>45810.65625</v>
+        <v>45821.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5590</v>
+        <v>5500</v>
       </c>
       <c r="B66" s="2">
-        <v>45810.66666666666</v>
+        <v>45821.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5650</v>
+        <v>5600</v>
       </c>
       <c r="B67" s="2">
-        <v>45810.67708333334</v>
+        <v>45821.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5720</v>
+        <v>5680</v>
       </c>
       <c r="B68" s="2">
-        <v>45810.6875</v>
+        <v>45821.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5790</v>
+        <v>5780</v>
       </c>
       <c r="B69" s="2">
-        <v>45810.69791666666</v>
+        <v>45821.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>5850</v>
+        <v>5890</v>
       </c>
       <c r="B70" s="2">
-        <v>45810.70833333334</v>
+        <v>45821.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>5920</v>
+        <v>6000</v>
       </c>
       <c r="B71" s="2">
-        <v>45810.71875</v>
+        <v>45821.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6010</v>
+        <v>6100</v>
       </c>
       <c r="B72" s="2">
-        <v>45810.72916666666</v>
+        <v>45821.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6110</v>
+        <v>6210</v>
       </c>
       <c r="B73" s="2">
-        <v>45810.73958333334</v>
+        <v>45821.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6200</v>
+        <v>6310</v>
       </c>
       <c r="B74" s="2">
-        <v>45810.75</v>
+        <v>45821.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="B75" s="2">
-        <v>45810.76041666666</v>
+        <v>45821.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6400</v>
+        <v>6490</v>
       </c>
       <c r="B76" s="2">
-        <v>45810.77083333334</v>
+        <v>45821.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6480</v>
+        <v>6560</v>
       </c>
       <c r="B77" s="2">
-        <v>45810.78125</v>
+        <v>45821.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6580</v>
+        <v>6650</v>
       </c>
       <c r="B78" s="2">
-        <v>45810.79166666666</v>
+        <v>45821.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6690</v>
+        <v>6730</v>
       </c>
       <c r="B79" s="2">
-        <v>45810.80208333334</v>
+        <v>45821.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6760</v>
+        <v>6790</v>
       </c>
       <c r="B80" s="2">
-        <v>45810.8125</v>
+        <v>45821.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6840</v>
+        <v>6870</v>
       </c>
       <c r="B81" s="2">
-        <v>45810.82291666666</v>
+        <v>45821.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6860</v>
+        <v>6930</v>
       </c>
       <c r="B82" s="2">
-        <v>45810.83333333334</v>
+        <v>45821.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6840</v>
+        <v>6950</v>
       </c>
       <c r="B83" s="2">
-        <v>45810.84375</v>
+        <v>45821.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6780</v>
+        <v>6950</v>
       </c>
       <c r="B84" s="2">
-        <v>45810.85416666666</v>
+        <v>45821.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6700</v>
+        <v>6910</v>
       </c>
       <c r="B85" s="2">
-        <v>45810.86458333334</v>
+        <v>45821.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6590</v>
+        <v>6780</v>
       </c>
       <c r="B86" s="2">
-        <v>45810.875</v>
+        <v>45821.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6460</v>
+        <v>6640</v>
       </c>
       <c r="B87" s="2">
-        <v>45810.88541666666</v>
+        <v>45821.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6300</v>
+        <v>6480</v>
       </c>
       <c r="B88" s="2">
-        <v>45810.89583333334</v>
+        <v>45821.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6140</v>
+        <v>6300</v>
       </c>
       <c r="B89" s="2">
-        <v>45810.90625</v>
+        <v>45821.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>5970</v>
+        <v>6140</v>
       </c>
       <c r="B90" s="2">
-        <v>45810.91666666666</v>
+        <v>45821.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5820</v>
+        <v>6000</v>
       </c>
       <c r="B91" s="2">
-        <v>45810.92708333334</v>
+        <v>45821.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5660</v>
+        <v>5890</v>
       </c>
       <c r="B92" s="2">
-        <v>45810.9375</v>
+        <v>45821.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5520</v>
+        <v>5770</v>
       </c>
       <c r="B93" s="2">
-        <v>45810.94791666666</v>
+        <v>45821.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5350</v>
+        <v>5550</v>
       </c>
       <c r="B94" s="2">
-        <v>45810.95833333334</v>
+        <v>45821.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="B95" s="2">
-        <v>45810.96875</v>
+        <v>45821.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5250</v>
+        <v>5450</v>
       </c>
       <c r="B96" s="2">
-        <v>45810.97916666666</v>
+        <v>45821.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5230</v>
+        <v>5390</v>
       </c>
       <c r="B97" s="2">
-        <v>45810.98958333334</v>
+        <v>45821.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5470</v>
+        <v>5330</v>
       </c>
       <c r="B2" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5420</v>
+        <v>5280</v>
       </c>
       <c r="B3" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5370</v>
+        <v>5230</v>
       </c>
       <c r="B4" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5320</v>
+        <v>5180</v>
       </c>
       <c r="B5" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5280</v>
+        <v>5150</v>
       </c>
       <c r="B6" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5240</v>
+        <v>5110</v>
       </c>
       <c r="B7" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5210</v>
+        <v>5080</v>
       </c>
       <c r="B8" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5180</v>
+        <v>5060</v>
       </c>
       <c r="B9" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5160</v>
+        <v>5060</v>
       </c>
       <c r="B10" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="B11" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5140</v>
+        <v>5050</v>
       </c>
       <c r="B12" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5130</v>
+        <v>5050</v>
       </c>
       <c r="B13" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5120</v>
+        <v>5050</v>
       </c>
       <c r="B14" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5120</v>
+        <v>5050</v>
       </c>
       <c r="B15" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5120</v>
+        <v>5040</v>
       </c>
       <c r="B16" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5120</v>
+        <v>5050</v>
       </c>
       <c r="B17" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5140</v>
+        <v>5060</v>
       </c>
       <c r="B18" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5170</v>
+        <v>5090</v>
       </c>
       <c r="B19" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5210</v>
+        <v>5130</v>
       </c>
       <c r="B20" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5260</v>
+        <v>5200</v>
       </c>
       <c r="B21" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5330</v>
+        <v>5270</v>
       </c>
       <c r="B22" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5400</v>
+        <v>5360</v>
       </c>
       <c r="B23" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5490</v>
+        <v>5460</v>
       </c>
       <c r="B24" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5600</v>
+        <v>5560</v>
       </c>
       <c r="B25" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5730</v>
+        <v>5660</v>
       </c>
       <c r="B26" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5830</v>
+        <v>5750</v>
       </c>
       <c r="B27" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5870</v>
+        <v>5820</v>
       </c>
       <c r="B28" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5880</v>
+        <v>5870</v>
       </c>
       <c r="B29" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5880</v>
+        <v>5900</v>
       </c>
       <c r="B30" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5870</v>
+        <v>5900</v>
       </c>
       <c r="B31" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5840</v>
+        <v>5880</v>
       </c>
       <c r="B32" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5800</v>
+        <v>5830</v>
       </c>
       <c r="B33" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5720</v>
+        <v>5770</v>
       </c>
       <c r="B34" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5630</v>
+        <v>5690</v>
       </c>
       <c r="B35" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5560</v>
+        <v>5600</v>
       </c>
       <c r="B36" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5480</v>
+        <v>5510</v>
       </c>
       <c r="B37" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5410</v>
+        <v>5420</v>
       </c>
       <c r="B38" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5320</v>
+        <v>5340</v>
       </c>
       <c r="B39" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="B40" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5190</v>
+        <v>5210</v>
       </c>
       <c r="B41" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5100</v>
+        <v>5160</v>
       </c>
       <c r="B42" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5030</v>
+        <v>5120</v>
       </c>
       <c r="B43" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4970</v>
+        <v>5090</v>
       </c>
       <c r="B44" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4920</v>
+        <v>5070</v>
       </c>
       <c r="B45" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4880</v>
+        <v>5050</v>
       </c>
       <c r="B46" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4850</v>
+        <v>5040</v>
       </c>
       <c r="B47" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4830</v>
+        <v>5040</v>
       </c>
       <c r="B48" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4830</v>
+        <v>5040</v>
       </c>
       <c r="B49" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4830</v>
+        <v>5050</v>
       </c>
       <c r="B50" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4830</v>
+        <v>5070</v>
       </c>
       <c r="B51" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4840</v>
+        <v>5090</v>
       </c>
       <c r="B52" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4850</v>
+        <v>5120</v>
       </c>
       <c r="B53" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4860</v>
+        <v>5140</v>
       </c>
       <c r="B54" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4870</v>
+        <v>5170</v>
       </c>
       <c r="B55" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4880</v>
+        <v>5200</v>
       </c>
       <c r="B56" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4890</v>
+        <v>5230</v>
       </c>
       <c r="B57" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4910</v>
+        <v>5260</v>
       </c>
       <c r="B58" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>4930</v>
+        <v>5290</v>
       </c>
       <c r="B59" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>4960</v>
+        <v>5330</v>
       </c>
       <c r="B60" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5020</v>
+        <v>5380</v>
       </c>
       <c r="B61" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5100</v>
+        <v>5440</v>
       </c>
       <c r="B62" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5200</v>
+        <v>5510</v>
       </c>
       <c r="B63" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="B64" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5400</v>
+        <v>5680</v>
       </c>
       <c r="B65" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5500</v>
+        <v>5780</v>
       </c>
       <c r="B66" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5600</v>
+        <v>5880</v>
       </c>
       <c r="B67" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5680</v>
+        <v>5960</v>
       </c>
       <c r="B68" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5780</v>
+        <v>6060</v>
       </c>
       <c r="B69" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>5890</v>
+        <v>6150</v>
       </c>
       <c r="B70" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6000</v>
+        <v>6260</v>
       </c>
       <c r="B71" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6100</v>
+        <v>6370</v>
       </c>
       <c r="B72" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6210</v>
+        <v>6470</v>
       </c>
       <c r="B73" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6310</v>
+        <v>6560</v>
       </c>
       <c r="B74" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6400</v>
+        <v>6650</v>
       </c>
       <c r="B75" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6490</v>
+        <v>6730</v>
       </c>
       <c r="B76" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6560</v>
+        <v>6800</v>
       </c>
       <c r="B77" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6650</v>
+        <v>6860</v>
       </c>
       <c r="B78" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6730</v>
+        <v>6920</v>
       </c>
       <c r="B79" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6790</v>
+        <v>6980</v>
       </c>
       <c r="B80" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6870</v>
+        <v>7060</v>
       </c>
       <c r="B81" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6930</v>
+        <v>7110</v>
       </c>
       <c r="B82" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6950</v>
+        <v>7100</v>
       </c>
       <c r="B83" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6950</v>
+        <v>7070</v>
       </c>
       <c r="B84" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6910</v>
+        <v>7030</v>
       </c>
       <c r="B85" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6780</v>
+        <v>6950</v>
       </c>
       <c r="B86" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6640</v>
+        <v>6840</v>
       </c>
       <c r="B87" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6480</v>
+        <v>6680</v>
       </c>
       <c r="B88" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="B89" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6140</v>
+        <v>6330</v>
       </c>
       <c r="B90" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6000</v>
+        <v>6160</v>
       </c>
       <c r="B91" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5890</v>
+        <v>6000</v>
       </c>
       <c r="B92" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5770</v>
+        <v>5860</v>
       </c>
       <c r="B93" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5550</v>
+        <v>5590</v>
       </c>
       <c r="B94" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5500</v>
+        <v>5550</v>
       </c>
       <c r="B95" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="B96" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5390</v>
+        <v>5410</v>
       </c>
       <c r="B97" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5330</v>
+        <v>5830</v>
       </c>
       <c r="B2" s="2">
-        <v>45825</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5280</v>
+        <v>5750</v>
       </c>
       <c r="B3" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5230</v>
+        <v>5700</v>
       </c>
       <c r="B4" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5180</v>
+        <v>5650</v>
       </c>
       <c r="B5" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5150</v>
+        <v>5630</v>
       </c>
       <c r="B6" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5110</v>
+        <v>5610</v>
       </c>
       <c r="B7" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5080</v>
+        <v>5580</v>
       </c>
       <c r="B8" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5060</v>
+        <v>5560</v>
       </c>
       <c r="B9" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5060</v>
+        <v>5520</v>
       </c>
       <c r="B10" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B11" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B12" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B13" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B14" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B15" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5040</v>
+        <v>5500</v>
       </c>
       <c r="B16" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5050</v>
+        <v>5500</v>
       </c>
       <c r="B17" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5060</v>
+        <v>5500</v>
       </c>
       <c r="B18" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5090</v>
+        <v>5500</v>
       </c>
       <c r="B19" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5130</v>
+        <v>5500</v>
       </c>
       <c r="B20" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5200</v>
+        <v>5520</v>
       </c>
       <c r="B21" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5270</v>
+        <v>5600</v>
       </c>
       <c r="B22" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5360</v>
+        <v>5660</v>
       </c>
       <c r="B23" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5460</v>
+        <v>5730</v>
       </c>
       <c r="B24" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5560</v>
+        <v>5810</v>
       </c>
       <c r="B25" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5660</v>
+        <v>5920</v>
       </c>
       <c r="B26" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5750</v>
+        <v>5990</v>
       </c>
       <c r="B27" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5820</v>
+        <v>6060</v>
       </c>
       <c r="B28" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5870</v>
+        <v>6110</v>
       </c>
       <c r="B29" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5900</v>
+        <v>6110</v>
       </c>
       <c r="B30" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5900</v>
+        <v>6110</v>
       </c>
       <c r="B31" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5880</v>
+        <v>6110</v>
       </c>
       <c r="B32" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5830</v>
+        <v>6070</v>
       </c>
       <c r="B33" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5770</v>
+        <v>6010</v>
       </c>
       <c r="B34" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5690</v>
+        <v>5950</v>
       </c>
       <c r="B35" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5600</v>
+        <v>5860</v>
       </c>
       <c r="B36" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5510</v>
+        <v>5780</v>
       </c>
       <c r="B37" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5420</v>
+        <v>5690</v>
       </c>
       <c r="B38" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5340</v>
+        <v>5610</v>
       </c>
       <c r="B39" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5270</v>
+        <v>5540</v>
       </c>
       <c r="B40" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5210</v>
+        <v>5480</v>
       </c>
       <c r="B41" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5160</v>
+        <v>5410</v>
       </c>
       <c r="B42" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5120</v>
+        <v>5370</v>
       </c>
       <c r="B43" s="2">
-        <v>45825.42708333334</v>
+        <v>45828.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5090</v>
+        <v>5350</v>
       </c>
       <c r="B44" s="2">
-        <v>45825.4375</v>
+        <v>45828.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5070</v>
+        <v>5330</v>
       </c>
       <c r="B45" s="2">
-        <v>45825.44791666666</v>
+        <v>45828.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5050</v>
+        <v>5320</v>
       </c>
       <c r="B46" s="2">
-        <v>45825.45833333334</v>
+        <v>45828.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5040</v>
+        <v>5320</v>
       </c>
       <c r="B47" s="2">
-        <v>45825.46875</v>
+        <v>45828.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5040</v>
+        <v>5320</v>
       </c>
       <c r="B48" s="2">
-        <v>45825.47916666666</v>
+        <v>45828.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5040</v>
+        <v>5330</v>
       </c>
       <c r="B49" s="2">
-        <v>45825.48958333334</v>
+        <v>45828.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5050</v>
+        <v>5330</v>
       </c>
       <c r="B50" s="2">
-        <v>45825.5</v>
+        <v>45828.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5070</v>
+        <v>5340</v>
       </c>
       <c r="B51" s="2">
-        <v>45825.51041666666</v>
+        <v>45828.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5090</v>
+        <v>5340</v>
       </c>
       <c r="B52" s="2">
-        <v>45825.52083333334</v>
+        <v>45828.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5120</v>
+        <v>5350</v>
       </c>
       <c r="B53" s="2">
-        <v>45825.53125</v>
+        <v>45828.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5140</v>
+        <v>5350</v>
       </c>
       <c r="B54" s="2">
-        <v>45825.54166666666</v>
+        <v>45828.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5170</v>
+        <v>5350</v>
       </c>
       <c r="B55" s="2">
-        <v>45825.55208333334</v>
+        <v>45828.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5200</v>
+        <v>5370</v>
       </c>
       <c r="B56" s="2">
-        <v>45825.5625</v>
+        <v>45828.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5230</v>
+        <v>5400</v>
       </c>
       <c r="B57" s="2">
-        <v>45825.57291666666</v>
+        <v>45828.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5260</v>
+        <v>5430</v>
       </c>
       <c r="B58" s="2">
-        <v>45825.58333333334</v>
+        <v>45828.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5290</v>
+        <v>5460</v>
       </c>
       <c r="B59" s="2">
-        <v>45825.59375</v>
+        <v>45828.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5330</v>
+        <v>5490</v>
       </c>
       <c r="B60" s="2">
-        <v>45825.60416666666</v>
+        <v>45828.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5380</v>
+        <v>5530</v>
       </c>
       <c r="B61" s="2">
-        <v>45825.61458333334</v>
+        <v>45828.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5440</v>
+        <v>5590</v>
       </c>
       <c r="B62" s="2">
-        <v>45825.625</v>
+        <v>45828.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5510</v>
+        <v>5660</v>
       </c>
       <c r="B63" s="2">
-        <v>45825.63541666666</v>
+        <v>45828.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5600</v>
+        <v>5730</v>
       </c>
       <c r="B64" s="2">
-        <v>45825.64583333334</v>
+        <v>45828.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5680</v>
+        <v>5810</v>
       </c>
       <c r="B65" s="2">
-        <v>45825.65625</v>
+        <v>45828.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5780</v>
+        <v>5870</v>
       </c>
       <c r="B66" s="2">
-        <v>45825.66666666666</v>
+        <v>45828.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5880</v>
+        <v>5960</v>
       </c>
       <c r="B67" s="2">
-        <v>45825.67708333334</v>
+        <v>45828.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5960</v>
+        <v>6040</v>
       </c>
       <c r="B68" s="2">
-        <v>45825.6875</v>
+        <v>45828.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6060</v>
+        <v>6130</v>
       </c>
       <c r="B69" s="2">
-        <v>45825.69791666666</v>
+        <v>45828.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6150</v>
+        <v>6280</v>
       </c>
       <c r="B70" s="2">
-        <v>45825.70833333334</v>
+        <v>45828.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6260</v>
+        <v>6390</v>
       </c>
       <c r="B71" s="2">
-        <v>45825.71875</v>
+        <v>45828.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6370</v>
+        <v>6510</v>
       </c>
       <c r="B72" s="2">
-        <v>45825.72916666666</v>
+        <v>45828.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6470</v>
+        <v>6620</v>
       </c>
       <c r="B73" s="2">
-        <v>45825.73958333334</v>
+        <v>45828.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6560</v>
+        <v>6730</v>
       </c>
       <c r="B74" s="2">
-        <v>45825.75</v>
+        <v>45828.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6650</v>
+        <v>6830</v>
       </c>
       <c r="B75" s="2">
-        <v>45825.76041666666</v>
+        <v>45828.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6730</v>
+        <v>6900</v>
       </c>
       <c r="B76" s="2">
-        <v>45825.77083333334</v>
+        <v>45828.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6800</v>
+        <v>6940</v>
       </c>
       <c r="B77" s="2">
-        <v>45825.78125</v>
+        <v>45828.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6860</v>
+        <v>6970</v>
       </c>
       <c r="B78" s="2">
-        <v>45825.79166666666</v>
+        <v>45828.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6920</v>
+        <v>7020</v>
       </c>
       <c r="B79" s="2">
-        <v>45825.80208333334</v>
+        <v>45828.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6980</v>
+        <v>7070</v>
       </c>
       <c r="B80" s="2">
-        <v>45825.8125</v>
+        <v>45828.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7060</v>
+        <v>7160</v>
       </c>
       <c r="B81" s="2">
-        <v>45825.82291666666</v>
+        <v>45828.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7110</v>
+        <v>7220</v>
       </c>
       <c r="B82" s="2">
-        <v>45825.83333333334</v>
+        <v>45828.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7100</v>
+        <v>7250</v>
       </c>
       <c r="B83" s="2">
-        <v>45825.84375</v>
+        <v>45828.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7070</v>
+        <v>7240</v>
       </c>
       <c r="B84" s="2">
-        <v>45825.85416666666</v>
+        <v>45828.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7030</v>
+        <v>7180</v>
       </c>
       <c r="B85" s="2">
-        <v>45825.86458333334</v>
+        <v>45828.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6950</v>
+        <v>7050</v>
       </c>
       <c r="B86" s="2">
-        <v>45825.875</v>
+        <v>45828.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6840</v>
+        <v>6950</v>
       </c>
       <c r="B87" s="2">
-        <v>45825.88541666666</v>
+        <v>45828.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6680</v>
+        <v>6830</v>
       </c>
       <c r="B88" s="2">
-        <v>45825.89583333334</v>
+        <v>45828.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6500</v>
+        <v>6660</v>
       </c>
       <c r="B89" s="2">
-        <v>45825.90625</v>
+        <v>45828.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6330</v>
+        <v>6470</v>
       </c>
       <c r="B90" s="2">
-        <v>45825.91666666666</v>
+        <v>45828.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6160</v>
+        <v>6310</v>
       </c>
       <c r="B91" s="2">
-        <v>45825.92708333334</v>
+        <v>45828.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6000</v>
+        <v>6210</v>
       </c>
       <c r="B92" s="2">
-        <v>45825.9375</v>
+        <v>45828.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5860</v>
+        <v>6100</v>
       </c>
       <c r="B93" s="2">
-        <v>45825.94791666666</v>
+        <v>45828.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5590</v>
+        <v>5860</v>
       </c>
       <c r="B94" s="2">
-        <v>45825.95833333334</v>
+        <v>45828.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5550</v>
+        <v>5820</v>
       </c>
       <c r="B95" s="2">
-        <v>45825.96875</v>
+        <v>45828.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5480</v>
+        <v>5760</v>
       </c>
       <c r="B96" s="2">
-        <v>45825.97916666666</v>
+        <v>45828.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5410</v>
+        <v>5660</v>
       </c>
       <c r="B97" s="2">
-        <v>45825.98958333334</v>
+        <v>45828.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,194 +397,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5830</v>
+        <v>5230</v>
       </c>
       <c r="B2" s="2">
-        <v>45828</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5750</v>
+        <v>5180</v>
       </c>
       <c r="B3" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5700</v>
+        <v>5130</v>
       </c>
       <c r="B4" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5650</v>
+        <v>5080</v>
       </c>
       <c r="B5" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5630</v>
+        <v>5040</v>
       </c>
       <c r="B6" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5610</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5580</v>
+        <v>4980</v>
       </c>
       <c r="B8" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5560</v>
+        <v>4970</v>
       </c>
       <c r="B9" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5520</v>
+        <v>4960</v>
       </c>
       <c r="B10" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5500</v>
+        <v>4950</v>
       </c>
       <c r="B11" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5500</v>
+        <v>4950</v>
       </c>
       <c r="B12" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5500</v>
+        <v>4950</v>
       </c>
       <c r="B13" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5500</v>
+        <v>4960</v>
       </c>
       <c r="B14" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5500</v>
+        <v>4970</v>
       </c>
       <c r="B15" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5500</v>
+        <v>4980</v>
       </c>
       <c r="B16" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="B17" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5500</v>
+        <v>5040</v>
       </c>
       <c r="B18" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5500</v>
+        <v>5090</v>
       </c>
       <c r="B19" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5500</v>
+        <v>5150</v>
       </c>
       <c r="B20" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5520</v>
+        <v>5250</v>
       </c>
       <c r="B21" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5600</v>
+        <v>5370</v>
       </c>
       <c r="B22" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5660</v>
+        <v>5490</v>
       </c>
       <c r="B23" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5730</v>
+        <v>5610</v>
       </c>
       <c r="B24" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5810</v>
+        <v>5760</v>
       </c>
       <c r="B25" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,575 +592,575 @@
         <v>5920</v>
       </c>
       <c r="B26" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5990</v>
+        <v>6060</v>
       </c>
       <c r="B27" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6060</v>
+        <v>6170</v>
       </c>
       <c r="B28" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6110</v>
+        <v>6240</v>
       </c>
       <c r="B29" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6110</v>
+        <v>6300</v>
       </c>
       <c r="B30" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6110</v>
+        <v>6310</v>
       </c>
       <c r="B31" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6110</v>
+        <v>6320</v>
       </c>
       <c r="B32" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6070</v>
+        <v>6320</v>
       </c>
       <c r="B33" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6010</v>
+        <v>6310</v>
       </c>
       <c r="B34" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5950</v>
+        <v>6290</v>
       </c>
       <c r="B35" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5860</v>
+        <v>6260</v>
       </c>
       <c r="B36" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5780</v>
+        <v>6230</v>
       </c>
       <c r="B37" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5690</v>
+        <v>6170</v>
       </c>
       <c r="B38" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5610</v>
+        <v>6110</v>
       </c>
       <c r="B39" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5540</v>
+        <v>6060</v>
       </c>
       <c r="B40" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5480</v>
+        <v>6010</v>
       </c>
       <c r="B41" s="2">
-        <v>45828.40625</v>
+        <v>45859.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5410</v>
+        <v>5960</v>
       </c>
       <c r="B42" s="2">
-        <v>45828.41666666666</v>
+        <v>45859.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5370</v>
+        <v>5940</v>
       </c>
       <c r="B43" s="2">
-        <v>45828.42708333334</v>
+        <v>45859.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5350</v>
+        <v>5930</v>
       </c>
       <c r="B44" s="2">
-        <v>45828.4375</v>
+        <v>45859.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5330</v>
+        <v>5910</v>
       </c>
       <c r="B45" s="2">
-        <v>45828.44791666666</v>
+        <v>45859.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5320</v>
+        <v>5900</v>
       </c>
       <c r="B46" s="2">
-        <v>45828.45833333334</v>
+        <v>45859.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5320</v>
+        <v>5900</v>
       </c>
       <c r="B47" s="2">
-        <v>45828.46875</v>
+        <v>45859.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5320</v>
+        <v>5910</v>
       </c>
       <c r="B48" s="2">
-        <v>45828.47916666666</v>
+        <v>45859.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5330</v>
+        <v>5920</v>
       </c>
       <c r="B49" s="2">
-        <v>45828.48958333334</v>
+        <v>45859.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5330</v>
+        <v>5940</v>
       </c>
       <c r="B50" s="2">
-        <v>45828.5</v>
+        <v>45859.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5340</v>
+        <v>5980</v>
       </c>
       <c r="B51" s="2">
-        <v>45828.51041666666</v>
+        <v>45859.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5340</v>
+        <v>6020</v>
       </c>
       <c r="B52" s="2">
-        <v>45828.52083333334</v>
+        <v>45859.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5350</v>
+        <v>6060</v>
       </c>
       <c r="B53" s="2">
-        <v>45828.53125</v>
+        <v>45859.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5350</v>
+        <v>6110</v>
       </c>
       <c r="B54" s="2">
-        <v>45828.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5350</v>
+        <v>6150</v>
       </c>
       <c r="B55" s="2">
-        <v>45828.55208333334</v>
+        <v>45859.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5370</v>
+        <v>6180</v>
       </c>
       <c r="B56" s="2">
-        <v>45828.5625</v>
+        <v>45859.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5400</v>
+        <v>6210</v>
       </c>
       <c r="B57" s="2">
-        <v>45828.57291666666</v>
+        <v>45859.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5430</v>
+        <v>6260</v>
       </c>
       <c r="B58" s="2">
-        <v>45828.58333333334</v>
+        <v>45859.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5460</v>
+        <v>6290</v>
       </c>
       <c r="B59" s="2">
-        <v>45828.59375</v>
+        <v>45859.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5490</v>
+        <v>6310</v>
       </c>
       <c r="B60" s="2">
-        <v>45828.60416666666</v>
+        <v>45859.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5530</v>
+        <v>6360</v>
       </c>
       <c r="B61" s="2">
-        <v>45828.61458333334</v>
+        <v>45859.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5590</v>
+        <v>6430</v>
       </c>
       <c r="B62" s="2">
-        <v>45828.625</v>
+        <v>45859.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5660</v>
+        <v>6490</v>
       </c>
       <c r="B63" s="2">
-        <v>45828.63541666666</v>
+        <v>45859.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5730</v>
+        <v>6560</v>
       </c>
       <c r="B64" s="2">
-        <v>45828.64583333334</v>
+        <v>45859.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5810</v>
+        <v>6650</v>
       </c>
       <c r="B65" s="2">
-        <v>45828.65625</v>
+        <v>45859.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5870</v>
+        <v>6730</v>
       </c>
       <c r="B66" s="2">
-        <v>45828.66666666666</v>
+        <v>45859.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5960</v>
+        <v>6800</v>
       </c>
       <c r="B67" s="2">
-        <v>45828.67708333334</v>
+        <v>45859.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6040</v>
+        <v>6870</v>
       </c>
       <c r="B68" s="2">
-        <v>45828.6875</v>
+        <v>45859.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6130</v>
+        <v>6950</v>
       </c>
       <c r="B69" s="2">
-        <v>45828.69791666666</v>
+        <v>45859.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6280</v>
+        <v>7040</v>
       </c>
       <c r="B70" s="2">
-        <v>45828.70833333334</v>
+        <v>45859.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6390</v>
+        <v>7120</v>
       </c>
       <c r="B71" s="2">
-        <v>45828.71875</v>
+        <v>45859.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6510</v>
+        <v>7200</v>
       </c>
       <c r="B72" s="2">
-        <v>45828.72916666666</v>
+        <v>45859.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6620</v>
+        <v>7310</v>
       </c>
       <c r="B73" s="2">
-        <v>45828.73958333334</v>
+        <v>45859.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6730</v>
+        <v>7400</v>
       </c>
       <c r="B74" s="2">
-        <v>45828.75</v>
+        <v>45859.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6830</v>
+        <v>7480</v>
       </c>
       <c r="B75" s="2">
-        <v>45828.76041666666</v>
+        <v>45859.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6900</v>
+        <v>7540</v>
       </c>
       <c r="B76" s="2">
-        <v>45828.77083333334</v>
+        <v>45859.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6940</v>
+        <v>7590</v>
       </c>
       <c r="B77" s="2">
-        <v>45828.78125</v>
+        <v>45859.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6970</v>
+        <v>7620</v>
       </c>
       <c r="B78" s="2">
-        <v>45828.79166666666</v>
+        <v>45859.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7020</v>
+        <v>7660</v>
       </c>
       <c r="B79" s="2">
-        <v>45828.80208333334</v>
+        <v>45859.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7070</v>
+        <v>7670</v>
       </c>
       <c r="B80" s="2">
-        <v>45828.8125</v>
+        <v>45859.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7160</v>
+        <v>7680</v>
       </c>
       <c r="B81" s="2">
-        <v>45828.82291666666</v>
+        <v>45859.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7220</v>
+        <v>7680</v>
       </c>
       <c r="B82" s="2">
-        <v>45828.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7250</v>
+        <v>7660</v>
       </c>
       <c r="B83" s="2">
-        <v>45828.84375</v>
+        <v>45859.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7240</v>
+        <v>7640</v>
       </c>
       <c r="B84" s="2">
-        <v>45828.85416666666</v>
+        <v>45859.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7180</v>
+        <v>7620</v>
       </c>
       <c r="B85" s="2">
-        <v>45828.86458333334</v>
+        <v>45859.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7050</v>
+        <v>7570</v>
       </c>
       <c r="B86" s="2">
-        <v>45828.875</v>
+        <v>45859.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6950</v>
+        <v>7490</v>
       </c>
       <c r="B87" s="2">
-        <v>45828.88541666666</v>
+        <v>45859.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6830</v>
+        <v>7350</v>
       </c>
       <c r="B88" s="2">
-        <v>45828.89583333334</v>
+        <v>45859.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6660</v>
+        <v>7170</v>
       </c>
       <c r="B89" s="2">
-        <v>45828.90625</v>
+        <v>45859.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6470</v>
+        <v>6980</v>
       </c>
       <c r="B90" s="2">
-        <v>45828.91666666666</v>
+        <v>45859.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6310</v>
+        <v>6830</v>
       </c>
       <c r="B91" s="2">
-        <v>45828.92708333334</v>
+        <v>45859.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6210</v>
+        <v>6690</v>
       </c>
       <c r="B92" s="2">
-        <v>45828.9375</v>
+        <v>45859.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6100</v>
+        <v>6540</v>
       </c>
       <c r="B93" s="2">
-        <v>45828.94791666666</v>
+        <v>45859.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5860</v>
+        <v>6330</v>
       </c>
       <c r="B94" s="2">
-        <v>45828.95833333334</v>
+        <v>45859.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5820</v>
+        <v>6240</v>
       </c>
       <c r="B95" s="2">
-        <v>45828.96875</v>
+        <v>45859.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5760</v>
+        <v>6160</v>
       </c>
       <c r="B96" s="2">
-        <v>45828.97916666666</v>
+        <v>45859.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5660</v>
+        <v>6060</v>
       </c>
       <c r="B97" s="2">
-        <v>45828.98958333334</v>
+        <v>45859.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5230</v>
+        <v>6160</v>
       </c>
       <c r="B2" s="2">
-        <v>45859</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5180</v>
+        <v>6080</v>
       </c>
       <c r="B3" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5130</v>
+        <v>6010</v>
       </c>
       <c r="B4" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5080</v>
+        <v>5940</v>
       </c>
       <c r="B5" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5040</v>
+        <v>5900</v>
       </c>
       <c r="B6" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5000</v>
+        <v>5870</v>
       </c>
       <c r="B7" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4980</v>
+        <v>5840</v>
       </c>
       <c r="B8" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4970</v>
+        <v>5830</v>
       </c>
       <c r="B9" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4960</v>
+        <v>5810</v>
       </c>
       <c r="B10" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4950</v>
+        <v>5810</v>
       </c>
       <c r="B11" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4950</v>
+        <v>5810</v>
       </c>
       <c r="B12" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4950</v>
+        <v>5810</v>
       </c>
       <c r="B13" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4960</v>
+        <v>5800</v>
       </c>
       <c r="B14" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4970</v>
+        <v>5790</v>
       </c>
       <c r="B15" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4980</v>
+        <v>5790</v>
       </c>
       <c r="B16" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5000</v>
+        <v>5780</v>
       </c>
       <c r="B17" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5040</v>
+        <v>5790</v>
       </c>
       <c r="B18" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5090</v>
+        <v>5800</v>
       </c>
       <c r="B19" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5150</v>
+        <v>5830</v>
       </c>
       <c r="B20" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5250</v>
+        <v>5880</v>
       </c>
       <c r="B21" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5370</v>
+        <v>5950</v>
       </c>
       <c r="B22" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5490</v>
+        <v>6030</v>
       </c>
       <c r="B23" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5610</v>
+        <v>6120</v>
       </c>
       <c r="B24" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5760</v>
+        <v>6220</v>
       </c>
       <c r="B25" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5920</v>
+        <v>6320</v>
       </c>
       <c r="B26" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6060</v>
+        <v>6410</v>
       </c>
       <c r="B27" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6170</v>
+        <v>6500</v>
       </c>
       <c r="B28" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6240</v>
+        <v>6570</v>
       </c>
       <c r="B29" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6300</v>
+        <v>6620</v>
       </c>
       <c r="B30" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6310</v>
+        <v>6660</v>
       </c>
       <c r="B31" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6320</v>
+        <v>6680</v>
       </c>
       <c r="B32" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6320</v>
+        <v>6680</v>
       </c>
       <c r="B33" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6310</v>
+        <v>6660</v>
       </c>
       <c r="B34" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6290</v>
+        <v>6640</v>
       </c>
       <c r="B35" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6260</v>
+        <v>6610</v>
       </c>
       <c r="B36" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6230</v>
+        <v>6570</v>
       </c>
       <c r="B37" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6170</v>
+        <v>6530</v>
       </c>
       <c r="B38" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6110</v>
+        <v>6500</v>
       </c>
       <c r="B39" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6060</v>
+        <v>6470</v>
       </c>
       <c r="B40" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6010</v>
+        <v>6450</v>
       </c>
       <c r="B41" s="2">
-        <v>45859.40625</v>
+        <v>45863.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5960</v>
+        <v>6440</v>
       </c>
       <c r="B42" s="2">
-        <v>45859.41666666666</v>
+        <v>45863.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5940</v>
+        <v>6430</v>
       </c>
       <c r="B43" s="2">
-        <v>45859.42708333334</v>
+        <v>45863.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5930</v>
+        <v>6430</v>
       </c>
       <c r="B44" s="2">
-        <v>45859.4375</v>
+        <v>45863.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5910</v>
+        <v>6430</v>
       </c>
       <c r="B45" s="2">
-        <v>45859.44791666666</v>
+        <v>45863.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5900</v>
+        <v>6440</v>
       </c>
       <c r="B46" s="2">
-        <v>45859.45833333334</v>
+        <v>45863.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5900</v>
+        <v>6460</v>
       </c>
       <c r="B47" s="2">
-        <v>45859.46875</v>
+        <v>45863.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5910</v>
+        <v>6470</v>
       </c>
       <c r="B48" s="2">
-        <v>45859.47916666666</v>
+        <v>45863.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5920</v>
+        <v>6500</v>
       </c>
       <c r="B49" s="2">
-        <v>45859.48958333334</v>
+        <v>45863.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5940</v>
+        <v>6520</v>
       </c>
       <c r="B50" s="2">
-        <v>45859.5</v>
+        <v>45863.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5980</v>
+        <v>6550</v>
       </c>
       <c r="B51" s="2">
-        <v>45859.51041666666</v>
+        <v>45863.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6020</v>
+        <v>6580</v>
       </c>
       <c r="B52" s="2">
-        <v>45859.52083333334</v>
+        <v>45863.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6060</v>
+        <v>6610</v>
       </c>
       <c r="B53" s="2">
-        <v>45859.53125</v>
+        <v>45863.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6110</v>
+        <v>6640</v>
       </c>
       <c r="B54" s="2">
-        <v>45859.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6150</v>
+        <v>6670</v>
       </c>
       <c r="B55" s="2">
-        <v>45859.55208333334</v>
+        <v>45863.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6180</v>
+        <v>6700</v>
       </c>
       <c r="B56" s="2">
-        <v>45859.5625</v>
+        <v>45863.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6210</v>
+        <v>6730</v>
       </c>
       <c r="B57" s="2">
-        <v>45859.57291666666</v>
+        <v>45863.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6260</v>
+        <v>6750</v>
       </c>
       <c r="B58" s="2">
-        <v>45859.58333333334</v>
+        <v>45863.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6290</v>
+        <v>6780</v>
       </c>
       <c r="B59" s="2">
-        <v>45859.59375</v>
+        <v>45863.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6310</v>
+        <v>6810</v>
       </c>
       <c r="B60" s="2">
-        <v>45859.60416666666</v>
+        <v>45863.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6360</v>
+        <v>6850</v>
       </c>
       <c r="B61" s="2">
-        <v>45859.61458333334</v>
+        <v>45863.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6430</v>
+        <v>6900</v>
       </c>
       <c r="B62" s="2">
-        <v>45859.625</v>
+        <v>45863.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6490</v>
+        <v>6970</v>
       </c>
       <c r="B63" s="2">
-        <v>45859.63541666666</v>
+        <v>45863.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6560</v>
+        <v>7040</v>
       </c>
       <c r="B64" s="2">
-        <v>45859.64583333334</v>
+        <v>45863.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6650</v>
+        <v>7120</v>
       </c>
       <c r="B65" s="2">
-        <v>45859.65625</v>
+        <v>45863.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6730</v>
+        <v>7200</v>
       </c>
       <c r="B66" s="2">
-        <v>45859.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6800</v>
+        <v>7280</v>
       </c>
       <c r="B67" s="2">
-        <v>45859.67708333334</v>
+        <v>45863.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6870</v>
+        <v>7360</v>
       </c>
       <c r="B68" s="2">
-        <v>45859.6875</v>
+        <v>45863.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6950</v>
+        <v>7440</v>
       </c>
       <c r="B69" s="2">
-        <v>45859.69791666666</v>
+        <v>45863.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7040</v>
+        <v>7510</v>
       </c>
       <c r="B70" s="2">
-        <v>45859.70833333334</v>
+        <v>45863.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7120</v>
+        <v>7600</v>
       </c>
       <c r="B71" s="2">
-        <v>45859.71875</v>
+        <v>45863.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7200</v>
+        <v>7690</v>
       </c>
       <c r="B72" s="2">
-        <v>45859.72916666666</v>
+        <v>45863.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7310</v>
+        <v>7780</v>
       </c>
       <c r="B73" s="2">
-        <v>45859.73958333334</v>
+        <v>45863.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7400</v>
+        <v>7860</v>
       </c>
       <c r="B74" s="2">
-        <v>45859.75</v>
+        <v>45863.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7480</v>
+        <v>7920</v>
       </c>
       <c r="B75" s="2">
-        <v>45859.76041666666</v>
+        <v>45863.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7540</v>
+        <v>7980</v>
       </c>
       <c r="B76" s="2">
-        <v>45859.77083333334</v>
+        <v>45863.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7590</v>
+        <v>8010</v>
       </c>
       <c r="B77" s="2">
-        <v>45859.78125</v>
+        <v>45863.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7620</v>
+        <v>8040</v>
       </c>
       <c r="B78" s="2">
-        <v>45859.79166666666</v>
+        <v>45863.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7660</v>
+        <v>8080</v>
       </c>
       <c r="B79" s="2">
-        <v>45859.80208333334</v>
+        <v>45863.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7670</v>
+        <v>8100</v>
       </c>
       <c r="B80" s="2">
-        <v>45859.8125</v>
+        <v>45863.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7680</v>
+        <v>8120</v>
       </c>
       <c r="B81" s="2">
-        <v>45859.82291666666</v>
+        <v>45863.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7680</v>
+        <v>8100</v>
       </c>
       <c r="B82" s="2">
-        <v>45859.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7660</v>
+        <v>8070</v>
       </c>
       <c r="B83" s="2">
-        <v>45859.84375</v>
+        <v>45863.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7640</v>
+        <v>8030</v>
       </c>
       <c r="B84" s="2">
-        <v>45859.85416666666</v>
+        <v>45863.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7620</v>
+        <v>7970</v>
       </c>
       <c r="B85" s="2">
-        <v>45859.86458333334</v>
+        <v>45863.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7570</v>
+        <v>7900</v>
       </c>
       <c r="B86" s="2">
-        <v>45859.875</v>
+        <v>45863.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>7490</v>
+        <v>7800</v>
       </c>
       <c r="B87" s="2">
-        <v>45859.88541666666</v>
+        <v>45863.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>7350</v>
+        <v>7650</v>
       </c>
       <c r="B88" s="2">
-        <v>45859.89583333334</v>
+        <v>45863.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>7170</v>
+        <v>7480</v>
       </c>
       <c r="B89" s="2">
-        <v>45859.90625</v>
+        <v>45863.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6980</v>
+        <v>7300</v>
       </c>
       <c r="B90" s="2">
-        <v>45859.91666666666</v>
+        <v>45863.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6830</v>
+        <v>7110</v>
       </c>
       <c r="B91" s="2">
-        <v>45859.92708333334</v>
+        <v>45863.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6690</v>
+        <v>6980</v>
       </c>
       <c r="B92" s="2">
-        <v>45859.9375</v>
+        <v>45863.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6540</v>
+        <v>6860</v>
       </c>
       <c r="B93" s="2">
-        <v>45859.94791666666</v>
+        <v>45863.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6330</v>
+        <v>6490</v>
       </c>
       <c r="B94" s="2">
-        <v>45859.95833333334</v>
+        <v>45863.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>6240</v>
+        <v>6450</v>
       </c>
       <c r="B95" s="2">
-        <v>45859.96875</v>
+        <v>45863.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>6160</v>
+        <v>6390</v>
       </c>
       <c r="B96" s="2">
-        <v>45859.97916666666</v>
+        <v>45863.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>6060</v>
+        <v>6290</v>
       </c>
       <c r="B97" s="2">
-        <v>45859.98958333334</v>
+        <v>45863.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>6160</v>
+        <v>5610</v>
       </c>
       <c r="B2" s="2">
-        <v>45863</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>6080</v>
+        <v>5550</v>
       </c>
       <c r="B3" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6010</v>
+        <v>5490</v>
       </c>
       <c r="B4" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5940</v>
+        <v>5450</v>
       </c>
       <c r="B5" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5900</v>
+        <v>5410</v>
       </c>
       <c r="B6" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5870</v>
+        <v>5390</v>
       </c>
       <c r="B7" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5840</v>
+        <v>5370</v>
       </c>
       <c r="B8" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5830</v>
+        <v>5350</v>
       </c>
       <c r="B9" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5810</v>
+        <v>5340</v>
       </c>
       <c r="B10" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5810</v>
+        <v>5330</v>
       </c>
       <c r="B11" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5810</v>
+        <v>5320</v>
       </c>
       <c r="B12" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5810</v>
+        <v>5310</v>
       </c>
       <c r="B13" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="B14" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5790</v>
+        <v>5290</v>
       </c>
       <c r="B15" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5790</v>
+        <v>5290</v>
       </c>
       <c r="B16" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5780</v>
+        <v>5290</v>
       </c>
       <c r="B17" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5790</v>
+        <v>5310</v>
       </c>
       <c r="B18" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5800</v>
+        <v>5330</v>
       </c>
       <c r="B19" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5830</v>
+        <v>5370</v>
       </c>
       <c r="B20" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5880</v>
+        <v>5420</v>
       </c>
       <c r="B21" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5950</v>
+        <v>5480</v>
       </c>
       <c r="B22" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6030</v>
+        <v>5540</v>
       </c>
       <c r="B23" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6120</v>
+        <v>5610</v>
       </c>
       <c r="B24" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6220</v>
+        <v>5680</v>
       </c>
       <c r="B25" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6320</v>
+        <v>5750</v>
       </c>
       <c r="B26" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6410</v>
+        <v>5820</v>
       </c>
       <c r="B27" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6500</v>
+        <v>5870</v>
       </c>
       <c r="B28" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6570</v>
+        <v>5920</v>
       </c>
       <c r="B29" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6620</v>
+        <v>5960</v>
       </c>
       <c r="B30" s="2">
-        <v>45863.29166666666</v>
+        <v>45875.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6660</v>
+        <v>5990</v>
       </c>
       <c r="B31" s="2">
-        <v>45863.30208333334</v>
+        <v>45875.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6680</v>
+        <v>6000</v>
       </c>
       <c r="B32" s="2">
-        <v>45863.3125</v>
+        <v>45875.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6680</v>
+        <v>6000</v>
       </c>
       <c r="B33" s="2">
-        <v>45863.32291666666</v>
+        <v>45875.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6660</v>
+        <v>5980</v>
       </c>
       <c r="B34" s="2">
-        <v>45863.33333333334</v>
+        <v>45875.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6640</v>
+        <v>5940</v>
       </c>
       <c r="B35" s="2">
-        <v>45863.34375</v>
+        <v>45875.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6610</v>
+        <v>5900</v>
       </c>
       <c r="B36" s="2">
-        <v>45863.35416666666</v>
+        <v>45875.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6570</v>
+        <v>5850</v>
       </c>
       <c r="B37" s="2">
-        <v>45863.36458333334</v>
+        <v>45875.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6530</v>
+        <v>5790</v>
       </c>
       <c r="B38" s="2">
-        <v>45863.375</v>
+        <v>45875.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6500</v>
+        <v>5740</v>
       </c>
       <c r="B39" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6470</v>
+        <v>5690</v>
       </c>
       <c r="B40" s="2">
-        <v>45863.39583333334</v>
+        <v>45875.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6450</v>
+        <v>5640</v>
       </c>
       <c r="B41" s="2">
-        <v>45863.40625</v>
+        <v>45875.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6440</v>
+        <v>5610</v>
       </c>
       <c r="B42" s="2">
-        <v>45863.41666666666</v>
+        <v>45875.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6430</v>
+        <v>5580</v>
       </c>
       <c r="B43" s="2">
-        <v>45863.42708333334</v>
+        <v>45875.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6430</v>
+        <v>5570</v>
       </c>
       <c r="B44" s="2">
-        <v>45863.4375</v>
+        <v>45875.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6430</v>
+        <v>5560</v>
       </c>
       <c r="B45" s="2">
-        <v>45863.44791666666</v>
+        <v>45875.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6440</v>
+        <v>5560</v>
       </c>
       <c r="B46" s="2">
-        <v>45863.45833333334</v>
+        <v>45875.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6460</v>
+        <v>5560</v>
       </c>
       <c r="B47" s="2">
-        <v>45863.46875</v>
+        <v>45875.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6470</v>
+        <v>5560</v>
       </c>
       <c r="B48" s="2">
-        <v>45863.47916666666</v>
+        <v>45875.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6500</v>
+        <v>5560</v>
       </c>
       <c r="B49" s="2">
-        <v>45863.48958333334</v>
+        <v>45875.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6520</v>
+        <v>5570</v>
       </c>
       <c r="B50" s="2">
-        <v>45863.5</v>
+        <v>45875.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6550</v>
+        <v>5590</v>
       </c>
       <c r="B51" s="2">
-        <v>45863.51041666666</v>
+        <v>45875.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6580</v>
+        <v>5610</v>
       </c>
       <c r="B52" s="2">
-        <v>45863.52083333334</v>
+        <v>45875.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6610</v>
+        <v>5630</v>
       </c>
       <c r="B53" s="2">
-        <v>45863.53125</v>
+        <v>45875.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6640</v>
+        <v>5660</v>
       </c>
       <c r="B54" s="2">
-        <v>45863.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6670</v>
+        <v>5700</v>
       </c>
       <c r="B55" s="2">
-        <v>45863.55208333334</v>
+        <v>45875.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6700</v>
+        <v>5740</v>
       </c>
       <c r="B56" s="2">
-        <v>45863.5625</v>
+        <v>45875.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6730</v>
+        <v>5770</v>
       </c>
       <c r="B57" s="2">
-        <v>45863.57291666666</v>
+        <v>45875.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6750</v>
+        <v>5800</v>
       </c>
       <c r="B58" s="2">
-        <v>45863.58333333334</v>
+        <v>45875.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6780</v>
+        <v>5830</v>
       </c>
       <c r="B59" s="2">
-        <v>45863.59375</v>
+        <v>45875.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6810</v>
+        <v>5870</v>
       </c>
       <c r="B60" s="2">
-        <v>45863.60416666666</v>
+        <v>45875.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6850</v>
+        <v>5910</v>
       </c>
       <c r="B61" s="2">
-        <v>45863.61458333334</v>
+        <v>45875.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6900</v>
+        <v>5950</v>
       </c>
       <c r="B62" s="2">
-        <v>45863.625</v>
+        <v>45875.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6970</v>
+        <v>6000</v>
       </c>
       <c r="B63" s="2">
-        <v>45863.63541666666</v>
+        <v>45875.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7040</v>
+        <v>6060</v>
       </c>
       <c r="B64" s="2">
-        <v>45863.64583333334</v>
+        <v>45875.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7120</v>
+        <v>6120</v>
       </c>
       <c r="B65" s="2">
-        <v>45863.65625</v>
+        <v>45875.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="B66" s="2">
-        <v>45863.66666666666</v>
+        <v>45875.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7280</v>
+        <v>6270</v>
       </c>
       <c r="B67" s="2">
-        <v>45863.67708333334</v>
+        <v>45875.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7360</v>
+        <v>6330</v>
       </c>
       <c r="B68" s="2">
-        <v>45863.6875</v>
+        <v>45875.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7440</v>
+        <v>6400</v>
       </c>
       <c r="B69" s="2">
-        <v>45863.69791666666</v>
+        <v>45875.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7510</v>
+        <v>6460</v>
       </c>
       <c r="B70" s="2">
-        <v>45863.70833333334</v>
+        <v>45875.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7600</v>
+        <v>6530</v>
       </c>
       <c r="B71" s="2">
-        <v>45863.71875</v>
+        <v>45875.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7690</v>
+        <v>6610</v>
       </c>
       <c r="B72" s="2">
-        <v>45863.72916666666</v>
+        <v>45875.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7780</v>
+        <v>6680</v>
       </c>
       <c r="B73" s="2">
-        <v>45863.73958333334</v>
+        <v>45875.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7860</v>
+        <v>6760</v>
       </c>
       <c r="B74" s="2">
-        <v>45863.75</v>
+        <v>45875.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7920</v>
+        <v>6830</v>
       </c>
       <c r="B75" s="2">
-        <v>45863.76041666666</v>
+        <v>45875.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7980</v>
+        <v>6900</v>
       </c>
       <c r="B76" s="2">
-        <v>45863.77083333334</v>
+        <v>45875.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>8010</v>
+        <v>6970</v>
       </c>
       <c r="B77" s="2">
-        <v>45863.78125</v>
+        <v>45875.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>8040</v>
+        <v>7040</v>
       </c>
       <c r="B78" s="2">
-        <v>45863.79166666666</v>
+        <v>45875.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>8080</v>
+        <v>7090</v>
       </c>
       <c r="B79" s="2">
-        <v>45863.80208333334</v>
+        <v>45875.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>8100</v>
+        <v>7140</v>
       </c>
       <c r="B80" s="2">
-        <v>45863.8125</v>
+        <v>45875.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>8120</v>
+        <v>7220</v>
       </c>
       <c r="B81" s="2">
-        <v>45863.82291666666</v>
+        <v>45875.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>8100</v>
+        <v>7260</v>
       </c>
       <c r="B82" s="2">
-        <v>45863.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>8070</v>
+        <v>7260</v>
       </c>
       <c r="B83" s="2">
-        <v>45863.84375</v>
+        <v>45875.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>8030</v>
+        <v>7230</v>
       </c>
       <c r="B84" s="2">
-        <v>45863.85416666666</v>
+        <v>45875.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7970</v>
+        <v>7160</v>
       </c>
       <c r="B85" s="2">
-        <v>45863.86458333334</v>
+        <v>45875.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7900</v>
+        <v>7030</v>
       </c>
       <c r="B86" s="2">
-        <v>45863.875</v>
+        <v>45875.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>7800</v>
+        <v>6930</v>
       </c>
       <c r="B87" s="2">
-        <v>45863.88541666666</v>
+        <v>45875.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>7650</v>
+        <v>6770</v>
       </c>
       <c r="B88" s="2">
-        <v>45863.89583333334</v>
+        <v>45875.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>7480</v>
+        <v>6620</v>
       </c>
       <c r="B89" s="2">
-        <v>45863.90625</v>
+        <v>45875.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>7300</v>
+        <v>6470</v>
       </c>
       <c r="B90" s="2">
-        <v>45863.91666666666</v>
+        <v>45875.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>7110</v>
+        <v>6330</v>
       </c>
       <c r="B91" s="2">
-        <v>45863.92708333334</v>
+        <v>45875.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6980</v>
+        <v>6200</v>
       </c>
       <c r="B92" s="2">
-        <v>45863.9375</v>
+        <v>45875.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6860</v>
+        <v>6070</v>
       </c>
       <c r="B93" s="2">
-        <v>45863.94791666666</v>
+        <v>45875.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>6490</v>
+        <v>5840</v>
       </c>
       <c r="B94" s="2">
-        <v>45863.95833333334</v>
+        <v>45875.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>6450</v>
+        <v>5810</v>
       </c>
       <c r="B95" s="2">
-        <v>45863.96875</v>
+        <v>45875.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>6390</v>
+        <v>5730</v>
       </c>
       <c r="B96" s="2">
-        <v>45863.97916666666</v>
+        <v>45875.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>6290</v>
+        <v>5640</v>
       </c>
       <c r="B97" s="2">
-        <v>45863.98958333334</v>
+        <v>45875.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5610</v>
+        <v>5270</v>
       </c>
       <c r="B2" s="2">
-        <v>45875</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5550</v>
+        <v>5220</v>
       </c>
       <c r="B3" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5490</v>
+        <v>5180</v>
       </c>
       <c r="B4" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5450</v>
+        <v>5140</v>
       </c>
       <c r="B5" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5410</v>
+        <v>5110</v>
       </c>
       <c r="B6" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5390</v>
+        <v>5080</v>
       </c>
       <c r="B7" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5370</v>
+        <v>5070</v>
       </c>
       <c r="B8" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5350</v>
+        <v>5060</v>
       </c>
       <c r="B9" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5340</v>
+        <v>5050</v>
       </c>
       <c r="B10" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5330</v>
+        <v>5050</v>
       </c>
       <c r="B11" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5320</v>
+        <v>5050</v>
       </c>
       <c r="B12" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5310</v>
+        <v>5050</v>
       </c>
       <c r="B13" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5300</v>
+        <v>5050</v>
       </c>
       <c r="B14" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5290</v>
+        <v>5060</v>
       </c>
       <c r="B15" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5290</v>
+        <v>5070</v>
       </c>
       <c r="B16" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5290</v>
+        <v>5080</v>
       </c>
       <c r="B17" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5310</v>
+        <v>5090</v>
       </c>
       <c r="B18" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5330</v>
+        <v>5120</v>
       </c>
       <c r="B19" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5370</v>
+        <v>5160</v>
       </c>
       <c r="B20" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5420</v>
+        <v>5220</v>
       </c>
       <c r="B21" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5480</v>
+        <v>5280</v>
       </c>
       <c r="B22" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5540</v>
+        <v>5360</v>
       </c>
       <c r="B23" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5610</v>
+        <v>5420</v>
       </c>
       <c r="B24" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5680</v>
+        <v>5510</v>
       </c>
       <c r="B25" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5750</v>
+        <v>5640</v>
       </c>
       <c r="B26" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5820</v>
+        <v>5770</v>
       </c>
       <c r="B27" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5870</v>
+        <v>5860</v>
       </c>
       <c r="B28" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5920</v>
+        <v>5910</v>
       </c>
       <c r="B29" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5960</v>
+        <v>5920</v>
       </c>
       <c r="B30" s="2">
-        <v>45875.29166666666</v>
+        <v>45889.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5990</v>
+        <v>5920</v>
       </c>
       <c r="B31" s="2">
-        <v>45875.30208333334</v>
+        <v>45889.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6000</v>
+        <v>5910</v>
       </c>
       <c r="B32" s="2">
-        <v>45875.3125</v>
+        <v>45889.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6000</v>
+        <v>5880</v>
       </c>
       <c r="B33" s="2">
-        <v>45875.32291666666</v>
+        <v>45889.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5980</v>
+        <v>5800</v>
       </c>
       <c r="B34" s="2">
-        <v>45875.33333333334</v>
+        <v>45889.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5940</v>
+        <v>5700</v>
       </c>
       <c r="B35" s="2">
-        <v>45875.34375</v>
+        <v>45889.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5900</v>
+        <v>5610</v>
       </c>
       <c r="B36" s="2">
-        <v>45875.35416666666</v>
+        <v>45889.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5850</v>
+        <v>5520</v>
       </c>
       <c r="B37" s="2">
-        <v>45875.36458333334</v>
+        <v>45889.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5790</v>
+        <v>5450</v>
       </c>
       <c r="B38" s="2">
-        <v>45875.375</v>
+        <v>45889.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5740</v>
+        <v>5370</v>
       </c>
       <c r="B39" s="2">
-        <v>45875.38541666666</v>
+        <v>45889.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5690</v>
+        <v>5310</v>
       </c>
       <c r="B40" s="2">
-        <v>45875.39583333334</v>
+        <v>45889.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5640</v>
+        <v>5250</v>
       </c>
       <c r="B41" s="2">
-        <v>45875.40625</v>
+        <v>45889.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5610</v>
+        <v>5150</v>
       </c>
       <c r="B42" s="2">
-        <v>45875.41666666666</v>
+        <v>45889.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5580</v>
+        <v>5090</v>
       </c>
       <c r="B43" s="2">
-        <v>45875.42708333334</v>
+        <v>45889.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5570</v>
+        <v>5060</v>
       </c>
       <c r="B44" s="2">
-        <v>45875.4375</v>
+        <v>45889.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5560</v>
+        <v>5040</v>
       </c>
       <c r="B45" s="2">
-        <v>45875.44791666666</v>
+        <v>45889.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5560</v>
+        <v>5020</v>
       </c>
       <c r="B46" s="2">
-        <v>45875.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5560</v>
+        <v>5020</v>
       </c>
       <c r="B47" s="2">
-        <v>45875.46875</v>
+        <v>45889.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5560</v>
+        <v>5020</v>
       </c>
       <c r="B48" s="2">
-        <v>45875.47916666666</v>
+        <v>45889.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5560</v>
+        <v>5020</v>
       </c>
       <c r="B49" s="2">
-        <v>45875.48958333334</v>
+        <v>45889.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5570</v>
+        <v>5030</v>
       </c>
       <c r="B50" s="2">
-        <v>45875.5</v>
+        <v>45889.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5590</v>
+        <v>5040</v>
       </c>
       <c r="B51" s="2">
-        <v>45875.51041666666</v>
+        <v>45889.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5610</v>
+        <v>5050</v>
       </c>
       <c r="B52" s="2">
-        <v>45875.52083333334</v>
+        <v>45889.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5630</v>
+        <v>5080</v>
       </c>
       <c r="B53" s="2">
-        <v>45875.53125</v>
+        <v>45889.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5660</v>
+        <v>5100</v>
       </c>
       <c r="B54" s="2">
-        <v>45875.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5700</v>
+        <v>5130</v>
       </c>
       <c r="B55" s="2">
-        <v>45875.55208333334</v>
+        <v>45889.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5740</v>
+        <v>5160</v>
       </c>
       <c r="B56" s="2">
-        <v>45875.5625</v>
+        <v>45889.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5770</v>
+        <v>5220</v>
       </c>
       <c r="B57" s="2">
-        <v>45875.57291666666</v>
+        <v>45889.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5800</v>
+        <v>5280</v>
       </c>
       <c r="B58" s="2">
-        <v>45875.58333333334</v>
+        <v>45889.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5830</v>
+        <v>5340</v>
       </c>
       <c r="B59" s="2">
-        <v>45875.59375</v>
+        <v>45889.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5870</v>
+        <v>5390</v>
       </c>
       <c r="B60" s="2">
-        <v>45875.60416666666</v>
+        <v>45889.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5910</v>
+        <v>5460</v>
       </c>
       <c r="B61" s="2">
-        <v>45875.61458333334</v>
+        <v>45889.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5950</v>
+        <v>5530</v>
       </c>
       <c r="B62" s="2">
-        <v>45875.625</v>
+        <v>45889.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6000</v>
+        <v>5620</v>
       </c>
       <c r="B63" s="2">
-        <v>45875.63541666666</v>
+        <v>45889.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6060</v>
+        <v>5720</v>
       </c>
       <c r="B64" s="2">
-        <v>45875.64583333334</v>
+        <v>45889.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6120</v>
+        <v>5830</v>
       </c>
       <c r="B65" s="2">
-        <v>45875.65625</v>
+        <v>45889.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6200</v>
+        <v>5910</v>
       </c>
       <c r="B66" s="2">
-        <v>45875.66666666666</v>
+        <v>45889.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6270</v>
+        <v>6020</v>
       </c>
       <c r="B67" s="2">
-        <v>45875.67708333334</v>
+        <v>45889.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6330</v>
+        <v>6110</v>
       </c>
       <c r="B68" s="2">
-        <v>45875.6875</v>
+        <v>45889.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6400</v>
+        <v>6210</v>
       </c>
       <c r="B69" s="2">
-        <v>45875.69791666666</v>
+        <v>45889.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6460</v>
+        <v>6300</v>
       </c>
       <c r="B70" s="2">
-        <v>45875.70833333334</v>
+        <v>45889.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6530</v>
+        <v>6400</v>
       </c>
       <c r="B71" s="2">
-        <v>45875.71875</v>
+        <v>45889.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6610</v>
+        <v>6500</v>
       </c>
       <c r="B72" s="2">
-        <v>45875.72916666666</v>
+        <v>45889.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6680</v>
+        <v>6580</v>
       </c>
       <c r="B73" s="2">
-        <v>45875.73958333334</v>
+        <v>45889.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6760</v>
+        <v>6660</v>
       </c>
       <c r="B74" s="2">
-        <v>45875.75</v>
+        <v>45889.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6830</v>
+        <v>6730</v>
       </c>
       <c r="B75" s="2">
-        <v>45875.76041666666</v>
+        <v>45889.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6900</v>
+        <v>6780</v>
       </c>
       <c r="B76" s="2">
-        <v>45875.77083333334</v>
+        <v>45889.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6970</v>
+        <v>6850</v>
       </c>
       <c r="B77" s="2">
-        <v>45875.78125</v>
+        <v>45889.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7040</v>
+        <v>6910</v>
       </c>
       <c r="B78" s="2">
-        <v>45875.79166666666</v>
+        <v>45889.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7090</v>
+        <v>6960</v>
       </c>
       <c r="B79" s="2">
-        <v>45875.80208333334</v>
+        <v>45889.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7140</v>
+        <v>6990</v>
       </c>
       <c r="B80" s="2">
-        <v>45875.8125</v>
+        <v>45889.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7220</v>
+        <v>7000</v>
       </c>
       <c r="B81" s="2">
-        <v>45875.82291666666</v>
+        <v>45889.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7260</v>
+        <v>7000</v>
       </c>
       <c r="B82" s="2">
-        <v>45875.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7260</v>
+        <v>6990</v>
       </c>
       <c r="B83" s="2">
-        <v>45875.84375</v>
+        <v>45889.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7230</v>
+        <v>6970</v>
       </c>
       <c r="B84" s="2">
-        <v>45875.85416666666</v>
+        <v>45889.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7160</v>
+        <v>6900</v>
       </c>
       <c r="B85" s="2">
-        <v>45875.86458333334</v>
+        <v>45889.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7030</v>
+        <v>6720</v>
       </c>
       <c r="B86" s="2">
-        <v>45875.875</v>
+        <v>45889.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6930</v>
+        <v>6550</v>
       </c>
       <c r="B87" s="2">
-        <v>45875.88541666666</v>
+        <v>45889.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6770</v>
+        <v>6390</v>
       </c>
       <c r="B88" s="2">
-        <v>45875.89583333334</v>
+        <v>45889.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6620</v>
+        <v>6230</v>
       </c>
       <c r="B89" s="2">
-        <v>45875.90625</v>
+        <v>45889.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6470</v>
+        <v>6090</v>
       </c>
       <c r="B90" s="2">
-        <v>45875.91666666666</v>
+        <v>45889.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6330</v>
+        <v>5950</v>
       </c>
       <c r="B91" s="2">
-        <v>45875.92708333334</v>
+        <v>45889.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6200</v>
+        <v>5840</v>
       </c>
       <c r="B92" s="2">
-        <v>45875.9375</v>
+        <v>45889.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>6070</v>
+        <v>5720</v>
       </c>
       <c r="B93" s="2">
-        <v>45875.94791666666</v>
+        <v>45889.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5840</v>
+        <v>5650</v>
       </c>
       <c r="B94" s="2">
-        <v>45875.95833333334</v>
+        <v>45889.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5810</v>
+        <v>5590</v>
       </c>
       <c r="B95" s="2">
-        <v>45875.96875</v>
+        <v>45889.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5730</v>
+        <v>5540</v>
       </c>
       <c r="B96" s="2">
-        <v>45875.97916666666</v>
+        <v>45889.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5640</v>
+        <v>5470</v>
       </c>
       <c r="B97" s="2">
-        <v>45875.98958333334</v>
+        <v>45889.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5270</v>
+        <v>5360</v>
       </c>
       <c r="B2" s="2">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5220</v>
+        <v>5300</v>
       </c>
       <c r="B3" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5180</v>
+        <v>5260</v>
       </c>
       <c r="B4" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5140</v>
+        <v>5220</v>
       </c>
       <c r="B5" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5110</v>
+        <v>5180</v>
       </c>
       <c r="B6" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5080</v>
+        <v>5150</v>
       </c>
       <c r="B7" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5070</v>
+        <v>5140</v>
       </c>
       <c r="B8" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5060</v>
+        <v>5130</v>
       </c>
       <c r="B9" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5050</v>
+        <v>5110</v>
       </c>
       <c r="B10" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="B11" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="B12" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="B13" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="B14" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5060</v>
+        <v>5100</v>
       </c>
       <c r="B15" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5070</v>
+        <v>5100</v>
       </c>
       <c r="B16" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5080</v>
+        <v>5110</v>
       </c>
       <c r="B17" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5090</v>
+        <v>5150</v>
       </c>
       <c r="B18" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5120</v>
+        <v>5190</v>
       </c>
       <c r="B19" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5160</v>
+        <v>5240</v>
       </c>
       <c r="B20" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5220</v>
+        <v>5280</v>
       </c>
       <c r="B21" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5280</v>
+        <v>5340</v>
       </c>
       <c r="B22" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5360</v>
+        <v>5400</v>
       </c>
       <c r="B23" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5420</v>
+        <v>5490</v>
       </c>
       <c r="B24" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5510</v>
+        <v>5580</v>
       </c>
       <c r="B25" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5640</v>
+        <v>5750</v>
       </c>
       <c r="B26" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5770</v>
+        <v>5870</v>
       </c>
       <c r="B27" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5860</v>
+        <v>5930</v>
       </c>
       <c r="B28" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="B29" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5920</v>
+        <v>5980</v>
       </c>
       <c r="B30" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5920</v>
+        <v>5980</v>
       </c>
       <c r="B31" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5910</v>
+        <v>5970</v>
       </c>
       <c r="B32" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5880</v>
+        <v>5930</v>
       </c>
       <c r="B33" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5800</v>
+        <v>5820</v>
       </c>
       <c r="B34" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5700</v>
+        <v>5730</v>
       </c>
       <c r="B35" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5610</v>
+        <v>5660</v>
       </c>
       <c r="B36" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5520</v>
+        <v>5580</v>
       </c>
       <c r="B37" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5450</v>
+        <v>5500</v>
       </c>
       <c r="B38" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5370</v>
+        <v>5420</v>
       </c>
       <c r="B39" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5310</v>
+        <v>5350</v>
       </c>
       <c r="B40" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="B41" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5150</v>
+        <v>5230</v>
       </c>
       <c r="B42" s="2">
-        <v>45889.41666666666</v>
+        <v>45890.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5090</v>
+        <v>5200</v>
       </c>
       <c r="B43" s="2">
-        <v>45889.42708333334</v>
+        <v>45890.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5060</v>
+        <v>5190</v>
       </c>
       <c r="B44" s="2">
-        <v>45889.4375</v>
+        <v>45890.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5040</v>
+        <v>5180</v>
       </c>
       <c r="B45" s="2">
-        <v>45889.44791666666</v>
+        <v>45890.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5020</v>
+        <v>5170</v>
       </c>
       <c r="B46" s="2">
-        <v>45889.45833333334</v>
+        <v>45890.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5020</v>
+        <v>5170</v>
       </c>
       <c r="B47" s="2">
-        <v>45889.46875</v>
+        <v>45890.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5020</v>
+        <v>5170</v>
       </c>
       <c r="B48" s="2">
-        <v>45889.47916666666</v>
+        <v>45890.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5020</v>
+        <v>5170</v>
       </c>
       <c r="B49" s="2">
-        <v>45889.48958333334</v>
+        <v>45890.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5030</v>
+        <v>5190</v>
       </c>
       <c r="B50" s="2">
-        <v>45889.5</v>
+        <v>45890.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5040</v>
+        <v>5210</v>
       </c>
       <c r="B51" s="2">
-        <v>45889.51041666666</v>
+        <v>45890.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5050</v>
+        <v>5230</v>
       </c>
       <c r="B52" s="2">
-        <v>45889.52083333334</v>
+        <v>45890.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5080</v>
+        <v>5260</v>
       </c>
       <c r="B53" s="2">
-        <v>45889.53125</v>
+        <v>45890.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5100</v>
+        <v>5310</v>
       </c>
       <c r="B54" s="2">
-        <v>45889.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5130</v>
+        <v>5360</v>
       </c>
       <c r="B55" s="2">
-        <v>45889.55208333334</v>
+        <v>45890.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5160</v>
+        <v>5400</v>
       </c>
       <c r="B56" s="2">
-        <v>45889.5625</v>
+        <v>45890.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5220</v>
+        <v>5450</v>
       </c>
       <c r="B57" s="2">
-        <v>45889.57291666666</v>
+        <v>45890.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5280</v>
+        <v>5510</v>
       </c>
       <c r="B58" s="2">
-        <v>45889.58333333334</v>
+        <v>45890.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5340</v>
+        <v>5570</v>
       </c>
       <c r="B59" s="2">
-        <v>45889.59375</v>
+        <v>45890.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5390</v>
+        <v>5630</v>
       </c>
       <c r="B60" s="2">
-        <v>45889.60416666666</v>
+        <v>45890.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5460</v>
+        <v>5690</v>
       </c>
       <c r="B61" s="2">
-        <v>45889.61458333334</v>
+        <v>45890.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5530</v>
+        <v>5780</v>
       </c>
       <c r="B62" s="2">
-        <v>45889.625</v>
+        <v>45890.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5620</v>
+        <v>5860</v>
       </c>
       <c r="B63" s="2">
-        <v>45889.63541666666</v>
+        <v>45890.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5720</v>
+        <v>5960</v>
       </c>
       <c r="B64" s="2">
-        <v>45889.64583333334</v>
+        <v>45890.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5830</v>
+        <v>6060</v>
       </c>
       <c r="B65" s="2">
-        <v>45889.65625</v>
+        <v>45890.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5910</v>
+        <v>6160</v>
       </c>
       <c r="B66" s="2">
-        <v>45889.66666666666</v>
+        <v>45890.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6020</v>
+        <v>6250</v>
       </c>
       <c r="B67" s="2">
-        <v>45889.67708333334</v>
+        <v>45890.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6110</v>
+        <v>6350</v>
       </c>
       <c r="B68" s="2">
-        <v>45889.6875</v>
+        <v>45890.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6210</v>
+        <v>6440</v>
       </c>
       <c r="B69" s="2">
-        <v>45889.69791666666</v>
+        <v>45890.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6300</v>
+        <v>6570</v>
       </c>
       <c r="B70" s="2">
-        <v>45889.70833333334</v>
+        <v>45890.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6400</v>
+        <v>6670</v>
       </c>
       <c r="B71" s="2">
-        <v>45889.71875</v>
+        <v>45890.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6500</v>
+        <v>6780</v>
       </c>
       <c r="B72" s="2">
-        <v>45889.72916666666</v>
+        <v>45890.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6580</v>
+        <v>6880</v>
       </c>
       <c r="B73" s="2">
-        <v>45889.73958333334</v>
+        <v>45890.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6660</v>
+        <v>6960</v>
       </c>
       <c r="B74" s="2">
-        <v>45889.75</v>
+        <v>45890.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6730</v>
+        <v>7060</v>
       </c>
       <c r="B75" s="2">
-        <v>45889.76041666666</v>
+        <v>45890.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6780</v>
+        <v>7120</v>
       </c>
       <c r="B76" s="2">
-        <v>45889.77083333334</v>
+        <v>45890.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6850</v>
+        <v>7170</v>
       </c>
       <c r="B77" s="2">
-        <v>45889.78125</v>
+        <v>45890.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6910</v>
+        <v>7200</v>
       </c>
       <c r="B78" s="2">
-        <v>45889.79166666666</v>
+        <v>45890.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6960</v>
+        <v>7230</v>
       </c>
       <c r="B79" s="2">
-        <v>45889.80208333334</v>
+        <v>45890.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6990</v>
+        <v>7260</v>
       </c>
       <c r="B80" s="2">
-        <v>45889.8125</v>
+        <v>45890.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7000</v>
+        <v>7310</v>
       </c>
       <c r="B81" s="2">
-        <v>45889.82291666666</v>
+        <v>45890.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7000</v>
+        <v>7320</v>
       </c>
       <c r="B82" s="2">
-        <v>45889.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6990</v>
+        <v>7290</v>
       </c>
       <c r="B83" s="2">
-        <v>45889.84375</v>
+        <v>45890.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6970</v>
+        <v>7240</v>
       </c>
       <c r="B84" s="2">
-        <v>45889.85416666666</v>
+        <v>45890.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6900</v>
+        <v>7130</v>
       </c>
       <c r="B85" s="2">
-        <v>45889.86458333334</v>
+        <v>45890.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6720</v>
+        <v>6940</v>
       </c>
       <c r="B86" s="2">
-        <v>45889.875</v>
+        <v>45890.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6550</v>
+        <v>6780</v>
       </c>
       <c r="B87" s="2">
-        <v>45889.88541666666</v>
+        <v>45890.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6390</v>
+        <v>6630</v>
       </c>
       <c r="B88" s="2">
-        <v>45889.89583333334</v>
+        <v>45890.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6230</v>
+        <v>6470</v>
       </c>
       <c r="B89" s="2">
-        <v>45889.90625</v>
+        <v>45890.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6090</v>
+        <v>6290</v>
       </c>
       <c r="B90" s="2">
-        <v>45889.91666666666</v>
+        <v>45890.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5950</v>
+        <v>6140</v>
       </c>
       <c r="B91" s="2">
-        <v>45889.92708333334</v>
+        <v>45890.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5840</v>
+        <v>6030</v>
       </c>
       <c r="B92" s="2">
-        <v>45889.9375</v>
+        <v>45890.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5720</v>
+        <v>5920</v>
       </c>
       <c r="B93" s="2">
-        <v>45889.94791666666</v>
+        <v>45890.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5650</v>
+        <v>5740</v>
       </c>
       <c r="B94" s="2">
-        <v>45889.95833333334</v>
+        <v>45890.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5590</v>
+        <v>5680</v>
       </c>
       <c r="B95" s="2">
-        <v>45889.96875</v>
+        <v>45890.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5540</v>
+        <v>5630</v>
       </c>
       <c r="B96" s="2">
-        <v>45889.97916666666</v>
+        <v>45890.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5470</v>
+        <v>5570</v>
       </c>
       <c r="B97" s="2">
-        <v>45889.98958333334</v>
+        <v>45890.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,290 +397,290 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5360</v>
+        <v>5160</v>
       </c>
       <c r="B2" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5300</v>
+        <v>5120</v>
       </c>
       <c r="B3" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5260</v>
+        <v>5080</v>
       </c>
       <c r="B4" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5220</v>
+        <v>5050</v>
       </c>
       <c r="B5" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5180</v>
+        <v>5010</v>
       </c>
       <c r="B6" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5150</v>
+        <v>4980</v>
       </c>
       <c r="B7" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5140</v>
+        <v>4970</v>
       </c>
       <c r="B8" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5130</v>
+        <v>4960</v>
       </c>
       <c r="B9" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5110</v>
+        <v>4960</v>
       </c>
       <c r="B10" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5100</v>
+        <v>4960</v>
       </c>
       <c r="B11" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5100</v>
+        <v>4960</v>
       </c>
       <c r="B12" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5100</v>
+        <v>4970</v>
       </c>
       <c r="B13" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5100</v>
+        <v>4980</v>
       </c>
       <c r="B14" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5100</v>
+        <v>4990</v>
       </c>
       <c r="B15" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5100</v>
+        <v>5010</v>
       </c>
       <c r="B16" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5110</v>
+        <v>5040</v>
       </c>
       <c r="B17" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5150</v>
+        <v>5070</v>
       </c>
       <c r="B18" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5190</v>
+        <v>5130</v>
       </c>
       <c r="B19" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="B20" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5280</v>
+        <v>5310</v>
       </c>
       <c r="B21" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5340</v>
+        <v>5420</v>
       </c>
       <c r="B22" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5400</v>
+        <v>5540</v>
       </c>
       <c r="B23" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5490</v>
+        <v>5660</v>
       </c>
       <c r="B24" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5580</v>
+        <v>5800</v>
       </c>
       <c r="B25" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5750</v>
+        <v>5960</v>
       </c>
       <c r="B26" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5870</v>
+        <v>6070</v>
       </c>
       <c r="B27" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5930</v>
+        <v>6150</v>
       </c>
       <c r="B28" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5960</v>
+        <v>6220</v>
       </c>
       <c r="B29" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5980</v>
+        <v>6240</v>
       </c>
       <c r="B30" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5980</v>
+        <v>6230</v>
       </c>
       <c r="B31" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5970</v>
+        <v>6200</v>
       </c>
       <c r="B32" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5930</v>
+        <v>6130</v>
       </c>
       <c r="B33" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5820</v>
+        <v>5990</v>
       </c>
       <c r="B34" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5730</v>
+        <v>5860</v>
       </c>
       <c r="B35" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5660</v>
+        <v>5740</v>
       </c>
       <c r="B36" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5580</v>
+        <v>5620</v>
       </c>
       <c r="B37" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -688,479 +688,479 @@
         <v>5500</v>
       </c>
       <c r="B38" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5420</v>
+        <v>5380</v>
       </c>
       <c r="B39" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="B40" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5300</v>
+        <v>5170</v>
       </c>
       <c r="B41" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5230</v>
+        <v>5060</v>
       </c>
       <c r="B42" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5200</v>
+        <v>4980</v>
       </c>
       <c r="B43" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5190</v>
+        <v>4920</v>
       </c>
       <c r="B44" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5180</v>
+        <v>4870</v>
       </c>
       <c r="B45" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5170</v>
+        <v>4820</v>
       </c>
       <c r="B46" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5170</v>
+        <v>4780</v>
       </c>
       <c r="B47" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5170</v>
+        <v>4760</v>
       </c>
       <c r="B48" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5170</v>
+        <v>4750</v>
       </c>
       <c r="B49" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5190</v>
+        <v>4750</v>
       </c>
       <c r="B50" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5210</v>
+        <v>4750</v>
       </c>
       <c r="B51" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5230</v>
+        <v>4750</v>
       </c>
       <c r="B52" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5260</v>
+        <v>4760</v>
       </c>
       <c r="B53" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5310</v>
+        <v>4790</v>
       </c>
       <c r="B54" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5360</v>
+        <v>4830</v>
       </c>
       <c r="B55" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5400</v>
+        <v>4850</v>
       </c>
       <c r="B56" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5450</v>
+        <v>4900</v>
       </c>
       <c r="B57" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5510</v>
+        <v>4960</v>
       </c>
       <c r="B58" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5570</v>
+        <v>5020</v>
       </c>
       <c r="B59" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5630</v>
+        <v>5080</v>
       </c>
       <c r="B60" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5690</v>
+        <v>5150</v>
       </c>
       <c r="B61" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5780</v>
+        <v>5240</v>
       </c>
       <c r="B62" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5860</v>
+        <v>5340</v>
       </c>
       <c r="B63" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5960</v>
+        <v>5450</v>
       </c>
       <c r="B64" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6060</v>
+        <v>5560</v>
       </c>
       <c r="B65" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6160</v>
+        <v>5690</v>
       </c>
       <c r="B66" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6250</v>
+        <v>5820</v>
       </c>
       <c r="B67" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6350</v>
+        <v>5950</v>
       </c>
       <c r="B68" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6440</v>
+        <v>6080</v>
       </c>
       <c r="B69" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6570</v>
+        <v>6220</v>
       </c>
       <c r="B70" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6670</v>
+        <v>6340</v>
       </c>
       <c r="B71" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6780</v>
+        <v>6450</v>
       </c>
       <c r="B72" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6880</v>
+        <v>6570</v>
       </c>
       <c r="B73" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6960</v>
+        <v>6680</v>
       </c>
       <c r="B74" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7060</v>
+        <v>6800</v>
       </c>
       <c r="B75" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7120</v>
+        <v>6910</v>
       </c>
       <c r="B76" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7170</v>
+        <v>7010</v>
       </c>
       <c r="B77" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7200</v>
+        <v>7130</v>
       </c>
       <c r="B78" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7230</v>
+        <v>7170</v>
       </c>
       <c r="B79" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7260</v>
+        <v>7170</v>
       </c>
       <c r="B80" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7310</v>
+        <v>7130</v>
       </c>
       <c r="B81" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7320</v>
+        <v>7000</v>
       </c>
       <c r="B82" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7290</v>
+        <v>6850</v>
       </c>
       <c r="B83" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7240</v>
+        <v>6730</v>
       </c>
       <c r="B84" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7130</v>
+        <v>6600</v>
       </c>
       <c r="B85" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6940</v>
+        <v>6410</v>
       </c>
       <c r="B86" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6780</v>
+        <v>6260</v>
       </c>
       <c r="B87" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6630</v>
+        <v>6080</v>
       </c>
       <c r="B88" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6470</v>
+        <v>5930</v>
       </c>
       <c r="B89" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6290</v>
+        <v>5800</v>
       </c>
       <c r="B90" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6140</v>
+        <v>5650</v>
       </c>
       <c r="B91" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6030</v>
+        <v>5530</v>
       </c>
       <c r="B92" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5920</v>
+        <v>5420</v>
       </c>
       <c r="B93" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5740</v>
+        <v>5380</v>
       </c>
       <c r="B94" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5680</v>
+        <v>5340</v>
       </c>
       <c r="B95" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5630</v>
+        <v>5290</v>
       </c>
       <c r="B96" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5570</v>
+        <v>5220</v>
       </c>
       <c r="B97" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,202 +397,202 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5160</v>
+        <v>5120</v>
       </c>
       <c r="B2" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5120</v>
+        <v>5080</v>
       </c>
       <c r="B3" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5080</v>
+        <v>5060</v>
       </c>
       <c r="B4" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5050</v>
+        <v>5030</v>
       </c>
       <c r="B5" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5010</v>
+        <v>4980</v>
       </c>
       <c r="B6" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4980</v>
+        <v>4950</v>
       </c>
       <c r="B7" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4970</v>
+        <v>4940</v>
       </c>
       <c r="B8" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4960</v>
+        <v>4930</v>
       </c>
       <c r="B9" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4960</v>
+        <v>4900</v>
       </c>
       <c r="B10" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4960</v>
+        <v>4900</v>
       </c>
       <c r="B11" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4960</v>
+        <v>4900</v>
       </c>
       <c r="B12" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4970</v>
+        <v>4900</v>
       </c>
       <c r="B13" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4980</v>
+        <v>4920</v>
       </c>
       <c r="B14" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4990</v>
+        <v>4940</v>
       </c>
       <c r="B15" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5010</v>
+        <v>4960</v>
       </c>
       <c r="B16" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5040</v>
+        <v>4990</v>
       </c>
       <c r="B17" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5070</v>
+        <v>5040</v>
       </c>
       <c r="B18" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5130</v>
+        <v>5110</v>
       </c>
       <c r="B19" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5210</v>
+        <v>5180</v>
       </c>
       <c r="B20" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5310</v>
+        <v>5270</v>
       </c>
       <c r="B21" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5420</v>
+        <v>5380</v>
       </c>
       <c r="B22" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5540</v>
+        <v>5510</v>
       </c>
       <c r="B23" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5660</v>
+        <v>5630</v>
       </c>
       <c r="B24" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5800</v>
+        <v>5760</v>
       </c>
       <c r="B25" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5960</v>
+        <v>5950</v>
       </c>
       <c r="B26" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -600,279 +600,279 @@
         <v>6070</v>
       </c>
       <c r="B27" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6150</v>
+        <v>6140</v>
       </c>
       <c r="B28" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6220</v>
+        <v>6170</v>
       </c>
       <c r="B29" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6240</v>
+        <v>6190</v>
       </c>
       <c r="B30" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6230</v>
+        <v>6170</v>
       </c>
       <c r="B31" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6200</v>
+        <v>6120</v>
       </c>
       <c r="B32" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6130</v>
+        <v>6050</v>
       </c>
       <c r="B33" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5990</v>
+        <v>5940</v>
       </c>
       <c r="B34" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5860</v>
+        <v>5820</v>
       </c>
       <c r="B35" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5740</v>
+        <v>5690</v>
       </c>
       <c r="B36" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5620</v>
+        <v>5540</v>
       </c>
       <c r="B37" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5500</v>
+        <v>5380</v>
       </c>
       <c r="B38" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5380</v>
+        <v>5240</v>
       </c>
       <c r="B39" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5260</v>
+        <v>5110</v>
       </c>
       <c r="B40" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5170</v>
+        <v>5010</v>
       </c>
       <c r="B41" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5060</v>
+        <v>4910</v>
       </c>
       <c r="B42" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4980</v>
+        <v>4840</v>
       </c>
       <c r="B43" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4920</v>
+        <v>4790</v>
       </c>
       <c r="B44" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4870</v>
+        <v>4750</v>
       </c>
       <c r="B45" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4820</v>
+        <v>4710</v>
       </c>
       <c r="B46" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4780</v>
+        <v>4700</v>
       </c>
       <c r="B47" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4760</v>
+        <v>4700</v>
       </c>
       <c r="B48" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="B49" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="B50" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="B51" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4750</v>
+        <v>4700</v>
       </c>
       <c r="B52" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4760</v>
+        <v>4710</v>
       </c>
       <c r="B53" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4790</v>
+        <v>4740</v>
       </c>
       <c r="B54" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4830</v>
+        <v>4780</v>
       </c>
       <c r="B55" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4850</v>
+        <v>4810</v>
       </c>
       <c r="B56" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4900</v>
+        <v>4860</v>
       </c>
       <c r="B57" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4960</v>
+        <v>4930</v>
       </c>
       <c r="B58" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5020</v>
+        <v>4990</v>
       </c>
       <c r="B59" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5080</v>
+        <v>5060</v>
       </c>
       <c r="B60" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5150</v>
+        <v>5140</v>
       </c>
       <c r="B61" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -880,7 +880,7 @@
         <v>5240</v>
       </c>
       <c r="B62" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -888,279 +888,279 @@
         <v>5340</v>
       </c>
       <c r="B63" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5450</v>
+        <v>5440</v>
       </c>
       <c r="B64" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5560</v>
+        <v>5530</v>
       </c>
       <c r="B65" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5690</v>
+        <v>5630</v>
       </c>
       <c r="B66" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5820</v>
+        <v>5740</v>
       </c>
       <c r="B67" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5950</v>
+        <v>5860</v>
       </c>
       <c r="B68" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6080</v>
+        <v>5980</v>
       </c>
       <c r="B69" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6220</v>
+        <v>6120</v>
       </c>
       <c r="B70" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6340</v>
+        <v>6240</v>
       </c>
       <c r="B71" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6450</v>
+        <v>6350</v>
       </c>
       <c r="B72" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6570</v>
+        <v>6470</v>
       </c>
       <c r="B73" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6680</v>
+        <v>6550</v>
       </c>
       <c r="B74" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6800</v>
+        <v>6660</v>
       </c>
       <c r="B75" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6910</v>
+        <v>6780</v>
       </c>
       <c r="B76" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7010</v>
+        <v>6890</v>
       </c>
       <c r="B77" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7130</v>
+        <v>7020</v>
       </c>
       <c r="B78" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7170</v>
+        <v>7100</v>
       </c>
       <c r="B79" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7170</v>
+        <v>7100</v>
       </c>
       <c r="B80" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7130</v>
+        <v>7060</v>
       </c>
       <c r="B81" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7000</v>
+        <v>6930</v>
       </c>
       <c r="B82" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6850</v>
+        <v>6780</v>
       </c>
       <c r="B83" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6730</v>
+        <v>6670</v>
       </c>
       <c r="B84" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6600</v>
+        <v>6540</v>
       </c>
       <c r="B85" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6410</v>
+        <v>6380</v>
       </c>
       <c r="B86" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6260</v>
+        <v>6240</v>
       </c>
       <c r="B87" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6080</v>
+        <v>6070</v>
       </c>
       <c r="B88" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5930</v>
+        <v>5920</v>
       </c>
       <c r="B89" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>5800</v>
+        <v>5810</v>
       </c>
       <c r="B90" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5650</v>
+        <v>5670</v>
       </c>
       <c r="B91" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5530</v>
+        <v>5550</v>
       </c>
       <c r="B92" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="B93" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5380</v>
+        <v>5270</v>
       </c>
       <c r="B94" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5340</v>
+        <v>5220</v>
       </c>
       <c r="B95" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5290</v>
+        <v>5180</v>
       </c>
       <c r="B96" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5220</v>
+        <v>5140</v>
       </c>
       <c r="B97" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,498 +397,498 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5120</v>
+        <v>5160</v>
       </c>
       <c r="B2" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5080</v>
+        <v>5110</v>
       </c>
       <c r="B3" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5060</v>
+        <v>5080</v>
       </c>
       <c r="B4" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5030</v>
+        <v>5060</v>
       </c>
       <c r="B5" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4980</v>
+        <v>5040</v>
       </c>
       <c r="B6" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4950</v>
+        <v>5030</v>
       </c>
       <c r="B7" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4940</v>
+        <v>5020</v>
       </c>
       <c r="B8" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4930</v>
+        <v>5020</v>
       </c>
       <c r="B9" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="B10" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="B11" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="B12" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="B13" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4920</v>
+        <v>5000</v>
       </c>
       <c r="B14" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4940</v>
+        <v>5020</v>
       </c>
       <c r="B15" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4960</v>
+        <v>5030</v>
       </c>
       <c r="B16" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4990</v>
+        <v>5060</v>
       </c>
       <c r="B17" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5040</v>
+        <v>5110</v>
       </c>
       <c r="B18" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5110</v>
+        <v>5170</v>
       </c>
       <c r="B19" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5180</v>
+        <v>5250</v>
       </c>
       <c r="B20" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5270</v>
+        <v>5350</v>
       </c>
       <c r="B21" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5380</v>
+        <v>5460</v>
       </c>
       <c r="B22" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5510</v>
+        <v>5590</v>
       </c>
       <c r="B23" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5630</v>
+        <v>5710</v>
       </c>
       <c r="B24" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5760</v>
+        <v>5860</v>
       </c>
       <c r="B25" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5950</v>
+        <v>6060</v>
       </c>
       <c r="B26" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6070</v>
+        <v>6180</v>
       </c>
       <c r="B27" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6140</v>
+        <v>6270</v>
       </c>
       <c r="B28" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6170</v>
+        <v>6300</v>
       </c>
       <c r="B29" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6190</v>
+        <v>6300</v>
       </c>
       <c r="B30" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6170</v>
+        <v>6290</v>
       </c>
       <c r="B31" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6120</v>
+        <v>6250</v>
       </c>
       <c r="B32" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6050</v>
+        <v>6160</v>
       </c>
       <c r="B33" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5940</v>
+        <v>6020</v>
       </c>
       <c r="B34" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5820</v>
+        <v>5900</v>
       </c>
       <c r="B35" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5690</v>
+        <v>5770</v>
       </c>
       <c r="B36" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5540</v>
+        <v>5630</v>
       </c>
       <c r="B37" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5380</v>
+        <v>5510</v>
       </c>
       <c r="B38" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5240</v>
+        <v>5370</v>
       </c>
       <c r="B39" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5110</v>
+        <v>5250</v>
       </c>
       <c r="B40" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5010</v>
+        <v>5140</v>
       </c>
       <c r="B41" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>4910</v>
+        <v>5010</v>
       </c>
       <c r="B42" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4840</v>
+        <v>4920</v>
       </c>
       <c r="B43" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4790</v>
+        <v>4840</v>
       </c>
       <c r="B44" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4750</v>
+        <v>4760</v>
       </c>
       <c r="B45" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4710</v>
+        <v>4670</v>
       </c>
       <c r="B46" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4700</v>
+        <v>4620</v>
       </c>
       <c r="B47" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="B48" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="B49" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4700</v>
+        <v>4610</v>
       </c>
       <c r="B50" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4700</v>
+        <v>4620</v>
       </c>
       <c r="B51" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4700</v>
+        <v>4630</v>
       </c>
       <c r="B52" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4710</v>
+        <v>4650</v>
       </c>
       <c r="B53" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4740</v>
+        <v>4670</v>
       </c>
       <c r="B54" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4780</v>
+        <v>4710</v>
       </c>
       <c r="B55" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4810</v>
+        <v>4750</v>
       </c>
       <c r="B56" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4860</v>
+        <v>4800</v>
       </c>
       <c r="B57" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4930</v>
+        <v>4860</v>
       </c>
       <c r="B58" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>4990</v>
+        <v>4930</v>
       </c>
       <c r="B59" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5060</v>
+        <v>5000</v>
       </c>
       <c r="B60" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5140</v>
+        <v>5090</v>
       </c>
       <c r="B61" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5240</v>
+        <v>5190</v>
       </c>
       <c r="B62" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5340</v>
+        <v>5310</v>
       </c>
       <c r="B63" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -896,271 +896,271 @@
         <v>5440</v>
       </c>
       <c r="B64" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5530</v>
+        <v>5590</v>
       </c>
       <c r="B65" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5630</v>
+        <v>5740</v>
       </c>
       <c r="B66" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5740</v>
+        <v>5890</v>
       </c>
       <c r="B67" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5860</v>
+        <v>6030</v>
       </c>
       <c r="B68" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>5980</v>
+        <v>6160</v>
       </c>
       <c r="B69" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6120</v>
+        <v>6310</v>
       </c>
       <c r="B70" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6240</v>
+        <v>6430</v>
       </c>
       <c r="B71" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6350</v>
+        <v>6560</v>
       </c>
       <c r="B72" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6470</v>
+        <v>6680</v>
       </c>
       <c r="B73" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6550</v>
+        <v>6800</v>
       </c>
       <c r="B74" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6660</v>
+        <v>6930</v>
       </c>
       <c r="B75" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6780</v>
+        <v>7040</v>
       </c>
       <c r="B76" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6890</v>
+        <v>7130</v>
       </c>
       <c r="B77" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7020</v>
+        <v>7220</v>
       </c>
       <c r="B78" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7100</v>
+        <v>7270</v>
       </c>
       <c r="B79" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7100</v>
+        <v>7260</v>
       </c>
       <c r="B80" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7060</v>
+        <v>7210</v>
       </c>
       <c r="B81" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6930</v>
+        <v>7070</v>
       </c>
       <c r="B82" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6780</v>
+        <v>6920</v>
       </c>
       <c r="B83" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6670</v>
+        <v>6790</v>
       </c>
       <c r="B84" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6540</v>
+        <v>6670</v>
       </c>
       <c r="B85" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6380</v>
+        <v>6520</v>
       </c>
       <c r="B86" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6240</v>
+        <v>6390</v>
       </c>
       <c r="B87" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6070</v>
+        <v>6230</v>
       </c>
       <c r="B88" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5920</v>
+        <v>6060</v>
       </c>
       <c r="B89" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>5810</v>
+        <v>5920</v>
       </c>
       <c r="B90" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5670</v>
+        <v>5770</v>
       </c>
       <c r="B91" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5550</v>
+        <v>5650</v>
       </c>
       <c r="B92" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5440</v>
+        <v>5540</v>
       </c>
       <c r="B93" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5270</v>
+        <v>5470</v>
       </c>
       <c r="B94" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5220</v>
+        <v>5420</v>
       </c>
       <c r="B95" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5180</v>
+        <v>5370</v>
       </c>
       <c r="B96" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5140</v>
+        <v>5310</v>
       </c>
       <c r="B97" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,770 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5160</v>
+        <v>5280</v>
       </c>
       <c r="B2" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5110</v>
+        <v>5250</v>
       </c>
       <c r="B3" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5080</v>
+        <v>5230</v>
       </c>
       <c r="B4" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5060</v>
+        <v>5200</v>
       </c>
       <c r="B5" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5040</v>
+        <v>5190</v>
       </c>
       <c r="B6" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5030</v>
+        <v>5170</v>
       </c>
       <c r="B7" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5020</v>
+        <v>5150</v>
       </c>
       <c r="B8" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5020</v>
+        <v>5150</v>
       </c>
       <c r="B9" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5000</v>
+        <v>5150</v>
       </c>
       <c r="B10" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5000</v>
+        <v>5150</v>
       </c>
       <c r="B11" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5000</v>
+        <v>5160</v>
       </c>
       <c r="B12" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5000</v>
+        <v>5170</v>
       </c>
       <c r="B13" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5000</v>
+        <v>5170</v>
       </c>
       <c r="B14" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5020</v>
+        <v>5180</v>
       </c>
       <c r="B15" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5030</v>
+        <v>5190</v>
       </c>
       <c r="B16" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5060</v>
+        <v>5230</v>
       </c>
       <c r="B17" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5110</v>
+        <v>5290</v>
       </c>
       <c r="B18" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5170</v>
+        <v>5370</v>
       </c>
       <c r="B19" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5250</v>
+        <v>5470</v>
       </c>
       <c r="B20" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5350</v>
+        <v>5600</v>
       </c>
       <c r="B21" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5460</v>
+        <v>5740</v>
       </c>
       <c r="B22" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5590</v>
+        <v>5900</v>
       </c>
       <c r="B23" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5710</v>
+        <v>6070</v>
       </c>
       <c r="B24" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5860</v>
+        <v>6250</v>
       </c>
       <c r="B25" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6060</v>
+        <v>6420</v>
       </c>
       <c r="B26" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6180</v>
+        <v>6590</v>
       </c>
       <c r="B27" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6270</v>
+        <v>6740</v>
       </c>
       <c r="B28" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6300</v>
+        <v>6880</v>
       </c>
       <c r="B29" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6300</v>
+        <v>6990</v>
       </c>
       <c r="B30" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>6290</v>
+        <v>7090</v>
       </c>
       <c r="B31" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6250</v>
+        <v>7150</v>
       </c>
       <c r="B32" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6160</v>
+        <v>7150</v>
       </c>
       <c r="B33" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6020</v>
+        <v>7150</v>
       </c>
       <c r="B34" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5900</v>
+        <v>7150</v>
       </c>
       <c r="B35" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5770</v>
+        <v>7120</v>
       </c>
       <c r="B36" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5630</v>
+        <v>7050</v>
       </c>
       <c r="B37" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5510</v>
+        <v>6970</v>
       </c>
       <c r="B38" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5370</v>
+        <v>6880</v>
       </c>
       <c r="B39" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5250</v>
+        <v>6790</v>
       </c>
       <c r="B40" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5140</v>
+        <v>6700</v>
       </c>
       <c r="B41" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5010</v>
+        <v>6620</v>
       </c>
       <c r="B42" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>4920</v>
+        <v>6560</v>
       </c>
       <c r="B43" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>4840</v>
+        <v>6500</v>
       </c>
       <c r="B44" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>4760</v>
+        <v>6460</v>
       </c>
       <c r="B45" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>4670</v>
+        <v>6440</v>
       </c>
       <c r="B46" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>4620</v>
+        <v>6420</v>
       </c>
       <c r="B47" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>4600</v>
+        <v>6410</v>
       </c>
       <c r="B48" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="B49" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4610</v>
+        <v>6400</v>
       </c>
       <c r="B50" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>4620</v>
+        <v>6390</v>
       </c>
       <c r="B51" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4630</v>
+        <v>6390</v>
       </c>
       <c r="B52" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4650</v>
+        <v>6380</v>
       </c>
       <c r="B53" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>4670</v>
+        <v>6380</v>
       </c>
       <c r="B54" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>4710</v>
+        <v>6370</v>
       </c>
       <c r="B55" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>4750</v>
+        <v>6370</v>
       </c>
       <c r="B56" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>4800</v>
+        <v>6370</v>
       </c>
       <c r="B57" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>4860</v>
+        <v>6370</v>
       </c>
       <c r="B58" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>4930</v>
+        <v>6380</v>
       </c>
       <c r="B59" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5000</v>
+        <v>6390</v>
       </c>
       <c r="B60" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5090</v>
+        <v>6410</v>
       </c>
       <c r="B61" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5190</v>
+        <v>6440</v>
       </c>
       <c r="B62" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5310</v>
+        <v>6480</v>
       </c>
       <c r="B63" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5440</v>
+        <v>6520</v>
       </c>
       <c r="B64" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5590</v>
+        <v>6580</v>
       </c>
       <c r="B65" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5740</v>
+        <v>6630</v>
       </c>
       <c r="B66" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5890</v>
+        <v>6690</v>
       </c>
       <c r="B67" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6030</v>
+        <v>6760</v>
       </c>
       <c r="B68" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6160</v>
+        <v>6840</v>
       </c>
       <c r="B69" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6310</v>
+        <v>6930</v>
       </c>
       <c r="B70" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6430</v>
+        <v>7030</v>
       </c>
       <c r="B71" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6560</v>
+        <v>7150</v>
       </c>
       <c r="B72" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6680</v>
+        <v>7280</v>
       </c>
       <c r="B73" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6800</v>
+        <v>7410</v>
       </c>
       <c r="B74" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6930</v>
+        <v>7520</v>
       </c>
       <c r="B75" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7040</v>
+        <v>7580</v>
       </c>
       <c r="B76" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7130</v>
+        <v>7620</v>
       </c>
       <c r="B77" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7220</v>
+        <v>7650</v>
       </c>
       <c r="B78" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7270</v>
+        <v>7600</v>
       </c>
       <c r="B79" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7260</v>
+        <v>7500</v>
       </c>
       <c r="B80" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7210</v>
+        <v>7410</v>
       </c>
       <c r="B81" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7070</v>
+        <v>7300</v>
       </c>
       <c r="B82" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6920</v>
+        <v>7160</v>
       </c>
       <c r="B83" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6790</v>
+        <v>7060</v>
       </c>
       <c r="B84" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6670</v>
+        <v>6930</v>
       </c>
       <c r="B85" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6520</v>
+        <v>6760</v>
       </c>
       <c r="B86" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6390</v>
+        <v>6640</v>
       </c>
       <c r="B87" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6230</v>
+        <v>6480</v>
       </c>
       <c r="B88" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6060</v>
+        <v>6310</v>
       </c>
       <c r="B89" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>5920</v>
+        <v>6100</v>
       </c>
       <c r="B90" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5770</v>
+        <v>5910</v>
       </c>
       <c r="B91" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5650</v>
+        <v>5830</v>
       </c>
       <c r="B92" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5540</v>
+        <v>5720</v>
       </c>
       <c r="B93" s="2">
-        <v>45923.94791666666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>5470</v>
-      </c>
-      <c r="B94" s="2">
-        <v>45923.95833333334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>5420</v>
-      </c>
-      <c r="B95" s="2">
-        <v>45923.96875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>5370</v>
-      </c>
-      <c r="B96" s="2">
-        <v>45923.97916666666</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>5310</v>
-      </c>
-      <c r="B97" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.94791666666</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,538 +397,538 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5280</v>
+        <v>5510</v>
       </c>
       <c r="B2" s="2">
-        <v>45932</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5250</v>
+        <v>5460</v>
       </c>
       <c r="B3" s="2">
-        <v>45932.01041666666</v>
+        <v>45946.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5230</v>
+        <v>5430</v>
       </c>
       <c r="B4" s="2">
-        <v>45932.02083333334</v>
+        <v>45946.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="B5" s="2">
-        <v>45932.03125</v>
+        <v>45946.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5190</v>
+        <v>5360</v>
       </c>
       <c r="B6" s="2">
-        <v>45932.04166666666</v>
+        <v>45946.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5170</v>
+        <v>5350</v>
       </c>
       <c r="B7" s="2">
-        <v>45932.05208333334</v>
+        <v>45946.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5150</v>
+        <v>5350</v>
       </c>
       <c r="B8" s="2">
-        <v>45932.0625</v>
+        <v>45946.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5150</v>
+        <v>5340</v>
       </c>
       <c r="B9" s="2">
-        <v>45932.07291666666</v>
+        <v>45946.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5150</v>
+        <v>5330</v>
       </c>
       <c r="B10" s="2">
-        <v>45932.08333333334</v>
+        <v>45946.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5150</v>
+        <v>5330</v>
       </c>
       <c r="B11" s="2">
-        <v>45932.09375</v>
+        <v>45946.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5160</v>
+        <v>5330</v>
       </c>
       <c r="B12" s="2">
-        <v>45932.10416666666</v>
+        <v>45946.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5170</v>
+        <v>5340</v>
       </c>
       <c r="B13" s="2">
-        <v>45932.11458333334</v>
+        <v>45946.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5170</v>
+        <v>5350</v>
       </c>
       <c r="B14" s="2">
-        <v>45932.125</v>
+        <v>45946.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5180</v>
+        <v>5360</v>
       </c>
       <c r="B15" s="2">
-        <v>45932.13541666666</v>
+        <v>45946.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5190</v>
+        <v>5370</v>
       </c>
       <c r="B16" s="2">
-        <v>45932.14583333334</v>
+        <v>45946.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5230</v>
+        <v>5400</v>
       </c>
       <c r="B17" s="2">
-        <v>45932.15625</v>
+        <v>45946.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5290</v>
+        <v>5450</v>
       </c>
       <c r="B18" s="2">
-        <v>45932.16666666666</v>
+        <v>45946.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5370</v>
+        <v>5520</v>
       </c>
       <c r="B19" s="2">
-        <v>45932.17708333334</v>
+        <v>45946.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5470</v>
+        <v>5620</v>
       </c>
       <c r="B20" s="2">
-        <v>45932.1875</v>
+        <v>45946.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5600</v>
+        <v>5740</v>
       </c>
       <c r="B21" s="2">
-        <v>45932.19791666666</v>
+        <v>45946.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5740</v>
+        <v>5870</v>
       </c>
       <c r="B22" s="2">
-        <v>45932.20833333334</v>
+        <v>45946.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5900</v>
+        <v>6040</v>
       </c>
       <c r="B23" s="2">
-        <v>45932.21875</v>
+        <v>45946.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6070</v>
+        <v>6210</v>
       </c>
       <c r="B24" s="2">
-        <v>45932.22916666666</v>
+        <v>45946.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6250</v>
+        <v>6370</v>
       </c>
       <c r="B25" s="2">
-        <v>45932.23958333334</v>
+        <v>45946.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6420</v>
+        <v>6640</v>
       </c>
       <c r="B26" s="2">
-        <v>45932.25</v>
+        <v>45946.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6590</v>
+        <v>6810</v>
       </c>
       <c r="B27" s="2">
-        <v>45932.26041666666</v>
+        <v>45946.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6740</v>
+        <v>6950</v>
       </c>
       <c r="B28" s="2">
-        <v>45932.27083333334</v>
+        <v>45946.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6880</v>
+        <v>7070</v>
       </c>
       <c r="B29" s="2">
-        <v>45932.28125</v>
+        <v>45946.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>6990</v>
+        <v>7150</v>
       </c>
       <c r="B30" s="2">
-        <v>45932.29166666666</v>
+        <v>45946.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7090</v>
+        <v>7180</v>
       </c>
       <c r="B31" s="2">
-        <v>45932.30208333334</v>
+        <v>45946.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7150</v>
+        <v>7180</v>
       </c>
       <c r="B32" s="2">
-        <v>45932.3125</v>
+        <v>45946.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7150</v>
+        <v>7170</v>
       </c>
       <c r="B33" s="2">
-        <v>45932.32291666666</v>
+        <v>45946.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7150</v>
+        <v>7140</v>
       </c>
       <c r="B34" s="2">
-        <v>45932.33333333334</v>
+        <v>45946.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7150</v>
+        <v>7070</v>
       </c>
       <c r="B35" s="2">
-        <v>45932.34375</v>
+        <v>45946.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7120</v>
+        <v>6960</v>
       </c>
       <c r="B36" s="2">
-        <v>45932.35416666666</v>
+        <v>45946.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7050</v>
+        <v>6840</v>
       </c>
       <c r="B37" s="2">
-        <v>45932.36458333334</v>
+        <v>45946.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6970</v>
+        <v>6700</v>
       </c>
       <c r="B38" s="2">
-        <v>45932.375</v>
+        <v>45946.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6880</v>
+        <v>6550</v>
       </c>
       <c r="B39" s="2">
-        <v>45932.38541666666</v>
+        <v>45946.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6790</v>
+        <v>6410</v>
       </c>
       <c r="B40" s="2">
-        <v>45932.39583333334</v>
+        <v>45946.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6700</v>
+        <v>6240</v>
       </c>
       <c r="B41" s="2">
-        <v>45932.40625</v>
+        <v>45946.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6620</v>
+        <v>6060</v>
       </c>
       <c r="B42" s="2">
-        <v>45932.41666666666</v>
+        <v>45946.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6560</v>
+        <v>5930</v>
       </c>
       <c r="B43" s="2">
-        <v>45932.42708333334</v>
+        <v>45946.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6500</v>
+        <v>5820</v>
       </c>
       <c r="B44" s="2">
-        <v>45932.4375</v>
+        <v>45946.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6460</v>
+        <v>5730</v>
       </c>
       <c r="B45" s="2">
-        <v>45932.44791666666</v>
+        <v>45946.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6440</v>
+        <v>5650</v>
       </c>
       <c r="B46" s="2">
-        <v>45932.45833333334</v>
+        <v>45946.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6420</v>
+        <v>5600</v>
       </c>
       <c r="B47" s="2">
-        <v>45932.46875</v>
+        <v>45946.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6410</v>
+        <v>5580</v>
       </c>
       <c r="B48" s="2">
-        <v>45932.47916666666</v>
+        <v>45946.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6400</v>
+        <v>5570</v>
       </c>
       <c r="B49" s="2">
-        <v>45932.48958333334</v>
+        <v>45946.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6400</v>
+        <v>5580</v>
       </c>
       <c r="B50" s="2">
-        <v>45932.5</v>
+        <v>45946.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6390</v>
+        <v>5590</v>
       </c>
       <c r="B51" s="2">
-        <v>45932.51041666666</v>
+        <v>45946.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6390</v>
+        <v>5600</v>
       </c>
       <c r="B52" s="2">
-        <v>45932.52083333334</v>
+        <v>45946.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6380</v>
+        <v>5620</v>
       </c>
       <c r="B53" s="2">
-        <v>45932.53125</v>
+        <v>45946.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6380</v>
+        <v>5660</v>
       </c>
       <c r="B54" s="2">
-        <v>45932.54166666666</v>
+        <v>45946.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6370</v>
+        <v>5700</v>
       </c>
       <c r="B55" s="2">
-        <v>45932.55208333334</v>
+        <v>45946.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6370</v>
+        <v>5740</v>
       </c>
       <c r="B56" s="2">
-        <v>45932.5625</v>
+        <v>45946.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6370</v>
+        <v>5780</v>
       </c>
       <c r="B57" s="2">
-        <v>45932.57291666666</v>
+        <v>45946.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6370</v>
+        <v>5830</v>
       </c>
       <c r="B58" s="2">
-        <v>45932.58333333334</v>
+        <v>45946.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6380</v>
+        <v>5870</v>
       </c>
       <c r="B59" s="2">
-        <v>45932.59375</v>
+        <v>45946.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6390</v>
+        <v>5930</v>
       </c>
       <c r="B60" s="2">
-        <v>45932.60416666666</v>
+        <v>45946.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6410</v>
+        <v>5990</v>
       </c>
       <c r="B61" s="2">
-        <v>45932.61458333334</v>
+        <v>45946.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6440</v>
+        <v>6070</v>
       </c>
       <c r="B62" s="2">
-        <v>45932.625</v>
+        <v>45946.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6480</v>
+        <v>6170</v>
       </c>
       <c r="B63" s="2">
-        <v>45932.63541666666</v>
+        <v>45946.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6520</v>
+        <v>6280</v>
       </c>
       <c r="B64" s="2">
-        <v>45932.64583333334</v>
+        <v>45946.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6580</v>
+        <v>6400</v>
       </c>
       <c r="B65" s="2">
-        <v>45932.65625</v>
+        <v>45946.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6630</v>
+        <v>6520</v>
       </c>
       <c r="B66" s="2">
-        <v>45932.66666666666</v>
+        <v>45946.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6690</v>
+        <v>6630</v>
       </c>
       <c r="B67" s="2">
-        <v>45932.67708333334</v>
+        <v>45946.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6760</v>
+        <v>6740</v>
       </c>
       <c r="B68" s="2">
-        <v>45932.6875</v>
+        <v>45946.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -936,63 +936,63 @@
         <v>6840</v>
       </c>
       <c r="B69" s="2">
-        <v>45932.69791666666</v>
+        <v>45946.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6930</v>
+        <v>6960</v>
       </c>
       <c r="B70" s="2">
-        <v>45932.70833333334</v>
+        <v>45946.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7030</v>
+        <v>7050</v>
       </c>
       <c r="B71" s="2">
-        <v>45932.71875</v>
+        <v>45946.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7150</v>
+        <v>7170</v>
       </c>
       <c r="B72" s="2">
-        <v>45932.72916666666</v>
+        <v>45946.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7280</v>
+        <v>7300</v>
       </c>
       <c r="B73" s="2">
-        <v>45932.73958333334</v>
+        <v>45946.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7410</v>
+        <v>7460</v>
       </c>
       <c r="B74" s="2">
-        <v>45932.75</v>
+        <v>45946.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7520</v>
+        <v>7570</v>
       </c>
       <c r="B75" s="2">
-        <v>45932.76041666666</v>
+        <v>45946.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7580</v>
+        <v>7630</v>
       </c>
       <c r="B76" s="2">
-        <v>45932.77083333334</v>
+        <v>45946.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1000,135 +1000,167 @@
         <v>7620</v>
       </c>
       <c r="B77" s="2">
-        <v>45932.78125</v>
+        <v>45946.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7650</v>
+        <v>7560</v>
       </c>
       <c r="B78" s="2">
-        <v>45932.79166666666</v>
+        <v>45946.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7600</v>
+        <v>7510</v>
       </c>
       <c r="B79" s="2">
-        <v>45932.80208333334</v>
+        <v>45946.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7500</v>
+        <v>7450</v>
       </c>
       <c r="B80" s="2">
-        <v>45932.8125</v>
+        <v>45946.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7410</v>
+        <v>7400</v>
       </c>
       <c r="B81" s="2">
-        <v>45932.82291666666</v>
+        <v>45946.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7300</v>
+        <v>7320</v>
       </c>
       <c r="B82" s="2">
-        <v>45932.83333333334</v>
+        <v>45946.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7160</v>
+        <v>7220</v>
       </c>
       <c r="B83" s="2">
-        <v>45932.84375</v>
+        <v>45946.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7060</v>
+        <v>7130</v>
       </c>
       <c r="B84" s="2">
-        <v>45932.85416666666</v>
+        <v>45946.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6930</v>
+        <v>6970</v>
       </c>
       <c r="B85" s="2">
-        <v>45932.86458333334</v>
+        <v>45946.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6760</v>
+        <v>6730</v>
       </c>
       <c r="B86" s="2">
-        <v>45932.875</v>
+        <v>45946.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6640</v>
+        <v>6580</v>
       </c>
       <c r="B87" s="2">
-        <v>45932.88541666666</v>
+        <v>45946.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6480</v>
+        <v>6420</v>
       </c>
       <c r="B88" s="2">
-        <v>45932.89583333334</v>
+        <v>45946.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6310</v>
+        <v>6280</v>
       </c>
       <c r="B89" s="2">
-        <v>45932.90625</v>
+        <v>45946.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6100</v>
+        <v>6140</v>
       </c>
       <c r="B90" s="2">
-        <v>45932.91666666666</v>
+        <v>45946.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5910</v>
+        <v>6000</v>
       </c>
       <c r="B91" s="2">
-        <v>45932.92708333334</v>
+        <v>45946.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5830</v>
+        <v>5890</v>
       </c>
       <c r="B92" s="2">
-        <v>45932.9375</v>
+        <v>45946.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5720</v>
+        <v>5780</v>
       </c>
       <c r="B93" s="2">
-        <v>45932.94791666666</v>
+        <v>45946.94791666666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>5650</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45946.95833333334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>5580</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45946.96875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>5550</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45946.97916666666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>5500</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45946.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,218 +397,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5510</v>
+        <v>5610</v>
       </c>
       <c r="B2" s="2">
-        <v>45946</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5460</v>
+        <v>5570</v>
       </c>
       <c r="B3" s="2">
-        <v>45946.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5430</v>
+        <v>5530</v>
       </c>
       <c r="B4" s="2">
-        <v>45946.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5400</v>
+        <v>5490</v>
       </c>
       <c r="B5" s="2">
-        <v>45946.03125</v>
+        <v>45947.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5360</v>
+        <v>5430</v>
       </c>
       <c r="B6" s="2">
-        <v>45946.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5350</v>
+        <v>5410</v>
       </c>
       <c r="B7" s="2">
-        <v>45946.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5350</v>
+        <v>5390</v>
       </c>
       <c r="B8" s="2">
-        <v>45946.0625</v>
+        <v>45947.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5340</v>
+        <v>5370</v>
       </c>
       <c r="B9" s="2">
-        <v>45946.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5330</v>
+        <v>5350</v>
       </c>
       <c r="B10" s="2">
-        <v>45946.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5330</v>
+        <v>5350</v>
       </c>
       <c r="B11" s="2">
-        <v>45946.09375</v>
+        <v>45947.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5330</v>
+        <v>5350</v>
       </c>
       <c r="B12" s="2">
-        <v>45946.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5340</v>
+        <v>5370</v>
       </c>
       <c r="B13" s="2">
-        <v>45946.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5350</v>
+        <v>5420</v>
       </c>
       <c r="B14" s="2">
-        <v>45946.125</v>
+        <v>45947.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5360</v>
+        <v>5440</v>
       </c>
       <c r="B15" s="2">
-        <v>45946.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5370</v>
+        <v>5460</v>
       </c>
       <c r="B16" s="2">
-        <v>45946.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5400</v>
+        <v>5490</v>
       </c>
       <c r="B17" s="2">
-        <v>45946.15625</v>
+        <v>45947.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5450</v>
+        <v>5520</v>
       </c>
       <c r="B18" s="2">
-        <v>45946.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5520</v>
+        <v>5590</v>
       </c>
       <c r="B19" s="2">
-        <v>45946.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5620</v>
+        <v>5690</v>
       </c>
       <c r="B20" s="2">
-        <v>45946.1875</v>
+        <v>45947.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5740</v>
+        <v>5810</v>
       </c>
       <c r="B21" s="2">
-        <v>45946.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5870</v>
+        <v>5960</v>
       </c>
       <c r="B22" s="2">
-        <v>45946.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6040</v>
+        <v>6120</v>
       </c>
       <c r="B23" s="2">
-        <v>45946.21875</v>
+        <v>45947.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6210</v>
+        <v>6280</v>
       </c>
       <c r="B24" s="2">
-        <v>45946.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6370</v>
+        <v>6450</v>
       </c>
       <c r="B25" s="2">
-        <v>45946.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6640</v>
+        <v>6690</v>
       </c>
       <c r="B26" s="2">
-        <v>45946.25</v>
+        <v>45947.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6810</v>
+        <v>6850</v>
       </c>
       <c r="B27" s="2">
-        <v>45946.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6950</v>
+        <v>6980</v>
       </c>
       <c r="B28" s="2">
-        <v>45946.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -616,167 +616,167 @@
         <v>7070</v>
       </c>
       <c r="B29" s="2">
-        <v>45946.28125</v>
+        <v>45947.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7150</v>
+        <v>7130</v>
       </c>
       <c r="B30" s="2">
-        <v>45946.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7180</v>
+        <v>7170</v>
       </c>
       <c r="B31" s="2">
-        <v>45946.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7180</v>
+        <v>7170</v>
       </c>
       <c r="B32" s="2">
-        <v>45946.3125</v>
+        <v>45947.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7170</v>
+        <v>7140</v>
       </c>
       <c r="B33" s="2">
-        <v>45946.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7140</v>
+        <v>7080</v>
       </c>
       <c r="B34" s="2">
-        <v>45946.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7070</v>
+        <v>6990</v>
       </c>
       <c r="B35" s="2">
-        <v>45946.34375</v>
+        <v>45947.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6960</v>
+        <v>6880</v>
       </c>
       <c r="B36" s="2">
-        <v>45946.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6840</v>
+        <v>6740</v>
       </c>
       <c r="B37" s="2">
-        <v>45946.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6700</v>
+        <v>6580</v>
       </c>
       <c r="B38" s="2">
-        <v>45946.375</v>
+        <v>45947.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6550</v>
+        <v>6420</v>
       </c>
       <c r="B39" s="2">
-        <v>45946.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6410</v>
+        <v>6270</v>
       </c>
       <c r="B40" s="2">
-        <v>45946.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6240</v>
+        <v>6120</v>
       </c>
       <c r="B41" s="2">
-        <v>45946.40625</v>
+        <v>45947.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>6060</v>
+        <v>5930</v>
       </c>
       <c r="B42" s="2">
-        <v>45946.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5930</v>
+        <v>5810</v>
       </c>
       <c r="B43" s="2">
-        <v>45946.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5820</v>
+        <v>5720</v>
       </c>
       <c r="B44" s="2">
-        <v>45946.4375</v>
+        <v>45947.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5730</v>
+        <v>5640</v>
       </c>
       <c r="B45" s="2">
-        <v>45946.44791666666</v>
+        <v>45947.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5650</v>
+        <v>5580</v>
       </c>
       <c r="B46" s="2">
-        <v>45946.45833333334</v>
+        <v>45947.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5600</v>
+        <v>5550</v>
       </c>
       <c r="B47" s="2">
-        <v>45946.46875</v>
+        <v>45947.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5580</v>
+        <v>5540</v>
       </c>
       <c r="B48" s="2">
-        <v>45946.47916666666</v>
+        <v>45947.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5570</v>
+        <v>5540</v>
       </c>
       <c r="B49" s="2">
-        <v>45946.48958333334</v>
+        <v>45947.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -784,319 +784,319 @@
         <v>5580</v>
       </c>
       <c r="B50" s="2">
-        <v>45946.5</v>
+        <v>45947.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5590</v>
+        <v>5610</v>
       </c>
       <c r="B51" s="2">
-        <v>45946.51041666666</v>
+        <v>45947.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5600</v>
+        <v>5630</v>
       </c>
       <c r="B52" s="2">
-        <v>45946.52083333334</v>
+        <v>45947.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5620</v>
+        <v>5650</v>
       </c>
       <c r="B53" s="2">
-        <v>45946.53125</v>
+        <v>45947.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5660</v>
+        <v>5680</v>
       </c>
       <c r="B54" s="2">
-        <v>45946.54166666666</v>
+        <v>45947.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5700</v>
+        <v>5720</v>
       </c>
       <c r="B55" s="2">
-        <v>45946.55208333334</v>
+        <v>45947.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5740</v>
+        <v>5760</v>
       </c>
       <c r="B56" s="2">
-        <v>45946.5625</v>
+        <v>45947.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5780</v>
+        <v>5820</v>
       </c>
       <c r="B57" s="2">
-        <v>45946.57291666666</v>
+        <v>45947.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5830</v>
+        <v>5890</v>
       </c>
       <c r="B58" s="2">
-        <v>45946.58333333334</v>
+        <v>45947.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5870</v>
+        <v>5950</v>
       </c>
       <c r="B59" s="2">
-        <v>45946.59375</v>
+        <v>45947.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5930</v>
+        <v>6010</v>
       </c>
       <c r="B60" s="2">
-        <v>45946.60416666666</v>
+        <v>45947.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5990</v>
+        <v>6070</v>
       </c>
       <c r="B61" s="2">
-        <v>45946.61458333334</v>
+        <v>45947.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6070</v>
+        <v>6130</v>
       </c>
       <c r="B62" s="2">
-        <v>45946.625</v>
+        <v>45947.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6170</v>
+        <v>6220</v>
       </c>
       <c r="B63" s="2">
-        <v>45946.63541666666</v>
+        <v>45947.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6280</v>
+        <v>6320</v>
       </c>
       <c r="B64" s="2">
-        <v>45946.64583333334</v>
+        <v>45947.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6400</v>
+        <v>6430</v>
       </c>
       <c r="B65" s="2">
-        <v>45946.65625</v>
+        <v>45947.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6520</v>
+        <v>6540</v>
       </c>
       <c r="B66" s="2">
-        <v>45946.66666666666</v>
+        <v>45947.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6630</v>
+        <v>6650</v>
       </c>
       <c r="B67" s="2">
-        <v>45946.67708333334</v>
+        <v>45947.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6740</v>
+        <v>6760</v>
       </c>
       <c r="B68" s="2">
-        <v>45946.6875</v>
+        <v>45947.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="B69" s="2">
-        <v>45946.69791666666</v>
+        <v>45947.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6960</v>
+        <v>6990</v>
       </c>
       <c r="B70" s="2">
-        <v>45946.70833333334</v>
+        <v>45947.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7050</v>
+        <v>7090</v>
       </c>
       <c r="B71" s="2">
-        <v>45946.71875</v>
+        <v>45947.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7170</v>
+        <v>7200</v>
       </c>
       <c r="B72" s="2">
-        <v>45946.72916666666</v>
+        <v>45947.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7300</v>
+        <v>7320</v>
       </c>
       <c r="B73" s="2">
-        <v>45946.73958333334</v>
+        <v>45947.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7460</v>
+        <v>7430</v>
       </c>
       <c r="B74" s="2">
-        <v>45946.75</v>
+        <v>45947.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7570</v>
+        <v>7520</v>
       </c>
       <c r="B75" s="2">
-        <v>45946.76041666666</v>
+        <v>45947.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7630</v>
+        <v>7570</v>
       </c>
       <c r="B76" s="2">
-        <v>45946.77083333334</v>
+        <v>45947.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7620</v>
+        <v>7570</v>
       </c>
       <c r="B77" s="2">
-        <v>45946.78125</v>
+        <v>45947.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7560</v>
+        <v>7530</v>
       </c>
       <c r="B78" s="2">
-        <v>45946.79166666666</v>
+        <v>45947.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7510</v>
+        <v>7480</v>
       </c>
       <c r="B79" s="2">
-        <v>45946.80208333334</v>
+        <v>45947.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7450</v>
+        <v>7430</v>
       </c>
       <c r="B80" s="2">
-        <v>45946.8125</v>
+        <v>45947.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7400</v>
+        <v>7370</v>
       </c>
       <c r="B81" s="2">
-        <v>45946.82291666666</v>
+        <v>45947.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7320</v>
+        <v>7270</v>
       </c>
       <c r="B82" s="2">
-        <v>45946.83333333334</v>
+        <v>45947.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7220</v>
+        <v>7150</v>
       </c>
       <c r="B83" s="2">
-        <v>45946.84375</v>
+        <v>45947.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7130</v>
+        <v>7060</v>
       </c>
       <c r="B84" s="2">
-        <v>45946.85416666666</v>
+        <v>45947.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6970</v>
+        <v>6940</v>
       </c>
       <c r="B85" s="2">
-        <v>45946.86458333334</v>
+        <v>45947.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6730</v>
+        <v>6750</v>
       </c>
       <c r="B86" s="2">
-        <v>45946.875</v>
+        <v>45947.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6580</v>
+        <v>6610</v>
       </c>
       <c r="B87" s="2">
-        <v>45946.88541666666</v>
+        <v>45947.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6420</v>
+        <v>6470</v>
       </c>
       <c r="B88" s="2">
-        <v>45946.89583333334</v>
+        <v>45947.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6280</v>
+        <v>6310</v>
       </c>
       <c r="B89" s="2">
-        <v>45946.90625</v>
+        <v>45947.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1104,63 +1104,63 @@
         <v>6140</v>
       </c>
       <c r="B90" s="2">
-        <v>45946.91666666666</v>
+        <v>45947.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6000</v>
+        <v>5980</v>
       </c>
       <c r="B91" s="2">
-        <v>45946.92708333334</v>
+        <v>45947.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5890</v>
+        <v>5880</v>
       </c>
       <c r="B92" s="2">
-        <v>45946.9375</v>
+        <v>45947.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5780</v>
+        <v>5770</v>
       </c>
       <c r="B93" s="2">
-        <v>45946.94791666666</v>
+        <v>45947.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5650</v>
+        <v>5700</v>
       </c>
       <c r="B94" s="2">
-        <v>45946.95833333334</v>
+        <v>45947.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5580</v>
+        <v>5630</v>
       </c>
       <c r="B95" s="2">
-        <v>45946.96875</v>
+        <v>45947.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5550</v>
+        <v>5600</v>
       </c>
       <c r="B96" s="2">
-        <v>45946.97916666666</v>
+        <v>45947.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5500</v>
+        <v>5550</v>
       </c>
       <c r="B97" s="2">
-        <v>45946.98958333334</v>
+        <v>45947.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,586 +397,586 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5610</v>
+        <v>5440</v>
       </c>
       <c r="B2" s="2">
-        <v>45947</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5570</v>
+        <v>5400</v>
       </c>
       <c r="B3" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5530</v>
+        <v>5370</v>
       </c>
       <c r="B4" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5490</v>
+        <v>5340</v>
       </c>
       <c r="B5" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5430</v>
+        <v>5320</v>
       </c>
       <c r="B6" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5410</v>
+        <v>5300</v>
       </c>
       <c r="B7" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5390</v>
+        <v>5280</v>
       </c>
       <c r="B8" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5370</v>
+        <v>5270</v>
       </c>
       <c r="B9" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="B10" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5350</v>
+        <v>5260</v>
       </c>
       <c r="B11" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5350</v>
+        <v>5270</v>
       </c>
       <c r="B12" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5370</v>
+        <v>5280</v>
       </c>
       <c r="B13" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5420</v>
+        <v>5290</v>
       </c>
       <c r="B14" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5440</v>
+        <v>5310</v>
       </c>
       <c r="B15" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5460</v>
+        <v>5340</v>
       </c>
       <c r="B16" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5490</v>
+        <v>5370</v>
       </c>
       <c r="B17" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5520</v>
+        <v>5430</v>
       </c>
       <c r="B18" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5590</v>
+        <v>5510</v>
       </c>
       <c r="B19" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5690</v>
+        <v>5610</v>
       </c>
       <c r="B20" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5810</v>
+        <v>5740</v>
       </c>
       <c r="B21" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5960</v>
+        <v>5880</v>
       </c>
       <c r="B22" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6120</v>
+        <v>6030</v>
       </c>
       <c r="B23" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6280</v>
+        <v>6200</v>
       </c>
       <c r="B24" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6450</v>
+        <v>6370</v>
       </c>
       <c r="B25" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6690</v>
+        <v>6530</v>
       </c>
       <c r="B26" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6850</v>
+        <v>6690</v>
       </c>
       <c r="B27" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6980</v>
+        <v>6830</v>
       </c>
       <c r="B28" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7070</v>
+        <v>6960</v>
       </c>
       <c r="B29" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7130</v>
+        <v>7070</v>
       </c>
       <c r="B30" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7170</v>
+        <v>7150</v>
       </c>
       <c r="B31" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7170</v>
+        <v>7220</v>
       </c>
       <c r="B32" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7140</v>
+        <v>7260</v>
       </c>
       <c r="B33" s="2">
-        <v>45947.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7080</v>
+        <v>7280</v>
       </c>
       <c r="B34" s="2">
-        <v>45947.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6990</v>
+        <v>7280</v>
       </c>
       <c r="B35" s="2">
-        <v>45947.34375</v>
+        <v>45954.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6880</v>
+        <v>7270</v>
       </c>
       <c r="B36" s="2">
-        <v>45947.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6740</v>
+        <v>7240</v>
       </c>
       <c r="B37" s="2">
-        <v>45947.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6580</v>
+        <v>7210</v>
       </c>
       <c r="B38" s="2">
-        <v>45947.375</v>
+        <v>45954.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6420</v>
+        <v>7170</v>
       </c>
       <c r="B39" s="2">
-        <v>45947.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>6270</v>
+        <v>7130</v>
       </c>
       <c r="B40" s="2">
-        <v>45947.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>6120</v>
+        <v>7080</v>
       </c>
       <c r="B41" s="2">
-        <v>45947.40625</v>
+        <v>45954.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5930</v>
+        <v>7030</v>
       </c>
       <c r="B42" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5810</v>
+        <v>6980</v>
       </c>
       <c r="B43" s="2">
-        <v>45947.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5720</v>
+        <v>6930</v>
       </c>
       <c r="B44" s="2">
-        <v>45947.4375</v>
+        <v>45954.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5640</v>
+        <v>6870</v>
       </c>
       <c r="B45" s="2">
-        <v>45947.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5580</v>
+        <v>6810</v>
       </c>
       <c r="B46" s="2">
-        <v>45947.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5550</v>
+        <v>6750</v>
       </c>
       <c r="B47" s="2">
-        <v>45947.46875</v>
+        <v>45954.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5540</v>
+        <v>6690</v>
       </c>
       <c r="B48" s="2">
-        <v>45947.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5540</v>
+        <v>6630</v>
       </c>
       <c r="B49" s="2">
-        <v>45947.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5580</v>
+        <v>6570</v>
       </c>
       <c r="B50" s="2">
-        <v>45947.5</v>
+        <v>45954.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5610</v>
+        <v>6520</v>
       </c>
       <c r="B51" s="2">
-        <v>45947.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5630</v>
+        <v>6480</v>
       </c>
       <c r="B52" s="2">
-        <v>45947.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5650</v>
+        <v>6430</v>
       </c>
       <c r="B53" s="2">
-        <v>45947.53125</v>
+        <v>45954.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5680</v>
+        <v>6400</v>
       </c>
       <c r="B54" s="2">
-        <v>45947.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5720</v>
+        <v>6380</v>
       </c>
       <c r="B55" s="2">
-        <v>45947.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5760</v>
+        <v>6360</v>
       </c>
       <c r="B56" s="2">
-        <v>45947.5625</v>
+        <v>45954.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5820</v>
+        <v>6350</v>
       </c>
       <c r="B57" s="2">
-        <v>45947.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5890</v>
+        <v>6350</v>
       </c>
       <c r="B58" s="2">
-        <v>45947.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5950</v>
+        <v>6360</v>
       </c>
       <c r="B59" s="2">
-        <v>45947.59375</v>
+        <v>45954.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6010</v>
+        <v>6370</v>
       </c>
       <c r="B60" s="2">
-        <v>45947.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6070</v>
+        <v>6410</v>
       </c>
       <c r="B61" s="2">
-        <v>45947.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6130</v>
+        <v>6480</v>
       </c>
       <c r="B62" s="2">
-        <v>45947.625</v>
+        <v>45954.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6220</v>
+        <v>6540</v>
       </c>
       <c r="B63" s="2">
-        <v>45947.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6320</v>
+        <v>6620</v>
       </c>
       <c r="B64" s="2">
-        <v>45947.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6430</v>
+        <v>6700</v>
       </c>
       <c r="B65" s="2">
-        <v>45947.65625</v>
+        <v>45954.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6540</v>
+        <v>6790</v>
       </c>
       <c r="B66" s="2">
-        <v>45947.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6650</v>
+        <v>6880</v>
       </c>
       <c r="B67" s="2">
-        <v>45947.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6760</v>
+        <v>6970</v>
       </c>
       <c r="B68" s="2">
-        <v>45947.6875</v>
+        <v>45954.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6860</v>
+        <v>7050</v>
       </c>
       <c r="B69" s="2">
-        <v>45947.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6990</v>
+        <v>7140</v>
       </c>
       <c r="B70" s="2">
-        <v>45947.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7090</v>
+        <v>7220</v>
       </c>
       <c r="B71" s="2">
-        <v>45947.71875</v>
+        <v>45954.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="B72" s="2">
-        <v>45947.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7320</v>
+        <v>7390</v>
       </c>
       <c r="B73" s="2">
-        <v>45947.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7430</v>
+        <v>7460</v>
       </c>
       <c r="B74" s="2">
-        <v>45947.75</v>
+        <v>45954.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -984,175 +984,175 @@
         <v>7520</v>
       </c>
       <c r="B75" s="2">
-        <v>45947.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7570</v>
+        <v>7550</v>
       </c>
       <c r="B76" s="2">
-        <v>45947.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7570</v>
+        <v>7540</v>
       </c>
       <c r="B77" s="2">
-        <v>45947.78125</v>
+        <v>45954.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7530</v>
+        <v>7500</v>
       </c>
       <c r="B78" s="2">
-        <v>45947.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7480</v>
+        <v>7470</v>
       </c>
       <c r="B79" s="2">
-        <v>45947.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7430</v>
+        <v>7400</v>
       </c>
       <c r="B80" s="2">
-        <v>45947.8125</v>
+        <v>45954.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7370</v>
+        <v>7300</v>
       </c>
       <c r="B81" s="2">
-        <v>45947.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7270</v>
+        <v>7200</v>
       </c>
       <c r="B82" s="2">
-        <v>45947.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7150</v>
+        <v>7090</v>
       </c>
       <c r="B83" s="2">
-        <v>45947.84375</v>
+        <v>45954.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>7060</v>
+        <v>6960</v>
       </c>
       <c r="B84" s="2">
-        <v>45947.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6940</v>
+        <v>6800</v>
       </c>
       <c r="B85" s="2">
-        <v>45947.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6750</v>
+        <v>6640</v>
       </c>
       <c r="B86" s="2">
-        <v>45947.875</v>
+        <v>45954.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6610</v>
+        <v>6500</v>
       </c>
       <c r="B87" s="2">
-        <v>45947.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6470</v>
+        <v>6340</v>
       </c>
       <c r="B88" s="2">
-        <v>45947.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6310</v>
+        <v>6200</v>
       </c>
       <c r="B89" s="2">
-        <v>45947.90625</v>
+        <v>45954.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6140</v>
+        <v>6080</v>
       </c>
       <c r="B90" s="2">
-        <v>45947.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5980</v>
+        <v>5950</v>
       </c>
       <c r="B91" s="2">
-        <v>45947.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5880</v>
+        <v>5830</v>
       </c>
       <c r="B92" s="2">
-        <v>45947.9375</v>
+        <v>45954.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5770</v>
+        <v>5720</v>
       </c>
       <c r="B93" s="2">
-        <v>45947.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5700</v>
+        <v>5660</v>
       </c>
       <c r="B94" s="2">
-        <v>45947.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5630</v>
+        <v>5610</v>
       </c>
       <c r="B95" s="2">
-        <v>45947.96875</v>
+        <v>45954.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5600</v>
+        <v>5580</v>
       </c>
       <c r="B96" s="2">
-        <v>45947.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>5550</v>
       </c>
       <c r="B97" s="2">
-        <v>45947.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5440</v>
+        <v>5550</v>
       </c>
       <c r="B2" s="2">
-        <v>45954</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="B3" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5370</v>
+        <v>5460</v>
       </c>
       <c r="B4" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5340</v>
+        <v>5420</v>
       </c>
       <c r="B5" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5320</v>
+        <v>5380</v>
       </c>
       <c r="B6" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5300</v>
+        <v>5360</v>
       </c>
       <c r="B7" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5280</v>
+        <v>5350</v>
       </c>
       <c r="B8" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5270</v>
+        <v>5340</v>
       </c>
       <c r="B9" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5260</v>
+        <v>5330</v>
       </c>
       <c r="B10" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5260</v>
+        <v>5320</v>
       </c>
       <c r="B11" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5270</v>
+        <v>5320</v>
       </c>
       <c r="B12" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="B13" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5290</v>
+        <v>5320</v>
       </c>
       <c r="B14" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5310</v>
+        <v>5320</v>
       </c>
       <c r="B15" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="B16" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="B17" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5430</v>
+        <v>5380</v>
       </c>
       <c r="B18" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5510</v>
+        <v>5410</v>
       </c>
       <c r="B19" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5610</v>
+        <v>5440</v>
       </c>
       <c r="B20" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5740</v>
+        <v>5480</v>
       </c>
       <c r="B21" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5880</v>
+        <v>5520</v>
       </c>
       <c r="B22" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6030</v>
+        <v>5560</v>
       </c>
       <c r="B23" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6200</v>
+        <v>5610</v>
       </c>
       <c r="B24" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6370</v>
+        <v>5660</v>
       </c>
       <c r="B25" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6530</v>
+        <v>5720</v>
       </c>
       <c r="B26" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6690</v>
+        <v>5780</v>
       </c>
       <c r="B27" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6830</v>
+        <v>5820</v>
       </c>
       <c r="B28" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>6960</v>
+        <v>5880</v>
       </c>
       <c r="B29" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7070</v>
+        <v>5940</v>
       </c>
       <c r="B30" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7150</v>
+        <v>5990</v>
       </c>
       <c r="B31" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7220</v>
+        <v>6020</v>
       </c>
       <c r="B32" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7260</v>
+        <v>6050</v>
       </c>
       <c r="B33" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7280</v>
+        <v>6060</v>
       </c>
       <c r="B34" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7280</v>
+        <v>6060</v>
       </c>
       <c r="B35" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7270</v>
+        <v>6050</v>
       </c>
       <c r="B36" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7240</v>
+        <v>6050</v>
       </c>
       <c r="B37" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7210</v>
+        <v>6030</v>
       </c>
       <c r="B38" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7170</v>
+        <v>6010</v>
       </c>
       <c r="B39" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7130</v>
+        <v>5990</v>
       </c>
       <c r="B40" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7080</v>
+        <v>5970</v>
       </c>
       <c r="B41" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7030</v>
+        <v>5950</v>
       </c>
       <c r="B42" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>6980</v>
+        <v>5950</v>
       </c>
       <c r="B43" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>6930</v>
+        <v>5950</v>
       </c>
       <c r="B44" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>6870</v>
+        <v>5950</v>
       </c>
       <c r="B45" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>6810</v>
+        <v>5950</v>
       </c>
       <c r="B46" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>6750</v>
+        <v>5950</v>
       </c>
       <c r="B47" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>6690</v>
+        <v>5950</v>
       </c>
       <c r="B48" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>6630</v>
+        <v>5960</v>
       </c>
       <c r="B49" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>6570</v>
+        <v>5980</v>
       </c>
       <c r="B50" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6520</v>
+        <v>6000</v>
       </c>
       <c r="B51" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6480</v>
+        <v>6000</v>
       </c>
       <c r="B52" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6430</v>
+        <v>6000</v>
       </c>
       <c r="B53" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="B54" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6380</v>
+        <v>6000</v>
       </c>
       <c r="B55" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6360</v>
+        <v>6000</v>
       </c>
       <c r="B56" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6350</v>
+        <v>6020</v>
       </c>
       <c r="B57" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6350</v>
+        <v>6080</v>
       </c>
       <c r="B58" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6360</v>
+        <v>6150</v>
       </c>
       <c r="B59" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6370</v>
+        <v>6210</v>
       </c>
       <c r="B60" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6410</v>
+        <v>6280</v>
       </c>
       <c r="B61" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6480</v>
+        <v>6340</v>
       </c>
       <c r="B62" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6540</v>
+        <v>6440</v>
       </c>
       <c r="B63" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6620</v>
+        <v>6550</v>
       </c>
       <c r="B64" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6700</v>
+        <v>6680</v>
       </c>
       <c r="B65" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6790</v>
+        <v>6840</v>
       </c>
       <c r="B66" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6880</v>
+        <v>6950</v>
       </c>
       <c r="B67" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6970</v>
+        <v>7030</v>
       </c>
       <c r="B68" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7050</v>
+        <v>7090</v>
       </c>
       <c r="B69" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7140</v>
+        <v>7100</v>
       </c>
       <c r="B70" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7220</v>
+        <v>7100</v>
       </c>
       <c r="B71" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="B72" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7390</v>
+        <v>7100</v>
       </c>
       <c r="B73" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7460</v>
+        <v>7060</v>
       </c>
       <c r="B74" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7520</v>
+        <v>7040</v>
       </c>
       <c r="B75" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7550</v>
+        <v>7020</v>
       </c>
       <c r="B76" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7540</v>
+        <v>7000</v>
       </c>
       <c r="B77" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7500</v>
+        <v>6950</v>
       </c>
       <c r="B78" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7470</v>
+        <v>6900</v>
       </c>
       <c r="B79" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7400</v>
+        <v>6830</v>
       </c>
       <c r="B80" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7300</v>
+        <v>6760</v>
       </c>
       <c r="B81" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7200</v>
+        <v>6660</v>
       </c>
       <c r="B82" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7090</v>
+        <v>6550</v>
       </c>
       <c r="B83" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6960</v>
+        <v>6450</v>
       </c>
       <c r="B84" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6800</v>
+        <v>6330</v>
       </c>
       <c r="B85" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6640</v>
+        <v>6190</v>
       </c>
       <c r="B86" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6500</v>
+        <v>6080</v>
       </c>
       <c r="B87" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6340</v>
+        <v>5930</v>
       </c>
       <c r="B88" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6200</v>
+        <v>5820</v>
       </c>
       <c r="B89" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6080</v>
+        <v>5720</v>
       </c>
       <c r="B90" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5950</v>
+        <v>5630</v>
       </c>
       <c r="B91" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5830</v>
+        <v>5540</v>
       </c>
       <c r="B92" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5720</v>
+        <v>5440</v>
       </c>
       <c r="B93" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5660</v>
+        <v>5390</v>
       </c>
       <c r="B94" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5610</v>
+        <v>5350</v>
       </c>
       <c r="B95" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5580</v>
+        <v>5280</v>
       </c>
       <c r="B96" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5550</v>
+        <v>5220</v>
       </c>
       <c r="B97" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5550</v>
+        <v>5200</v>
       </c>
       <c r="B2" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5500</v>
+        <v>5150</v>
       </c>
       <c r="B3" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5460</v>
+        <v>5110</v>
       </c>
       <c r="B4" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5420</v>
+        <v>5070</v>
       </c>
       <c r="B5" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5380</v>
+        <v>5030</v>
       </c>
       <c r="B6" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5360</v>
+        <v>5010</v>
       </c>
       <c r="B7" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5350</v>
+        <v>4990</v>
       </c>
       <c r="B8" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5340</v>
+        <v>4970</v>
       </c>
       <c r="B9" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5330</v>
+        <v>4960</v>
       </c>
       <c r="B10" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5320</v>
+        <v>4950</v>
       </c>
       <c r="B11" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5320</v>
+        <v>4950</v>
       </c>
       <c r="B12" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5320</v>
+        <v>4950</v>
       </c>
       <c r="B13" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5320</v>
+        <v>4950</v>
       </c>
       <c r="B14" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5320</v>
+        <v>4950</v>
       </c>
       <c r="B15" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5330</v>
+        <v>4950</v>
       </c>
       <c r="B16" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5350</v>
+        <v>4960</v>
       </c>
       <c r="B17" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5380</v>
+        <v>4990</v>
       </c>
       <c r="B18" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5410</v>
+        <v>5010</v>
       </c>
       <c r="B19" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5440</v>
+        <v>5030</v>
       </c>
       <c r="B20" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5480</v>
+        <v>5060</v>
       </c>
       <c r="B21" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5520</v>
+        <v>5100</v>
       </c>
       <c r="B22" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5560</v>
+        <v>5120</v>
       </c>
       <c r="B23" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5610</v>
+        <v>5140</v>
       </c>
       <c r="B24" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5660</v>
+        <v>5180</v>
       </c>
       <c r="B25" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5720</v>
+        <v>5230</v>
       </c>
       <c r="B26" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5780</v>
+        <v>5260</v>
       </c>
       <c r="B27" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5820</v>
+        <v>5290</v>
       </c>
       <c r="B28" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5880</v>
+        <v>5330</v>
       </c>
       <c r="B29" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5940</v>
+        <v>5360</v>
       </c>
       <c r="B30" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5990</v>
+        <v>5380</v>
       </c>
       <c r="B31" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>6020</v>
+        <v>5390</v>
       </c>
       <c r="B32" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>6050</v>
+        <v>5390</v>
       </c>
       <c r="B33" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>6060</v>
+        <v>5380</v>
       </c>
       <c r="B34" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>6060</v>
+        <v>5370</v>
       </c>
       <c r="B35" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>6050</v>
+        <v>5340</v>
       </c>
       <c r="B36" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>6050</v>
+        <v>5310</v>
       </c>
       <c r="B37" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>6030</v>
+        <v>5260</v>
       </c>
       <c r="B38" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>6010</v>
+        <v>5220</v>
       </c>
       <c r="B39" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5990</v>
+        <v>5180</v>
       </c>
       <c r="B40" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5970</v>
+        <v>5140</v>
       </c>
       <c r="B41" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5950</v>
+        <v>5090</v>
       </c>
       <c r="B42" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5950</v>
+        <v>5060</v>
       </c>
       <c r="B43" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5950</v>
+        <v>5040</v>
       </c>
       <c r="B44" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5950</v>
+        <v>5020</v>
       </c>
       <c r="B45" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5950</v>
+        <v>5000</v>
       </c>
       <c r="B46" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5950</v>
+        <v>5000</v>
       </c>
       <c r="B47" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5950</v>
+        <v>5000</v>
       </c>
       <c r="B48" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5960</v>
+        <v>5010</v>
       </c>
       <c r="B49" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5980</v>
+        <v>5040</v>
       </c>
       <c r="B50" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>6000</v>
+        <v>5060</v>
       </c>
       <c r="B51" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>6000</v>
+        <v>5080</v>
       </c>
       <c r="B52" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="B53" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>6000</v>
+        <v>5140</v>
       </c>
       <c r="B54" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>6000</v>
+        <v>5190</v>
       </c>
       <c r="B55" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="B56" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>6020</v>
+        <v>5320</v>
       </c>
       <c r="B57" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>6080</v>
+        <v>5400</v>
       </c>
       <c r="B58" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>6150</v>
+        <v>5480</v>
       </c>
       <c r="B59" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>6210</v>
+        <v>5560</v>
       </c>
       <c r="B60" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>6280</v>
+        <v>5660</v>
       </c>
       <c r="B61" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>6340</v>
+        <v>5770</v>
       </c>
       <c r="B62" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>6440</v>
+        <v>5890</v>
       </c>
       <c r="B63" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6550</v>
+        <v>6020</v>
       </c>
       <c r="B64" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6680</v>
+        <v>6140</v>
       </c>
       <c r="B65" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6840</v>
+        <v>6290</v>
       </c>
       <c r="B66" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6950</v>
+        <v>6410</v>
       </c>
       <c r="B67" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7030</v>
+        <v>6510</v>
       </c>
       <c r="B68" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7090</v>
+        <v>6590</v>
       </c>
       <c r="B69" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7100</v>
+        <v>6660</v>
       </c>
       <c r="B70" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="B71" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7100</v>
+        <v>6710</v>
       </c>
       <c r="B72" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7100</v>
+        <v>6710</v>
       </c>
       <c r="B73" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7060</v>
+        <v>6700</v>
       </c>
       <c r="B74" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7040</v>
+        <v>6690</v>
       </c>
       <c r="B75" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7020</v>
+        <v>6670</v>
       </c>
       <c r="B76" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7000</v>
+        <v>6640</v>
       </c>
       <c r="B77" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6950</v>
+        <v>6590</v>
       </c>
       <c r="B78" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6900</v>
+        <v>6530</v>
       </c>
       <c r="B79" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6830</v>
+        <v>6490</v>
       </c>
       <c r="B80" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6760</v>
+        <v>6420</v>
       </c>
       <c r="B81" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6660</v>
+        <v>6330</v>
       </c>
       <c r="B82" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6550</v>
+        <v>6240</v>
       </c>
       <c r="B83" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6450</v>
+        <v>6170</v>
       </c>
       <c r="B84" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6330</v>
+        <v>6070</v>
       </c>
       <c r="B85" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6190</v>
+        <v>5940</v>
       </c>
       <c r="B86" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6080</v>
+        <v>5810</v>
       </c>
       <c r="B87" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>5930</v>
+        <v>5670</v>
       </c>
       <c r="B88" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5820</v>
+        <v>5550</v>
       </c>
       <c r="B89" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>5720</v>
+        <v>5460</v>
       </c>
       <c r="B90" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5630</v>
+        <v>5350</v>
       </c>
       <c r="B91" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>5540</v>
+        <v>5230</v>
       </c>
       <c r="B92" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>5440</v>
+        <v>5120</v>
       </c>
       <c r="B93" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>5390</v>
+        <v>5160</v>
       </c>
       <c r="B94" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5350</v>
+        <v>5100</v>
       </c>
       <c r="B95" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5280</v>
+        <v>5050</v>
       </c>
       <c r="B96" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>5220</v>
+        <v>5000</v>
       </c>
       <c r="B97" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,770 +397,682 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5200</v>
+        <v>5490</v>
       </c>
       <c r="B2" s="2">
-        <v>45970</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5150</v>
+        <v>5460</v>
       </c>
       <c r="B3" s="2">
-        <v>45970.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5110</v>
+        <v>5430</v>
       </c>
       <c r="B4" s="2">
-        <v>45970.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5070</v>
+        <v>5400</v>
       </c>
       <c r="B5" s="2">
-        <v>45970.03125</v>
+        <v>45972.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5030</v>
+        <v>5380</v>
       </c>
       <c r="B6" s="2">
-        <v>45970.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5010</v>
+        <v>5350</v>
       </c>
       <c r="B7" s="2">
-        <v>45970.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4990</v>
+        <v>5340</v>
       </c>
       <c r="B8" s="2">
-        <v>45970.0625</v>
+        <v>45972.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4970</v>
+        <v>5350</v>
       </c>
       <c r="B9" s="2">
-        <v>45970.07291666666</v>
+        <v>45972.09375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4960</v>
+        <v>5360</v>
       </c>
       <c r="B10" s="2">
-        <v>45970.08333333334</v>
+        <v>45972.10416666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4950</v>
+        <v>5370</v>
       </c>
       <c r="B11" s="2">
-        <v>45970.09375</v>
+        <v>45972.11458333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>4950</v>
+        <v>5380</v>
       </c>
       <c r="B12" s="2">
-        <v>45970.10416666666</v>
+        <v>45972.125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>4950</v>
+        <v>5400</v>
       </c>
       <c r="B13" s="2">
-        <v>45970.11458333334</v>
+        <v>45972.13541666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>4950</v>
+        <v>5420</v>
       </c>
       <c r="B14" s="2">
-        <v>45970.125</v>
+        <v>45972.14583333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>4950</v>
+        <v>5460</v>
       </c>
       <c r="B15" s="2">
-        <v>45970.13541666666</v>
+        <v>45972.15625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>4950</v>
+        <v>5520</v>
       </c>
       <c r="B16" s="2">
-        <v>45970.14583333334</v>
+        <v>45972.16666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>4960</v>
+        <v>5610</v>
       </c>
       <c r="B17" s="2">
-        <v>45970.15625</v>
+        <v>45972.17708333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>4990</v>
+        <v>5720</v>
       </c>
       <c r="B18" s="2">
-        <v>45970.16666666666</v>
+        <v>45972.1875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5010</v>
+        <v>5860</v>
       </c>
       <c r="B19" s="2">
-        <v>45970.17708333334</v>
+        <v>45972.19791666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="B20" s="2">
-        <v>45970.1875</v>
+        <v>45972.20833333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5060</v>
+        <v>6190</v>
       </c>
       <c r="B21" s="2">
-        <v>45970.19791666666</v>
+        <v>45972.21875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5100</v>
+        <v>6370</v>
       </c>
       <c r="B22" s="2">
-        <v>45970.20833333334</v>
+        <v>45972.22916666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5120</v>
+        <v>6550</v>
       </c>
       <c r="B23" s="2">
-        <v>45970.21875</v>
+        <v>45972.23958333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5140</v>
+        <v>6740</v>
       </c>
       <c r="B24" s="2">
-        <v>45970.22916666666</v>
+        <v>45972.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5180</v>
+        <v>6910</v>
       </c>
       <c r="B25" s="2">
-        <v>45970.23958333334</v>
+        <v>45972.26041666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5230</v>
+        <v>7080</v>
       </c>
       <c r="B26" s="2">
-        <v>45970.25</v>
+        <v>45972.27083333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5260</v>
+        <v>7220</v>
       </c>
       <c r="B27" s="2">
-        <v>45970.26041666666</v>
+        <v>45972.28125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5290</v>
+        <v>7350</v>
       </c>
       <c r="B28" s="2">
-        <v>45970.27083333334</v>
+        <v>45972.29166666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>5330</v>
+        <v>7450</v>
       </c>
       <c r="B29" s="2">
-        <v>45970.28125</v>
+        <v>45972.30208333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5360</v>
+        <v>7530</v>
       </c>
       <c r="B30" s="2">
-        <v>45970.29166666666</v>
+        <v>45972.3125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>5380</v>
+        <v>7590</v>
       </c>
       <c r="B31" s="2">
-        <v>45970.30208333334</v>
+        <v>45972.32291666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5390</v>
+        <v>7620</v>
       </c>
       <c r="B32" s="2">
-        <v>45970.3125</v>
+        <v>45972.33333333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5390</v>
+        <v>7610</v>
       </c>
       <c r="B33" s="2">
-        <v>45970.32291666666</v>
+        <v>45972.35416666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5380</v>
+        <v>7570</v>
       </c>
       <c r="B34" s="2">
-        <v>45970.33333333334</v>
+        <v>45972.36458333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5370</v>
+        <v>7520</v>
       </c>
       <c r="B35" s="2">
-        <v>45970.34375</v>
+        <v>45972.375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5340</v>
+        <v>7470</v>
       </c>
       <c r="B36" s="2">
-        <v>45970.35416666666</v>
+        <v>45972.38541666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>5310</v>
+        <v>7400</v>
       </c>
       <c r="B37" s="2">
-        <v>45970.36458333334</v>
+        <v>45972.39583333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5260</v>
+        <v>7340</v>
       </c>
       <c r="B38" s="2">
-        <v>45970.375</v>
+        <v>45972.40625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5220</v>
+        <v>7280</v>
       </c>
       <c r="B39" s="2">
-        <v>45970.38541666666</v>
+        <v>45972.41666666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5180</v>
+        <v>7230</v>
       </c>
       <c r="B40" s="2">
-        <v>45970.39583333334</v>
+        <v>45972.42708333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5140</v>
+        <v>7190</v>
       </c>
       <c r="B41" s="2">
-        <v>45970.40625</v>
+        <v>45972.4375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5090</v>
+        <v>7160</v>
       </c>
       <c r="B42" s="2">
-        <v>45970.41666666666</v>
+        <v>45972.44791666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5060</v>
+        <v>7130</v>
       </c>
       <c r="B43" s="2">
-        <v>45970.42708333334</v>
+        <v>45972.45833333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5040</v>
+        <v>7110</v>
       </c>
       <c r="B44" s="2">
-        <v>45970.4375</v>
+        <v>45972.46875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5020</v>
+        <v>7100</v>
       </c>
       <c r="B45" s="2">
-        <v>45970.44791666666</v>
+        <v>45972.47916666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>5000</v>
+        <v>7110</v>
       </c>
       <c r="B46" s="2">
-        <v>45970.45833333334</v>
+        <v>45972.53125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5000</v>
+        <v>7120</v>
       </c>
       <c r="B47" s="2">
-        <v>45970.46875</v>
+        <v>45972.55208333334</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>5000</v>
+        <v>7130</v>
       </c>
       <c r="B48" s="2">
-        <v>45970.47916666666</v>
+        <v>45972.5625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5010</v>
+        <v>7140</v>
       </c>
       <c r="B49" s="2">
-        <v>45970.48958333334</v>
+        <v>45972.57291666666</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>5040</v>
+        <v>7150</v>
       </c>
       <c r="B50" s="2">
-        <v>45970.5</v>
+        <v>45972.58333333334</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>5060</v>
+        <v>7170</v>
       </c>
       <c r="B51" s="2">
-        <v>45970.51041666666</v>
+        <v>45972.59375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>5080</v>
+        <v>7200</v>
       </c>
       <c r="B52" s="2">
-        <v>45970.52083333334</v>
+        <v>45972.60416666666</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5100</v>
+        <v>7250</v>
       </c>
       <c r="B53" s="2">
-        <v>45970.53125</v>
+        <v>45972.61458333334</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5140</v>
+        <v>7310</v>
       </c>
       <c r="B54" s="2">
-        <v>45970.54166666666</v>
+        <v>45972.625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5190</v>
+        <v>7390</v>
       </c>
       <c r="B55" s="2">
-        <v>45970.55208333334</v>
+        <v>45972.63541666666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5250</v>
+        <v>7480</v>
       </c>
       <c r="B56" s="2">
-        <v>45970.5625</v>
+        <v>45972.64583333334</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5320</v>
+        <v>7580</v>
       </c>
       <c r="B57" s="2">
-        <v>45970.57291666666</v>
+        <v>45972.65625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>5400</v>
+        <v>7670</v>
       </c>
       <c r="B58" s="2">
-        <v>45970.58333333334</v>
+        <v>45972.66666666666</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5480</v>
+        <v>7750</v>
       </c>
       <c r="B59" s="2">
-        <v>45970.59375</v>
+        <v>45972.67708333334</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5560</v>
+        <v>7810</v>
       </c>
       <c r="B60" s="2">
-        <v>45970.60416666666</v>
+        <v>45972.6875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5660</v>
+        <v>7840</v>
       </c>
       <c r="B61" s="2">
-        <v>45970.61458333334</v>
+        <v>45972.69791666666</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5770</v>
+        <v>7850</v>
       </c>
       <c r="B62" s="2">
-        <v>45970.625</v>
+        <v>45972.70833333334</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5890</v>
+        <v>7840</v>
       </c>
       <c r="B63" s="2">
-        <v>45970.63541666666</v>
+        <v>45972.72916666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>6020</v>
+        <v>7830</v>
       </c>
       <c r="B64" s="2">
-        <v>45970.64583333334</v>
+        <v>45972.73958333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>6140</v>
+        <v>7800</v>
       </c>
       <c r="B65" s="2">
-        <v>45970.65625</v>
+        <v>45972.77083333334</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>6290</v>
+        <v>7760</v>
       </c>
       <c r="B66" s="2">
-        <v>45970.66666666666</v>
+        <v>45972.78125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>6410</v>
+        <v>7700</v>
       </c>
       <c r="B67" s="2">
-        <v>45970.67708333334</v>
+        <v>45972.79166666666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>6510</v>
+        <v>7650</v>
       </c>
       <c r="B68" s="2">
-        <v>45970.6875</v>
+        <v>45972.80208333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>6590</v>
+        <v>7570</v>
       </c>
       <c r="B69" s="2">
-        <v>45970.69791666666</v>
+        <v>45972.8125</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>6660</v>
+        <v>7500</v>
       </c>
       <c r="B70" s="2">
-        <v>45970.70833333334</v>
+        <v>45972.82291666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>6700</v>
+        <v>7410</v>
       </c>
       <c r="B71" s="2">
-        <v>45970.71875</v>
+        <v>45972.83333333334</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>6710</v>
+        <v>7300</v>
       </c>
       <c r="B72" s="2">
-        <v>45970.72916666666</v>
+        <v>45972.84375</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>6710</v>
+        <v>7170</v>
       </c>
       <c r="B73" s="2">
-        <v>45970.73958333334</v>
+        <v>45972.85416666666</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>6700</v>
+        <v>7030</v>
       </c>
       <c r="B74" s="2">
-        <v>45970.75</v>
+        <v>45972.86458333334</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6690</v>
+        <v>6870</v>
       </c>
       <c r="B75" s="2">
-        <v>45970.76041666666</v>
+        <v>45972.875</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6670</v>
+        <v>6720</v>
       </c>
       <c r="B76" s="2">
-        <v>45970.77083333334</v>
+        <v>45972.88541666666</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6640</v>
+        <v>6550</v>
       </c>
       <c r="B77" s="2">
-        <v>45970.78125</v>
+        <v>45972.89583333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6590</v>
+        <v>6430</v>
       </c>
       <c r="B78" s="2">
-        <v>45970.79166666666</v>
+        <v>45972.90625</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6530</v>
+        <v>6270</v>
       </c>
       <c r="B79" s="2">
-        <v>45970.80208333334</v>
+        <v>45972.91666666666</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6490</v>
+        <v>6140</v>
       </c>
       <c r="B80" s="2">
-        <v>45970.8125</v>
+        <v>45972.92708333334</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6420</v>
+        <v>6020</v>
       </c>
       <c r="B81" s="2">
-        <v>45970.82291666666</v>
+        <v>45972.9375</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6330</v>
+        <v>5900</v>
       </c>
       <c r="B82" s="2">
-        <v>45970.83333333334</v>
+        <v>45972.94791666666</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6240</v>
+        <v>5830</v>
       </c>
       <c r="B83" s="2">
-        <v>45970.84375</v>
+        <v>45972.95833333334</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6170</v>
+        <v>5770</v>
       </c>
       <c r="B84" s="2">
-        <v>45970.85416666666</v>
+        <v>45972.96875</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6070</v>
+        <v>5720</v>
       </c>
       <c r="B85" s="2">
-        <v>45970.86458333334</v>
+        <v>45972.97916666666</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>5940</v>
+        <v>5680</v>
       </c>
       <c r="B86" s="2">
-        <v>45970.875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>5810</v>
-      </c>
-      <c r="B87" s="2">
-        <v>45970.88541666666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>5670</v>
-      </c>
-      <c r="B88" s="2">
-        <v>45970.89583333334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>5550</v>
-      </c>
-      <c r="B89" s="2">
-        <v>45970.90625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>5460</v>
-      </c>
-      <c r="B90" s="2">
-        <v>45970.91666666666</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>5350</v>
-      </c>
-      <c r="B91" s="2">
-        <v>45970.92708333334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>5230</v>
-      </c>
-      <c r="B92" s="2">
-        <v>45970.9375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>5120</v>
-      </c>
-      <c r="B93" s="2">
-        <v>45970.94791666666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>5160</v>
-      </c>
-      <c r="B94" s="2">
-        <v>45970.95833333334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>5100</v>
-      </c>
-      <c r="B95" s="2">
-        <v>45970.96875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>5050</v>
-      </c>
-      <c r="B96" s="2">
-        <v>45970.97916666666</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>5000</v>
-      </c>
-      <c r="B97" s="2">
-        <v>45970.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,194 +397,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5490</v>
+        <v>5720</v>
       </c>
       <c r="B2" s="2">
-        <v>45972</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5460</v>
+        <v>5670</v>
       </c>
       <c r="B3" s="2">
-        <v>45972.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5430</v>
+        <v>5630</v>
       </c>
       <c r="B4" s="2">
-        <v>45972.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="B5" s="2">
-        <v>45972.03125</v>
+        <v>45982.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5380</v>
+        <v>5580</v>
       </c>
       <c r="B6" s="2">
-        <v>45972.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5350</v>
+        <v>5550</v>
       </c>
       <c r="B7" s="2">
-        <v>45972.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5340</v>
+        <v>5530</v>
       </c>
       <c r="B8" s="2">
-        <v>45972.0625</v>
+        <v>45982.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5350</v>
+        <v>5520</v>
       </c>
       <c r="B9" s="2">
-        <v>45972.09375</v>
+        <v>45982.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5360</v>
+        <v>5510</v>
       </c>
       <c r="B10" s="2">
-        <v>45972.10416666666</v>
+        <v>45982.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5370</v>
+        <v>5520</v>
       </c>
       <c r="B11" s="2">
-        <v>45972.11458333334</v>
+        <v>45982.11458333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5380</v>
+        <v>5530</v>
       </c>
       <c r="B12" s="2">
-        <v>45972.125</v>
+        <v>45982.125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5400</v>
+        <v>5560</v>
       </c>
       <c r="B13" s="2">
-        <v>45972.13541666666</v>
+        <v>45982.13541666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5420</v>
+        <v>5590</v>
       </c>
       <c r="B14" s="2">
-        <v>45972.14583333334</v>
+        <v>45982.14583333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5460</v>
+        <v>5640</v>
       </c>
       <c r="B15" s="2">
-        <v>45972.15625</v>
+        <v>45982.15625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5520</v>
+        <v>5700</v>
       </c>
       <c r="B16" s="2">
-        <v>45972.16666666666</v>
+        <v>45982.16666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5610</v>
+        <v>5780</v>
       </c>
       <c r="B17" s="2">
-        <v>45972.17708333334</v>
+        <v>45982.17708333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5720</v>
+        <v>5880</v>
       </c>
       <c r="B18" s="2">
-        <v>45972.1875</v>
+        <v>45982.1875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5860</v>
+        <v>6000</v>
       </c>
       <c r="B19" s="2">
-        <v>45972.19791666666</v>
+        <v>45982.19791666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6020</v>
+        <v>6130</v>
       </c>
       <c r="B20" s="2">
-        <v>45972.20833333334</v>
+        <v>45982.20833333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6190</v>
+        <v>6280</v>
       </c>
       <c r="B21" s="2">
-        <v>45972.21875</v>
+        <v>45982.21875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6370</v>
+        <v>6440</v>
       </c>
       <c r="B22" s="2">
-        <v>45972.22916666666</v>
+        <v>45982.22916666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6550</v>
+        <v>6610</v>
       </c>
       <c r="B23" s="2">
-        <v>45972.23958333334</v>
+        <v>45982.23958333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6740</v>
+        <v>6770</v>
       </c>
       <c r="B24" s="2">
-        <v>45972.25</v>
+        <v>45982.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6910</v>
+        <v>6930</v>
       </c>
       <c r="B25" s="2">
-        <v>45972.26041666666</v>
+        <v>45982.26041666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,207 +592,207 @@
         <v>7080</v>
       </c>
       <c r="B26" s="2">
-        <v>45972.27083333334</v>
+        <v>45982.27083333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7220</v>
+        <v>7210</v>
       </c>
       <c r="B27" s="2">
-        <v>45972.28125</v>
+        <v>45982.28125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7350</v>
+        <v>7310</v>
       </c>
       <c r="B28" s="2">
-        <v>45972.29166666666</v>
+        <v>45982.29166666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7450</v>
+        <v>7390</v>
       </c>
       <c r="B29" s="2">
-        <v>45972.30208333334</v>
+        <v>45982.30208333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7530</v>
+        <v>7450</v>
       </c>
       <c r="B30" s="2">
-        <v>45972.3125</v>
+        <v>45982.3125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7590</v>
+        <v>7470</v>
       </c>
       <c r="B31" s="2">
-        <v>45972.32291666666</v>
+        <v>45982.32291666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7620</v>
+        <v>7450</v>
       </c>
       <c r="B32" s="2">
-        <v>45972.33333333334</v>
+        <v>45982.34375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7610</v>
+        <v>7400</v>
       </c>
       <c r="B33" s="2">
-        <v>45972.35416666666</v>
+        <v>45982.35416666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7570</v>
+        <v>7350</v>
       </c>
       <c r="B34" s="2">
-        <v>45972.36458333334</v>
+        <v>45982.36458333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7520</v>
+        <v>7280</v>
       </c>
       <c r="B35" s="2">
-        <v>45972.375</v>
+        <v>45982.375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7470</v>
+        <v>7220</v>
       </c>
       <c r="B36" s="2">
-        <v>45972.38541666666</v>
+        <v>45982.38541666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7400</v>
+        <v>7170</v>
       </c>
       <c r="B37" s="2">
-        <v>45972.39583333334</v>
+        <v>45982.39583333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7340</v>
+        <v>7120</v>
       </c>
       <c r="B38" s="2">
-        <v>45972.40625</v>
+        <v>45982.40625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7280</v>
+        <v>7080</v>
       </c>
       <c r="B39" s="2">
-        <v>45972.41666666666</v>
+        <v>45982.41666666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7230</v>
+        <v>7050</v>
       </c>
       <c r="B40" s="2">
-        <v>45972.42708333334</v>
+        <v>45982.42708333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7190</v>
+        <v>7030</v>
       </c>
       <c r="B41" s="2">
-        <v>45972.4375</v>
+        <v>45982.4375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7160</v>
+        <v>7010</v>
       </c>
       <c r="B42" s="2">
-        <v>45972.44791666666</v>
+        <v>45982.44791666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7130</v>
+        <v>7000</v>
       </c>
       <c r="B43" s="2">
-        <v>45972.45833333334</v>
+        <v>45982.45833333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7110</v>
+        <v>6990</v>
       </c>
       <c r="B44" s="2">
-        <v>45972.46875</v>
+        <v>45982.47916666666</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="B45" s="2">
-        <v>45972.47916666666</v>
+        <v>45982.52083333334</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7110</v>
+        <v>7010</v>
       </c>
       <c r="B46" s="2">
-        <v>45972.53125</v>
+        <v>45982.53125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>7120</v>
+        <v>7030</v>
       </c>
       <c r="B47" s="2">
-        <v>45972.55208333334</v>
+        <v>45982.54166666666</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>7130</v>
+        <v>7060</v>
       </c>
       <c r="B48" s="2">
-        <v>45972.5625</v>
+        <v>45982.55208333334</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7140</v>
+        <v>7090</v>
       </c>
       <c r="B49" s="2">
-        <v>45972.57291666666</v>
+        <v>45982.5625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>7150</v>
+        <v>7120</v>
       </c>
       <c r="B50" s="2">
-        <v>45972.58333333334</v>
+        <v>45982.57291666666</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7170</v>
+        <v>7160</v>
       </c>
       <c r="B51" s="2">
-        <v>45972.59375</v>
+        <v>45982.58333333334</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -800,7 +800,7 @@
         <v>7200</v>
       </c>
       <c r="B52" s="2">
-        <v>45972.60416666666</v>
+        <v>45982.59375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -808,7 +808,7 @@
         <v>7250</v>
       </c>
       <c r="B53" s="2">
-        <v>45972.61458333334</v>
+        <v>45982.60416666666</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -816,263 +816,287 @@
         <v>7310</v>
       </c>
       <c r="B54" s="2">
-        <v>45972.625</v>
+        <v>45982.61458333334</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7390</v>
+        <v>7380</v>
       </c>
       <c r="B55" s="2">
-        <v>45972.63541666666</v>
+        <v>45982.625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7480</v>
+        <v>7460</v>
       </c>
       <c r="B56" s="2">
-        <v>45972.64583333334</v>
+        <v>45982.63541666666</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7580</v>
+        <v>7550</v>
       </c>
       <c r="B57" s="2">
-        <v>45972.65625</v>
+        <v>45982.64583333334</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7670</v>
+        <v>7640</v>
       </c>
       <c r="B58" s="2">
-        <v>45972.66666666666</v>
+        <v>45982.65625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7750</v>
+        <v>7730</v>
       </c>
       <c r="B59" s="2">
-        <v>45972.67708333334</v>
+        <v>45982.66666666666</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>7810</v>
+        <v>7800</v>
       </c>
       <c r="B60" s="2">
-        <v>45972.6875</v>
+        <v>45982.67708333334</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>7840</v>
+        <v>7860</v>
       </c>
       <c r="B61" s="2">
-        <v>45972.69791666666</v>
+        <v>45982.6875</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>7850</v>
+        <v>7890</v>
       </c>
       <c r="B62" s="2">
-        <v>45972.70833333334</v>
+        <v>45982.69791666666</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>7840</v>
+        <v>7870</v>
       </c>
       <c r="B63" s="2">
-        <v>45972.72916666666</v>
+        <v>45982.71875</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7830</v>
+        <v>7850</v>
       </c>
       <c r="B64" s="2">
-        <v>45972.73958333334</v>
+        <v>45982.72916666666</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>7800</v>
+        <v>7830</v>
       </c>
       <c r="B65" s="2">
-        <v>45972.77083333334</v>
+        <v>45982.73958333334</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7760</v>
+        <v>7800</v>
       </c>
       <c r="B66" s="2">
-        <v>45972.78125</v>
+        <v>45982.75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7700</v>
+        <v>7770</v>
       </c>
       <c r="B67" s="2">
-        <v>45972.79166666666</v>
+        <v>45982.76041666666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>7650</v>
+        <v>7740</v>
       </c>
       <c r="B68" s="2">
-        <v>45972.80208333334</v>
+        <v>45982.77083333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7570</v>
+        <v>7700</v>
       </c>
       <c r="B69" s="2">
-        <v>45972.8125</v>
+        <v>45982.78125</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7500</v>
+        <v>7660</v>
       </c>
       <c r="B70" s="2">
-        <v>45972.82291666666</v>
+        <v>45982.79166666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7410</v>
+        <v>7600</v>
       </c>
       <c r="B71" s="2">
-        <v>45972.83333333334</v>
+        <v>45982.80208333334</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7300</v>
+        <v>7530</v>
       </c>
       <c r="B72" s="2">
-        <v>45972.84375</v>
+        <v>45982.8125</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7170</v>
+        <v>7440</v>
       </c>
       <c r="B73" s="2">
-        <v>45972.85416666666</v>
+        <v>45982.82291666666</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7030</v>
+        <v>7320</v>
       </c>
       <c r="B74" s="2">
-        <v>45972.86458333334</v>
+        <v>45982.83333333334</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>6870</v>
+        <v>7180</v>
       </c>
       <c r="B75" s="2">
-        <v>45972.875</v>
+        <v>45982.84375</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>6720</v>
+        <v>7060</v>
       </c>
       <c r="B76" s="2">
-        <v>45972.88541666666</v>
+        <v>45982.85416666666</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>6550</v>
+        <v>6940</v>
       </c>
       <c r="B77" s="2">
-        <v>45972.89583333334</v>
+        <v>45982.86458333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6430</v>
+        <v>6780</v>
       </c>
       <c r="B78" s="2">
-        <v>45972.90625</v>
+        <v>45982.875</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6270</v>
+        <v>6640</v>
       </c>
       <c r="B79" s="2">
-        <v>45972.91666666666</v>
+        <v>45982.88541666666</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6140</v>
+        <v>6490</v>
       </c>
       <c r="B80" s="2">
-        <v>45972.92708333334</v>
+        <v>45982.89583333334</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6020</v>
+        <v>6360</v>
       </c>
       <c r="B81" s="2">
-        <v>45972.9375</v>
+        <v>45982.90625</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>5900</v>
+        <v>6210</v>
       </c>
       <c r="B82" s="2">
-        <v>45972.94791666666</v>
+        <v>45982.91666666666</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>5830</v>
+        <v>6070</v>
       </c>
       <c r="B83" s="2">
-        <v>45972.95833333334</v>
+        <v>45982.92708333334</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>5770</v>
+        <v>5940</v>
       </c>
       <c r="B84" s="2">
-        <v>45972.96875</v>
+        <v>45982.9375</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>5720</v>
+        <v>5820</v>
       </c>
       <c r="B85" s="2">
-        <v>45972.97916666666</v>
+        <v>45982.94791666666</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>5680</v>
+        <v>5800</v>
       </c>
       <c r="B86" s="2">
-        <v>45972.98958333334</v>
+        <v>45982.95833333334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>5750</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45982.96875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>5690</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45982.97916666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>5640</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45982.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,250 +397,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5470</v>
+        <v>5760</v>
       </c>
       <c r="B2" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5430</v>
+        <v>5710</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5400</v>
+        <v>5690</v>
       </c>
       <c r="B4" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5380</v>
+        <v>5650</v>
       </c>
       <c r="B5" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5360</v>
+        <v>5600</v>
       </c>
       <c r="B6" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5340</v>
+        <v>5570</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.08333333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5320</v>
+        <v>5580</v>
       </c>
       <c r="B8" s="2">
-        <v>45993.0625</v>
+        <v>45995.11458333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5310</v>
+        <v>5590</v>
       </c>
       <c r="B9" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5300</v>
+        <v>5610</v>
       </c>
       <c r="B10" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.13541666666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5310</v>
+        <v>5640</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.14583333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5320</v>
+        <v>5680</v>
       </c>
       <c r="B12" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.15625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5330</v>
+        <v>5740</v>
       </c>
       <c r="B13" s="2">
-        <v>45993.125</v>
+        <v>45995.16666666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5350</v>
+        <v>5810</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.17708333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5380</v>
+        <v>5920</v>
       </c>
       <c r="B15" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.1875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5420</v>
+        <v>6060</v>
       </c>
       <c r="B16" s="2">
-        <v>45993.15625</v>
+        <v>45995.19791666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5500</v>
+        <v>6230</v>
       </c>
       <c r="B17" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.20833333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5580</v>
+        <v>6400</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.21875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5680</v>
+        <v>6590</v>
       </c>
       <c r="B19" s="2">
-        <v>45993.1875</v>
+        <v>45995.22916666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5830</v>
+        <v>6780</v>
       </c>
       <c r="B20" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.23958333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5990</v>
+        <v>7030</v>
       </c>
       <c r="B21" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6160</v>
+        <v>7220</v>
       </c>
       <c r="B22" s="2">
-        <v>45993.21875</v>
+        <v>45995.26041666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6320</v>
+        <v>7390</v>
       </c>
       <c r="B23" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.27083333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>6540</v>
+        <v>7550</v>
       </c>
       <c r="B24" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.28125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6780</v>
+        <v>7670</v>
       </c>
       <c r="B25" s="2">
-        <v>45993.25</v>
+        <v>45995.29166666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7000</v>
+        <v>7770</v>
       </c>
       <c r="B26" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.30208333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7160</v>
+        <v>7860</v>
       </c>
       <c r="B27" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.3125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="B28" s="2">
-        <v>45993.28125</v>
+        <v>45995.32291666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7440</v>
+        <v>7880</v>
       </c>
       <c r="B29" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.35416666666</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7510</v>
+        <v>7820</v>
       </c>
       <c r="B30" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.36458333334</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7550</v>
+        <v>7750</v>
       </c>
       <c r="B31" s="2">
-        <v>45993.3125</v>
+        <v>45995.375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7590</v>
+        <v>7680</v>
       </c>
       <c r="B32" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.38541666666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -648,471 +648,455 @@
         <v>7610</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.39583333334</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7600</v>
+        <v>7540</v>
       </c>
       <c r="B34" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.40625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7580</v>
+        <v>7460</v>
       </c>
       <c r="B35" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.41666666666</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7560</v>
+        <v>7400</v>
       </c>
       <c r="B36" s="2">
-        <v>45993.375</v>
+        <v>45995.42708333334</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7530</v>
+        <v>7360</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.4375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7510</v>
+        <v>7320</v>
       </c>
       <c r="B38" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.44791666666</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7470</v>
+        <v>7290</v>
       </c>
       <c r="B39" s="2">
-        <v>45993.40625</v>
+        <v>45995.45833333334</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7380</v>
+        <v>7260</v>
       </c>
       <c r="B40" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.46875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7320</v>
+        <v>7250</v>
       </c>
       <c r="B41" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.47916666666</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7280</v>
+        <v>7240</v>
       </c>
       <c r="B42" s="2">
-        <v>45993.4375</v>
+        <v>45995.48958333334</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7260</v>
+        <v>7250</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.44791666666</v>
+        <v>45995.5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7230</v>
+        <v>7270</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.45833333334</v>
+        <v>45995.51041666666</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7210</v>
+        <v>7290</v>
       </c>
       <c r="B45" s="2">
-        <v>45993.46875</v>
+        <v>45995.52083333334</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7190</v>
+        <v>7300</v>
       </c>
       <c r="B46" s="2">
-        <v>45993.47916666666</v>
+        <v>45995.53125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>7210</v>
+        <v>7330</v>
       </c>
       <c r="B47" s="2">
-        <v>45993.52083333334</v>
+        <v>45995.54166666666</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>7220</v>
+        <v>7370</v>
       </c>
       <c r="B48" s="2">
-        <v>45993.53125</v>
+        <v>45995.55208333334</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7250</v>
+        <v>7400</v>
       </c>
       <c r="B49" s="2">
-        <v>45993.54166666666</v>
+        <v>45995.5625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>7270</v>
+        <v>7430</v>
       </c>
       <c r="B50" s="2">
-        <v>45993.55208333334</v>
+        <v>45995.57291666666</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7300</v>
+        <v>7460</v>
       </c>
       <c r="B51" s="2">
-        <v>45993.5625</v>
+        <v>45995.58333333334</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>7340</v>
+        <v>7500</v>
       </c>
       <c r="B52" s="2">
-        <v>45993.57291666666</v>
+        <v>45995.59375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7410</v>
+        <v>7540</v>
       </c>
       <c r="B53" s="2">
-        <v>45993.58333333334</v>
+        <v>45995.60416666666</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7460</v>
+        <v>7590</v>
       </c>
       <c r="B54" s="2">
-        <v>45993.59375</v>
+        <v>45995.61458333334</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7500</v>
+        <v>7660</v>
       </c>
       <c r="B55" s="2">
-        <v>45993.60416666666</v>
+        <v>45995.625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7550</v>
+        <v>7750</v>
       </c>
       <c r="B56" s="2">
-        <v>45993.61458333334</v>
+        <v>45995.63541666666</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7630</v>
+        <v>7850</v>
       </c>
       <c r="B57" s="2">
-        <v>45993.625</v>
+        <v>45995.64583333334</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7710</v>
+        <v>7950</v>
       </c>
       <c r="B58" s="2">
-        <v>45993.63541666666</v>
+        <v>45995.65625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7800</v>
+        <v>8080</v>
       </c>
       <c r="B59" s="2">
-        <v>45993.64583333334</v>
+        <v>45995.66666666666</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>7880</v>
+        <v>8160</v>
       </c>
       <c r="B60" s="2">
-        <v>45993.65625</v>
+        <v>45995.67708333334</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>7970</v>
+        <v>8200</v>
       </c>
       <c r="B61" s="2">
-        <v>45993.66666666666</v>
+        <v>45995.6875</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>8040</v>
+        <v>8180</v>
       </c>
       <c r="B62" s="2">
-        <v>45993.67708333334</v>
+        <v>45995.70833333334</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>8070</v>
+        <v>8140</v>
       </c>
       <c r="B63" s="2">
-        <v>45993.6875</v>
+        <v>45995.71875</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>8090</v>
+        <v>8100</v>
       </c>
       <c r="B64" s="2">
-        <v>45993.69791666666</v>
+        <v>45995.72916666666</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>8100</v>
+        <v>8070</v>
       </c>
       <c r="B65" s="2">
-        <v>45993.70833333334</v>
+        <v>45995.73958333334</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>8090</v>
+        <v>8030</v>
       </c>
       <c r="B66" s="2">
-        <v>45993.72916666666</v>
+        <v>45995.75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>8080</v>
+        <v>8010</v>
       </c>
       <c r="B67" s="2">
-        <v>45993.73958333334</v>
+        <v>45995.76041666666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>8070</v>
+        <v>8000</v>
       </c>
       <c r="B68" s="2">
-        <v>45993.75</v>
+        <v>45995.77083333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>8060</v>
+        <v>7970</v>
       </c>
       <c r="B69" s="2">
-        <v>45993.76041666666</v>
+        <v>45995.78125</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>8030</v>
+        <v>7920</v>
       </c>
       <c r="B70" s="2">
-        <v>45993.77083333334</v>
+        <v>45995.79166666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7970</v>
+        <v>7870</v>
       </c>
       <c r="B71" s="2">
-        <v>45993.78125</v>
+        <v>45995.80208333334</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7900</v>
+        <v>7790</v>
       </c>
       <c r="B72" s="2">
-        <v>45993.79166666666</v>
+        <v>45995.8125</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7840</v>
+        <v>7710</v>
       </c>
       <c r="B73" s="2">
-        <v>45993.80208333334</v>
+        <v>45995.82291666666</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7750</v>
+        <v>7600</v>
       </c>
       <c r="B74" s="2">
-        <v>45993.8125</v>
+        <v>45995.83333333334</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7660</v>
+        <v>7470</v>
       </c>
       <c r="B75" s="2">
-        <v>45993.82291666666</v>
+        <v>45995.84375</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7550</v>
+        <v>7370</v>
       </c>
       <c r="B76" s="2">
-        <v>45993.83333333334</v>
+        <v>45995.85416666666</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7420</v>
+        <v>7230</v>
       </c>
       <c r="B77" s="2">
-        <v>45993.84375</v>
+        <v>45995.86458333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7320</v>
+        <v>7050</v>
       </c>
       <c r="B78" s="2">
-        <v>45993.85416666666</v>
+        <v>45995.875</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7180</v>
+        <v>6920</v>
       </c>
       <c r="B79" s="2">
-        <v>45993.86458333334</v>
+        <v>45995.88541666666</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7030</v>
+        <v>6770</v>
       </c>
       <c r="B80" s="2">
-        <v>45993.875</v>
+        <v>45995.89583333334</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6890</v>
+        <v>6630</v>
       </c>
       <c r="B81" s="2">
-        <v>45993.88541666666</v>
+        <v>45995.90625</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6750</v>
+        <v>6480</v>
       </c>
       <c r="B82" s="2">
-        <v>45993.89583333334</v>
+        <v>45995.91666666666</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6620</v>
+        <v>6350</v>
       </c>
       <c r="B83" s="2">
-        <v>45993.90625</v>
+        <v>45995.92708333334</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6500</v>
+        <v>6230</v>
       </c>
       <c r="B84" s="2">
-        <v>45993.91666666666</v>
+        <v>45995.9375</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6380</v>
+        <v>6120</v>
       </c>
       <c r="B85" s="2">
-        <v>45993.92708333334</v>
+        <v>45995.94791666666</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6290</v>
+        <v>5900</v>
       </c>
       <c r="B86" s="2">
-        <v>45993.9375</v>
+        <v>45995.95833333334</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6170</v>
+        <v>5830</v>
       </c>
       <c r="B87" s="2">
-        <v>45993.94791666666</v>
+        <v>45995.96875</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="B88" s="2">
-        <v>45993.95833333334</v>
+        <v>45995.97916666666</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5940</v>
+        <v>5750</v>
       </c>
       <c r="B89" s="2">
-        <v>45993.96875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>5890</v>
-      </c>
-      <c r="B90" s="2">
-        <v>45993.97916666666</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>5830</v>
-      </c>
-      <c r="B91" s="2">
-        <v>45993.98958333334</v>
+        <v>45995.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,706 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5760</v>
+        <v>5590</v>
       </c>
       <c r="B2" s="2">
-        <v>45995</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5710</v>
+        <v>5540</v>
       </c>
       <c r="B3" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5690</v>
+        <v>5500</v>
       </c>
       <c r="B4" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5650</v>
+        <v>5460</v>
       </c>
       <c r="B5" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5600</v>
+        <v>5440</v>
       </c>
       <c r="B6" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5570</v>
+        <v>5430</v>
       </c>
       <c r="B7" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5580</v>
+        <v>5420</v>
       </c>
       <c r="B8" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5590</v>
+        <v>5410</v>
       </c>
       <c r="B9" s="2">
-        <v>45995.125</v>
+        <v>46006.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5610</v>
+        <v>5400</v>
       </c>
       <c r="B10" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5640</v>
+        <v>5410</v>
       </c>
       <c r="B11" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.11458333334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5680</v>
+        <v>5420</v>
       </c>
       <c r="B12" s="2">
-        <v>45995.15625</v>
+        <v>46006.125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5740</v>
+        <v>5450</v>
       </c>
       <c r="B13" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.13541666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5810</v>
+        <v>5480</v>
       </c>
       <c r="B14" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.14583333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5920</v>
+        <v>5540</v>
       </c>
       <c r="B15" s="2">
-        <v>45995.1875</v>
+        <v>46006.15625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>6060</v>
+        <v>5610</v>
       </c>
       <c r="B16" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.16666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>6230</v>
+        <v>5700</v>
       </c>
       <c r="B17" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.17708333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>6400</v>
+        <v>5830</v>
       </c>
       <c r="B18" s="2">
-        <v>45995.21875</v>
+        <v>46006.1875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6590</v>
+        <v>6000</v>
       </c>
       <c r="B19" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.19791666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6780</v>
+        <v>6220</v>
       </c>
       <c r="B20" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.20833333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>7030</v>
+        <v>6430</v>
       </c>
       <c r="B21" s="2">
-        <v>45995.25</v>
+        <v>46006.21875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>7220</v>
+        <v>6640</v>
       </c>
       <c r="B22" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.22916666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>7390</v>
+        <v>6910</v>
       </c>
       <c r="B23" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.23958333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>7550</v>
+        <v>7180</v>
       </c>
       <c r="B24" s="2">
-        <v>45995.28125</v>
+        <v>46006.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>7670</v>
+        <v>7450</v>
       </c>
       <c r="B25" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.26041666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7770</v>
+        <v>7650</v>
       </c>
       <c r="B26" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.27083333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7860</v>
+        <v>7810</v>
       </c>
       <c r="B27" s="2">
-        <v>45995.3125</v>
+        <v>46006.28125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7900</v>
+        <v>7970</v>
       </c>
       <c r="B28" s="2">
-        <v>45995.32291666666</v>
+        <v>46006.29166666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7880</v>
+        <v>8060</v>
       </c>
       <c r="B29" s="2">
-        <v>45995.35416666666</v>
+        <v>46006.30208333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7820</v>
+        <v>8120</v>
       </c>
       <c r="B30" s="2">
-        <v>45995.36458333334</v>
+        <v>46006.3125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7750</v>
+        <v>8160</v>
       </c>
       <c r="B31" s="2">
-        <v>45995.375</v>
+        <v>46006.32291666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>7680</v>
+        <v>8170</v>
       </c>
       <c r="B32" s="2">
-        <v>45995.38541666666</v>
+        <v>46006.33333333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>7610</v>
+        <v>8160</v>
       </c>
       <c r="B33" s="2">
-        <v>45995.39583333334</v>
+        <v>46006.34375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>7540</v>
+        <v>8140</v>
       </c>
       <c r="B34" s="2">
-        <v>45995.40625</v>
+        <v>46006.35416666666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>7460</v>
+        <v>8080</v>
       </c>
       <c r="B35" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.36458333334</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="B36" s="2">
-        <v>45995.42708333334</v>
+        <v>46006.375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7360</v>
+        <v>7910</v>
       </c>
       <c r="B37" s="2">
-        <v>45995.4375</v>
+        <v>46006.38541666666</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7320</v>
+        <v>7830</v>
       </c>
       <c r="B38" s="2">
-        <v>45995.44791666666</v>
+        <v>46006.39583333334</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7290</v>
+        <v>7750</v>
       </c>
       <c r="B39" s="2">
-        <v>45995.45833333334</v>
+        <v>46006.40625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7260</v>
+        <v>7660</v>
       </c>
       <c r="B40" s="2">
-        <v>45995.46875</v>
+        <v>46006.41666666666</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7250</v>
+        <v>7590</v>
       </c>
       <c r="B41" s="2">
-        <v>45995.47916666666</v>
+        <v>46006.42708333334</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7240</v>
+        <v>7520</v>
       </c>
       <c r="B42" s="2">
-        <v>45995.48958333334</v>
+        <v>46006.4375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7250</v>
+        <v>7460</v>
       </c>
       <c r="B43" s="2">
-        <v>45995.5</v>
+        <v>46006.44791666666</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7270</v>
+        <v>7390</v>
       </c>
       <c r="B44" s="2">
-        <v>45995.51041666666</v>
+        <v>46006.45833333334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7290</v>
+        <v>7340</v>
       </c>
       <c r="B45" s="2">
-        <v>45995.52083333334</v>
+        <v>46006.46875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7300</v>
+        <v>7330</v>
       </c>
       <c r="B46" s="2">
-        <v>45995.53125</v>
+        <v>46006.47916666666</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>7330</v>
+        <v>7310</v>
       </c>
       <c r="B47" s="2">
-        <v>45995.54166666666</v>
+        <v>46006.48958333334</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>7370</v>
+        <v>7290</v>
       </c>
       <c r="B48" s="2">
-        <v>45995.55208333334</v>
+        <v>46006.5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="B49" s="2">
-        <v>45995.5625</v>
+        <v>46006.52083333334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>7430</v>
+        <v>7320</v>
       </c>
       <c r="B50" s="2">
-        <v>45995.57291666666</v>
+        <v>46006.53125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7460</v>
+        <v>7370</v>
       </c>
       <c r="B51" s="2">
-        <v>45995.58333333334</v>
+        <v>46006.54166666666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>7500</v>
+        <v>7410</v>
       </c>
       <c r="B52" s="2">
-        <v>45995.59375</v>
+        <v>46006.55208333334</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7540</v>
+        <v>7450</v>
       </c>
       <c r="B53" s="2">
-        <v>45995.60416666666</v>
+        <v>46006.5625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7590</v>
+        <v>7530</v>
       </c>
       <c r="B54" s="2">
-        <v>45995.61458333334</v>
+        <v>46006.57291666666</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7660</v>
+        <v>7630</v>
       </c>
       <c r="B55" s="2">
-        <v>45995.625</v>
+        <v>46006.58333333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7750</v>
+        <v>7700</v>
       </c>
       <c r="B56" s="2">
-        <v>45995.63541666666</v>
+        <v>46006.59375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7850</v>
+        <v>7770</v>
       </c>
       <c r="B57" s="2">
-        <v>45995.64583333334</v>
+        <v>46006.60416666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7950</v>
+        <v>7840</v>
       </c>
       <c r="B58" s="2">
-        <v>45995.65625</v>
+        <v>46006.61458333334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>8080</v>
+        <v>7920</v>
       </c>
       <c r="B59" s="2">
-        <v>45995.66666666666</v>
+        <v>46006.625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>8160</v>
+        <v>8000</v>
       </c>
       <c r="B60" s="2">
-        <v>45995.67708333334</v>
+        <v>46006.63541666666</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>8200</v>
+        <v>8080</v>
       </c>
       <c r="B61" s="2">
-        <v>45995.6875</v>
+        <v>46006.64583333334</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>8180</v>
+        <v>8170</v>
       </c>
       <c r="B62" s="2">
-        <v>45995.70833333334</v>
+        <v>46006.65625</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>8140</v>
+        <v>8250</v>
       </c>
       <c r="B63" s="2">
-        <v>45995.71875</v>
+        <v>46006.66666666666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>8100</v>
+        <v>8310</v>
       </c>
       <c r="B64" s="2">
-        <v>45995.72916666666</v>
+        <v>46006.67708333334</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>8070</v>
+        <v>8350</v>
       </c>
       <c r="B65" s="2">
-        <v>45995.73958333334</v>
+        <v>46006.6875</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>8030</v>
+        <v>8370</v>
       </c>
       <c r="B66" s="2">
-        <v>45995.75</v>
+        <v>46006.69791666666</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>8010</v>
+        <v>8350</v>
       </c>
       <c r="B67" s="2">
-        <v>45995.76041666666</v>
+        <v>46006.71875</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>8000</v>
+        <v>8340</v>
       </c>
       <c r="B68" s="2">
-        <v>45995.77083333334</v>
+        <v>46006.72916666666</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7970</v>
+        <v>8330</v>
       </c>
       <c r="B69" s="2">
-        <v>45995.78125</v>
+        <v>46006.73958333334</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7920</v>
+        <v>8300</v>
       </c>
       <c r="B70" s="2">
-        <v>45995.79166666666</v>
+        <v>46006.75</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7870</v>
+        <v>8270</v>
       </c>
       <c r="B71" s="2">
-        <v>45995.80208333334</v>
+        <v>46006.76041666666</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>7790</v>
+        <v>8240</v>
       </c>
       <c r="B72" s="2">
-        <v>45995.8125</v>
+        <v>46006.77083333334</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>7710</v>
+        <v>8200</v>
       </c>
       <c r="B73" s="2">
-        <v>45995.82291666666</v>
+        <v>46006.78125</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7600</v>
+        <v>8140</v>
       </c>
       <c r="B74" s="2">
-        <v>45995.83333333334</v>
+        <v>46006.79166666666</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7470</v>
+        <v>8070</v>
       </c>
       <c r="B75" s="2">
-        <v>45995.84375</v>
+        <v>46006.80208333334</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>7370</v>
+        <v>8000</v>
       </c>
       <c r="B76" s="2">
-        <v>45995.85416666666</v>
+        <v>46006.8125</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7230</v>
+        <v>7920</v>
       </c>
       <c r="B77" s="2">
-        <v>45995.86458333334</v>
+        <v>46006.82291666666</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7050</v>
+        <v>7810</v>
       </c>
       <c r="B78" s="2">
-        <v>45995.875</v>
+        <v>46006.83333333334</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>6920</v>
+        <v>7680</v>
       </c>
       <c r="B79" s="2">
-        <v>45995.88541666666</v>
+        <v>46006.84375</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>6770</v>
+        <v>7580</v>
       </c>
       <c r="B80" s="2">
-        <v>45995.89583333334</v>
+        <v>46006.85416666666</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>6630</v>
+        <v>7440</v>
       </c>
       <c r="B81" s="2">
-        <v>45995.90625</v>
+        <v>46006.86458333334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>6480</v>
+        <v>7250</v>
       </c>
       <c r="B82" s="2">
-        <v>45995.91666666666</v>
+        <v>46006.875</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>6350</v>
+        <v>7100</v>
       </c>
       <c r="B83" s="2">
-        <v>45995.92708333334</v>
+        <v>46006.88541666666</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6230</v>
+        <v>6970</v>
       </c>
       <c r="B84" s="2">
-        <v>45995.9375</v>
+        <v>46006.89583333334</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6120</v>
+        <v>6830</v>
       </c>
       <c r="B85" s="2">
-        <v>45995.94791666666</v>
+        <v>46006.90625</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>5900</v>
+        <v>6690</v>
       </c>
       <c r="B86" s="2">
-        <v>45995.95833333334</v>
+        <v>46006.91666666666</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>5830</v>
+        <v>6570</v>
       </c>
       <c r="B87" s="2">
-        <v>45995.96875</v>
+        <v>46006.92708333334</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>5800</v>
+        <v>6480</v>
       </c>
       <c r="B88" s="2">
-        <v>45995.97916666666</v>
+        <v>46006.9375</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5750</v>
+        <v>6370</v>
       </c>
       <c r="B89" s="2">
-        <v>45995.98958333334</v>
+        <v>46006.94791666666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>6240</v>
+      </c>
+      <c r="B90" s="2">
+        <v>46006.95833333334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>6180</v>
+      </c>
+      <c r="B91" s="2">
+        <v>46006.96875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>6140</v>
+      </c>
+      <c r="B92" s="2">
+        <v>46006.97916666666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>6070</v>
+      </c>
+      <c r="B93" s="2">
+        <v>46006.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>5590</v>
       </c>
       <c r="B2" s="2">
-        <v>46006</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +408,7 @@
         <v>5540</v>
       </c>
       <c r="B3" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -416,719 +416,711 @@
         <v>5500</v>
       </c>
       <c r="B4" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>5460</v>
+        <v>5450</v>
       </c>
       <c r="B5" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5440</v>
+        <v>5410</v>
       </c>
       <c r="B6" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5430</v>
+        <v>5390</v>
       </c>
       <c r="B7" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5420</v>
+        <v>5380</v>
       </c>
       <c r="B8" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5410</v>
+        <v>5370</v>
       </c>
       <c r="B9" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5400</v>
+        <v>5340</v>
       </c>
       <c r="B10" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>5410</v>
+        <v>5330</v>
       </c>
       <c r="B11" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.09375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5420</v>
+        <v>5340</v>
       </c>
       <c r="B12" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="B13" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5480</v>
+        <v>5360</v>
       </c>
       <c r="B14" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5540</v>
+        <v>5380</v>
       </c>
       <c r="B15" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>5610</v>
+        <v>5420</v>
       </c>
       <c r="B16" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5700</v>
+        <v>5470</v>
       </c>
       <c r="B17" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5830</v>
+        <v>5520</v>
       </c>
       <c r="B18" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6000</v>
+        <v>5590</v>
       </c>
       <c r="B19" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>6220</v>
+        <v>5670</v>
       </c>
       <c r="B20" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>6430</v>
+        <v>5760</v>
       </c>
       <c r="B21" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6640</v>
+        <v>5840</v>
       </c>
       <c r="B22" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6910</v>
+        <v>5930</v>
       </c>
       <c r="B23" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>7180</v>
+        <v>6020</v>
       </c>
       <c r="B24" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>7450</v>
+        <v>6120</v>
       </c>
       <c r="B25" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>7650</v>
+        <v>6210</v>
       </c>
       <c r="B26" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>7810</v>
+        <v>6320</v>
       </c>
       <c r="B27" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7970</v>
+        <v>6460</v>
       </c>
       <c r="B28" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>8060</v>
+        <v>6530</v>
       </c>
       <c r="B29" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>8120</v>
+        <v>6550</v>
       </c>
       <c r="B30" s="2">
-        <v>46006.3125</v>
+        <v>46022.3125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>8160</v>
+        <v>6560</v>
       </c>
       <c r="B31" s="2">
-        <v>46006.32291666666</v>
+        <v>46022.32291666666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>8170</v>
+        <v>6550</v>
       </c>
       <c r="B32" s="2">
-        <v>46006.33333333334</v>
+        <v>46022.34375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>8160</v>
+        <v>6540</v>
       </c>
       <c r="B33" s="2">
-        <v>46006.34375</v>
+        <v>46022.35416666666</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>8140</v>
+        <v>6520</v>
       </c>
       <c r="B34" s="2">
-        <v>46006.35416666666</v>
+        <v>46022.36458333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>8080</v>
+        <v>6450</v>
       </c>
       <c r="B35" s="2">
-        <v>46006.36458333334</v>
+        <v>46022.375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>8000</v>
+        <v>6390</v>
       </c>
       <c r="B36" s="2">
-        <v>46006.375</v>
+        <v>46022.38541666666</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7910</v>
+        <v>6330</v>
       </c>
       <c r="B37" s="2">
-        <v>46006.38541666666</v>
+        <v>46022.39583333334</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7830</v>
+        <v>6270</v>
       </c>
       <c r="B38" s="2">
-        <v>46006.39583333334</v>
+        <v>46022.40625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>7750</v>
+        <v>6220</v>
       </c>
       <c r="B39" s="2">
-        <v>46006.40625</v>
+        <v>46022.41666666666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>7660</v>
+        <v>6170</v>
       </c>
       <c r="B40" s="2">
-        <v>46006.41666666666</v>
+        <v>46022.42708333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7590</v>
+        <v>6140</v>
       </c>
       <c r="B41" s="2">
-        <v>46006.42708333334</v>
+        <v>46022.4375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>7520</v>
+        <v>6110</v>
       </c>
       <c r="B42" s="2">
-        <v>46006.4375</v>
+        <v>46022.44791666666</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7460</v>
+        <v>6080</v>
       </c>
       <c r="B43" s="2">
-        <v>46006.44791666666</v>
+        <v>46022.45833333334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>7390</v>
+        <v>6070</v>
       </c>
       <c r="B44" s="2">
-        <v>46006.45833333334</v>
+        <v>46022.46875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>7340</v>
+        <v>6060</v>
       </c>
       <c r="B45" s="2">
-        <v>46006.46875</v>
+        <v>46022.47916666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7330</v>
+        <v>6070</v>
       </c>
       <c r="B46" s="2">
-        <v>46006.47916666666</v>
+        <v>46022.5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>7310</v>
+        <v>6090</v>
       </c>
       <c r="B47" s="2">
-        <v>46006.48958333334</v>
+        <v>46022.51041666666</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>7290</v>
+        <v>6110</v>
       </c>
       <c r="B48" s="2">
-        <v>46006.5</v>
+        <v>46022.52083333334</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7300</v>
+        <v>6150</v>
       </c>
       <c r="B49" s="2">
-        <v>46006.52083333334</v>
+        <v>46022.53125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>7320</v>
+        <v>6180</v>
       </c>
       <c r="B50" s="2">
-        <v>46006.53125</v>
+        <v>46022.54166666666</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7370</v>
+        <v>6230</v>
       </c>
       <c r="B51" s="2">
-        <v>46006.54166666666</v>
+        <v>46022.55208333334</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>7410</v>
+        <v>6280</v>
       </c>
       <c r="B52" s="2">
-        <v>46006.55208333334</v>
+        <v>46022.5625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7450</v>
+        <v>6350</v>
       </c>
       <c r="B53" s="2">
-        <v>46006.5625</v>
+        <v>46022.57291666666</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7530</v>
+        <v>6440</v>
       </c>
       <c r="B54" s="2">
-        <v>46006.57291666666</v>
+        <v>46022.58333333334</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7630</v>
+        <v>6520</v>
       </c>
       <c r="B55" s="2">
-        <v>46006.58333333334</v>
+        <v>46022.59375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="B56" s="2">
-        <v>46006.59375</v>
+        <v>46022.60416666666</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7770</v>
+        <v>6700</v>
       </c>
       <c r="B57" s="2">
-        <v>46006.60416666666</v>
+        <v>46022.61458333334</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7840</v>
+        <v>6800</v>
       </c>
       <c r="B58" s="2">
-        <v>46006.61458333334</v>
+        <v>46022.625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7920</v>
+        <v>6910</v>
       </c>
       <c r="B59" s="2">
-        <v>46006.625</v>
+        <v>46022.63541666666</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>8000</v>
+        <v>7040</v>
       </c>
       <c r="B60" s="2">
-        <v>46006.63541666666</v>
+        <v>46022.64583333334</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>8080</v>
+        <v>7180</v>
       </c>
       <c r="B61" s="2">
-        <v>46006.64583333334</v>
+        <v>46022.65625</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>8170</v>
+        <v>7330</v>
       </c>
       <c r="B62" s="2">
-        <v>46006.65625</v>
+        <v>46022.66666666666</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>8250</v>
+        <v>7460</v>
       </c>
       <c r="B63" s="2">
-        <v>46006.66666666666</v>
+        <v>46022.67708333334</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>8310</v>
+        <v>7540</v>
       </c>
       <c r="B64" s="2">
-        <v>46006.67708333334</v>
+        <v>46022.6875</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>8350</v>
+        <v>7570</v>
       </c>
       <c r="B65" s="2">
-        <v>46006.6875</v>
+        <v>46022.69791666666</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>8370</v>
+        <v>7560</v>
       </c>
       <c r="B66" s="2">
-        <v>46006.69791666666</v>
+        <v>46022.71875</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>8350</v>
+        <v>7540</v>
       </c>
       <c r="B67" s="2">
-        <v>46006.71875</v>
+        <v>46022.72916666666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>8340</v>
+        <v>7530</v>
       </c>
       <c r="B68" s="2">
-        <v>46006.72916666666</v>
+        <v>46022.73958333334</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>8330</v>
+        <v>7500</v>
       </c>
       <c r="B69" s="2">
-        <v>46006.73958333334</v>
+        <v>46022.75</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>8300</v>
+        <v>7490</v>
       </c>
       <c r="B70" s="2">
-        <v>46006.75</v>
+        <v>46022.76041666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>8270</v>
+        <v>7460</v>
       </c>
       <c r="B71" s="2">
-        <v>46006.76041666666</v>
+        <v>46022.77083333334</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>8240</v>
+        <v>7420</v>
       </c>
       <c r="B72" s="2">
-        <v>46006.77083333334</v>
+        <v>46022.78125</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>8200</v>
+        <v>7360</v>
       </c>
       <c r="B73" s="2">
-        <v>46006.78125</v>
+        <v>46022.79166666666</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>8140</v>
+        <v>7300</v>
       </c>
       <c r="B74" s="2">
-        <v>46006.79166666666</v>
+        <v>46022.80208333334</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>8070</v>
+        <v>7240</v>
       </c>
       <c r="B75" s="2">
-        <v>46006.80208333334</v>
+        <v>46022.8125</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>8000</v>
+        <v>7150</v>
       </c>
       <c r="B76" s="2">
-        <v>46006.8125</v>
+        <v>46022.82291666666</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7920</v>
+        <v>7060</v>
       </c>
       <c r="B77" s="2">
-        <v>46006.82291666666</v>
+        <v>46022.83333333334</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7810</v>
+        <v>6970</v>
       </c>
       <c r="B78" s="2">
-        <v>46006.83333333334</v>
+        <v>46022.84375</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7680</v>
+        <v>6890</v>
       </c>
       <c r="B79" s="2">
-        <v>46006.84375</v>
+        <v>46022.85416666666</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7580</v>
+        <v>6800</v>
       </c>
       <c r="B80" s="2">
-        <v>46006.85416666666</v>
+        <v>46022.86458333334</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7440</v>
+        <v>6700</v>
       </c>
       <c r="B81" s="2">
-        <v>46006.86458333334</v>
+        <v>46022.875</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7250</v>
+        <v>6600</v>
       </c>
       <c r="B82" s="2">
-        <v>46006.875</v>
+        <v>46022.88541666666</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7100</v>
+        <v>6500</v>
       </c>
       <c r="B83" s="2">
-        <v>46006.88541666666</v>
+        <v>46022.89583333334</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>6970</v>
+        <v>6420</v>
       </c>
       <c r="B84" s="2">
-        <v>46006.89583333334</v>
+        <v>46022.90625</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>6830</v>
+        <v>6330</v>
       </c>
       <c r="B85" s="2">
-        <v>46006.90625</v>
+        <v>46022.91666666666</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>6690</v>
+        <v>6250</v>
       </c>
       <c r="B86" s="2">
-        <v>46006.91666666666</v>
+        <v>46022.92708333334</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>6570</v>
+        <v>6180</v>
       </c>
       <c r="B87" s="2">
-        <v>46006.92708333334</v>
+        <v>46022.9375</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>6480</v>
+        <v>6100</v>
       </c>
       <c r="B88" s="2">
-        <v>46006.9375</v>
+        <v>46022.94791666666</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>6370</v>
+        <v>5930</v>
       </c>
       <c r="B89" s="2">
-        <v>46006.94791666666</v>
+        <v>46022.95833333334</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>6240</v>
+        <v>5880</v>
       </c>
       <c r="B90" s="2">
-        <v>46006.95833333334</v>
+        <v>46022.96875</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>6180</v>
+        <v>5840</v>
       </c>
       <c r="B91" s="2">
-        <v>46006.96875</v>
+        <v>46022.97916666666</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>6140</v>
+        <v>5790</v>
       </c>
       <c r="B92" s="2">
-        <v>46006.97916666666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>6070</v>
-      </c>
-      <c r="B93" s="2">
-        <v>46006.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46044</v>
+        <v>46046</v>
       </c>
       <c r="B2">
-        <v>6640</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B3">
-        <v>6610</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B4">
-        <v>6590</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B5">
-        <v>6560</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B6">
-        <v>6530</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B7">
-        <v>6510</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B8">
-        <v>6490</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B9">
-        <v>6490</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B10">
-        <v>6500</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B11">
-        <v>6500</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B12">
-        <v>6500</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B13">
-        <v>6520</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B14">
-        <v>6540</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B15">
-        <v>6550</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B16">
-        <v>6570</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B17">
-        <v>6600</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B18">
-        <v>6640</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B19">
-        <v>6710</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B20">
-        <v>6820</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B21">
-        <v>6950</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B22">
-        <v>7120</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B23">
-        <v>7290</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B24">
-        <v>7450</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B25">
-        <v>7660</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B26">
-        <v>7920</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B27">
-        <v>8130</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B28">
-        <v>8300</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B29">
-        <v>8470</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B30">
-        <v>8640</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B31">
-        <v>8780</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46044.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B32">
-        <v>8890</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.32291666666</v>
       </c>
       <c r="B33">
-        <v>8970</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46044.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B34">
-        <v>9010</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46044.34375</v>
+        <v>46046.34375</v>
       </c>
       <c r="B35">
-        <v>9030</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46044.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B36">
-        <v>9030</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46044.36458333334</v>
+        <v>46046.36458333334</v>
       </c>
       <c r="B37">
-        <v>9020</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46044.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B38">
-        <v>8990</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46044.38541666666</v>
+        <v>46046.38541666666</v>
       </c>
       <c r="B39">
-        <v>8940</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46044.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B40">
-        <v>8900</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46044.40625</v>
+        <v>46046.40625</v>
       </c>
       <c r="B41">
-        <v>8840</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46044.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B42">
-        <v>8770</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46044.42708333334</v>
+        <v>46046.42708333334</v>
       </c>
       <c r="B43">
-        <v>8720</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46044.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B44">
-        <v>8680</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46044.44791666666</v>
+        <v>46046.44791666666</v>
       </c>
       <c r="B45">
-        <v>8640</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46044.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B46">
-        <v>8590</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46044.46875</v>
+        <v>46046.46875</v>
       </c>
       <c r="B47">
-        <v>8560</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46044.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B48">
-        <v>8530</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46044.48958333334</v>
+        <v>46046.48958333334</v>
       </c>
       <c r="B49">
-        <v>8510</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46044.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B50">
-        <v>8500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46044.51041666666</v>
+        <v>46046.51041666666</v>
       </c>
       <c r="B51">
-        <v>8500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46044.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B52">
-        <v>8500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46044.53125</v>
+        <v>46046.53125</v>
       </c>
       <c r="B53">
-        <v>8480</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46044.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B54">
-        <v>8440</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46044.55208333334</v>
+        <v>46046.55208333334</v>
       </c>
       <c r="B55">
-        <v>8430</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46044.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B56">
-        <v>8410</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46044.57291666666</v>
+        <v>46046.57291666666</v>
       </c>
       <c r="B57">
-        <v>8400</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46044.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B58">
-        <v>8390</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46044.59375</v>
+        <v>46046.59375</v>
       </c>
       <c r="B59">
-        <v>8380</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46044.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B60">
-        <v>8380</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46044.61458333334</v>
+        <v>46046.61458333334</v>
       </c>
       <c r="B61">
-        <v>8380</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46044.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B62">
-        <v>8400</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46044.63541666666</v>
+        <v>46046.63541666666</v>
       </c>
       <c r="B63">
-        <v>8430</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46044.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B64">
-        <v>8490</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46044.65625</v>
+        <v>46046.65625</v>
       </c>
       <c r="B65">
-        <v>8560</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46044.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B66">
-        <v>8660</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46044.67708333334</v>
+        <v>46046.67708333334</v>
       </c>
       <c r="B67">
-        <v>8740</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46044.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B68">
-        <v>8800</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46044.69791666666</v>
+        <v>46046.69791666666</v>
       </c>
       <c r="B69">
-        <v>8850</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46044.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B70">
-        <v>8900</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46044.71875</v>
+        <v>46046.71875</v>
       </c>
       <c r="B71">
-        <v>8910</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46044.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B72">
-        <v>8900</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46044.73958333334</v>
+        <v>46046.73958333334</v>
       </c>
       <c r="B73">
-        <v>8890</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46044.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B74">
-        <v>8830</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46044.76041666666</v>
+        <v>46046.76041666666</v>
       </c>
       <c r="B75">
-        <v>8790</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46044.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B76">
-        <v>8760</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46044.78125</v>
+        <v>46046.78125</v>
       </c>
       <c r="B77">
-        <v>8720</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46044.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B78">
-        <v>8650</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46044.80208333334</v>
+        <v>46046.80208333334</v>
       </c>
       <c r="B79">
-        <v>8560</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46044.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B80">
-        <v>8480</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46044.82291666666</v>
+        <v>46046.82291666666</v>
       </c>
       <c r="B81">
-        <v>8400</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46044.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B82">
-        <v>8260</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46044.84375</v>
+        <v>46046.84375</v>
       </c>
       <c r="B83">
-        <v>8120</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46044.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B84">
-        <v>8010</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46044.86458333334</v>
+        <v>46046.86458333334</v>
       </c>
       <c r="B85">
-        <v>7870</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46044.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B86">
-        <v>7680</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46044.88541666666</v>
+        <v>46046.88541666666</v>
       </c>
       <c r="B87">
-        <v>7550</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46044.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B88">
-        <v>7380</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46044.90625</v>
+        <v>46046.90625</v>
       </c>
       <c r="B89">
-        <v>7230</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46044.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B90">
-        <v>7100</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46044.92708333334</v>
+        <v>46046.92708333334</v>
       </c>
       <c r="B91">
-        <v>6960</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46044.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B92">
-        <v>6850</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46044.94791666666</v>
+        <v>46046.94791666666</v>
       </c>
       <c r="B93">
-        <v>6740</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46044.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B94">
-        <v>6700</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46044.96875</v>
+        <v>46046.96875</v>
       </c>
       <c r="B95">
-        <v>6640</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46044.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B96">
-        <v>6600</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46044.98958333334</v>
+        <v>46046.98958333334</v>
       </c>
       <c r="B97">
-        <v>6560</v>
+        <v>6050</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46046</v>
+        <v>46048</v>
       </c>
       <c r="B2">
-        <v>6310</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B3">
-        <v>6270</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B4">
-        <v>6250</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B5">
-        <v>6210</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B6">
-        <v>6170</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B7">
-        <v>6140</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B8">
-        <v>6120</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B9">
-        <v>6100</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B10">
-        <v>6060</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B11">
-        <v>6050</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B12">
-        <v>6050</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B13">
-        <v>6050</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B14">
-        <v>6050</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B15">
-        <v>6050</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B16">
-        <v>6050</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B17">
-        <v>6060</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B18">
-        <v>6070</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B19">
-        <v>6090</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B20">
-        <v>6110</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B21">
-        <v>6140</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B22">
-        <v>6180</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B23">
-        <v>6240</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B24">
-        <v>6300</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B25">
-        <v>6370</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B26">
-        <v>6460</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B27">
-        <v>6550</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B28">
-        <v>6650</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B29">
-        <v>6760</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B30">
-        <v>6900</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B31">
-        <v>7010</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B32">
-        <v>7100</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46046.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B33">
-        <v>7190</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46046.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B34">
-        <v>7270</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46046.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B35">
-        <v>7340</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46046.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B36">
-        <v>7390</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46046.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B37">
-        <v>7420</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46046.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B38">
-        <v>7450</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46046.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B39">
-        <v>7450</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46046.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B40">
-        <v>7450</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46046.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B41">
-        <v>7440</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46046.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B42">
-        <v>7380</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46046.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B43">
-        <v>7340</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46046.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B44">
-        <v>7320</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46046.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B45">
-        <v>7300</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46046.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B46">
-        <v>7250</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46046.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B47">
-        <v>7220</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46046.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B48">
-        <v>7210</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46046.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B49">
-        <v>7200</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46046.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B50">
-        <v>7200</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46046.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B51">
-        <v>7200</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46046.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B52">
-        <v>7200</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46046.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B53">
-        <v>7180</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46046.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B54">
-        <v>7150</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46046.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B55">
-        <v>7150</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46046.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B56">
-        <v>7150</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46046.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B57">
-        <v>7150</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46046.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B58">
-        <v>7160</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46046.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B59">
-        <v>7180</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46046.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B60">
-        <v>7200</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46046.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B61">
-        <v>7250</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46046.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B62">
-        <v>7320</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46046.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B63">
-        <v>7400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46046.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B64">
-        <v>7490</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46046.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B65">
-        <v>7590</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46046.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B66">
-        <v>7710</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46046.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B67">
-        <v>7820</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46046.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B68">
-        <v>7910</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46046.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B69">
-        <v>7990</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46046.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B70">
-        <v>8110</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46046.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B71">
-        <v>8130</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46046.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B72">
-        <v>8120</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46046.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B73">
-        <v>8120</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46046.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B74">
-        <v>8080</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46046.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B75">
-        <v>8040</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46046.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B76">
-        <v>8000</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46046.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B77">
-        <v>7960</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46046.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B78">
-        <v>7900</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46046.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B79">
-        <v>7840</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46046.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B80">
-        <v>7770</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46046.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B81">
-        <v>7690</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46046.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B82">
-        <v>7570</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46046.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B83">
-        <v>7450</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46046.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B84">
-        <v>7350</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46046.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B85">
-        <v>7230</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46046.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B86">
-        <v>7050</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46046.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B87">
-        <v>6920</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46046.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B88">
-        <v>6780</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46046.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B89">
-        <v>6670</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46046.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B90">
-        <v>6560</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46046.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B91">
-        <v>6450</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46046.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B92">
-        <v>6330</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46046.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B93">
-        <v>6220</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46046.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B94">
-        <v>6230</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46046.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B95">
-        <v>6170</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46046.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B96">
-        <v>6120</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46046.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B97">
-        <v>6050</v>
+        <v>6150</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,319 +397,319 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B3">
-        <v>5570</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B4">
-        <v>5550</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B5">
-        <v>5520</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B6">
-        <v>5480</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B7">
-        <v>5470</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B8">
-        <v>5470</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B9">
-        <v>5470</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B10">
-        <v>5470</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B11">
-        <v>5470</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B12">
-        <v>5470</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B13">
-        <v>5480</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B14">
-        <v>5500</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B15">
-        <v>5510</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B16">
-        <v>5540</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B17">
-        <v>5610</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B18">
-        <v>5670</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B19">
-        <v>5770</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B20">
-        <v>5900</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B21">
-        <v>6070</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B22">
-        <v>6270</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B23">
-        <v>6470</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B24">
-        <v>6690</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B25">
-        <v>6910</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B26">
-        <v>7180</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B27">
-        <v>7400</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B28">
-        <v>7610</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B29">
-        <v>7810</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B30">
-        <v>8000</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B31">
-        <v>8150</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B32">
-        <v>8280</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B33">
-        <v>8370</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B34">
-        <v>8440</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B35">
-        <v>8490</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B36">
-        <v>8520</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B37">
-        <v>8530</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B38">
-        <v>8530</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B39">
-        <v>8530</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B40">
-        <v>8530</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B41">
         <v>8530</v>
@@ -717,450 +717,450 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B42">
-        <v>8530</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B43">
-        <v>8530</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B44">
-        <v>8530</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B45">
-        <v>8530</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B46">
-        <v>8530</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B47">
-        <v>8530</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B48">
-        <v>8530</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B49">
-        <v>8530</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B50">
-        <v>8550</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B51">
-        <v>8550</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B52">
-        <v>8550</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B53">
-        <v>8540</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B54">
-        <v>8500</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B55">
-        <v>8490</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B56">
-        <v>8480</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B57">
-        <v>8470</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B58">
-        <v>8440</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B59">
-        <v>8430</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B60">
-        <v>8410</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B61">
-        <v>8400</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B62">
-        <v>8400</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B63">
-        <v>8400</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B64">
-        <v>8400</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B65">
-        <v>8410</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B66">
-        <v>8430</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B67">
-        <v>8430</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B68">
-        <v>8430</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B69">
-        <v>8440</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B70">
-        <v>8470</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B71">
-        <v>8470</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B72">
-        <v>8470</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B73">
-        <v>8450</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B74">
-        <v>8410</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B75">
-        <v>8370</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B76">
-        <v>8340</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B77">
-        <v>8270</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B78">
-        <v>8200</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B79">
-        <v>8120</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B80">
-        <v>8050</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B81">
-        <v>7960</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B82">
-        <v>7850</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B83">
-        <v>7710</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B84">
-        <v>7590</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B85">
-        <v>7460</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B86">
-        <v>7260</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B87">
-        <v>7110</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B88">
-        <v>6940</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B89">
-        <v>6810</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B90">
-        <v>6680</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B91">
-        <v>6560</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B92">
-        <v>6460</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B93">
-        <v>6340</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B94">
-        <v>6340</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B95">
-        <v>6260</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B96">
-        <v>6200</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B97">
-        <v>6150</v>
+        <v>6420</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46049</v>
+        <v>46056</v>
       </c>
       <c r="B2">
-        <v>6120</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
       <c r="B3">
-        <v>6090</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
       <c r="B4">
-        <v>6060</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
       <c r="B5">
-        <v>6030</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
       <c r="B6">
-        <v>5990</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
       <c r="B7">
-        <v>5990</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
       <c r="B8">
-        <v>5980</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
       <c r="B9">
-        <v>5980</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
       <c r="B10">
-        <v>5990</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
       <c r="B11">
-        <v>6000</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
       <c r="B12">
-        <v>6010</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
       <c r="B13">
-        <v>6020</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
       <c r="B14">
-        <v>6030</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
       <c r="B15">
-        <v>6040</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
       <c r="B16">
-        <v>6050</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
       <c r="B17">
-        <v>6090</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
       <c r="B18">
-        <v>6160</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
       <c r="B19">
-        <v>6250</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
       <c r="B20">
-        <v>6350</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
       <c r="B21">
-        <v>6490</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
       <c r="B22">
-        <v>6660</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
       <c r="B23">
-        <v>6840</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
       <c r="B24">
-        <v>7030</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
       <c r="B25">
-        <v>7230</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
       <c r="B26">
-        <v>7430</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
       <c r="B27">
-        <v>7620</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="B28">
-        <v>7810</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
       <c r="B29">
-        <v>7980</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B30">
-        <v>8140</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
       <c r="B31">
-        <v>8270</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
       <c r="B32">
-        <v>8380</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
       <c r="B33">
-        <v>8470</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
       <c r="B34">
-        <v>8530</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
       <c r="B35">
-        <v>8580</v>
+        <v>8690</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
       <c r="B36">
-        <v>8600</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
       <c r="B37">
-        <v>8600</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
       <c r="B38">
-        <v>8590</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
       <c r="B39">
-        <v>8570</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
       <c r="B40">
-        <v>8550</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
       <c r="B41">
-        <v>8530</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
       <c r="B42">
-        <v>8510</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
       <c r="B43">
-        <v>8490</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
       <c r="B44">
-        <v>8480</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
       </c>
       <c r="B45">
-        <v>8460</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46049.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="B46">
-        <v>8450</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46049.46875</v>
+        <v>46056.46875</v>
       </c>
       <c r="B47">
-        <v>8440</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46049.47916666666</v>
+        <v>46056.47916666666</v>
       </c>
       <c r="B48">
-        <v>8440</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46049.48958333334</v>
+        <v>46056.48958333334</v>
       </c>
       <c r="B49">
-        <v>8440</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46049.5</v>
+        <v>46056.5</v>
       </c>
       <c r="B50">
-        <v>8450</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46049.51041666666</v>
+        <v>46056.51041666666</v>
       </c>
       <c r="B51">
-        <v>8450</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46049.52083333334</v>
+        <v>46056.52083333334</v>
       </c>
       <c r="B52">
-        <v>8450</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46049.53125</v>
+        <v>46056.53125</v>
       </c>
       <c r="B53">
-        <v>8440</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46049.54166666666</v>
+        <v>46056.54166666666</v>
       </c>
       <c r="B54">
-        <v>8400</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46049.55208333334</v>
+        <v>46056.55208333334</v>
       </c>
       <c r="B55">
-        <v>8380</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46049.5625</v>
+        <v>46056.5625</v>
       </c>
       <c r="B56">
-        <v>8370</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46049.57291666666</v>
+        <v>46056.57291666666</v>
       </c>
       <c r="B57">
-        <v>8360</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46049.58333333334</v>
+        <v>46056.58333333334</v>
       </c>
       <c r="B58">
-        <v>8340</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46049.59375</v>
+        <v>46056.59375</v>
       </c>
       <c r="B59">
-        <v>8320</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46049.60416666666</v>
+        <v>46056.60416666666</v>
       </c>
       <c r="B60">
-        <v>8320</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46049.61458333334</v>
+        <v>46056.61458333334</v>
       </c>
       <c r="B61">
-        <v>8320</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46049.625</v>
+        <v>46056.625</v>
       </c>
       <c r="B62">
-        <v>8320</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46049.63541666666</v>
+        <v>46056.63541666666</v>
       </c>
       <c r="B63">
-        <v>8330</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46049.64583333334</v>
+        <v>46056.64583333334</v>
       </c>
       <c r="B64">
-        <v>8350</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46049.65625</v>
+        <v>46056.65625</v>
       </c>
       <c r="B65">
-        <v>8370</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46049.66666666666</v>
+        <v>46056.66666666666</v>
       </c>
       <c r="B66">
-        <v>8390</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46049.67708333334</v>
+        <v>46056.67708333334</v>
       </c>
       <c r="B67">
-        <v>8410</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46049.6875</v>
+        <v>46056.6875</v>
       </c>
       <c r="B68">
-        <v>8440</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46049.69791666666</v>
+        <v>46056.69791666666</v>
       </c>
       <c r="B69">
-        <v>8480</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46049.70833333334</v>
+        <v>46056.70833333334</v>
       </c>
       <c r="B70">
-        <v>8530</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46049.71875</v>
+        <v>46056.71875</v>
       </c>
       <c r="B71">
-        <v>8550</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46049.72916666666</v>
+        <v>46056.72916666666</v>
       </c>
       <c r="B72">
-        <v>8550</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46049.73958333334</v>
+        <v>46056.73958333334</v>
       </c>
       <c r="B73">
-        <v>8550</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46049.75</v>
+        <v>46056.75</v>
       </c>
       <c r="B74">
-        <v>8500</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46049.76041666666</v>
+        <v>46056.76041666666</v>
       </c>
       <c r="B75">
-        <v>8460</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46049.77083333334</v>
+        <v>46056.77083333334</v>
       </c>
       <c r="B76">
-        <v>8430</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46049.78125</v>
+        <v>46056.78125</v>
       </c>
       <c r="B77">
-        <v>8400</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46049.79166666666</v>
+        <v>46056.79166666666</v>
       </c>
       <c r="B78">
-        <v>8340</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46049.80208333334</v>
+        <v>46056.80208333334</v>
       </c>
       <c r="B79">
-        <v>8270</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46049.8125</v>
+        <v>46056.8125</v>
       </c>
       <c r="B80">
-        <v>8220</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46049.82291666666</v>
+        <v>46056.82291666666</v>
       </c>
       <c r="B81">
-        <v>8130</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46049.83333333334</v>
+        <v>46056.83333333334</v>
       </c>
       <c r="B82">
-        <v>8000</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46049.84375</v>
+        <v>46056.84375</v>
       </c>
       <c r="B83">
-        <v>7870</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46049.85416666666</v>
+        <v>46056.85416666666</v>
       </c>
       <c r="B84">
-        <v>7770</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46049.86458333334</v>
+        <v>46056.86458333334</v>
       </c>
       <c r="B85">
-        <v>7640</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46049.875</v>
+        <v>46056.875</v>
       </c>
       <c r="B86">
-        <v>7470</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46049.88541666666</v>
+        <v>46056.88541666666</v>
       </c>
       <c r="B87">
-        <v>7320</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46049.89583333334</v>
+        <v>46056.89583333334</v>
       </c>
       <c r="B88">
-        <v>7160</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46049.90625</v>
+        <v>46056.90625</v>
       </c>
       <c r="B89">
-        <v>7020</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46049.91666666666</v>
+        <v>46056.91666666666</v>
       </c>
       <c r="B90">
-        <v>6870</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46049.92708333334</v>
+        <v>46056.92708333334</v>
       </c>
       <c r="B91">
-        <v>6720</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46049.9375</v>
+        <v>46056.9375</v>
       </c>
       <c r="B92">
-        <v>6630</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46049.94791666666</v>
+        <v>46056.94791666666</v>
       </c>
       <c r="B93">
-        <v>6520</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46049.95833333334</v>
+        <v>46056.95833333334</v>
       </c>
       <c r="B94">
-        <v>6580</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46049.96875</v>
+        <v>46056.96875</v>
       </c>
       <c r="B95">
-        <v>6520</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46049.97916666666</v>
+        <v>46056.97916666666</v>
       </c>
       <c r="B96">
-        <v>6460</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46049.98958333334</v>
+        <v>46056.98958333334</v>
       </c>
       <c r="B97">
-        <v>6420</v>
+        <v>6590</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46056</v>
+        <v>46069</v>
       </c>
       <c r="B2">
-        <v>6460</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
       <c r="B3">
-        <v>6420</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B4">
-        <v>6410</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
       <c r="B5">
-        <v>6390</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B6">
-        <v>6360</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
       <c r="B7">
-        <v>6340</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B8">
-        <v>6330</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.07291666666</v>
       </c>
       <c r="B9">
-        <v>6330</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B10">
-        <v>6330</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46056.09375</v>
+        <v>46069.09375</v>
       </c>
       <c r="B11">
-        <v>6330</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B12">
-        <v>6330</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.11458333334</v>
       </c>
       <c r="B13">
-        <v>6340</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46056.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B14">
-        <v>6360</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.13541666666</v>
       </c>
       <c r="B15">
-        <v>6370</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B16">
-        <v>6380</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46056.15625</v>
+        <v>46069.15625</v>
       </c>
       <c r="B17">
-        <v>6410</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B18">
-        <v>6450</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.17708333334</v>
       </c>
       <c r="B19">
-        <v>6530</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46056.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B20">
-        <v>6640</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.19791666666</v>
       </c>
       <c r="B21">
-        <v>6790</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B22">
-        <v>6980</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46056.21875</v>
+        <v>46069.21875</v>
       </c>
       <c r="B23">
-        <v>7170</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B24">
-        <v>7370</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.23958333334</v>
       </c>
       <c r="B25">
-        <v>7570</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46056.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B26">
-        <v>7820</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.26041666666</v>
       </c>
       <c r="B27">
-        <v>8020</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B28">
-        <v>8200</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46056.28125</v>
+        <v>46069.28125</v>
       </c>
       <c r="B29">
-        <v>8350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46056.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B30">
-        <v>8500</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46056.30208333334</v>
+        <v>46069.30208333334</v>
       </c>
       <c r="B31">
-        <v>8610</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46056.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B32">
-        <v>8680</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46056.32291666666</v>
+        <v>46069.32291666666</v>
       </c>
       <c r="B33">
-        <v>8720</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46056.33333333334</v>
+        <v>46069.33333333334</v>
       </c>
       <c r="B34">
-        <v>8720</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46056.34375</v>
+        <v>46069.34375</v>
       </c>
       <c r="B35">
-        <v>8690</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46056.35416666666</v>
+        <v>46069.35416666666</v>
       </c>
       <c r="B36">
-        <v>8640</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46056.36458333334</v>
+        <v>46069.36458333334</v>
       </c>
       <c r="B37">
-        <v>8560</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46056.375</v>
+        <v>46069.375</v>
       </c>
       <c r="B38">
-        <v>8460</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46056.38541666666</v>
+        <v>46069.38541666666</v>
       </c>
       <c r="B39">
-        <v>8350</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46056.39583333334</v>
+        <v>46069.39583333334</v>
       </c>
       <c r="B40">
-        <v>8250</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46056.40625</v>
+        <v>46069.40625</v>
       </c>
       <c r="B41">
-        <v>8130</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46056.41666666666</v>
+        <v>46069.41666666666</v>
       </c>
       <c r="B42">
-        <v>8020</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46056.42708333334</v>
+        <v>46069.42708333334</v>
       </c>
       <c r="B43">
-        <v>7930</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46056.4375</v>
+        <v>46069.4375</v>
       </c>
       <c r="B44">
-        <v>7870</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46056.44791666666</v>
+        <v>46069.44791666666</v>
       </c>
       <c r="B45">
-        <v>7800</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46056.45833333334</v>
+        <v>46069.45833333334</v>
       </c>
       <c r="B46">
-        <v>7740</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46056.46875</v>
+        <v>46069.46875</v>
       </c>
       <c r="B47">
-        <v>7710</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46056.47916666666</v>
+        <v>46069.47916666666</v>
       </c>
       <c r="B48">
-        <v>7690</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46056.48958333334</v>
+        <v>46069.48958333334</v>
       </c>
       <c r="B49">
-        <v>7680</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46056.5</v>
+        <v>46069.5</v>
       </c>
       <c r="B50">
-        <v>7690</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46056.51041666666</v>
+        <v>46069.51041666666</v>
       </c>
       <c r="B51">
-        <v>7700</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46056.52083333334</v>
+        <v>46069.52083333334</v>
       </c>
       <c r="B52">
-        <v>7700</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46056.53125</v>
+        <v>46069.53125</v>
       </c>
       <c r="B53">
-        <v>7710</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46056.54166666666</v>
+        <v>46069.54166666666</v>
       </c>
       <c r="B54">
-        <v>7710</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46056.55208333334</v>
+        <v>46069.55208333334</v>
       </c>
       <c r="B55">
-        <v>7730</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46056.5625</v>
+        <v>46069.5625</v>
       </c>
       <c r="B56">
-        <v>7760</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46056.57291666666</v>
+        <v>46069.57291666666</v>
       </c>
       <c r="B57">
-        <v>7800</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46056.58333333334</v>
+        <v>46069.58333333334</v>
       </c>
       <c r="B58">
-        <v>7840</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46056.59375</v>
+        <v>46069.59375</v>
       </c>
       <c r="B59">
-        <v>7880</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46056.60416666666</v>
+        <v>46069.60416666666</v>
       </c>
       <c r="B60">
-        <v>7920</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46056.61458333334</v>
+        <v>46069.61458333334</v>
       </c>
       <c r="B61">
-        <v>7970</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46056.625</v>
+        <v>46069.625</v>
       </c>
       <c r="B62">
-        <v>8040</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46056.63541666666</v>
+        <v>46069.63541666666</v>
       </c>
       <c r="B63">
-        <v>8110</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46056.64583333334</v>
+        <v>46069.64583333334</v>
       </c>
       <c r="B64">
-        <v>8190</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46056.65625</v>
+        <v>46069.65625</v>
       </c>
       <c r="B65">
-        <v>8290</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46056.66666666666</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="B66">
-        <v>8400</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46056.67708333334</v>
+        <v>46069.67708333334</v>
       </c>
       <c r="B67">
-        <v>8500</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46056.6875</v>
+        <v>46069.6875</v>
       </c>
       <c r="B68">
-        <v>8570</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46056.69791666666</v>
+        <v>46069.69791666666</v>
       </c>
       <c r="B69">
-        <v>8670</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46056.70833333334</v>
+        <v>46069.70833333334</v>
       </c>
       <c r="B70">
-        <v>8760</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46056.71875</v>
+        <v>46069.71875</v>
       </c>
       <c r="B71">
-        <v>8800</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46056.72916666666</v>
+        <v>46069.72916666666</v>
       </c>
       <c r="B72">
-        <v>8820</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46056.73958333334</v>
+        <v>46069.73958333334</v>
       </c>
       <c r="B73">
-        <v>8820</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46056.75</v>
+        <v>46069.75</v>
       </c>
       <c r="B74">
-        <v>8780</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46056.76041666666</v>
+        <v>46069.76041666666</v>
       </c>
       <c r="B75">
-        <v>8750</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46056.77083333334</v>
+        <v>46069.77083333334</v>
       </c>
       <c r="B76">
-        <v>8730</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46056.78125</v>
+        <v>46069.78125</v>
       </c>
       <c r="B77">
-        <v>8670</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46056.79166666666</v>
+        <v>46069.79166666666</v>
       </c>
       <c r="B78">
-        <v>8610</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46056.80208333334</v>
+        <v>46069.80208333334</v>
       </c>
       <c r="B79">
-        <v>8550</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46056.8125</v>
+        <v>46069.8125</v>
       </c>
       <c r="B80">
-        <v>8470</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46056.82291666666</v>
+        <v>46069.82291666666</v>
       </c>
       <c r="B81">
-        <v>8390</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46056.83333333334</v>
+        <v>46069.83333333334</v>
       </c>
       <c r="B82">
-        <v>8270</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46056.84375</v>
+        <v>46069.84375</v>
       </c>
       <c r="B83">
-        <v>8150</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46056.85416666666</v>
+        <v>46069.85416666666</v>
       </c>
       <c r="B84">
-        <v>8020</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46056.86458333334</v>
+        <v>46069.86458333334</v>
       </c>
       <c r="B85">
-        <v>7880</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46056.875</v>
+        <v>46069.875</v>
       </c>
       <c r="B86">
-        <v>7680</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46056.88541666666</v>
+        <v>46069.88541666666</v>
       </c>
       <c r="B87">
-        <v>7530</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46056.89583333334</v>
+        <v>46069.89583333334</v>
       </c>
       <c r="B88">
-        <v>7360</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46056.90625</v>
+        <v>46069.90625</v>
       </c>
       <c r="B89">
-        <v>7230</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46056.91666666666</v>
+        <v>46069.91666666666</v>
       </c>
       <c r="B90">
-        <v>7110</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46056.92708333334</v>
+        <v>46069.92708333334</v>
       </c>
       <c r="B91">
-        <v>7000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46056.9375</v>
+        <v>46069.9375</v>
       </c>
       <c r="B92">
-        <v>6890</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46056.94791666666</v>
+        <v>46069.94791666666</v>
       </c>
       <c r="B93">
-        <v>6770</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46056.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
       <c r="B94">
-        <v>6770</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46056.96875</v>
+        <v>46069.96875</v>
       </c>
       <c r="B95">
-        <v>6700</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46056.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
       <c r="B96">
-        <v>6650</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46056.98958333334</v>
+        <v>46069.98958333334</v>
       </c>
       <c r="B97">
-        <v>6590</v>
+        <v>6010</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="B2">
-        <v>5520</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
       <c r="B3">
-        <v>5480</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.02083333334</v>
       </c>
       <c r="B4">
-        <v>5450</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46069.03125</v>
+        <v>46070.03125</v>
       </c>
       <c r="B5">
-        <v>5420</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.04166666666</v>
       </c>
       <c r="B6">
-        <v>5420</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.05208333334</v>
       </c>
       <c r="B7">
-        <v>5410</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46069.0625</v>
+        <v>46070.0625</v>
       </c>
       <c r="B8">
-        <v>5400</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46069.07291666666</v>
+        <v>46070.07291666666</v>
       </c>
       <c r="B9">
-        <v>5380</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
       <c r="B10">
-        <v>5370</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
       <c r="B11">
-        <v>5360</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
       <c r="B12">
-        <v>5360</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
       <c r="B13">
-        <v>5370</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
       <c r="B14">
-        <v>5380</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
       <c r="B15">
-        <v>5400</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
       <c r="B16">
-        <v>5420</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
       <c r="B17">
-        <v>5480</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
       <c r="B18">
-        <v>5570</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
       <c r="B19">
-        <v>5680</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
       <c r="B20">
-        <v>5810</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
       <c r="B21">
-        <v>5960</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
       <c r="B22">
-        <v>6140</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
       <c r="B23">
-        <v>6330</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
       <c r="B24">
-        <v>6540</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
       <c r="B25">
-        <v>6760</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
       <c r="B26">
-        <v>7000</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
       <c r="B27">
-        <v>7220</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
       <c r="B28">
-        <v>7430</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
       <c r="B29">
-        <v>7650</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
       <c r="B30">
-        <v>7850</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46069.30208333334</v>
+        <v>46070.30208333334</v>
       </c>
       <c r="B31">
-        <v>8010</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46069.3125</v>
+        <v>46070.3125</v>
       </c>
       <c r="B32">
-        <v>8100</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46069.32291666666</v>
+        <v>46070.32291666666</v>
       </c>
       <c r="B33">
-        <v>8160</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46069.33333333334</v>
+        <v>46070.33333333334</v>
       </c>
       <c r="B34">
-        <v>8180</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46069.34375</v>
+        <v>46070.34375</v>
       </c>
       <c r="B35">
-        <v>8170</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46069.35416666666</v>
+        <v>46070.35416666666</v>
       </c>
       <c r="B36">
-        <v>8140</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46069.36458333334</v>
+        <v>46070.36458333334</v>
       </c>
       <c r="B37">
-        <v>8070</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46069.375</v>
+        <v>46070.375</v>
       </c>
       <c r="B38">
-        <v>7980</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46069.38541666666</v>
+        <v>46070.38541666666</v>
       </c>
       <c r="B39">
-        <v>7880</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46069.39583333334</v>
+        <v>46070.39583333334</v>
       </c>
       <c r="B40">
-        <v>7780</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46069.40625</v>
+        <v>46070.40625</v>
       </c>
       <c r="B41">
-        <v>7690</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46069.41666666666</v>
+        <v>46070.41666666666</v>
       </c>
       <c r="B42">
-        <v>7600</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46069.42708333334</v>
+        <v>46070.42708333334</v>
       </c>
       <c r="B43">
-        <v>7530</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46069.4375</v>
+        <v>46070.4375</v>
       </c>
       <c r="B44">
-        <v>7470</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46069.44791666666</v>
+        <v>46070.44791666666</v>
       </c>
       <c r="B45">
-        <v>7420</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46069.45833333334</v>
+        <v>46070.45833333334</v>
       </c>
       <c r="B46">
-        <v>7350</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46069.46875</v>
+        <v>46070.46875</v>
       </c>
       <c r="B47">
-        <v>7310</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46069.47916666666</v>
+        <v>46070.47916666666</v>
       </c>
       <c r="B48">
-        <v>7290</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46069.48958333334</v>
+        <v>46070.48958333334</v>
       </c>
       <c r="B49">
-        <v>7280</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46069.5</v>
+        <v>46070.5</v>
       </c>
       <c r="B50">
-        <v>7280</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46069.51041666666</v>
+        <v>46070.51041666666</v>
       </c>
       <c r="B51">
-        <v>7270</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46069.52083333334</v>
+        <v>46070.52083333334</v>
       </c>
       <c r="B52">
-        <v>7270</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46069.53125</v>
+        <v>46070.53125</v>
       </c>
       <c r="B53">
-        <v>7270</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46069.54166666666</v>
+        <v>46070.54166666666</v>
       </c>
       <c r="B54">
-        <v>7270</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46069.55208333334</v>
+        <v>46070.55208333334</v>
       </c>
       <c r="B55">
-        <v>7270</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46069.5625</v>
+        <v>46070.5625</v>
       </c>
       <c r="B56">
-        <v>7280</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46069.57291666666</v>
+        <v>46070.57291666666</v>
       </c>
       <c r="B57">
-        <v>7310</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46069.58333333334</v>
+        <v>46070.58333333334</v>
       </c>
       <c r="B58">
-        <v>7340</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46069.59375</v>
+        <v>46070.59375</v>
       </c>
       <c r="B59">
-        <v>7380</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46069.60416666666</v>
+        <v>46070.60416666666</v>
       </c>
       <c r="B60">
-        <v>7410</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46069.61458333334</v>
+        <v>46070.61458333334</v>
       </c>
       <c r="B61">
-        <v>7460</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46069.625</v>
+        <v>46070.625</v>
       </c>
       <c r="B62">
-        <v>7540</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46069.63541666666</v>
+        <v>46070.63541666666</v>
       </c>
       <c r="B63">
-        <v>7610</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46069.64583333334</v>
+        <v>46070.64583333334</v>
       </c>
       <c r="B64">
-        <v>7700</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46069.65625</v>
+        <v>46070.65625</v>
       </c>
       <c r="B65">
-        <v>7780</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46069.66666666666</v>
+        <v>46070.66666666666</v>
       </c>
       <c r="B66">
-        <v>7880</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46069.67708333334</v>
+        <v>46070.67708333334</v>
       </c>
       <c r="B67">
-        <v>7990</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46069.6875</v>
+        <v>46070.6875</v>
       </c>
       <c r="B68">
-        <v>8080</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46069.69791666666</v>
+        <v>46070.69791666666</v>
       </c>
       <c r="B69">
-        <v>8170</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46069.70833333334</v>
+        <v>46070.70833333334</v>
       </c>
       <c r="B70">
-        <v>8270</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46069.71875</v>
+        <v>46070.71875</v>
       </c>
       <c r="B71">
-        <v>8320</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46069.72916666666</v>
+        <v>46070.72916666666</v>
       </c>
       <c r="B72">
-        <v>8340</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46069.73958333334</v>
+        <v>46070.73958333334</v>
       </c>
       <c r="B73">
-        <v>8360</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46069.75</v>
+        <v>46070.75</v>
       </c>
       <c r="B74">
-        <v>8360</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46069.76041666666</v>
+        <v>46070.76041666666</v>
       </c>
       <c r="B75">
-        <v>8340</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46069.77083333334</v>
+        <v>46070.77083333334</v>
       </c>
       <c r="B76">
-        <v>8290</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46069.78125</v>
+        <v>46070.78125</v>
       </c>
       <c r="B77">
-        <v>8240</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46069.79166666666</v>
+        <v>46070.79166666666</v>
       </c>
       <c r="B78">
-        <v>8180</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46069.80208333334</v>
+        <v>46070.80208333334</v>
       </c>
       <c r="B79">
-        <v>8130</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46069.8125</v>
+        <v>46070.8125</v>
       </c>
       <c r="B80">
-        <v>8070</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46069.82291666666</v>
+        <v>46070.82291666666</v>
       </c>
       <c r="B81">
-        <v>7990</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46069.83333333334</v>
+        <v>46070.83333333334</v>
       </c>
       <c r="B82">
-        <v>7860</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46069.84375</v>
+        <v>46070.84375</v>
       </c>
       <c r="B83">
-        <v>7730</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46069.85416666666</v>
+        <v>46070.85416666666</v>
       </c>
       <c r="B84">
-        <v>7630</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46069.86458333334</v>
+        <v>46070.86458333334</v>
       </c>
       <c r="B85">
-        <v>7480</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46069.875</v>
+        <v>46070.875</v>
       </c>
       <c r="B86">
-        <v>7300</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46069.88541666666</v>
+        <v>46070.88541666666</v>
       </c>
       <c r="B87">
-        <v>7160</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46069.89583333334</v>
+        <v>46070.89583333334</v>
       </c>
       <c r="B88">
-        <v>7010</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46069.90625</v>
+        <v>46070.90625</v>
       </c>
       <c r="B89">
-        <v>6880</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46069.91666666666</v>
+        <v>46070.91666666666</v>
       </c>
       <c r="B90">
-        <v>6720</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46069.92708333334</v>
+        <v>46070.92708333334</v>
       </c>
       <c r="B91">
-        <v>6600</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46069.9375</v>
+        <v>46070.9375</v>
       </c>
       <c r="B92">
-        <v>6500</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46069.94791666666</v>
+        <v>46070.94791666666</v>
       </c>
       <c r="B93">
-        <v>6380</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46069.95833333334</v>
+        <v>46070.95833333334</v>
       </c>
       <c r="B94">
-        <v>6250</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46069.96875</v>
+        <v>46070.96875</v>
       </c>
       <c r="B95">
-        <v>6140</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46069.97916666666</v>
+        <v>46070.97916666666</v>
       </c>
       <c r="B96">
-        <v>6060</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46069.98958333334</v>
+        <v>46070.98958333334</v>
       </c>
       <c r="B97">
-        <v>6010</v>
+        <v>6330</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,647 +397,647 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B2">
-        <v>6170</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
       <c r="B3">
-        <v>6130</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B4">
-        <v>6100</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46070.03125</v>
+        <v>46071.03125</v>
       </c>
       <c r="B5">
-        <v>6060</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B6">
-        <v>6040</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.05208333334</v>
       </c>
       <c r="B7">
-        <v>6020</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B8">
-        <v>6020</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.07291666666</v>
       </c>
       <c r="B9">
-        <v>6020</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B10">
-        <v>6020</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46070.09375</v>
+        <v>46071.09375</v>
       </c>
       <c r="B11">
-        <v>6030</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B12">
-        <v>6040</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.11458333334</v>
       </c>
       <c r="B13">
-        <v>6050</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B14">
-        <v>6060</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.13541666666</v>
       </c>
       <c r="B15">
-        <v>6080</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B16">
-        <v>6100</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46070.15625</v>
+        <v>46071.15625</v>
       </c>
       <c r="B17">
-        <v>6150</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B18">
-        <v>6210</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.17708333334</v>
       </c>
       <c r="B19">
-        <v>6300</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B20">
-        <v>6410</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.19791666666</v>
       </c>
       <c r="B21">
-        <v>6550</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B22">
-        <v>6700</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46070.21875</v>
+        <v>46071.21875</v>
       </c>
       <c r="B23">
-        <v>6870</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B24">
-        <v>7050</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.23958333334</v>
       </c>
       <c r="B25">
-        <v>7240</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B26">
-        <v>7430</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.26041666666</v>
       </c>
       <c r="B27">
-        <v>7610</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B28">
-        <v>7780</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46070.28125</v>
+        <v>46071.28125</v>
       </c>
       <c r="B29">
-        <v>7930</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B30">
-        <v>8060</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46070.30208333334</v>
+        <v>46071.30208333334</v>
       </c>
       <c r="B31">
-        <v>8170</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B32">
-        <v>8260</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46070.32291666666</v>
+        <v>46071.32291666666</v>
       </c>
       <c r="B33">
-        <v>8320</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46070.33333333334</v>
+        <v>46071.33333333334</v>
       </c>
       <c r="B34">
-        <v>8350</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46070.34375</v>
+        <v>46071.34375</v>
       </c>
       <c r="B35">
-        <v>8370</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46070.35416666666</v>
+        <v>46071.35416666666</v>
       </c>
       <c r="B36">
-        <v>8370</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46070.36458333334</v>
+        <v>46071.36458333334</v>
       </c>
       <c r="B37">
-        <v>8360</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46070.375</v>
+        <v>46071.375</v>
       </c>
       <c r="B38">
-        <v>8330</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46070.38541666666</v>
+        <v>46071.38541666666</v>
       </c>
       <c r="B39">
-        <v>8310</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46070.39583333334</v>
+        <v>46071.39583333334</v>
       </c>
       <c r="B40">
-        <v>8280</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46070.40625</v>
+        <v>46071.40625</v>
       </c>
       <c r="B41">
-        <v>8250</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46070.41666666666</v>
+        <v>46071.41666666666</v>
       </c>
       <c r="B42">
-        <v>8230</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46070.42708333334</v>
+        <v>46071.42708333334</v>
       </c>
       <c r="B43">
-        <v>8220</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46070.4375</v>
+        <v>46071.4375</v>
       </c>
       <c r="B44">
-        <v>8200</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46070.44791666666</v>
+        <v>46071.44791666666</v>
       </c>
       <c r="B45">
-        <v>8200</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46070.45833333334</v>
+        <v>46071.45833333334</v>
       </c>
       <c r="B46">
-        <v>8190</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46070.46875</v>
+        <v>46071.46875</v>
       </c>
       <c r="B47">
-        <v>8190</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46070.47916666666</v>
+        <v>46071.47916666666</v>
       </c>
       <c r="B48">
-        <v>8190</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46070.48958333334</v>
+        <v>46071.48958333334</v>
       </c>
       <c r="B49">
-        <v>8190</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46070.5</v>
+        <v>46071.5</v>
       </c>
       <c r="B50">
-        <v>8190</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46070.51041666666</v>
+        <v>46071.51041666666</v>
       </c>
       <c r="B51">
-        <v>8190</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46070.52083333334</v>
+        <v>46071.52083333334</v>
       </c>
       <c r="B52">
-        <v>8190</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46070.53125</v>
+        <v>46071.53125</v>
       </c>
       <c r="B53">
-        <v>8190</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46070.54166666666</v>
+        <v>46071.54166666666</v>
       </c>
       <c r="B54">
-        <v>8190</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46070.55208333334</v>
+        <v>46071.55208333334</v>
       </c>
       <c r="B55">
-        <v>8190</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46070.5625</v>
+        <v>46071.5625</v>
       </c>
       <c r="B56">
-        <v>8190</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46070.57291666666</v>
+        <v>46071.57291666666</v>
       </c>
       <c r="B57">
-        <v>8190</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46070.58333333334</v>
+        <v>46071.58333333334</v>
       </c>
       <c r="B58">
-        <v>8180</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46070.59375</v>
+        <v>46071.59375</v>
       </c>
       <c r="B59">
-        <v>8180</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46070.60416666666</v>
+        <v>46071.60416666666</v>
       </c>
       <c r="B60">
-        <v>8170</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46070.61458333334</v>
+        <v>46071.61458333334</v>
       </c>
       <c r="B61">
-        <v>8180</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46070.625</v>
+        <v>46071.625</v>
       </c>
       <c r="B62">
-        <v>8190</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46070.63541666666</v>
+        <v>46071.63541666666</v>
       </c>
       <c r="B63">
-        <v>8220</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46070.64583333334</v>
+        <v>46071.64583333334</v>
       </c>
       <c r="B64">
-        <v>8250</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46070.65625</v>
+        <v>46071.65625</v>
       </c>
       <c r="B65">
-        <v>8280</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46070.66666666666</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="B66">
-        <v>8320</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46070.67708333334</v>
+        <v>46071.67708333334</v>
       </c>
       <c r="B67">
-        <v>8370</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46070.6875</v>
+        <v>46071.6875</v>
       </c>
       <c r="B68">
-        <v>8420</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46070.69791666666</v>
+        <v>46071.69791666666</v>
       </c>
       <c r="B69">
-        <v>8460</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46070.70833333334</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="B70">
-        <v>8500</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46070.71875</v>
+        <v>46071.71875</v>
       </c>
       <c r="B71">
-        <v>8530</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46070.72916666666</v>
+        <v>46071.72916666666</v>
       </c>
       <c r="B72">
-        <v>8550</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46070.73958333334</v>
+        <v>46071.73958333334</v>
       </c>
       <c r="B73">
-        <v>8560</v>
+        <v>8620</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46070.75</v>
+        <v>46071.75</v>
       </c>
       <c r="B74">
-        <v>8560</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46070.76041666666</v>
+        <v>46071.76041666666</v>
       </c>
       <c r="B75">
-        <v>8560</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46070.77083333334</v>
+        <v>46071.77083333334</v>
       </c>
       <c r="B76">
-        <v>8530</v>
+        <v>8560</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46070.78125</v>
+        <v>46071.78125</v>
       </c>
       <c r="B77">
-        <v>8490</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46070.79166666666</v>
+        <v>46071.79166666666</v>
       </c>
       <c r="B78">
-        <v>8430</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46070.80208333334</v>
+        <v>46071.80208333334</v>
       </c>
       <c r="B79">
-        <v>8350</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46070.8125</v>
+        <v>46071.8125</v>
       </c>
       <c r="B80">
-        <v>8280</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46070.82291666666</v>
+        <v>46071.82291666666</v>
       </c>
       <c r="B81">
-        <v>8200</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46070.83333333334</v>
+        <v>46071.83333333334</v>
       </c>
       <c r="B82">
         <v>8100</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46070.84375</v>
+        <v>46071.84375</v>
       </c>
       <c r="B83">
         <v>7970</v>
@@ -1053,63 +1053,63 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46070.85416666666</v>
+        <v>46071.85416666666</v>
       </c>
       <c r="B84">
-        <v>7850</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46070.86458333334</v>
+        <v>46071.86458333334</v>
       </c>
       <c r="B85">
-        <v>7710</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46070.875</v>
+        <v>46071.875</v>
       </c>
       <c r="B86">
-        <v>7580</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46070.88541666666</v>
+        <v>46071.88541666666</v>
       </c>
       <c r="B87">
-        <v>7440</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46070.89583333334</v>
+        <v>46071.89583333334</v>
       </c>
       <c r="B88">
-        <v>7280</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46070.90625</v>
+        <v>46071.90625</v>
       </c>
       <c r="B89">
-        <v>7130</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46070.91666666666</v>
+        <v>46071.91666666666</v>
       </c>
       <c r="B90">
-        <v>6980</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46070.92708333334</v>
+        <v>46071.92708333334</v>
       </c>
       <c r="B91">
         <v>6820</v>
@@ -1117,50 +1117,50 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46070.9375</v>
+        <v>46071.9375</v>
       </c>
       <c r="B92">
-        <v>6680</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46070.94791666666</v>
+        <v>46071.94791666666</v>
       </c>
       <c r="B93">
-        <v>6550</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46070.95833333334</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B94">
-        <v>6480</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46070.96875</v>
+        <v>46071.96875</v>
       </c>
       <c r="B95">
-        <v>6450</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46070.97916666666</v>
+        <v>46071.97916666666</v>
       </c>
       <c r="B96">
-        <v>6390</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46070.98958333334</v>
+        <v>46071.98958333334</v>
       </c>
       <c r="B97">
-        <v>6330</v>
+        <v>6250</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,23 +397,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="B2">
-        <v>6270</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
       <c r="B3">
-        <v>6240</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B4">
         <v>6210</v>
@@ -421,31 +421,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
       <c r="B5">
-        <v>6180</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B6">
-        <v>6140</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
       <c r="B7">
-        <v>6120</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B8">
         <v>6120</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
       <c r="B9">
         <v>6110</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B10">
         <v>6100</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
       <c r="B11">
         <v>6100</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B12">
         <v>6100</v>
@@ -485,375 +485,375 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
       <c r="B13">
-        <v>6120</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B14">
-        <v>6150</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
       <c r="B15">
-        <v>6170</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B16">
-        <v>6200</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
       <c r="B17">
-        <v>6250</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B18">
-        <v>6320</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
       <c r="B19">
-        <v>6410</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B20">
-        <v>6520</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
       <c r="B21">
-        <v>6660</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B22">
-        <v>6810</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
       <c r="B23">
-        <v>6980</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B24">
-        <v>7160</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
       <c r="B25">
-        <v>7340</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B26">
-        <v>7530</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
       <c r="B27">
-        <v>7710</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B28">
-        <v>7880</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
       <c r="B29">
-        <v>8050</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46071.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B30">
-        <v>8220</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46071.30208333334</v>
+        <v>46073.30208333334</v>
       </c>
       <c r="B31">
-        <v>8340</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46071.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B32">
-        <v>8430</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46071.32291666666</v>
+        <v>46073.32291666666</v>
       </c>
       <c r="B33">
-        <v>8520</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46071.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B34">
-        <v>8590</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46071.34375</v>
+        <v>46073.34375</v>
       </c>
       <c r="B35">
-        <v>8600</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46071.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B36">
-        <v>8600</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46071.36458333334</v>
+        <v>46073.36458333334</v>
       </c>
       <c r="B37">
-        <v>8580</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46071.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B38">
-        <v>8530</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46071.38541666666</v>
+        <v>46073.38541666666</v>
       </c>
       <c r="B39">
-        <v>8480</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46071.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B40">
-        <v>8410</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46071.40625</v>
+        <v>46073.40625</v>
       </c>
       <c r="B41">
-        <v>8330</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46071.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B42">
-        <v>8260</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46071.42708333334</v>
+        <v>46073.42708333334</v>
       </c>
       <c r="B43">
-        <v>8190</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46071.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B44">
-        <v>8140</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46071.44791666666</v>
+        <v>46073.44791666666</v>
       </c>
       <c r="B45">
-        <v>8080</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46071.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B46">
-        <v>8030</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46071.46875</v>
+        <v>46073.46875</v>
       </c>
       <c r="B47">
-        <v>8010</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46071.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B48">
-        <v>8000</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46071.48958333334</v>
+        <v>46073.48958333334</v>
       </c>
       <c r="B49">
-        <v>8000</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46071.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B50">
-        <v>8000</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46071.51041666666</v>
+        <v>46073.51041666666</v>
       </c>
       <c r="B51">
-        <v>8000</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46071.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B52">
-        <v>7990</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46071.53125</v>
+        <v>46073.53125</v>
       </c>
       <c r="B53">
-        <v>7960</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46071.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B54">
-        <v>7930</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46071.55208333334</v>
+        <v>46073.55208333334</v>
       </c>
       <c r="B55">
-        <v>7910</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46071.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B56">
-        <v>7900</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46071.57291666666</v>
+        <v>46073.57291666666</v>
       </c>
       <c r="B57">
-        <v>7900</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46071.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B58">
-        <v>7910</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46071.59375</v>
+        <v>46073.59375</v>
       </c>
       <c r="B59">
         <v>7910</v>
@@ -861,23 +861,23 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46071.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B60">
-        <v>7920</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46071.61458333334</v>
+        <v>46073.61458333334</v>
       </c>
       <c r="B61">
-        <v>7950</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46071.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B62">
         <v>8000</v>
@@ -885,223 +885,223 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46071.63541666666</v>
+        <v>46073.63541666666</v>
       </c>
       <c r="B63">
-        <v>8060</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46071.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B64">
-        <v>8120</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46071.65625</v>
+        <v>46073.65625</v>
       </c>
       <c r="B65">
-        <v>8180</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46071.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B66">
-        <v>8270</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46071.67708333334</v>
+        <v>46073.67708333334</v>
       </c>
       <c r="B67">
-        <v>8340</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46071.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B68">
-        <v>8410</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46071.69791666666</v>
+        <v>46073.69791666666</v>
       </c>
       <c r="B69">
-        <v>8500</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46071.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B70">
-        <v>8580</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46071.71875</v>
+        <v>46073.71875</v>
       </c>
       <c r="B71">
-        <v>8620</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46071.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B72">
-        <v>8620</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46071.73958333334</v>
+        <v>46073.73958333334</v>
       </c>
       <c r="B73">
-        <v>8620</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46071.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B74">
-        <v>8600</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46071.76041666666</v>
+        <v>46073.76041666666</v>
       </c>
       <c r="B75">
-        <v>8580</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46071.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B76">
-        <v>8560</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46071.78125</v>
+        <v>46073.78125</v>
       </c>
       <c r="B77">
-        <v>8520</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46071.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B78">
-        <v>8480</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46071.80208333334</v>
+        <v>46073.80208333334</v>
       </c>
       <c r="B79">
-        <v>8410</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46071.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B80">
-        <v>8330</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46071.82291666666</v>
+        <v>46073.82291666666</v>
       </c>
       <c r="B81">
-        <v>8230</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46071.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B82">
-        <v>8100</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46071.84375</v>
+        <v>46073.84375</v>
       </c>
       <c r="B83">
-        <v>7970</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46071.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B84">
-        <v>7840</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46071.86458333334</v>
+        <v>46073.86458333334</v>
       </c>
       <c r="B85">
-        <v>7700</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46071.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B86">
-        <v>7550</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46071.88541666666</v>
+        <v>46073.88541666666</v>
       </c>
       <c r="B87">
-        <v>7400</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46071.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B88">
-        <v>7250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46071.90625</v>
+        <v>46073.90625</v>
       </c>
       <c r="B89">
-        <v>7080</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46071.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B90">
         <v>6940</v>
@@ -1109,58 +1109,58 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46071.92708333334</v>
+        <v>46073.92708333334</v>
       </c>
       <c r="B91">
-        <v>6820</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46071.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B92">
-        <v>6720</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46071.94791666666</v>
+        <v>46073.94791666666</v>
       </c>
       <c r="B93">
-        <v>6620</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46071.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B94">
-        <v>6400</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46071.96875</v>
+        <v>46073.96875</v>
       </c>
       <c r="B95">
-        <v>6330</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46071.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B96">
-        <v>6300</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46071.98958333334</v>
+        <v>46073.98958333334</v>
       </c>
       <c r="B97">
-        <v>6250</v>
+        <v>6330</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="B2">
-        <v>6250</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
       <c r="B3">
-        <v>6220</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B4">
-        <v>6210</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
       <c r="B5">
-        <v>6190</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B6">
-        <v>6160</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
       <c r="B7">
-        <v>6130</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B8">
-        <v>6120</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
       <c r="B9">
-        <v>6110</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B10">
-        <v>6100</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
       <c r="B11">
-        <v>6100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B12">
-        <v>6100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
       <c r="B13">
-        <v>6110</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B14">
-        <v>6130</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
       <c r="B15">
-        <v>6140</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B16">
-        <v>6160</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
       <c r="B17">
-        <v>6190</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B18">
-        <v>6250</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
       <c r="B19">
-        <v>6330</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B20">
-        <v>6440</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
       <c r="B21">
-        <v>6580</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B22">
-        <v>6750</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
       <c r="B23">
-        <v>6920</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B24">
-        <v>7080</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
       <c r="B25">
-        <v>7260</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B26">
-        <v>7460</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
       <c r="B27">
-        <v>7630</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B28">
-        <v>7780</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
       </c>
       <c r="B29">
-        <v>7910</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B30">
-        <v>8030</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46073.30208333334</v>
+        <v>46074.30208333334</v>
       </c>
       <c r="B31">
-        <v>8130</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B32">
-        <v>8190</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46073.32291666666</v>
+        <v>46074.32291666666</v>
       </c>
       <c r="B33">
-        <v>8210</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B34">
-        <v>8210</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46073.34375</v>
+        <v>46074.34375</v>
       </c>
       <c r="B35">
-        <v>8200</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B36">
-        <v>8180</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46073.36458333334</v>
+        <v>46074.36458333334</v>
       </c>
       <c r="B37">
-        <v>8150</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B38">
-        <v>8100</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46073.38541666666</v>
+        <v>46074.38541666666</v>
       </c>
       <c r="B39">
-        <v>8060</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B40">
-        <v>8030</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46073.40625</v>
+        <v>46074.40625</v>
       </c>
       <c r="B41">
-        <v>7980</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B42">
-        <v>7930</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46073.42708333334</v>
+        <v>46074.42708333334</v>
       </c>
       <c r="B43">
-        <v>7900</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B44">
-        <v>7890</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46073.44791666666</v>
+        <v>46074.44791666666</v>
       </c>
       <c r="B45">
-        <v>7880</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B46">
-        <v>7850</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46073.46875</v>
+        <v>46074.46875</v>
       </c>
       <c r="B47">
-        <v>7850</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B48">
-        <v>7850</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46073.48958333334</v>
+        <v>46074.48958333334</v>
       </c>
       <c r="B49">
-        <v>7850</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B50">
-        <v>7910</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46073.51041666666</v>
+        <v>46074.51041666666</v>
       </c>
       <c r="B51">
-        <v>7930</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B52">
-        <v>7930</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46073.53125</v>
+        <v>46074.53125</v>
       </c>
       <c r="B53">
-        <v>7910</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B54">
-        <v>7880</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46073.55208333334</v>
+        <v>46074.55208333334</v>
       </c>
       <c r="B55">
-        <v>7850</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B56">
-        <v>7850</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46073.57291666666</v>
+        <v>46074.57291666666</v>
       </c>
       <c r="B57">
-        <v>7850</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B58">
-        <v>7890</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46073.59375</v>
+        <v>46074.59375</v>
       </c>
       <c r="B59">
-        <v>7910</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B60">
-        <v>7930</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46073.61458333334</v>
+        <v>46074.61458333334</v>
       </c>
       <c r="B61">
-        <v>7960</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B62">
-        <v>8000</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46073.63541666666</v>
+        <v>46074.63541666666</v>
       </c>
       <c r="B63">
-        <v>8040</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B64">
-        <v>8080</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46073.65625</v>
+        <v>46074.65625</v>
       </c>
       <c r="B65">
-        <v>8130</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B66">
-        <v>8170</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46073.67708333334</v>
+        <v>46074.67708333334</v>
       </c>
       <c r="B67">
-        <v>8230</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B68">
-        <v>8290</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46073.69791666666</v>
+        <v>46074.69791666666</v>
       </c>
       <c r="B69">
-        <v>8360</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B70">
-        <v>8450</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46073.71875</v>
+        <v>46074.71875</v>
       </c>
       <c r="B71">
-        <v>8500</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B72">
-        <v>8510</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46073.73958333334</v>
+        <v>46074.73958333334</v>
       </c>
       <c r="B73">
-        <v>8520</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B74">
-        <v>8500</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46073.76041666666</v>
+        <v>46074.76041666666</v>
       </c>
       <c r="B75">
-        <v>8480</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B76">
-        <v>8440</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46073.78125</v>
+        <v>46074.78125</v>
       </c>
       <c r="B77">
-        <v>8400</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B78">
-        <v>8340</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46073.80208333334</v>
+        <v>46074.80208333334</v>
       </c>
       <c r="B79">
-        <v>8290</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46073.8125</v>
+        <v>46074.8125</v>
       </c>
       <c r="B80">
-        <v>8230</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46073.82291666666</v>
+        <v>46074.82291666666</v>
       </c>
       <c r="B81">
-        <v>8160</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46073.83333333334</v>
+        <v>46074.83333333334</v>
       </c>
       <c r="B82">
-        <v>8040</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46073.84375</v>
+        <v>46074.84375</v>
       </c>
       <c r="B83">
-        <v>7920</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46073.85416666666</v>
+        <v>46074.85416666666</v>
       </c>
       <c r="B84">
-        <v>7820</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46073.86458333334</v>
+        <v>46074.86458333334</v>
       </c>
       <c r="B85">
-        <v>7690</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46073.875</v>
+        <v>46074.875</v>
       </c>
       <c r="B86">
-        <v>7520</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46073.88541666666</v>
+        <v>46074.88541666666</v>
       </c>
       <c r="B87">
-        <v>7370</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46073.89583333334</v>
+        <v>46074.89583333334</v>
       </c>
       <c r="B88">
-        <v>7200</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46073.90625</v>
+        <v>46074.90625</v>
       </c>
       <c r="B89">
-        <v>7060</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46073.91666666666</v>
+        <v>46074.91666666666</v>
       </c>
       <c r="B90">
-        <v>6940</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46073.92708333334</v>
+        <v>46074.92708333334</v>
       </c>
       <c r="B91">
-        <v>6810</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46073.9375</v>
+        <v>46074.9375</v>
       </c>
       <c r="B92">
-        <v>6690</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46073.94791666666</v>
+        <v>46074.94791666666</v>
       </c>
       <c r="B93">
-        <v>6580</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46073.95833333334</v>
+        <v>46074.95833333334</v>
       </c>
       <c r="B94">
-        <v>6500</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46073.96875</v>
+        <v>46074.96875</v>
       </c>
       <c r="B95">
-        <v>6440</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46073.97916666666</v>
+        <v>46074.97916666666</v>
       </c>
       <c r="B96">
-        <v>6390</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46073.98958333334</v>
+        <v>46074.98958333334</v>
       </c>
       <c r="B97">
-        <v>6330</v>
+        <v>6100</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Consumption_Forecast.xlsx
+++ b/data_fetching/Entsoe/Consumption_Forecast.xlsx
@@ -397,127 +397,127 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46074</v>
+        <v>46079</v>
       </c>
       <c r="B2">
-        <v>6230</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46074.01041666666</v>
+        <v>46079.01041666666</v>
       </c>
       <c r="B3">
-        <v>6180</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46074.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
       <c r="B4">
-        <v>6150</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46074.03125</v>
+        <v>46079.03125</v>
       </c>
       <c r="B5">
-        <v>6120</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46074.04166666666</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B6">
-        <v>6090</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46074.05208333334</v>
+        <v>46079.05208333334</v>
       </c>
       <c r="B7">
-        <v>6060</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46074.0625</v>
+        <v>46079.0625</v>
       </c>
       <c r="B8">
-        <v>6040</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46074.07291666666</v>
+        <v>46079.07291666666</v>
       </c>
       <c r="B9">
-        <v>6020</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46074.08333333334</v>
+        <v>46079.08333333334</v>
       </c>
       <c r="B10">
-        <v>6010</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46074.09375</v>
+        <v>46079.09375</v>
       </c>
       <c r="B11">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46074.10416666666</v>
+        <v>46079.10416666666</v>
       </c>
       <c r="B12">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46074.11458333334</v>
+        <v>46079.11458333334</v>
       </c>
       <c r="B13">
-        <v>6000</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46074.125</v>
+        <v>46079.125</v>
       </c>
       <c r="B14">
-        <v>6010</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46074.13541666666</v>
+        <v>46079.13541666666</v>
       </c>
       <c r="B15">
-        <v>6020</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46074.14583333334</v>
+        <v>46079.14583333334</v>
       </c>
       <c r="B16">
-        <v>6040</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46074.15625</v>
+        <v>46079.15625</v>
       </c>
       <c r="B17">
         <v>6070</v>
@@ -525,642 +525,642 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46074.16666666666</v>
+        <v>46079.16666666666</v>
       </c>
       <c r="B18">
-        <v>6110</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46074.17708333334</v>
+        <v>46079.17708333334</v>
       </c>
       <c r="B19">
-        <v>6150</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46074.1875</v>
+        <v>46079.1875</v>
       </c>
       <c r="B20">
-        <v>6200</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46074.19791666666</v>
+        <v>46079.19791666666</v>
       </c>
       <c r="B21">
-        <v>6250</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46074.20833333334</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="B22">
-        <v>6310</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46074.21875</v>
+        <v>46079.21875</v>
       </c>
       <c r="B23">
-        <v>6370</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46074.22916666666</v>
+        <v>46079.22916666666</v>
       </c>
       <c r="B24">
-        <v>6430</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46074.23958333334</v>
+        <v>46079.23958333334</v>
       </c>
       <c r="B25">
-        <v>6500</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46074.25</v>
+        <v>46079.25</v>
       </c>
       <c r="B26">
-        <v>6580</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46074.26041666666</v>
+        <v>46079.26041666666</v>
       </c>
       <c r="B27">
-        <v>6660</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46074.27083333334</v>
+        <v>46079.27083333334</v>
       </c>
       <c r="B28">
-        <v>6750</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46074.28125</v>
+        <v>46079.28125</v>
       </c>
       <c r="B29">
-        <v>6850</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46074.29166666666</v>
+        <v>46079.29166666666</v>
       </c>
       <c r="B30">
-        <v>6950</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46074.30208333334</v>
+        <v>46079.30208333334</v>
       </c>
       <c r="B31">
-        <v>7060</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46074.3125</v>
+        <v>46079.3125</v>
       </c>
       <c r="B32">
-        <v>7150</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46074.32291666666</v>
+        <v>46079.32291666666</v>
       </c>
       <c r="B33">
-        <v>7250</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46074.33333333334</v>
+        <v>46079.33333333334</v>
       </c>
       <c r="B34">
-        <v>7330</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46074.34375</v>
+        <v>46079.34375</v>
       </c>
       <c r="B35">
-        <v>7390</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46074.35416666666</v>
+        <v>46079.35416666666</v>
       </c>
       <c r="B36">
-        <v>7440</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46074.36458333334</v>
+        <v>46079.36458333334</v>
       </c>
       <c r="B37">
-        <v>7480</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46074.375</v>
+        <v>46079.375</v>
       </c>
       <c r="B38">
-        <v>7500</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46074.38541666666</v>
+        <v>46079.38541666666</v>
       </c>
       <c r="B39">
-        <v>7520</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46074.39583333334</v>
+        <v>46079.39583333334</v>
       </c>
       <c r="B40">
-        <v>7520</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46074.40625</v>
+        <v>46079.40625</v>
       </c>
       <c r="B41">
-        <v>7520</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46074.41666666666</v>
+        <v>46079.41666666666</v>
       </c>
       <c r="B42">
-        <v>7510</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46074.42708333334</v>
+        <v>46079.42708333334</v>
       </c>
       <c r="B43">
-        <v>7500</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46074.4375</v>
+        <v>46079.4375</v>
       </c>
       <c r="B44">
-        <v>7500</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46074.44791666666</v>
+        <v>46079.44791666666</v>
       </c>
       <c r="B45">
-        <v>7490</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46074.45833333334</v>
+        <v>46079.45833333334</v>
       </c>
       <c r="B46">
-        <v>7480</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46074.46875</v>
+        <v>46079.46875</v>
       </c>
       <c r="B47">
-        <v>7470</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46074.47916666666</v>
+        <v>46079.47916666666</v>
       </c>
       <c r="B48">
-        <v>7460</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46074.48958333334</v>
+        <v>46079.48958333334</v>
       </c>
       <c r="B49">
-        <v>7450</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46074.5</v>
+        <v>46079.5</v>
       </c>
       <c r="B50">
-        <v>7440</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46074.51041666666</v>
+        <v>46079.51041666666</v>
       </c>
       <c r="B51">
-        <v>7430</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46074.52083333334</v>
+        <v>46079.52083333334</v>
       </c>
       <c r="B52">
-        <v>7420</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46074.53125</v>
+        <v>46079.53125</v>
       </c>
       <c r="B53">
-        <v>7410</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46074.54166666666</v>
+        <v>46079.54166666666</v>
       </c>
       <c r="B54">
-        <v>7410</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46074.55208333334</v>
+        <v>46079.55208333334</v>
       </c>
       <c r="B55">
-        <v>7410</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46074.5625</v>
+        <v>46079.5625</v>
       </c>
       <c r="B56">
-        <v>7410</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46074.57291666666</v>
+        <v>46079.57291666666</v>
       </c>
       <c r="B57">
-        <v>7410</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46074.58333333334</v>
+        <v>46079.58333333334</v>
       </c>
       <c r="B58">
-        <v>7410</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46074.59375</v>
+        <v>46079.59375</v>
       </c>
       <c r="B59">
-        <v>7420</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46074.60416666666</v>
+        <v>46079.60416666666</v>
       </c>
       <c r="B60">
-        <v>7420</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46074.61458333334</v>
+        <v>46079.61458333334</v>
       </c>
       <c r="B61">
-        <v>7430</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46074.625</v>
+        <v>46079.625</v>
       </c>
       <c r="B62">
-        <v>7440</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46074.63541666666</v>
+        <v>46079.63541666666</v>
       </c>
       <c r="B63">
-        <v>7470</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46074.64583333334</v>
+        <v>46079.64583333334</v>
       </c>
       <c r="B64">
-        <v>7510</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46074.65625</v>
+        <v>46079.65625</v>
       </c>
       <c r="B65">
-        <v>7560</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46074.66666666666</v>
+        <v>46079.66666666666</v>
       </c>
       <c r="B66">
-        <v>7620</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46074.67708333334</v>
+        <v>46079.67708333334</v>
       </c>
       <c r="B67">
-        <v>7700</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46074.6875</v>
+        <v>46079.6875</v>
       </c>
       <c r="B68">
-        <v>7770</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46074.69791666666</v>
+        <v>46079.69791666666</v>
       </c>
       <c r="B69">
-        <v>7840</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46074.70833333334</v>
+        <v>46079.70833333334</v>
       </c>
       <c r="B70">
-        <v>7900</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46074.71875</v>
+        <v>46079.71875</v>
       </c>
       <c r="B71">
-        <v>7950</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46074.72916666666</v>
+        <v>46079.72916666666</v>
       </c>
       <c r="B72">
-        <v>7990</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46074.73958333334</v>
+        <v>46079.73958333334</v>
       </c>
       <c r="B73">
-        <v>8010</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46074.75</v>
+        <v>46079.75</v>
       </c>
       <c r="B74">
-        <v>8020</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46074.76041666666</v>
+        <v>46079.76041666666</v>
       </c>
       <c r="B75">
-        <v>8010</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46074.77083333334</v>
+        <v>46079.77083333334</v>
       </c>
       <c r="B76">
-        <v>7980</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46074.78125</v>
+        <v>46079.78125</v>
       </c>
       <c r="B77">
-        <v>7940</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46074.79166666666</v>
+        <v>46079.79166666666</v>
       </c>
       <c r="B78">
-        <v>7880</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46074.80208333334</v>
+        <v>46079.80208333334</v>
       </c>
       <c r="B79">
-        <v>7830</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46074.8125</v>
+        <v>46079.8125</v>
       </c>
       <c r="B80">
-        <v>7760</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46074.82291666666</v>
+        <v>46079.82291666666</v>
       </c>
       <c r="B81">
-        <v>7680</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46074.83333333334</v>
+        <v>46079.83333333334</v>
       </c>
       <c r="B82">
-        <v>7580</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46074.84375</v>
+        <v>46079.84375</v>
       </c>
       <c r="B83">
-        <v>7470</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46074.85416666666</v>
+        <v>46079.85416666666</v>
       </c>
       <c r="B84">
-        <v>7360</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46074.86458333334</v>
+        <v>46079.86458333334</v>
       </c>
       <c r="B85">
-        <v>7250</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46074.875</v>
+        <v>46079.875</v>
       </c>
       <c r="B86">
-        <v>7110</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46074.88541666666</v>
+        <v>46079.88541666666</v>
       </c>
       <c r="B87">
-        <v>6980</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46074.89583333334</v>
+        <v>46079.89583333334</v>
       </c>
       <c r="B88">
-        <v>6840</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46074.90625</v>
+        <v>46079.90625</v>
       </c>
       <c r="B89">
-        <v>6700</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46074.91666666666</v>
+        <v>46079.91666666666</v>
       </c>
       <c r="B90">
-        <v>6580</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46074.92708333334</v>
+        <v>46079.92708333334</v>
       </c>
       <c r="B91">
-        <v>6460</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46074.9375</v>
+        <v>46079.9375</v>
       </c>
       <c r="B92">
-        <v>6350</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46074.94791666666</v>
+        <v>46079.94791666666</v>
       </c>
       <c r="B93">
-        <v>6250</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46074.95833333334</v>
+        <v>46079.95833333334</v>
       </c>
       <c r="B94">
-        <v>6230</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46074.96875</v>
+        <v>46079.96875</v>
       </c>
       <c r="B95">
-        <v>6200</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46074.97916666666</v>
+        <v>46079.97916666666</v>
       </c>
       <c r="B96">
-        <v>6160</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46074.98958333334</v>
+        <v>46079.98958333334</v>
       </c>
       <c r="B97">
-        <v>6100</v>
+        <v>6180</v>
       </c>
     </row>
   </sheetData>
